--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11016"/>
   </bookViews>
   <sheets>
-    <sheet name="20170519" sheetId="5" r:id="rId1"/>
-    <sheet name="20170518" sheetId="4" r:id="rId2"/>
-    <sheet name="20170517" sheetId="3" r:id="rId3"/>
+    <sheet name="20170522" sheetId="6" r:id="rId1"/>
+    <sheet name="20170519" sheetId="5" r:id="rId2"/>
+    <sheet name="20170518" sheetId="4" r:id="rId3"/>
+    <sheet name="20170517" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>资金信息汇总</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -124,7 +125,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1117,13 +1118,13 @@
     <xf numFmtId="14" fontId="9" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1524,7 +1525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1535,7 +1536,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1544,11 +1545,12 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42874</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1566,14 +1568,12 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>27013656.550000001</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.37</v>
+        <v>7.17</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -1587,21 +1587,16 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>58135549.119999997</v>
-      </c>
+      <c r="C4" s="5"/>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.28</v>
+        <v>7.62</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1705</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1611,49 +1606,36 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.31</v>
+        <v>7.4</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1706</v>
       </c>
-      <c r="I5">
-        <v>116</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>20572766.84</v>
-      </c>
+      <c r="C6" s="8"/>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.71</v>
+        <v>7.85</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>25</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
-        <v>11767796.859999999</v>
-      </c>
+      <c r="C7" s="10"/>
       <c r="H7" s="12">
         <v>1712</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1667,42 +1649,36 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
-        <v>21121524</v>
-      </c>
+      <c r="C9" s="8"/>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>13661099.779999999</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>2E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>104957160</v>
-      </c>
+      <c r="C11" s="8"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1712,7 +1688,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>2.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1725,66 +1701,66 @@
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
-        <v>1705</v>
-      </c>
-      <c r="C16" s="19">
-        <v>-1.1500000000000909</v>
-      </c>
-      <c r="D16" s="20">
-        <v>-5.7100000000000364</v>
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-10.62</v>
       </c>
       <c r="E16" s="21">
-        <v>-14.520000000000366</v>
+        <v>-23.04</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1.3126590000001825</v>
-      </c>
-      <c r="D17" s="20">
-        <v>-11.879999999999946</v>
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
       </c>
       <c r="E17" s="21">
-        <v>-17.960000000000186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="19">
-        <v>-4.43799999999991</v>
-      </c>
-      <c r="D18" s="20">
-        <v>-32.449999999999861</v>
+      <c r="C18" s="21">
+        <v>-5.35</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-27.39</v>
       </c>
       <c r="E18" s="21">
-        <v>-120.96000000000018</v>
+        <v>-129.44</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="19">
-        <v>-18.037999999999819</v>
-      </c>
-      <c r="D19" s="20">
-        <v>-59.650000000000134</v>
+      <c r="C19" s="21">
+        <v>-23.95</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-56.19</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.55999999999963</v>
+        <v>-217.84</v>
       </c>
     </row>
   </sheetData>
@@ -1868,6 +1844,342 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>27013656.550000001</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.37</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>58135549.119999997</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.28</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1705</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.31</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>20572766.84</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.71</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11767796.859999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21121524</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13661099.779999999</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>104957160</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1705</v>
+      </c>
+      <c r="C16" s="19">
+        <v>-1.1500000000000909</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-14.520000000000366</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1.3126590000001825</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-11.879999999999946</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-17.960000000000186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="19">
+        <v>-4.43799999999991</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-32.449999999999861</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-120.96000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="19">
+        <v>-18.037999999999819</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-59.650000000000134</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.55999999999963</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2131,7 +2443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:G15"/>
   <sheetViews>

--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -1068,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1127,6 +1127,13 @@
     <xf numFmtId="177" fontId="27" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="130">
     <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1525,7 +1532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1536,7 +1543,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1575,9 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="22">
+        <v>27542132.420000002</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
@@ -1587,7 +1596,9 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="23">
+        <v>60673425.390000001</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
@@ -1596,7 +1607,10 @@
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <v>1705</v>
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1610,14 +1624,16 @@
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="27">
+        <v>21207889.350000001</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1628,14 +1644,22 @@
       <c r="H6" s="12">
         <v>1709</v>
       </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="28">
+        <v>11122238.460000001</v>
+      </c>
       <c r="H7" s="12">
         <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1649,7 +1673,9 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="24">
+        <v>21150984</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
@@ -1661,7 +1687,9 @@
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="25">
+        <v>10768912.51</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
@@ -1673,7 +1701,9 @@
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="26">
+        <v>105760560</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>

--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -4,118 +4,124 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
-    <sheet name="20170522" sheetId="6" r:id="rId1"/>
-    <sheet name="20170519" sheetId="5" r:id="rId2"/>
-    <sheet name="20170518" sheetId="4" r:id="rId3"/>
-    <sheet name="20170517" sheetId="3" r:id="rId4"/>
+    <sheet name="20170524" sheetId="8" r:id="rId1"/>
+    <sheet name="20170523" sheetId="7" r:id="rId2"/>
+    <sheet name="20170522" sheetId="6" r:id="rId3"/>
+    <sheet name="20170519" sheetId="5" r:id="rId4"/>
+    <sheet name="20170518" sheetId="4" r:id="rId5"/>
+    <sheet name="20170517" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="26">
   <si>
     <t>资金信息汇总</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ETF市值</t>
   </si>
   <si>
     <t>现货可用金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>期权保证金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>期权可用金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>期货保证金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>期货可用金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>期货空头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>期货轧差市值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>昨日波动率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>6月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>9月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>12月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Dividend Mark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>基差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>期货持仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Long</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Short</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Offset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF收盘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -127,12 +133,20 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,8 +378,152 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +721,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -680,61 +844,391 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="130">
+  <cellStyleXfs count="737">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,69 +1237,36 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,9 +1357,6 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,205 +1525,2358 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="28" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="130">
+  <cellStyles count="737">
     <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="244"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="492"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="491"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="243"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="146"/>
     <cellStyle name="20% - 强调文字颜色 1 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="493"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="245"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="160"/>
     <cellStyle name="20% - 强调文字颜色 1 4" xfId="76"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="494"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 3" xfId="246"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 4" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 1 5" xfId="90"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="495"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 3" xfId="247"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 4" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 1 6" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 1 6 2" xfId="202"/>
     <cellStyle name="20% - 强调文字颜色 1 7" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 1 7 2" xfId="216"/>
+    <cellStyle name="20% - 强调文字颜色 1 8" xfId="230"/>
+    <cellStyle name="20% - 强调文字颜色 1 9" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="249"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="497"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="496"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="248"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="148"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="498"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="250"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 2 4" xfId="78"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="499"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 3" xfId="251"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 4" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 2 5" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="500"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 3" xfId="252"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 4" xfId="190"/>
     <cellStyle name="20% - 强调文字颜色 2 6" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 2 6 2" xfId="204"/>
     <cellStyle name="20% - 强调文字颜色 2 7" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 7 2" xfId="218"/>
+    <cellStyle name="20% - 强调文字颜色 2 8" xfId="232"/>
+    <cellStyle name="20% - 强调文字颜色 2 9" xfId="132"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="28" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="254"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="502"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="501"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="253"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="150"/>
     <cellStyle name="20% - 强调文字颜色 3 3" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="503"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="255"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="164"/>
     <cellStyle name="20% - 强调文字颜色 3 4" xfId="80"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="504"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 3" xfId="256"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 4" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 3 5" xfId="94"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="505"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 3" xfId="257"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 4" xfId="192"/>
     <cellStyle name="20% - 强调文字颜色 3 6" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 3 6 2" xfId="206"/>
     <cellStyle name="20% - 强调文字颜色 3 7" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 3 7 2" xfId="220"/>
+    <cellStyle name="20% - 强调文字颜色 3 8" xfId="234"/>
+    <cellStyle name="20% - 强调文字颜色 3 9" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="32" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="259"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="507"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="506"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="258"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 3" xfId="67"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="508"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="260"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="166"/>
     <cellStyle name="20% - 强调文字颜色 4 4" xfId="82"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="509"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 3" xfId="261"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 4" xfId="180"/>
     <cellStyle name="20% - 强调文字颜色 4 5" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="510"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 3" xfId="262"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 4" xfId="194"/>
     <cellStyle name="20% - 强调文字颜色 4 6" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 4 6 2" xfId="208"/>
     <cellStyle name="20% - 强调文字颜色 4 7" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 4 7 2" xfId="222"/>
+    <cellStyle name="20% - 强调文字颜色 4 8" xfId="236"/>
+    <cellStyle name="20% - 强调文字颜色 4 9" xfId="136"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="55"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="264"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="512"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="511"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="263"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="154"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="513"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="265"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 4" xfId="84"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="514"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 3" xfId="266"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 4" xfId="182"/>
     <cellStyle name="20% - 强调文字颜色 5 5" xfId="98"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="515"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 3" xfId="267"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 4" xfId="196"/>
     <cellStyle name="20% - 强调文字颜色 5 6" xfId="112"/>
+    <cellStyle name="20% - 强调文字颜色 5 6 2" xfId="210"/>
     <cellStyle name="20% - 强调文字颜色 5 7" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 5 7 2" xfId="224"/>
+    <cellStyle name="20% - 强调文字颜色 5 8" xfId="238"/>
+    <cellStyle name="20% - 强调文字颜色 5 9" xfId="138"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="269"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="517"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="516"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="268"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="156"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="518"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="270"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="170"/>
     <cellStyle name="20% - 强调文字颜色 6 4" xfId="86"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="519"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 3" xfId="271"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 4" xfId="184"/>
     <cellStyle name="20% - 强调文字颜色 6 5" xfId="100"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="520"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 3" xfId="272"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 4" xfId="198"/>
     <cellStyle name="20% - 强调文字颜色 6 6" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 6 6 2" xfId="212"/>
     <cellStyle name="20% - 强调文字颜色 6 7" xfId="128"/>
+    <cellStyle name="20% - 强调文字颜色 6 7 2" xfId="226"/>
+    <cellStyle name="20% - 强调文字颜色 6 8" xfId="240"/>
+    <cellStyle name="20% - 强调文字颜色 6 9" xfId="140"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="21" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="274"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="522"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="521"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="273"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="147"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="62"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="523"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="275"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 4" xfId="161"/>
     <cellStyle name="40% - 强调文字颜色 1 4" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="524"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 3" xfId="276"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 4" xfId="175"/>
     <cellStyle name="40% - 强调文字颜色 1 5" xfId="91"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="525"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 3" xfId="277"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 4" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 1 6" xfId="105"/>
+    <cellStyle name="40% - 强调文字颜色 1 6 2" xfId="203"/>
     <cellStyle name="40% - 强调文字颜色 1 7" xfId="119"/>
+    <cellStyle name="40% - 强调文字颜色 1 7 2" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 1 8" xfId="231"/>
+    <cellStyle name="40% - 强调文字颜色 1 9" xfId="131"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="25" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="279"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="527"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="526"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="278"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="149"/>
     <cellStyle name="40% - 强调文字颜色 2 3" xfId="64"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="528"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="280"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 4" xfId="163"/>
     <cellStyle name="40% - 强调文字颜色 2 4" xfId="79"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="529"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 3" xfId="281"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 4" xfId="177"/>
     <cellStyle name="40% - 强调文字颜色 2 5" xfId="93"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="530"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 3" xfId="282"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 4" xfId="191"/>
     <cellStyle name="40% - 强调文字颜色 2 6" xfId="107"/>
+    <cellStyle name="40% - 强调文字颜色 2 6 2" xfId="205"/>
     <cellStyle name="40% - 强调文字颜色 2 7" xfId="121"/>
+    <cellStyle name="40% - 强调文字颜色 2 7 2" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 2 8" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 2 9" xfId="133"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="29" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="284"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="532"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="531"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="283"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="151"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="66"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="533"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="285"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="165"/>
     <cellStyle name="40% - 强调文字颜色 3 4" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="534"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 3" xfId="286"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 4" xfId="179"/>
     <cellStyle name="40% - 强调文字颜色 3 5" xfId="95"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="535"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 3" xfId="287"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 4" xfId="193"/>
     <cellStyle name="40% - 强调文字颜色 3 6" xfId="109"/>
+    <cellStyle name="40% - 强调文字颜色 3 6 2" xfId="207"/>
     <cellStyle name="40% - 强调文字颜色 3 7" xfId="123"/>
+    <cellStyle name="40% - 强调文字颜色 3 7 2" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 3 8" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 3 9" xfId="135"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="33" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="54"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="289"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="537"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="536"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="288"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="153"/>
     <cellStyle name="40% - 强调文字颜色 4 3" xfId="68"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="538"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="290"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 4" xfId="167"/>
     <cellStyle name="40% - 强调文字颜色 4 4" xfId="83"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="539"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 3" xfId="291"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 4" xfId="181"/>
     <cellStyle name="40% - 强调文字颜色 4 5" xfId="97"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="540"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 3" xfId="292"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 4" xfId="195"/>
     <cellStyle name="40% - 强调文字颜色 4 6" xfId="111"/>
+    <cellStyle name="40% - 强调文字颜色 4 6 2" xfId="209"/>
     <cellStyle name="40% - 强调文字颜色 4 7" xfId="125"/>
+    <cellStyle name="40% - 强调文字颜色 4 7 2" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 4 8" xfId="237"/>
+    <cellStyle name="40% - 强调文字颜色 4 9" xfId="137"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="37" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="294"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="542"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="541"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="293"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="155"/>
     <cellStyle name="40% - 强调文字颜色 5 3" xfId="70"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="543"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="295"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="169"/>
     <cellStyle name="40% - 强调文字颜色 5 4" xfId="85"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="544"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 3" xfId="296"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 4" xfId="183"/>
     <cellStyle name="40% - 强调文字颜色 5 5" xfId="99"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="545"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 3" xfId="297"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 4" xfId="197"/>
     <cellStyle name="40% - 强调文字颜色 5 6" xfId="113"/>
+    <cellStyle name="40% - 强调文字颜色 5 6 2" xfId="211"/>
     <cellStyle name="40% - 强调文字颜色 5 7" xfId="127"/>
+    <cellStyle name="40% - 强调文字颜色 5 7 2" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 5 8" xfId="239"/>
+    <cellStyle name="40% - 强调文字颜色 5 9" xfId="139"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="58"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="299"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="547"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="546"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="298"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="157"/>
     <cellStyle name="40% - 强调文字颜色 6 3" xfId="72"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="548"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="300"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="171"/>
     <cellStyle name="40% - 强调文字颜色 6 4" xfId="87"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="549"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 3" xfId="301"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 4" xfId="185"/>
     <cellStyle name="40% - 强调文字颜色 6 5" xfId="101"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="550"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 3" xfId="302"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 4" xfId="199"/>
     <cellStyle name="40% - 强调文字颜色 6 6" xfId="115"/>
+    <cellStyle name="40% - 强调文字颜色 6 6 2" xfId="213"/>
     <cellStyle name="40% - 强调文字颜色 6 7" xfId="129"/>
+    <cellStyle name="40% - 强调文字颜色 6 7 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 6 8" xfId="241"/>
+    <cellStyle name="40% - 强调文字颜色 6 9" xfId="141"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="303"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="304"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 2 2" xfId="552"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 3" xfId="551"/>
+    <cellStyle name="60% - 强调文字颜色 1 3" xfId="305"/>
+    <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="553"/>
+    <cellStyle name="60% - 强调文字颜色 1 4" xfId="306"/>
+    <cellStyle name="60% - 强调文字颜色 1 4 2" xfId="554"/>
+    <cellStyle name="60% - 强调文字颜色 1 5" xfId="307"/>
+    <cellStyle name="60% - 强调文字颜色 1 5 2" xfId="555"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="308"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="309"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2 2" xfId="557"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="556"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="310"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="558"/>
+    <cellStyle name="60% - 强调文字颜色 2 4" xfId="311"/>
+    <cellStyle name="60% - 强调文字颜色 2 4 2" xfId="559"/>
+    <cellStyle name="60% - 强调文字颜色 2 5" xfId="312"/>
+    <cellStyle name="60% - 强调文字颜色 2 5 2" xfId="560"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="313"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="314"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2 2" xfId="562"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="561"/>
+    <cellStyle name="60% - 强调文字颜色 3 3" xfId="315"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="563"/>
+    <cellStyle name="60% - 强调文字颜色 3 4" xfId="316"/>
+    <cellStyle name="60% - 强调文字颜色 3 4 2" xfId="564"/>
+    <cellStyle name="60% - 强调文字颜色 3 5" xfId="317"/>
+    <cellStyle name="60% - 强调文字颜色 3 5 2" xfId="565"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="318"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="319"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2 2" xfId="567"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="566"/>
+    <cellStyle name="60% - 强调文字颜色 4 3" xfId="320"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="568"/>
+    <cellStyle name="60% - 强调文字颜色 4 4" xfId="321"/>
+    <cellStyle name="60% - 强调文字颜色 4 4 2" xfId="569"/>
+    <cellStyle name="60% - 强调文字颜色 4 5" xfId="322"/>
+    <cellStyle name="60% - 强调文字颜色 4 5 2" xfId="570"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="323"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="324"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2 2" xfId="572"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="571"/>
+    <cellStyle name="60% - 强调文字颜色 5 3" xfId="325"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="573"/>
+    <cellStyle name="60% - 强调文字颜色 5 4" xfId="326"/>
+    <cellStyle name="60% - 强调文字颜色 5 4 2" xfId="574"/>
+    <cellStyle name="60% - 强调文字颜色 5 5" xfId="327"/>
+    <cellStyle name="60% - 强调文字颜色 5 5 2" xfId="575"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="328"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="329"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2 2" xfId="577"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="576"/>
+    <cellStyle name="60% - 强调文字颜色 6 3" xfId="330"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 2" xfId="578"/>
+    <cellStyle name="60% - 强调文字颜色 6 4" xfId="331"/>
+    <cellStyle name="60% - 强调文字颜色 6 4 2" xfId="579"/>
+    <cellStyle name="60% - 强调文字颜色 6 5" xfId="332"/>
+    <cellStyle name="60% - 强调文字颜色 6 5 2" xfId="580"/>
     <cellStyle name="标题" xfId="3" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="4" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 1 2" xfId="335"/>
+    <cellStyle name="标题 1 2 2" xfId="336"/>
+    <cellStyle name="标题 1 2 2 2" xfId="584"/>
+    <cellStyle name="标题 1 2 3" xfId="583"/>
+    <cellStyle name="标题 1 3" xfId="337"/>
+    <cellStyle name="标题 1 3 2" xfId="585"/>
+    <cellStyle name="标题 1 4" xfId="338"/>
+    <cellStyle name="标题 1 4 2" xfId="586"/>
+    <cellStyle name="标题 1 5" xfId="339"/>
+    <cellStyle name="标题 1 5 2" xfId="587"/>
+    <cellStyle name="标题 1 6" xfId="340"/>
+    <cellStyle name="标题 1 6 2" xfId="588"/>
+    <cellStyle name="标题 1 7" xfId="334"/>
+    <cellStyle name="标题 1 8" xfId="582"/>
+    <cellStyle name="标题 10" xfId="333"/>
+    <cellStyle name="标题 11" xfId="581"/>
     <cellStyle name="标题 2" xfId="5" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 2 2" xfId="342"/>
+    <cellStyle name="标题 2 2 2" xfId="343"/>
+    <cellStyle name="标题 2 2 2 2" xfId="591"/>
+    <cellStyle name="标题 2 2 3" xfId="590"/>
+    <cellStyle name="标题 2 3" xfId="344"/>
+    <cellStyle name="标题 2 3 2" xfId="592"/>
+    <cellStyle name="标题 2 4" xfId="345"/>
+    <cellStyle name="标题 2 4 2" xfId="593"/>
+    <cellStyle name="标题 2 5" xfId="346"/>
+    <cellStyle name="标题 2 5 2" xfId="594"/>
+    <cellStyle name="标题 2 6" xfId="347"/>
+    <cellStyle name="标题 2 6 2" xfId="595"/>
+    <cellStyle name="标题 2 7" xfId="341"/>
+    <cellStyle name="标题 2 8" xfId="589"/>
     <cellStyle name="标题 3" xfId="6" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 3 2" xfId="349"/>
+    <cellStyle name="标题 3 2 2" xfId="350"/>
+    <cellStyle name="标题 3 2 2 2" xfId="598"/>
+    <cellStyle name="标题 3 2 3" xfId="597"/>
+    <cellStyle name="标题 3 3" xfId="351"/>
+    <cellStyle name="标题 3 3 2" xfId="599"/>
+    <cellStyle name="标题 3 4" xfId="352"/>
+    <cellStyle name="标题 3 4 2" xfId="600"/>
+    <cellStyle name="标题 3 5" xfId="353"/>
+    <cellStyle name="标题 3 5 2" xfId="601"/>
+    <cellStyle name="标题 3 6" xfId="354"/>
+    <cellStyle name="标题 3 6 2" xfId="602"/>
+    <cellStyle name="标题 3 7" xfId="348"/>
+    <cellStyle name="标题 3 8" xfId="596"/>
     <cellStyle name="标题 4" xfId="7" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="标题 4 2" xfId="356"/>
+    <cellStyle name="标题 4 2 2" xfId="357"/>
+    <cellStyle name="标题 4 2 2 2" xfId="605"/>
+    <cellStyle name="标题 4 2 3" xfId="604"/>
+    <cellStyle name="标题 4 3" xfId="358"/>
+    <cellStyle name="标题 4 3 2" xfId="606"/>
+    <cellStyle name="标题 4 4" xfId="359"/>
+    <cellStyle name="标题 4 4 2" xfId="607"/>
+    <cellStyle name="标题 4 5" xfId="360"/>
+    <cellStyle name="标题 4 5 2" xfId="608"/>
+    <cellStyle name="标题 4 6" xfId="361"/>
+    <cellStyle name="标题 4 6 2" xfId="609"/>
+    <cellStyle name="标题 4 7" xfId="355"/>
+    <cellStyle name="标题 4 8" xfId="603"/>
+    <cellStyle name="标题 5" xfId="362"/>
+    <cellStyle name="标题 5 2" xfId="363"/>
+    <cellStyle name="标题 5 2 2" xfId="611"/>
+    <cellStyle name="标题 5 3" xfId="610"/>
+    <cellStyle name="标题 6" xfId="364"/>
+    <cellStyle name="标题 6 2" xfId="612"/>
+    <cellStyle name="标题 7" xfId="365"/>
+    <cellStyle name="标题 7 2" xfId="613"/>
+    <cellStyle name="标题 8" xfId="366"/>
+    <cellStyle name="标题 8 2" xfId="614"/>
+    <cellStyle name="标题 9" xfId="367"/>
+    <cellStyle name="标题 9 2" xfId="615"/>
     <cellStyle name="差" xfId="9" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="差 2" xfId="369"/>
+    <cellStyle name="差 2 2" xfId="370"/>
+    <cellStyle name="差 2 2 2" xfId="618"/>
+    <cellStyle name="差 2 3" xfId="617"/>
+    <cellStyle name="差 3" xfId="371"/>
+    <cellStyle name="差 3 2" xfId="619"/>
+    <cellStyle name="差 4" xfId="372"/>
+    <cellStyle name="差 4 2" xfId="620"/>
+    <cellStyle name="差 5" xfId="373"/>
+    <cellStyle name="差 5 2" xfId="621"/>
+    <cellStyle name="差 6" xfId="374"/>
+    <cellStyle name="差 6 2" xfId="622"/>
+    <cellStyle name="差 7" xfId="368"/>
+    <cellStyle name="差 8" xfId="616"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 10" xfId="228"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 2 2" xfId="73"/>
     <cellStyle name="常规 2 3" xfId="43"/>
+    <cellStyle name="常规 2 3 2" xfId="623"/>
+    <cellStyle name="常规 2 3 3" xfId="376"/>
+    <cellStyle name="常规 2 4" xfId="375"/>
+    <cellStyle name="常规 2 5" xfId="142"/>
     <cellStyle name="常规 3" xfId="45"/>
+    <cellStyle name="常规 3 2" xfId="378"/>
+    <cellStyle name="常规 3 2 2" xfId="625"/>
+    <cellStyle name="常规 3 3" xfId="624"/>
+    <cellStyle name="常规 3 4" xfId="377"/>
+    <cellStyle name="常规 3 5" xfId="144"/>
     <cellStyle name="常规 4" xfId="59"/>
+    <cellStyle name="常规 4 2" xfId="626"/>
+    <cellStyle name="常规 4 3" xfId="379"/>
+    <cellStyle name="常规 4 4" xfId="158"/>
     <cellStyle name="常规 5" xfId="74"/>
+    <cellStyle name="常规 5 2" xfId="627"/>
+    <cellStyle name="常规 5 3" xfId="380"/>
+    <cellStyle name="常规 5 4" xfId="172"/>
     <cellStyle name="常规 6" xfId="88"/>
+    <cellStyle name="常规 6 2" xfId="628"/>
+    <cellStyle name="常规 6 3" xfId="381"/>
+    <cellStyle name="常规 6 4" xfId="186"/>
     <cellStyle name="常规 7" xfId="102"/>
+    <cellStyle name="常规 7 2" xfId="629"/>
+    <cellStyle name="常规 7 3" xfId="382"/>
+    <cellStyle name="常规 7 4" xfId="200"/>
     <cellStyle name="常规 8" xfId="116"/>
+    <cellStyle name="常规 8 2" xfId="242"/>
+    <cellStyle name="常规 8 3" xfId="214"/>
+    <cellStyle name="常规 9" xfId="490"/>
     <cellStyle name="好" xfId="8" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="好 2" xfId="384"/>
+    <cellStyle name="好 2 2" xfId="385"/>
+    <cellStyle name="好 2 2 2" xfId="632"/>
+    <cellStyle name="好 2 3" xfId="631"/>
+    <cellStyle name="好 3" xfId="386"/>
+    <cellStyle name="好 3 2" xfId="633"/>
+    <cellStyle name="好 4" xfId="387"/>
+    <cellStyle name="好 4 2" xfId="634"/>
+    <cellStyle name="好 5" xfId="388"/>
+    <cellStyle name="好 5 2" xfId="635"/>
+    <cellStyle name="好 6" xfId="389"/>
+    <cellStyle name="好 6 2" xfId="636"/>
+    <cellStyle name="好 7" xfId="383"/>
+    <cellStyle name="好 8" xfId="630"/>
     <cellStyle name="汇总" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="汇总 2" xfId="391"/>
+    <cellStyle name="汇总 2 2" xfId="392"/>
+    <cellStyle name="汇总 2 2 2" xfId="639"/>
+    <cellStyle name="汇总 2 3" xfId="638"/>
+    <cellStyle name="汇总 3" xfId="393"/>
+    <cellStyle name="汇总 3 2" xfId="640"/>
+    <cellStyle name="汇总 4" xfId="394"/>
+    <cellStyle name="汇总 4 2" xfId="641"/>
+    <cellStyle name="汇总 5" xfId="395"/>
+    <cellStyle name="汇总 5 2" xfId="642"/>
+    <cellStyle name="汇总 6" xfId="396"/>
+    <cellStyle name="汇总 6 2" xfId="643"/>
+    <cellStyle name="汇总 7" xfId="390"/>
+    <cellStyle name="汇总 8" xfId="637"/>
     <cellStyle name="计算" xfId="13" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="计算 2" xfId="398"/>
+    <cellStyle name="计算 2 2" xfId="399"/>
+    <cellStyle name="计算 2 2 2" xfId="646"/>
+    <cellStyle name="计算 2 3" xfId="645"/>
+    <cellStyle name="计算 3" xfId="400"/>
+    <cellStyle name="计算 3 2" xfId="647"/>
+    <cellStyle name="计算 4" xfId="401"/>
+    <cellStyle name="计算 4 2" xfId="648"/>
+    <cellStyle name="计算 5" xfId="402"/>
+    <cellStyle name="计算 5 2" xfId="649"/>
+    <cellStyle name="计算 6" xfId="403"/>
+    <cellStyle name="计算 6 2" xfId="650"/>
+    <cellStyle name="计算 7" xfId="397"/>
+    <cellStyle name="计算 8" xfId="644"/>
     <cellStyle name="检查单元格" xfId="15" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="检查单元格 2" xfId="405"/>
+    <cellStyle name="检查单元格 2 2" xfId="406"/>
+    <cellStyle name="检查单元格 2 2 2" xfId="653"/>
+    <cellStyle name="检查单元格 2 3" xfId="652"/>
+    <cellStyle name="检查单元格 3" xfId="407"/>
+    <cellStyle name="检查单元格 3 2" xfId="654"/>
+    <cellStyle name="检查单元格 4" xfId="408"/>
+    <cellStyle name="检查单元格 4 2" xfId="655"/>
+    <cellStyle name="检查单元格 5" xfId="409"/>
+    <cellStyle name="检查单元格 5 2" xfId="656"/>
+    <cellStyle name="检查单元格 6" xfId="410"/>
+    <cellStyle name="检查单元格 6 2" xfId="657"/>
+    <cellStyle name="检查单元格 7" xfId="404"/>
+    <cellStyle name="检查单元格 8" xfId="651"/>
     <cellStyle name="解释性文本" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="解释性文本 2" xfId="412"/>
+    <cellStyle name="解释性文本 2 2" xfId="413"/>
+    <cellStyle name="解释性文本 2 2 2" xfId="660"/>
+    <cellStyle name="解释性文本 2 3" xfId="659"/>
+    <cellStyle name="解释性文本 3" xfId="414"/>
+    <cellStyle name="解释性文本 3 2" xfId="661"/>
+    <cellStyle name="解释性文本 4" xfId="415"/>
+    <cellStyle name="解释性文本 4 2" xfId="662"/>
+    <cellStyle name="解释性文本 5" xfId="416"/>
+    <cellStyle name="解释性文本 5 2" xfId="663"/>
+    <cellStyle name="解释性文本 6" xfId="417"/>
+    <cellStyle name="解释性文本 6 2" xfId="664"/>
+    <cellStyle name="解释性文本 7" xfId="411"/>
+    <cellStyle name="解释性文本 8" xfId="658"/>
     <cellStyle name="警告文本" xfId="16" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="警告文本 2" xfId="419"/>
+    <cellStyle name="警告文本 2 2" xfId="420"/>
+    <cellStyle name="警告文本 2 2 2" xfId="667"/>
+    <cellStyle name="警告文本 2 3" xfId="666"/>
+    <cellStyle name="警告文本 3" xfId="421"/>
+    <cellStyle name="警告文本 3 2" xfId="668"/>
+    <cellStyle name="警告文本 4" xfId="422"/>
+    <cellStyle name="警告文本 4 2" xfId="669"/>
+    <cellStyle name="警告文本 5" xfId="423"/>
+    <cellStyle name="警告文本 5 2" xfId="670"/>
+    <cellStyle name="警告文本 6" xfId="424"/>
+    <cellStyle name="警告文本 6 2" xfId="671"/>
+    <cellStyle name="警告文本 7" xfId="418"/>
+    <cellStyle name="警告文本 8" xfId="665"/>
     <cellStyle name="链接单元格" xfId="14" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="链接单元格 2" xfId="426"/>
+    <cellStyle name="链接单元格 2 2" xfId="427"/>
+    <cellStyle name="链接单元格 2 2 2" xfId="674"/>
+    <cellStyle name="链接单元格 2 3" xfId="673"/>
+    <cellStyle name="链接单元格 3" xfId="428"/>
+    <cellStyle name="链接单元格 3 2" xfId="675"/>
+    <cellStyle name="链接单元格 4" xfId="429"/>
+    <cellStyle name="链接单元格 4 2" xfId="676"/>
+    <cellStyle name="链接单元格 5" xfId="430"/>
+    <cellStyle name="链接单元格 5 2" xfId="677"/>
+    <cellStyle name="链接单元格 6" xfId="431"/>
+    <cellStyle name="链接单元格 6 2" xfId="678"/>
+    <cellStyle name="链接单元格 7" xfId="425"/>
+    <cellStyle name="链接单元格 8" xfId="672"/>
     <cellStyle name="强调文字颜色 1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="432"/>
+    <cellStyle name="强调文字颜色 1 2 2" xfId="433"/>
+    <cellStyle name="强调文字颜色 1 2 2 2" xfId="680"/>
+    <cellStyle name="强调文字颜色 1 2 3" xfId="679"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="434"/>
+    <cellStyle name="强调文字颜色 1 3 2" xfId="681"/>
+    <cellStyle name="强调文字颜色 1 4" xfId="435"/>
+    <cellStyle name="强调文字颜色 1 4 2" xfId="682"/>
+    <cellStyle name="强调文字颜色 1 5" xfId="436"/>
+    <cellStyle name="强调文字颜色 1 5 2" xfId="683"/>
     <cellStyle name="强调文字颜色 2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="437"/>
+    <cellStyle name="强调文字颜色 2 2 2" xfId="438"/>
+    <cellStyle name="强调文字颜色 2 2 2 2" xfId="685"/>
+    <cellStyle name="强调文字颜色 2 2 3" xfId="684"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="439"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="686"/>
+    <cellStyle name="强调文字颜色 2 4" xfId="440"/>
+    <cellStyle name="强调文字颜色 2 4 2" xfId="687"/>
+    <cellStyle name="强调文字颜色 2 5" xfId="441"/>
+    <cellStyle name="强调文字颜色 2 5 2" xfId="688"/>
     <cellStyle name="强调文字颜色 3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="442"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="443"/>
+    <cellStyle name="强调文字颜色 3 2 2 2" xfId="690"/>
+    <cellStyle name="强调文字颜色 3 2 3" xfId="689"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="444"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="691"/>
+    <cellStyle name="强调文字颜色 3 4" xfId="445"/>
+    <cellStyle name="强调文字颜色 3 4 2" xfId="692"/>
+    <cellStyle name="强调文字颜色 3 5" xfId="446"/>
+    <cellStyle name="强调文字颜色 3 5 2" xfId="693"/>
     <cellStyle name="强调文字颜色 4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="447"/>
+    <cellStyle name="强调文字颜色 4 2 2" xfId="448"/>
+    <cellStyle name="强调文字颜色 4 2 2 2" xfId="695"/>
+    <cellStyle name="强调文字颜色 4 2 3" xfId="694"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="449"/>
+    <cellStyle name="强调文字颜色 4 3 2" xfId="696"/>
+    <cellStyle name="强调文字颜色 4 4" xfId="450"/>
+    <cellStyle name="强调文字颜色 4 4 2" xfId="697"/>
+    <cellStyle name="强调文字颜色 4 5" xfId="451"/>
+    <cellStyle name="强调文字颜色 4 5 2" xfId="698"/>
     <cellStyle name="强调文字颜色 5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="452"/>
+    <cellStyle name="强调文字颜色 5 2 2" xfId="453"/>
+    <cellStyle name="强调文字颜色 5 2 2 2" xfId="700"/>
+    <cellStyle name="强调文字颜色 5 2 3" xfId="699"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="454"/>
+    <cellStyle name="强调文字颜色 5 3 2" xfId="701"/>
+    <cellStyle name="强调文字颜色 5 4" xfId="455"/>
+    <cellStyle name="强调文字颜色 5 4 2" xfId="702"/>
+    <cellStyle name="强调文字颜色 5 5" xfId="456"/>
+    <cellStyle name="强调文字颜色 5 5 2" xfId="703"/>
     <cellStyle name="强调文字颜色 6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="457"/>
+    <cellStyle name="强调文字颜色 6 2 2" xfId="458"/>
+    <cellStyle name="强调文字颜色 6 2 2 2" xfId="705"/>
+    <cellStyle name="强调文字颜色 6 2 3" xfId="704"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="459"/>
+    <cellStyle name="强调文字颜色 6 3 2" xfId="706"/>
+    <cellStyle name="强调文字颜色 6 4" xfId="460"/>
+    <cellStyle name="强调文字颜色 6 4 2" xfId="707"/>
+    <cellStyle name="强调文字颜色 6 5" xfId="461"/>
+    <cellStyle name="强调文字颜色 6 5 2" xfId="708"/>
     <cellStyle name="适中" xfId="10" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="适中 2" xfId="463"/>
+    <cellStyle name="适中 2 2" xfId="464"/>
+    <cellStyle name="适中 2 2 2" xfId="711"/>
+    <cellStyle name="适中 2 3" xfId="710"/>
+    <cellStyle name="适中 3" xfId="465"/>
+    <cellStyle name="适中 3 2" xfId="712"/>
+    <cellStyle name="适中 4" xfId="466"/>
+    <cellStyle name="适中 4 2" xfId="713"/>
+    <cellStyle name="适中 5" xfId="467"/>
+    <cellStyle name="适中 5 2" xfId="714"/>
+    <cellStyle name="适中 6" xfId="468"/>
+    <cellStyle name="适中 6 2" xfId="715"/>
+    <cellStyle name="适中 7" xfId="462"/>
+    <cellStyle name="适中 8" xfId="709"/>
     <cellStyle name="输出" xfId="12" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输出 2" xfId="470"/>
+    <cellStyle name="输出 2 2" xfId="471"/>
+    <cellStyle name="输出 2 2 2" xfId="718"/>
+    <cellStyle name="输出 2 3" xfId="717"/>
+    <cellStyle name="输出 3" xfId="472"/>
+    <cellStyle name="输出 3 2" xfId="719"/>
+    <cellStyle name="输出 4" xfId="473"/>
+    <cellStyle name="输出 4 2" xfId="720"/>
+    <cellStyle name="输出 5" xfId="474"/>
+    <cellStyle name="输出 5 2" xfId="721"/>
+    <cellStyle name="输出 6" xfId="475"/>
+    <cellStyle name="输出 6 2" xfId="722"/>
+    <cellStyle name="输出 7" xfId="469"/>
+    <cellStyle name="输出 8" xfId="716"/>
     <cellStyle name="输入" xfId="11" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="输入 2" xfId="477"/>
+    <cellStyle name="输入 2 2" xfId="478"/>
+    <cellStyle name="输入 2 2 2" xfId="725"/>
+    <cellStyle name="输入 2 3" xfId="724"/>
+    <cellStyle name="输入 3" xfId="479"/>
+    <cellStyle name="输入 3 2" xfId="726"/>
+    <cellStyle name="输入 4" xfId="480"/>
+    <cellStyle name="输入 4 2" xfId="727"/>
+    <cellStyle name="输入 5" xfId="481"/>
+    <cellStyle name="输入 5 2" xfId="728"/>
+    <cellStyle name="输入 6" xfId="482"/>
+    <cellStyle name="输入 6 2" xfId="729"/>
+    <cellStyle name="输入 7" xfId="476"/>
+    <cellStyle name="输入 8" xfId="723"/>
     <cellStyle name="注释 2" xfId="44"/>
+    <cellStyle name="注释 2 2" xfId="485"/>
+    <cellStyle name="注释 2 2 2" xfId="732"/>
+    <cellStyle name="注释 2 3" xfId="731"/>
+    <cellStyle name="注释 2 4" xfId="484"/>
+    <cellStyle name="注释 2 5" xfId="143"/>
     <cellStyle name="注释 3" xfId="46"/>
+    <cellStyle name="注释 3 2" xfId="733"/>
+    <cellStyle name="注释 3 3" xfId="486"/>
+    <cellStyle name="注释 3 4" xfId="145"/>
     <cellStyle name="注释 4" xfId="60"/>
+    <cellStyle name="注释 4 2" xfId="734"/>
+    <cellStyle name="注释 4 3" xfId="487"/>
+    <cellStyle name="注释 4 4" xfId="159"/>
     <cellStyle name="注释 5" xfId="75"/>
+    <cellStyle name="注释 5 2" xfId="735"/>
+    <cellStyle name="注释 5 3" xfId="488"/>
+    <cellStyle name="注释 5 4" xfId="173"/>
     <cellStyle name="注释 6" xfId="89"/>
+    <cellStyle name="注释 6 2" xfId="736"/>
+    <cellStyle name="注释 6 3" xfId="489"/>
+    <cellStyle name="注释 6 4" xfId="187"/>
     <cellStyle name="注释 7" xfId="103"/>
+    <cellStyle name="注释 7 2" xfId="483"/>
+    <cellStyle name="注释 7 3" xfId="201"/>
     <cellStyle name="注释 8" xfId="117"/>
+    <cellStyle name="注释 8 2" xfId="730"/>
+    <cellStyle name="注释 8 3" xfId="215"/>
+    <cellStyle name="注释 9" xfId="229"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1543,7 +4154,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1557,7 +4168,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42877</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1575,14 +4186,12 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
-        <v>27542132.420000002</v>
-      </c>
+      <c r="C3" s="30"/>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.17</v>
+        <v>6.53</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -1596,21 +4205,19 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
-        <v>60673425.390000001</v>
-      </c>
+      <c r="C4" s="31"/>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.62</v>
+        <v>8.02</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1620,7 +4227,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -1631,30 +4238,26 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27">
-        <v>21207889.350000001</v>
-      </c>
+      <c r="C6" s="36"/>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.85</v>
+        <v>8.26</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
-        <v>11122238.460000001</v>
-      </c>
+      <c r="C7" s="33"/>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
@@ -1669,46 +4272,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24">
-        <v>21150984</v>
-      </c>
+      <c r="C9" s="36"/>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
-      </c>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25">
-        <v>10768912.51</v>
-      </c>
+      <c r="C10" s="36"/>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="26">
-        <v>105760560</v>
-      </c>
+      <c r="C11" s="36"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1718,7 +4319,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1741,60 +4342,60 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-3</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-10.62</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-23.04</v>
+      <c r="C16" s="37">
+        <v>-7.1373410000000881</v>
+      </c>
+      <c r="D16" s="38">
+        <v>-22.190000000000055</v>
+      </c>
+      <c r="E16" s="39">
+        <v>-21.970000000000113</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0</v>
+      <c r="C17" s="37">
+        <v>-0.29430000000027734</v>
+      </c>
+      <c r="D17" s="38">
+        <v>-57.190000000000055</v>
+      </c>
+      <c r="E17" s="39">
+        <v>-59.369999999999749</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-5.35</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-27.39</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-129.44</v>
+      <c r="C18" s="37">
+        <v>-15.288000000000274</v>
+      </c>
+      <c r="D18" s="38">
+        <v>-43.160000000000061</v>
+      </c>
+      <c r="E18" s="39">
+        <v>-144.77000000000029</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-23.95</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-56.19</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-217.84</v>
+      <c r="C19" s="37">
+        <v>-36.088000000000001</v>
+      </c>
+      <c r="D19" s="38">
+        <v>-75.359999999999872</v>
+      </c>
+      <c r="E19" s="39">
+        <v>-226.77000000000029</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -1876,8 +4477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1886,11 +4487,12 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42874</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -1908,14 +4510,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>27013656.550000001</v>
+      <c r="C3" s="30">
+        <v>19082415.43</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.37</v>
+        <v>7.12</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -1929,21 +4531,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>58135549.119999997</v>
+      <c r="C4" s="31">
+        <v>69332135.950000003</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.28</v>
+        <v>7.46</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <v>1705</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1953,49 +4555,46 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.31</v>
+        <v>7.51</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I5">
-        <v>116</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>20572766.84</v>
+      <c r="C6" s="32">
+        <v>23241421.07</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.71</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
-        <v>11767796.859999999</v>
+      <c r="C7" s="33">
+        <v>8776367.3200000003</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2005,46 +4604,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
-        <v>21121524</v>
+      <c r="C9" s="34">
+        <v>20676648</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.3730000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>13661099.779999999</v>
+      <c r="C10" s="35">
+        <v>11755882.18</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>2E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>104957160</v>
+      <c r="C11" s="36">
+        <v>103383240</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>2E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2054,7 +4659,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -2067,70 +4672,70 @@
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
-        <v>1705</v>
-      </c>
-      <c r="C16" s="19">
-        <v>-1.1500000000000909</v>
-      </c>
-      <c r="D16" s="20">
-        <v>-5.7100000000000364</v>
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-5.49</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-29.04</v>
       </c>
       <c r="E16" s="21">
-        <v>-14.520000000000366</v>
+        <v>-33.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1.3126590000001825</v>
-      </c>
-      <c r="D17" s="20">
-        <v>-11.879999999999946</v>
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="D17" s="21">
+        <v>-61.24</v>
       </c>
       <c r="E17" s="21">
-        <v>-17.960000000000186</v>
+        <v>-82.9</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="19">
-        <v>-4.43799999999991</v>
-      </c>
-      <c r="D18" s="20">
-        <v>-32.449999999999861</v>
+      <c r="C18" s="21">
+        <v>-15.44</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-50.01</v>
       </c>
       <c r="E18" s="21">
-        <v>-120.96000000000018</v>
+        <v>-159.9</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="19">
-        <v>-18.037999999999819</v>
-      </c>
-      <c r="D19" s="20">
-        <v>-59.650000000000134</v>
+      <c r="C19" s="21">
+        <v>-33.24</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-83.81</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.55999999999963</v>
+        <v>-253.7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -2210,6 +4815,676 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42877</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22">
+        <v>27542132.420000002</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.17</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>60673425.390000001</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.62</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.4</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="27">
+        <v>21207889.350000001</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.85</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="28">
+        <v>11122238.460000001</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="24">
+        <v>21150984</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25">
+        <v>10768912.51</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26">
+        <v>105760560</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-10.62</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-23.04</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="21">
+        <v>-5.35</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-27.39</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-129.44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="21">
+        <v>-23.95</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-56.19</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>27013656.550000001</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.37</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>58135549.119999997</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.28</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1705</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.31</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>20572766.84</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.71</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11767796.859999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21121524</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13661099.779999999</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>104957160</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1705</v>
+      </c>
+      <c r="C16" s="19">
+        <v>-1.1500000000000909</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-14.520000000000366</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1.3126590000001825</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-11.879999999999946</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-17.960000000000186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="19">
+        <v>-4.43799999999991</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-32.449999999999861</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-120.96000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="19">
+        <v>-18.037999999999819</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-59.650000000000134</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.55999999999963</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2431,7 +5706,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C15:C18">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -2473,7 +5748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:G15"/>
   <sheetViews>
@@ -2606,7 +5881,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -7,121 +7,131 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
-    <sheet name="20170524" sheetId="8" r:id="rId1"/>
-    <sheet name="20170523" sheetId="7" r:id="rId2"/>
-    <sheet name="20170522" sheetId="6" r:id="rId3"/>
-    <sheet name="20170519" sheetId="5" r:id="rId4"/>
-    <sheet name="20170518" sheetId="4" r:id="rId5"/>
-    <sheet name="20170517" sheetId="3" r:id="rId6"/>
+    <sheet name="20170526" sheetId="10" r:id="rId1"/>
+    <sheet name="20170525" sheetId="9" r:id="rId2"/>
+    <sheet name="20170524" sheetId="8" r:id="rId3"/>
+    <sheet name="20170523" sheetId="7" r:id="rId4"/>
+    <sheet name="20170522" sheetId="6" r:id="rId5"/>
+    <sheet name="20170519" sheetId="5" r:id="rId6"/>
+    <sheet name="20170518" sheetId="4" r:id="rId7"/>
+    <sheet name="20170517" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="28">
   <si>
     <t>资金信息汇总</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ETF市值</t>
   </si>
   <si>
     <t>现货可用金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>期权保证金</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>期权可用金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>期货保证金</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>期货可用金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>期货空头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>期货轧差市值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>昨日波动率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>9月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>12月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Dividend Mark</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基差</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>期货持仓</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Short</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ETF收盘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -133,12 +143,20 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,61 +862,391 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="737">
+  <cellStyleXfs count="849">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,69 +1255,36 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,9 +1375,6 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1231,6 +1543,1533 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1567,1878 +3406,505 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="28" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="737">
+  <cellStyles count="849">
     <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1 10" xfId="737"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="47"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="244"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="492"/>
     <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="491"/>
     <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="243"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="753"/>
     <cellStyle name="20% - 强调文字颜色 1 3" xfId="61"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="493"/>
     <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="245"/>
     <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="767"/>
     <cellStyle name="20% - 强调文字颜色 1 4" xfId="76"/>
     <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="494"/>
     <cellStyle name="20% - 强调文字颜色 1 4 3" xfId="246"/>
     <cellStyle name="20% - 强调文字颜色 1 4 4" xfId="174"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 5" xfId="781"/>
     <cellStyle name="20% - 强调文字颜色 1 5" xfId="90"/>
     <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="495"/>
     <cellStyle name="20% - 强调文字颜色 1 5 3" xfId="247"/>
     <cellStyle name="20% - 强调文字颜色 1 5 4" xfId="188"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 5" xfId="795"/>
     <cellStyle name="20% - 强调文字颜色 1 6" xfId="104"/>
     <cellStyle name="20% - 强调文字颜色 1 6 2" xfId="202"/>
+    <cellStyle name="20% - 强调文字颜色 1 6 3" xfId="809"/>
     <cellStyle name="20% - 强调文字颜色 1 7" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 1 7 2" xfId="216"/>
+    <cellStyle name="20% - 强调文字颜色 1 7 3" xfId="823"/>
     <cellStyle name="20% - 强调文字颜色 1 8" xfId="230"/>
+    <cellStyle name="20% - 强调文字颜色 1 8 2" xfId="837"/>
     <cellStyle name="20% - 强调文字颜色 1 9" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2 10" xfId="739"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="49"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="249"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="497"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="496"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="248"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="148"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="755"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="63"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="498"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="250"/>
     <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="162"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="769"/>
     <cellStyle name="20% - 强调文字颜色 2 4" xfId="78"/>
     <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="499"/>
     <cellStyle name="20% - 强调文字颜色 2 4 3" xfId="251"/>
     <cellStyle name="20% - 强调文字颜色 2 4 4" xfId="176"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 5" xfId="783"/>
     <cellStyle name="20% - 强调文字颜色 2 5" xfId="92"/>
     <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="500"/>
     <cellStyle name="20% - 强调文字颜色 2 5 3" xfId="252"/>
     <cellStyle name="20% - 强调文字颜色 2 5 4" xfId="190"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 5" xfId="797"/>
     <cellStyle name="20% - 强调文字颜色 2 6" xfId="106"/>
     <cellStyle name="20% - 强调文字颜色 2 6 2" xfId="204"/>
+    <cellStyle name="20% - 强调文字颜色 2 6 3" xfId="811"/>
     <cellStyle name="20% - 强调文字颜色 2 7" xfId="120"/>
     <cellStyle name="20% - 强调文字颜色 2 7 2" xfId="218"/>
+    <cellStyle name="20% - 强调文字颜色 2 7 3" xfId="825"/>
     <cellStyle name="20% - 强调文字颜色 2 8" xfId="232"/>
+    <cellStyle name="20% - 强调文字颜色 2 8 2" xfId="839"/>
     <cellStyle name="20% - 强调文字颜色 2 9" xfId="132"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3 10" xfId="741"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="51"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="254"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="502"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="501"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="253"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="757"/>
     <cellStyle name="20% - 强调文字颜色 3 3" xfId="65"/>
     <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="503"/>
     <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="255"/>
     <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="164"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="771"/>
     <cellStyle name="20% - 强调文字颜色 3 4" xfId="80"/>
     <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="504"/>
     <cellStyle name="20% - 强调文字颜色 3 4 3" xfId="256"/>
     <cellStyle name="20% - 强调文字颜色 3 4 4" xfId="178"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 5" xfId="785"/>
     <cellStyle name="20% - 强调文字颜色 3 5" xfId="94"/>
     <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="505"/>
     <cellStyle name="20% - 强调文字颜色 3 5 3" xfId="257"/>
     <cellStyle name="20% - 强调文字颜色 3 5 4" xfId="192"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 5" xfId="799"/>
     <cellStyle name="20% - 强调文字颜色 3 6" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 3 6 2" xfId="206"/>
+    <cellStyle name="20% - 强调文字颜色 3 6 3" xfId="813"/>
     <cellStyle name="20% - 强调文字颜色 3 7" xfId="122"/>
     <cellStyle name="20% - 强调文字颜色 3 7 2" xfId="220"/>
+    <cellStyle name="20% - 强调文字颜色 3 7 3" xfId="827"/>
     <cellStyle name="20% - 强调文字颜色 3 8" xfId="234"/>
+    <cellStyle name="20% - 强调文字颜色 3 8 2" xfId="841"/>
     <cellStyle name="20% - 强调文字颜色 3 9" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4 10" xfId="743"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="53"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="259"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="507"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="506"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="258"/>
     <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="759"/>
     <cellStyle name="20% - 强调文字颜色 4 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="508"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="260"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="166"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="773"/>
     <cellStyle name="20% - 强调文字颜色 4 4" xfId="82"/>
     <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="509"/>
     <cellStyle name="20% - 强调文字颜色 4 4 3" xfId="261"/>
     <cellStyle name="20% - 强调文字颜色 4 4 4" xfId="180"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 5" xfId="787"/>
     <cellStyle name="20% - 强调文字颜色 4 5" xfId="96"/>
     <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="510"/>
     <cellStyle name="20% - 强调文字颜色 4 5 3" xfId="262"/>
     <cellStyle name="20% - 强调文字颜色 4 5 4" xfId="194"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 5" xfId="801"/>
     <cellStyle name="20% - 强调文字颜色 4 6" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 4 6 2" xfId="208"/>
+    <cellStyle name="20% - 强调文字颜色 4 6 3" xfId="815"/>
     <cellStyle name="20% - 强调文字颜色 4 7" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 4 7 2" xfId="222"/>
+    <cellStyle name="20% - 强调文字颜色 4 7 3" xfId="829"/>
     <cellStyle name="20% - 强调文字颜色 4 8" xfId="236"/>
+    <cellStyle name="20% - 强调文字颜色 4 8 2" xfId="843"/>
     <cellStyle name="20% - 强调文字颜色 4 9" xfId="136"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5 10" xfId="745"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="55"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="264"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="512"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="511"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="263"/>
     <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="154"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="761"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="69"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="513"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="265"/>
     <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="168"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 5" xfId="775"/>
     <cellStyle name="20% - 强调文字颜色 5 4" xfId="84"/>
     <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="514"/>
     <cellStyle name="20% - 强调文字颜色 5 4 3" xfId="266"/>
     <cellStyle name="20% - 强调文字颜色 5 4 4" xfId="182"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 5" xfId="789"/>
     <cellStyle name="20% - 强调文字颜色 5 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="515"/>
     <cellStyle name="20% - 强调文字颜色 5 5 3" xfId="267"/>
     <cellStyle name="20% - 强调文字颜色 5 5 4" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 5" xfId="803"/>
     <cellStyle name="20% - 强调文字颜色 5 6" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 5 6 2" xfId="210"/>
+    <cellStyle name="20% - 强调文字颜色 5 6 3" xfId="817"/>
     <cellStyle name="20% - 强调文字颜色 5 7" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 5 7 2" xfId="224"/>
+    <cellStyle name="20% - 强调文字颜色 5 7 3" xfId="831"/>
     <cellStyle name="20% - 强调文字颜色 5 8" xfId="238"/>
+    <cellStyle name="20% - 强调文字颜色 5 8 2" xfId="845"/>
     <cellStyle name="20% - 强调文字颜色 5 9" xfId="138"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6 10" xfId="747"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="57"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="269"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="517"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="516"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="268"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="763"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="71"/>
     <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="518"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="270"/>
     <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="170"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="777"/>
     <cellStyle name="20% - 强调文字颜色 6 4" xfId="86"/>
     <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="519"/>
     <cellStyle name="20% - 强调文字颜色 6 4 3" xfId="271"/>
     <cellStyle name="20% - 强调文字颜色 6 4 4" xfId="184"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 5" xfId="791"/>
     <cellStyle name="20% - 强调文字颜色 6 5" xfId="100"/>
     <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="520"/>
     <cellStyle name="20% - 强调文字颜色 6 5 3" xfId="272"/>
     <cellStyle name="20% - 强调文字颜色 6 5 4" xfId="198"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 5" xfId="805"/>
     <cellStyle name="20% - 强调文字颜色 6 6" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 6 6 2" xfId="212"/>
+    <cellStyle name="20% - 强调文字颜色 6 6 3" xfId="819"/>
     <cellStyle name="20% - 强调文字颜色 6 7" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 6 7 2" xfId="226"/>
+    <cellStyle name="20% - 强调文字颜色 6 7 3" xfId="833"/>
     <cellStyle name="20% - 强调文字颜色 6 8" xfId="240"/>
+    <cellStyle name="20% - 强调文字颜色 6 8 2" xfId="847"/>
     <cellStyle name="20% - 强调文字颜色 6 9" xfId="140"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1 10" xfId="738"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="48"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="274"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="522"/>
     <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="521"/>
     <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="273"/>
     <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="147"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="754"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="62"/>
     <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="523"/>
     <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="275"/>
     <cellStyle name="40% - 强调文字颜色 1 3 4" xfId="161"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 5" xfId="768"/>
     <cellStyle name="40% - 强调文字颜色 1 4" xfId="77"/>
     <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="524"/>
     <cellStyle name="40% - 强调文字颜色 1 4 3" xfId="276"/>
     <cellStyle name="40% - 强调文字颜色 1 4 4" xfId="175"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 5" xfId="782"/>
     <cellStyle name="40% - 强调文字颜色 1 5" xfId="91"/>
     <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="525"/>
     <cellStyle name="40% - 强调文字颜色 1 5 3" xfId="277"/>
     <cellStyle name="40% - 强调文字颜色 1 5 4" xfId="189"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 5" xfId="796"/>
     <cellStyle name="40% - 强调文字颜色 1 6" xfId="105"/>
     <cellStyle name="40% - 强调文字颜色 1 6 2" xfId="203"/>
+    <cellStyle name="40% - 强调文字颜色 1 6 3" xfId="810"/>
     <cellStyle name="40% - 强调文字颜色 1 7" xfId="119"/>
     <cellStyle name="40% - 强调文字颜色 1 7 2" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 1 7 3" xfId="824"/>
     <cellStyle name="40% - 强调文字颜色 1 8" xfId="231"/>
+    <cellStyle name="40% - 强调文字颜色 1 8 2" xfId="838"/>
     <cellStyle name="40% - 强调文字颜色 1 9" xfId="131"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2 10" xfId="740"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="50"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="279"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="527"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="526"/>
     <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="278"/>
     <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="149"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="756"/>
     <cellStyle name="40% - 强调文字颜色 2 3" xfId="64"/>
     <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="528"/>
     <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="280"/>
     <cellStyle name="40% - 强调文字颜色 2 3 4" xfId="163"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 5" xfId="770"/>
     <cellStyle name="40% - 强调文字颜色 2 4" xfId="79"/>
     <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="529"/>
     <cellStyle name="40% - 强调文字颜色 2 4 3" xfId="281"/>
     <cellStyle name="40% - 强调文字颜色 2 4 4" xfId="177"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 5" xfId="784"/>
     <cellStyle name="40% - 强调文字颜色 2 5" xfId="93"/>
     <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="530"/>
     <cellStyle name="40% - 强调文字颜色 2 5 3" xfId="282"/>
     <cellStyle name="40% - 强调文字颜色 2 5 4" xfId="191"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 5" xfId="798"/>
     <cellStyle name="40% - 强调文字颜色 2 6" xfId="107"/>
     <cellStyle name="40% - 强调文字颜色 2 6 2" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 2 6 3" xfId="812"/>
     <cellStyle name="40% - 强调文字颜色 2 7" xfId="121"/>
     <cellStyle name="40% - 强调文字颜色 2 7 2" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 2 7 3" xfId="826"/>
     <cellStyle name="40% - 强调文字颜色 2 8" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 2 8 2" xfId="840"/>
     <cellStyle name="40% - 强调文字颜色 2 9" xfId="133"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3 10" xfId="742"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="52"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="284"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="532"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="531"/>
     <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="283"/>
     <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="151"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="758"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="66"/>
     <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="533"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="285"/>
     <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="165"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 5" xfId="772"/>
     <cellStyle name="40% - 强调文字颜色 3 4" xfId="81"/>
     <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="534"/>
     <cellStyle name="40% - 强调文字颜色 3 4 3" xfId="286"/>
     <cellStyle name="40% - 强调文字颜色 3 4 4" xfId="179"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 5" xfId="786"/>
     <cellStyle name="40% - 强调文字颜色 3 5" xfId="95"/>
     <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="535"/>
     <cellStyle name="40% - 强调文字颜色 3 5 3" xfId="287"/>
     <cellStyle name="40% - 强调文字颜色 3 5 4" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 5" xfId="800"/>
     <cellStyle name="40% - 强调文字颜色 3 6" xfId="109"/>
     <cellStyle name="40% - 强调文字颜色 3 6 2" xfId="207"/>
+    <cellStyle name="40% - 强调文字颜色 3 6 3" xfId="814"/>
     <cellStyle name="40% - 强调文字颜色 3 7" xfId="123"/>
     <cellStyle name="40% - 强调文字颜色 3 7 2" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 3 7 3" xfId="828"/>
     <cellStyle name="40% - 强调文字颜色 3 8" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 3 8 2" xfId="842"/>
     <cellStyle name="40% - 强调文字颜色 3 9" xfId="135"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4 10" xfId="744"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="54"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="289"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="537"/>
     <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="536"/>
     <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="288"/>
     <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="153"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="760"/>
     <cellStyle name="40% - 强调文字颜色 4 3" xfId="68"/>
     <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="538"/>
     <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="290"/>
     <cellStyle name="40% - 强调文字颜色 4 3 4" xfId="167"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 5" xfId="774"/>
     <cellStyle name="40% - 强调文字颜色 4 4" xfId="83"/>
     <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="539"/>
     <cellStyle name="40% - 强调文字颜色 4 4 3" xfId="291"/>
     <cellStyle name="40% - 强调文字颜色 4 4 4" xfId="181"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 5" xfId="788"/>
     <cellStyle name="40% - 强调文字颜色 4 5" xfId="97"/>
     <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="540"/>
     <cellStyle name="40% - 强调文字颜色 4 5 3" xfId="292"/>
     <cellStyle name="40% - 强调文字颜色 4 5 4" xfId="195"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 5" xfId="802"/>
     <cellStyle name="40% - 强调文字颜色 4 6" xfId="111"/>
     <cellStyle name="40% - 强调文字颜色 4 6 2" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 4 6 3" xfId="816"/>
     <cellStyle name="40% - 强调文字颜色 4 7" xfId="125"/>
     <cellStyle name="40% - 强调文字颜色 4 7 2" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 4 7 3" xfId="830"/>
     <cellStyle name="40% - 强调文字颜色 4 8" xfId="237"/>
+    <cellStyle name="40% - 强调文字颜色 4 8 2" xfId="844"/>
     <cellStyle name="40% - 强调文字颜色 4 9" xfId="137"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5 10" xfId="746"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="56"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="294"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="542"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="541"/>
     <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="293"/>
     <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="155"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="762"/>
     <cellStyle name="40% - 强调文字颜色 5 3" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="543"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="295"/>
     <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="169"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 5" xfId="776"/>
     <cellStyle name="40% - 强调文字颜色 5 4" xfId="85"/>
     <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="544"/>
     <cellStyle name="40% - 强调文字颜色 5 4 3" xfId="296"/>
     <cellStyle name="40% - 强调文字颜色 5 4 4" xfId="183"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 5" xfId="790"/>
     <cellStyle name="40% - 强调文字颜色 5 5" xfId="99"/>
     <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="545"/>
     <cellStyle name="40% - 强调文字颜色 5 5 3" xfId="297"/>
     <cellStyle name="40% - 强调文字颜色 5 5 4" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 5" xfId="804"/>
     <cellStyle name="40% - 强调文字颜色 5 6" xfId="113"/>
     <cellStyle name="40% - 强调文字颜色 5 6 2" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 5 6 3" xfId="818"/>
     <cellStyle name="40% - 强调文字颜色 5 7" xfId="127"/>
     <cellStyle name="40% - 强调文字颜色 5 7 2" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 5 7 3" xfId="832"/>
     <cellStyle name="40% - 强调文字颜色 5 8" xfId="239"/>
+    <cellStyle name="40% - 强调文字颜色 5 8 2" xfId="846"/>
     <cellStyle name="40% - 强调文字颜色 5 9" xfId="139"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6 10" xfId="748"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="58"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="299"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="547"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="546"/>
     <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="298"/>
     <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="157"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="764"/>
     <cellStyle name="40% - 强调文字颜色 6 3" xfId="72"/>
     <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="548"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="300"/>
     <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="171"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 5" xfId="778"/>
     <cellStyle name="40% - 强调文字颜色 6 4" xfId="87"/>
     <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="549"/>
     <cellStyle name="40% - 强调文字颜色 6 4 3" xfId="301"/>
     <cellStyle name="40% - 强调文字颜色 6 4 4" xfId="185"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 5" xfId="792"/>
     <cellStyle name="40% - 强调文字颜色 6 5" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="550"/>
     <cellStyle name="40% - 强调文字颜色 6 5 3" xfId="302"/>
     <cellStyle name="40% - 强调文字颜色 6 5 4" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 5" xfId="806"/>
     <cellStyle name="40% - 强调文字颜色 6 6" xfId="115"/>
     <cellStyle name="40% - 强调文字颜色 6 6 2" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 6 6 3" xfId="820"/>
     <cellStyle name="40% - 强调文字颜色 6 7" xfId="129"/>
     <cellStyle name="40% - 强调文字颜色 6 7 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 6 7 3" xfId="834"/>
     <cellStyle name="40% - 强调文字颜色 6 8" xfId="241"/>
+    <cellStyle name="40% - 强调文字颜色 6 8 2" xfId="848"/>
     <cellStyle name="40% - 强调文字颜色 6 9" xfId="141"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="303"/>
@@ -3598,6 +4064,7 @@
     <cellStyle name="差 8" xfId="616"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10" xfId="228"/>
+    <cellStyle name="常规 10 2" xfId="835"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 2 2" xfId="73"/>
@@ -3606,31 +4073,38 @@
     <cellStyle name="常规 2 3 3" xfId="376"/>
     <cellStyle name="常规 2 4" xfId="375"/>
     <cellStyle name="常规 2 5" xfId="142"/>
+    <cellStyle name="常规 2 6" xfId="749"/>
     <cellStyle name="常规 3" xfId="45"/>
     <cellStyle name="常规 3 2" xfId="378"/>
     <cellStyle name="常规 3 2 2" xfId="625"/>
     <cellStyle name="常规 3 3" xfId="624"/>
     <cellStyle name="常规 3 4" xfId="377"/>
     <cellStyle name="常规 3 5" xfId="144"/>
+    <cellStyle name="常规 3 6" xfId="751"/>
     <cellStyle name="常规 4" xfId="59"/>
     <cellStyle name="常规 4 2" xfId="626"/>
     <cellStyle name="常规 4 3" xfId="379"/>
     <cellStyle name="常规 4 4" xfId="158"/>
+    <cellStyle name="常规 4 5" xfId="765"/>
     <cellStyle name="常规 5" xfId="74"/>
     <cellStyle name="常规 5 2" xfId="627"/>
     <cellStyle name="常规 5 3" xfId="380"/>
     <cellStyle name="常规 5 4" xfId="172"/>
+    <cellStyle name="常规 5 5" xfId="779"/>
     <cellStyle name="常规 6" xfId="88"/>
     <cellStyle name="常规 6 2" xfId="628"/>
     <cellStyle name="常规 6 3" xfId="381"/>
     <cellStyle name="常规 6 4" xfId="186"/>
+    <cellStyle name="常规 6 5" xfId="793"/>
     <cellStyle name="常规 7" xfId="102"/>
     <cellStyle name="常规 7 2" xfId="629"/>
     <cellStyle name="常规 7 3" xfId="382"/>
     <cellStyle name="常规 7 4" xfId="200"/>
+    <cellStyle name="常规 7 5" xfId="807"/>
     <cellStyle name="常规 8" xfId="116"/>
     <cellStyle name="常规 8 2" xfId="242"/>
     <cellStyle name="常规 8 3" xfId="214"/>
+    <cellStyle name="常规 8 4" xfId="821"/>
     <cellStyle name="常规 9" xfId="490"/>
     <cellStyle name="好" xfId="8" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 2" xfId="384"/>
@@ -3854,29 +4328,37 @@
     <cellStyle name="注释 2 3" xfId="731"/>
     <cellStyle name="注释 2 4" xfId="484"/>
     <cellStyle name="注释 2 5" xfId="143"/>
+    <cellStyle name="注释 2 6" xfId="750"/>
     <cellStyle name="注释 3" xfId="46"/>
     <cellStyle name="注释 3 2" xfId="733"/>
     <cellStyle name="注释 3 3" xfId="486"/>
     <cellStyle name="注释 3 4" xfId="145"/>
+    <cellStyle name="注释 3 5" xfId="752"/>
     <cellStyle name="注释 4" xfId="60"/>
     <cellStyle name="注释 4 2" xfId="734"/>
     <cellStyle name="注释 4 3" xfId="487"/>
     <cellStyle name="注释 4 4" xfId="159"/>
+    <cellStyle name="注释 4 5" xfId="766"/>
     <cellStyle name="注释 5" xfId="75"/>
     <cellStyle name="注释 5 2" xfId="735"/>
     <cellStyle name="注释 5 3" xfId="488"/>
     <cellStyle name="注释 5 4" xfId="173"/>
+    <cellStyle name="注释 5 5" xfId="780"/>
     <cellStyle name="注释 6" xfId="89"/>
     <cellStyle name="注释 6 2" xfId="736"/>
     <cellStyle name="注释 6 3" xfId="489"/>
     <cellStyle name="注释 6 4" xfId="187"/>
+    <cellStyle name="注释 6 5" xfId="794"/>
     <cellStyle name="注释 7" xfId="103"/>
     <cellStyle name="注释 7 2" xfId="483"/>
     <cellStyle name="注释 7 3" xfId="201"/>
+    <cellStyle name="注释 7 4" xfId="808"/>
     <cellStyle name="注释 8" xfId="117"/>
     <cellStyle name="注释 8 2" xfId="730"/>
     <cellStyle name="注释 8 3" xfId="215"/>
+    <cellStyle name="注释 8 4" xfId="822"/>
     <cellStyle name="注释 9" xfId="229"/>
+    <cellStyle name="注释 9 2" xfId="836"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4143,7 +4625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4154,7 +4636,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4186,12 +4668,11 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="43">
+        <v>15743713.310000001</v>
+      </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>6.53</v>
+        <v>11</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -4205,19 +4686,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="44">
+        <v>63471370.229999997</v>
+      </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>8.02</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>67</v>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4226,43 +4709,44 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="45">
+        <v>24598703.920000002</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F6">
-        <v>8.26</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="46">
+        <v>21814860.350000001</v>
+      </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4276,41 +4760,43 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="47">
+        <v>8050872</v>
+      </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="29"/>
+      <c r="I9" s="29">
+        <v>2.4700000000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="48">
+        <v>22450395.280000001</v>
+      </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-2E-3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="49">
+        <v>36020520</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>-2E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -4318,9 +4804,7 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -4342,60 +4826,36 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="37">
-        <v>-7.1373410000000881</v>
-      </c>
-      <c r="D16" s="38">
-        <v>-22.190000000000055</v>
-      </c>
-      <c r="E16" s="39">
-        <v>-21.970000000000113</v>
-      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="37">
-        <v>-0.29430000000027734</v>
-      </c>
-      <c r="D17" s="38">
-        <v>-57.190000000000055</v>
-      </c>
-      <c r="E17" s="39">
-        <v>-59.369999999999749</v>
-      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="37">
-        <v>-15.288000000000274</v>
-      </c>
-      <c r="D18" s="38">
-        <v>-43.160000000000061</v>
-      </c>
-      <c r="E18" s="39">
-        <v>-144.77000000000029</v>
-      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="37">
-        <v>-36.088000000000001</v>
-      </c>
-      <c r="D19" s="38">
-        <v>-75.359999999999872</v>
-      </c>
-      <c r="E19" s="39">
-        <v>-226.77000000000029</v>
-      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -4478,7 +4938,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4511,13 +4971,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>19082415.43</v>
+        <v>14811361.23</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>7.12</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -4532,20 +4992,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="31">
-        <v>69332135.950000003</v>
+        <v>51965681.979999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>7.46</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>107</v>
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4555,7 +5015,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.51</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -4566,21 +5026,21 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32">
-        <v>23241421.07</v>
+      <c r="C6" s="36">
+        <v>24905714.850000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.0500000000000007</v>
+        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4588,13 +5048,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="33">
-        <v>8776367.3200000003</v>
+        <v>27085499.949999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4608,48 +5068,46 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="34">
-        <v>20676648</v>
+      <c r="C9" s="36">
+        <v>16023360</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3730000000000002</v>
+        <v>2.3980000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35">
-        <v>11755882.18</v>
+      <c r="C10" s="36">
+        <v>12655613.060000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-2E-3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="36">
-        <v>103383240</v>
+        <v>76730160</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-2E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4659,7 +5117,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4682,60 +5140,60 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-5.49</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-29.04</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-33.299999999999997</v>
+      <c r="C16" s="40">
+        <v>-5.9073410000000699</v>
+      </c>
+      <c r="D16" s="41">
+        <v>-22.170000000000073</v>
+      </c>
+      <c r="E16" s="42">
+        <v>-13.340000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="D17" s="21">
-        <v>-61.24</v>
-      </c>
-      <c r="E17" s="21">
-        <v>-82.9</v>
+      <c r="C17" s="40">
+        <v>4.1357000000000141</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-53.170000000000073</v>
+      </c>
+      <c r="E17" s="42">
+        <v>-53.140000000000185</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-15.44</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-50.01</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-159.9</v>
+      <c r="C18" s="40">
+        <v>-12.058000000000256</v>
+      </c>
+      <c r="D18" s="41">
+        <v>-39.140000000000079</v>
+      </c>
+      <c r="E18" s="42">
+        <v>-132.73999999999964</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-33.24</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-83.81</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-253.7</v>
+      <c r="C19" s="40">
+        <v>-33.658000000000165</v>
+      </c>
+      <c r="D19" s="41">
+        <v>-73.540000000000163</v>
+      </c>
+      <c r="E19" s="42">
+        <v>-213.53999999999982</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -4818,7 +5276,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4832,7 +5290,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42877</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4850,14 +5308,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
-        <v>27542132.420000002</v>
+      <c r="C3" s="30">
+        <v>10672859.619999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.17</v>
+        <v>6.53</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -4871,21 +5329,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
-        <v>60673425.390000001</v>
+      <c r="C4" s="31">
+        <v>67927920.010000005</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.62</v>
+        <v>8.02</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4895,7 +5353,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -4906,29 +5364,29 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27">
-        <v>21207889.350000001</v>
+      <c r="C6" s="36">
+        <v>25153424.48</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.85</v>
+        <v>8.26</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
-        <v>11122238.460000001</v>
+      <c r="C7" s="33">
+        <v>16041217.449999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -4944,46 +5402,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24">
-        <v>21150984</v>
+      <c r="C9" s="36">
+        <v>15346032</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.403</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25">
-        <v>10768912.51</v>
+      <c r="C10" s="36">
+        <v>18357632.600000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="26">
-        <v>105760560</v>
+      <c r="C11" s="36">
+        <v>76730160</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4993,7 +5457,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5016,60 +5480,60 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-3</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-10.62</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-23.04</v>
+      <c r="C16" s="37">
+        <v>-7.1373410000000881</v>
+      </c>
+      <c r="D16" s="38">
+        <v>-22.190000000000055</v>
+      </c>
+      <c r="E16" s="39">
+        <v>-21.970000000000113</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0</v>
+      <c r="C17" s="37">
+        <v>-0.29430000000027734</v>
+      </c>
+      <c r="D17" s="38">
+        <v>-57.190000000000055</v>
+      </c>
+      <c r="E17" s="39">
+        <v>-59.369999999999749</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-5.35</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-27.39</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-129.44</v>
+      <c r="C18" s="37">
+        <v>-15.288000000000274</v>
+      </c>
+      <c r="D18" s="38">
+        <v>-43.160000000000061</v>
+      </c>
+      <c r="E18" s="39">
+        <v>-144.77000000000029</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-23.95</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-56.19</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-217.84</v>
+      <c r="C19" s="37">
+        <v>-36.088000000000001</v>
+      </c>
+      <c r="D19" s="38">
+        <v>-75.359999999999872</v>
+      </c>
+      <c r="E19" s="39">
+        <v>-226.77000000000029</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -5151,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5161,11 +5625,12 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42874</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5183,14 +5648,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>27013656.550000001</v>
+      <c r="C3" s="30">
+        <v>19082415.43</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.37</v>
+        <v>7.12</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -5204,21 +5669,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>58135549.119999997</v>
+      <c r="C4" s="31">
+        <v>69332135.950000003</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.28</v>
+        <v>7.46</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <v>1705</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5228,49 +5693,46 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.31</v>
+        <v>7.51</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I5">
-        <v>116</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>20572766.84</v>
+      <c r="C6" s="32">
+        <v>23241421.07</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.71</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
-        <v>11767796.859999999</v>
+      <c r="C7" s="33">
+        <v>8776367.3200000003</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5280,46 +5742,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
-        <v>21121524</v>
+      <c r="C9" s="34">
+        <v>20676648</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.3730000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>13661099.779999999</v>
+      <c r="C10" s="35">
+        <v>11755882.18</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>2E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>104957160</v>
+      <c r="C11" s="36">
+        <v>103383240</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>2E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5329,7 +5797,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5342,70 +5810,70 @@
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
-        <v>1705</v>
-      </c>
-      <c r="C16" s="19">
-        <v>-1.1500000000000909</v>
-      </c>
-      <c r="D16" s="20">
-        <v>-5.7100000000000364</v>
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-5.49</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-29.04</v>
       </c>
       <c r="E16" s="21">
-        <v>-14.520000000000366</v>
+        <v>-33.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1.3126590000001825</v>
-      </c>
-      <c r="D17" s="20">
-        <v>-11.879999999999946</v>
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="D17" s="21">
+        <v>-61.24</v>
       </c>
       <c r="E17" s="21">
-        <v>-17.960000000000186</v>
+        <v>-82.9</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="19">
-        <v>-4.43799999999991</v>
-      </c>
-      <c r="D18" s="20">
-        <v>-32.449999999999861</v>
+      <c r="C18" s="21">
+        <v>-15.44</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-50.01</v>
       </c>
       <c r="E18" s="21">
-        <v>-120.96000000000018</v>
+        <v>-159.9</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="19">
-        <v>-18.037999999999819</v>
-      </c>
-      <c r="D19" s="20">
-        <v>-59.650000000000134</v>
+      <c r="C19" s="21">
+        <v>-33.24</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-83.81</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.55999999999963</v>
+        <v>-253.7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -5485,6 +5953,676 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42877</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22">
+        <v>27542132.420000002</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.17</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>60673425.390000001</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.62</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.4</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="27">
+        <v>21207889.350000001</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.85</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="28">
+        <v>11122238.460000001</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="24">
+        <v>21150984</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25">
+        <v>10768912.51</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26">
+        <v>105760560</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-10.62</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-23.04</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="21">
+        <v>-5.35</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-27.39</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-129.44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="21">
+        <v>-23.95</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-56.19</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>27013656.550000001</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.37</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>58135549.119999997</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.28</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1705</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.31</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>20572766.84</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.71</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11767796.859999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21121524</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13661099.779999999</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>104957160</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1705</v>
+      </c>
+      <c r="C16" s="19">
+        <v>-1.1500000000000909</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-14.520000000000366</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1.3126590000001825</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-11.879999999999946</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-17.960000000000186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="19">
+        <v>-4.43799999999991</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-32.449999999999861</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-120.96000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="19">
+        <v>-18.037999999999819</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-59.650000000000134</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.55999999999963</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5706,7 +6844,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C15:C18">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -5748,7 +6886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:G15"/>
   <sheetViews>
@@ -5881,7 +7019,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -7,131 +7,132 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
-    <sheet name="20170526" sheetId="10" r:id="rId1"/>
-    <sheet name="20170525" sheetId="9" r:id="rId2"/>
-    <sheet name="20170524" sheetId="8" r:id="rId3"/>
-    <sheet name="20170523" sheetId="7" r:id="rId4"/>
-    <sheet name="20170522" sheetId="6" r:id="rId5"/>
-    <sheet name="20170519" sheetId="5" r:id="rId6"/>
-    <sheet name="20170518" sheetId="4" r:id="rId7"/>
-    <sheet name="20170517" sheetId="3" r:id="rId8"/>
+    <sheet name="20170601" sheetId="11" r:id="rId1"/>
+    <sheet name="20170526" sheetId="10" r:id="rId2"/>
+    <sheet name="20170525" sheetId="9" r:id="rId3"/>
+    <sheet name="20170524" sheetId="8" r:id="rId4"/>
+    <sheet name="20170523" sheetId="7" r:id="rId5"/>
+    <sheet name="20170522" sheetId="6" r:id="rId6"/>
+    <sheet name="20170519" sheetId="5" r:id="rId7"/>
+    <sheet name="20170518" sheetId="4" r:id="rId8"/>
+    <sheet name="20170517" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="28">
   <si>
     <t>资金信息汇总</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ETF市值</t>
   </si>
   <si>
     <t>现货可用金额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>期权保证金</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>期权可用金额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>期货保证金</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>期货可用金额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>期货空头</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>期货轧差市值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>昨日波动率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5月</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6月</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>9月</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>12月</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Dividend Mark</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基差</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>期货持仓</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Short</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Offset</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ETF收盘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7月</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6月</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -143,12 +144,20 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -862,61 +871,391 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="849">
+  <cellStyleXfs count="961">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,69 +1264,36 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,9 +1384,6 @@
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,6 +1552,1533 @@
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1585,1491 +3415,6 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3407,111 +3752,121 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="849">
+  <cellStyles count="961">
     <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="737"/>
+    <cellStyle name="20% - 强调文字颜色 1 11" xfId="849"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="47"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="244"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="492"/>
@@ -3519,32 +3874,40 @@
     <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="243"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="146"/>
     <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="753"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 7" xfId="865"/>
     <cellStyle name="20% - 强调文字颜色 1 3" xfId="61"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="493"/>
     <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="245"/>
     <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="160"/>
     <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="767"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 6" xfId="879"/>
     <cellStyle name="20% - 强调文字颜色 1 4" xfId="76"/>
     <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="494"/>
     <cellStyle name="20% - 强调文字颜色 1 4 3" xfId="246"/>
     <cellStyle name="20% - 强调文字颜色 1 4 4" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 1 4 5" xfId="781"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 6" xfId="893"/>
     <cellStyle name="20% - 强调文字颜色 1 5" xfId="90"/>
     <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="495"/>
     <cellStyle name="20% - 强调文字颜色 1 5 3" xfId="247"/>
     <cellStyle name="20% - 强调文字颜色 1 5 4" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 1 5 5" xfId="795"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 6" xfId="907"/>
     <cellStyle name="20% - 强调文字颜色 1 6" xfId="104"/>
     <cellStyle name="20% - 强调文字颜色 1 6 2" xfId="202"/>
     <cellStyle name="20% - 强调文字颜色 1 6 3" xfId="809"/>
+    <cellStyle name="20% - 强调文字颜色 1 6 4" xfId="921"/>
     <cellStyle name="20% - 强调文字颜色 1 7" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 1 7 2" xfId="216"/>
     <cellStyle name="20% - 强调文字颜色 1 7 3" xfId="823"/>
+    <cellStyle name="20% - 强调文字颜色 1 7 4" xfId="935"/>
     <cellStyle name="20% - 强调文字颜色 1 8" xfId="230"/>
     <cellStyle name="20% - 强调文字颜色 1 8 2" xfId="837"/>
+    <cellStyle name="20% - 强调文字颜色 1 8 3" xfId="949"/>
     <cellStyle name="20% - 强调文字颜色 1 9" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2 10" xfId="739"/>
+    <cellStyle name="20% - 强调文字颜色 2 11" xfId="851"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="49"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="249"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="497"/>
@@ -3552,32 +3915,40 @@
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="248"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="148"/>
     <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="755"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 7" xfId="867"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="63"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="498"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="250"/>
     <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="769"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="881"/>
     <cellStyle name="20% - 强调文字颜色 2 4" xfId="78"/>
     <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="499"/>
     <cellStyle name="20% - 强调文字颜色 2 4 3" xfId="251"/>
     <cellStyle name="20% - 强调文字颜色 2 4 4" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 2 4 5" xfId="783"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 6" xfId="895"/>
     <cellStyle name="20% - 强调文字颜色 2 5" xfId="92"/>
     <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="500"/>
     <cellStyle name="20% - 强调文字颜色 2 5 3" xfId="252"/>
     <cellStyle name="20% - 强调文字颜色 2 5 4" xfId="190"/>
     <cellStyle name="20% - 强调文字颜色 2 5 5" xfId="797"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 6" xfId="909"/>
     <cellStyle name="20% - 强调文字颜色 2 6" xfId="106"/>
     <cellStyle name="20% - 强调文字颜色 2 6 2" xfId="204"/>
     <cellStyle name="20% - 强调文字颜色 2 6 3" xfId="811"/>
+    <cellStyle name="20% - 强调文字颜色 2 6 4" xfId="923"/>
     <cellStyle name="20% - 强调文字颜色 2 7" xfId="120"/>
     <cellStyle name="20% - 强调文字颜色 2 7 2" xfId="218"/>
     <cellStyle name="20% - 强调文字颜色 2 7 3" xfId="825"/>
+    <cellStyle name="20% - 强调文字颜色 2 7 4" xfId="937"/>
     <cellStyle name="20% - 强调文字颜色 2 8" xfId="232"/>
     <cellStyle name="20% - 强调文字颜色 2 8 2" xfId="839"/>
+    <cellStyle name="20% - 强调文字颜色 2 8 3" xfId="951"/>
     <cellStyle name="20% - 强调文字颜色 2 9" xfId="132"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="28" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3 10" xfId="741"/>
+    <cellStyle name="20% - 强调文字颜色 3 11" xfId="853"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="51"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="254"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="502"/>
@@ -3585,32 +3956,40 @@
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="253"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="150"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="757"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 7" xfId="869"/>
     <cellStyle name="20% - 强调文字颜色 3 3" xfId="65"/>
     <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="503"/>
     <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="255"/>
     <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="164"/>
     <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="771"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 6" xfId="883"/>
     <cellStyle name="20% - 强调文字颜色 3 4" xfId="80"/>
     <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="504"/>
     <cellStyle name="20% - 强调文字颜色 3 4 3" xfId="256"/>
     <cellStyle name="20% - 强调文字颜色 3 4 4" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 3 4 5" xfId="785"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 6" xfId="897"/>
     <cellStyle name="20% - 强调文字颜色 3 5" xfId="94"/>
     <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="505"/>
     <cellStyle name="20% - 强调文字颜色 3 5 3" xfId="257"/>
     <cellStyle name="20% - 强调文字颜色 3 5 4" xfId="192"/>
     <cellStyle name="20% - 强调文字颜色 3 5 5" xfId="799"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 6" xfId="911"/>
     <cellStyle name="20% - 强调文字颜色 3 6" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 3 6 2" xfId="206"/>
     <cellStyle name="20% - 强调文字颜色 3 6 3" xfId="813"/>
+    <cellStyle name="20% - 强调文字颜色 3 6 4" xfId="925"/>
     <cellStyle name="20% - 强调文字颜色 3 7" xfId="122"/>
     <cellStyle name="20% - 强调文字颜色 3 7 2" xfId="220"/>
     <cellStyle name="20% - 强调文字颜色 3 7 3" xfId="827"/>
+    <cellStyle name="20% - 强调文字颜色 3 7 4" xfId="939"/>
     <cellStyle name="20% - 强调文字颜色 3 8" xfId="234"/>
     <cellStyle name="20% - 强调文字颜色 3 8 2" xfId="841"/>
+    <cellStyle name="20% - 强调文字颜色 3 8 3" xfId="953"/>
     <cellStyle name="20% - 强调文字颜色 3 9" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="32" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 4 10" xfId="743"/>
+    <cellStyle name="20% - 强调文字颜色 4 11" xfId="855"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="53"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="259"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="507"/>
@@ -3618,32 +3997,40 @@
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="258"/>
     <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="759"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 7" xfId="871"/>
     <cellStyle name="20% - 强调文字颜色 4 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="508"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="260"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="166"/>
     <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="773"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="885"/>
     <cellStyle name="20% - 强调文字颜色 4 4" xfId="82"/>
     <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="509"/>
     <cellStyle name="20% - 强调文字颜色 4 4 3" xfId="261"/>
     <cellStyle name="20% - 强调文字颜色 4 4 4" xfId="180"/>
     <cellStyle name="20% - 强调文字颜色 4 4 5" xfId="787"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 6" xfId="899"/>
     <cellStyle name="20% - 强调文字颜色 4 5" xfId="96"/>
     <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="510"/>
     <cellStyle name="20% - 强调文字颜色 4 5 3" xfId="262"/>
     <cellStyle name="20% - 强调文字颜色 4 5 4" xfId="194"/>
     <cellStyle name="20% - 强调文字颜色 4 5 5" xfId="801"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 6" xfId="913"/>
     <cellStyle name="20% - 强调文字颜色 4 6" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 4 6 2" xfId="208"/>
     <cellStyle name="20% - 强调文字颜色 4 6 3" xfId="815"/>
+    <cellStyle name="20% - 强调文字颜色 4 6 4" xfId="927"/>
     <cellStyle name="20% - 强调文字颜色 4 7" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 4 7 2" xfId="222"/>
     <cellStyle name="20% - 强调文字颜色 4 7 3" xfId="829"/>
+    <cellStyle name="20% - 强调文字颜色 4 7 4" xfId="941"/>
     <cellStyle name="20% - 强调文字颜色 4 8" xfId="236"/>
     <cellStyle name="20% - 强调文字颜色 4 8 2" xfId="843"/>
+    <cellStyle name="20% - 强调文字颜色 4 8 3" xfId="955"/>
     <cellStyle name="20% - 强调文字颜色 4 9" xfId="136"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 5 10" xfId="745"/>
+    <cellStyle name="20% - 强调文字颜色 5 11" xfId="857"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="55"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="264"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="512"/>
@@ -3651,32 +4038,40 @@
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="263"/>
     <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="154"/>
     <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="761"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 7" xfId="873"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="69"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="513"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="265"/>
     <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 3 5" xfId="775"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="887"/>
     <cellStyle name="20% - 强调文字颜色 5 4" xfId="84"/>
     <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="514"/>
     <cellStyle name="20% - 强调文字颜色 5 4 3" xfId="266"/>
     <cellStyle name="20% - 强调文字颜色 5 4 4" xfId="182"/>
     <cellStyle name="20% - 强调文字颜色 5 4 5" xfId="789"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 6" xfId="901"/>
     <cellStyle name="20% - 强调文字颜色 5 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="515"/>
     <cellStyle name="20% - 强调文字颜色 5 5 3" xfId="267"/>
     <cellStyle name="20% - 强调文字颜色 5 5 4" xfId="196"/>
     <cellStyle name="20% - 强调文字颜色 5 5 5" xfId="803"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 6" xfId="915"/>
     <cellStyle name="20% - 强调文字颜色 5 6" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 5 6 2" xfId="210"/>
     <cellStyle name="20% - 强调文字颜色 5 6 3" xfId="817"/>
+    <cellStyle name="20% - 强调文字颜色 5 6 4" xfId="929"/>
     <cellStyle name="20% - 强调文字颜色 5 7" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 5 7 2" xfId="224"/>
     <cellStyle name="20% - 强调文字颜色 5 7 3" xfId="831"/>
+    <cellStyle name="20% - 强调文字颜色 5 7 4" xfId="943"/>
     <cellStyle name="20% - 强调文字颜色 5 8" xfId="238"/>
     <cellStyle name="20% - 强调文字颜色 5 8 2" xfId="845"/>
+    <cellStyle name="20% - 强调文字颜色 5 8 3" xfId="957"/>
     <cellStyle name="20% - 强调文字颜色 5 9" xfId="138"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 6 10" xfId="747"/>
+    <cellStyle name="20% - 强调文字颜色 6 11" xfId="859"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="57"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="269"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="517"/>
@@ -3684,32 +4079,40 @@
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="268"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="156"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="763"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 7" xfId="875"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="71"/>
     <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="518"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="270"/>
     <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="170"/>
     <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="777"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 6" xfId="889"/>
     <cellStyle name="20% - 强调文字颜色 6 4" xfId="86"/>
     <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="519"/>
     <cellStyle name="20% - 强调文字颜色 6 4 3" xfId="271"/>
     <cellStyle name="20% - 强调文字颜色 6 4 4" xfId="184"/>
     <cellStyle name="20% - 强调文字颜色 6 4 5" xfId="791"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 6" xfId="903"/>
     <cellStyle name="20% - 强调文字颜色 6 5" xfId="100"/>
     <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="520"/>
     <cellStyle name="20% - 强调文字颜色 6 5 3" xfId="272"/>
     <cellStyle name="20% - 强调文字颜色 6 5 4" xfId="198"/>
     <cellStyle name="20% - 强调文字颜色 6 5 5" xfId="805"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 6" xfId="917"/>
     <cellStyle name="20% - 强调文字颜色 6 6" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 6 6 2" xfId="212"/>
     <cellStyle name="20% - 强调文字颜色 6 6 3" xfId="819"/>
+    <cellStyle name="20% - 强调文字颜色 6 6 4" xfId="931"/>
     <cellStyle name="20% - 强调文字颜色 6 7" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 6 7 2" xfId="226"/>
     <cellStyle name="20% - 强调文字颜色 6 7 3" xfId="833"/>
+    <cellStyle name="20% - 强调文字颜色 6 7 4" xfId="945"/>
     <cellStyle name="20% - 强调文字颜色 6 8" xfId="240"/>
     <cellStyle name="20% - 强调文字颜色 6 8 2" xfId="847"/>
+    <cellStyle name="20% - 强调文字颜色 6 8 3" xfId="959"/>
     <cellStyle name="20% - 强调文字颜色 6 9" xfId="140"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="21" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 1 10" xfId="738"/>
+    <cellStyle name="40% - 强调文字颜色 1 11" xfId="850"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="48"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="274"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="522"/>
@@ -3717,32 +4120,40 @@
     <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="273"/>
     <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="147"/>
     <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="754"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 7" xfId="866"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="62"/>
     <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="523"/>
     <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="275"/>
     <cellStyle name="40% - 强调文字颜色 1 3 4" xfId="161"/>
     <cellStyle name="40% - 强调文字颜色 1 3 5" xfId="768"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 6" xfId="880"/>
     <cellStyle name="40% - 强调文字颜色 1 4" xfId="77"/>
     <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="524"/>
     <cellStyle name="40% - 强调文字颜色 1 4 3" xfId="276"/>
     <cellStyle name="40% - 强调文字颜色 1 4 4" xfId="175"/>
     <cellStyle name="40% - 强调文字颜色 1 4 5" xfId="782"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 6" xfId="894"/>
     <cellStyle name="40% - 强调文字颜色 1 5" xfId="91"/>
     <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="525"/>
     <cellStyle name="40% - 强调文字颜色 1 5 3" xfId="277"/>
     <cellStyle name="40% - 强调文字颜色 1 5 4" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 1 5 5" xfId="796"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 6" xfId="908"/>
     <cellStyle name="40% - 强调文字颜色 1 6" xfId="105"/>
     <cellStyle name="40% - 强调文字颜色 1 6 2" xfId="203"/>
     <cellStyle name="40% - 强调文字颜色 1 6 3" xfId="810"/>
+    <cellStyle name="40% - 强调文字颜色 1 6 4" xfId="922"/>
     <cellStyle name="40% - 强调文字颜色 1 7" xfId="119"/>
     <cellStyle name="40% - 强调文字颜色 1 7 2" xfId="217"/>
     <cellStyle name="40% - 强调文字颜色 1 7 3" xfId="824"/>
+    <cellStyle name="40% - 强调文字颜色 1 7 4" xfId="936"/>
     <cellStyle name="40% - 强调文字颜色 1 8" xfId="231"/>
     <cellStyle name="40% - 强调文字颜色 1 8 2" xfId="838"/>
+    <cellStyle name="40% - 强调文字颜色 1 8 3" xfId="950"/>
     <cellStyle name="40% - 强调文字颜色 1 9" xfId="131"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="25" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 2 10" xfId="740"/>
+    <cellStyle name="40% - 强调文字颜色 2 11" xfId="852"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="50"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="279"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="527"/>
@@ -3750,32 +4161,40 @@
     <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="278"/>
     <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="149"/>
     <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="756"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 7" xfId="868"/>
     <cellStyle name="40% - 强调文字颜色 2 3" xfId="64"/>
     <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="528"/>
     <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="280"/>
     <cellStyle name="40% - 强调文字颜色 2 3 4" xfId="163"/>
     <cellStyle name="40% - 强调文字颜色 2 3 5" xfId="770"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 6" xfId="882"/>
     <cellStyle name="40% - 强调文字颜色 2 4" xfId="79"/>
     <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="529"/>
     <cellStyle name="40% - 强调文字颜色 2 4 3" xfId="281"/>
     <cellStyle name="40% - 强调文字颜色 2 4 4" xfId="177"/>
     <cellStyle name="40% - 强调文字颜色 2 4 5" xfId="784"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 6" xfId="896"/>
     <cellStyle name="40% - 强调文字颜色 2 5" xfId="93"/>
     <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="530"/>
     <cellStyle name="40% - 强调文字颜色 2 5 3" xfId="282"/>
     <cellStyle name="40% - 强调文字颜色 2 5 4" xfId="191"/>
     <cellStyle name="40% - 强调文字颜色 2 5 5" xfId="798"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 6" xfId="910"/>
     <cellStyle name="40% - 强调文字颜色 2 6" xfId="107"/>
     <cellStyle name="40% - 强调文字颜色 2 6 2" xfId="205"/>
     <cellStyle name="40% - 强调文字颜色 2 6 3" xfId="812"/>
+    <cellStyle name="40% - 强调文字颜色 2 6 4" xfId="924"/>
     <cellStyle name="40% - 强调文字颜色 2 7" xfId="121"/>
     <cellStyle name="40% - 强调文字颜色 2 7 2" xfId="219"/>
     <cellStyle name="40% - 强调文字颜色 2 7 3" xfId="826"/>
+    <cellStyle name="40% - 强调文字颜色 2 7 4" xfId="938"/>
     <cellStyle name="40% - 强调文字颜色 2 8" xfId="233"/>
     <cellStyle name="40% - 强调文字颜色 2 8 2" xfId="840"/>
+    <cellStyle name="40% - 强调文字颜色 2 8 3" xfId="952"/>
     <cellStyle name="40% - 强调文字颜色 2 9" xfId="133"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="29" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 3 10" xfId="742"/>
+    <cellStyle name="40% - 强调文字颜色 3 11" xfId="854"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="52"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="284"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="532"/>
@@ -3783,32 +4202,40 @@
     <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="283"/>
     <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="151"/>
     <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="758"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 7" xfId="870"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="66"/>
     <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="533"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="285"/>
     <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="165"/>
     <cellStyle name="40% - 强调文字颜色 3 3 5" xfId="772"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 6" xfId="884"/>
     <cellStyle name="40% - 强调文字颜色 3 4" xfId="81"/>
     <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="534"/>
     <cellStyle name="40% - 强调文字颜色 3 4 3" xfId="286"/>
     <cellStyle name="40% - 强调文字颜色 3 4 4" xfId="179"/>
     <cellStyle name="40% - 强调文字颜色 3 4 5" xfId="786"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 6" xfId="898"/>
     <cellStyle name="40% - 强调文字颜色 3 5" xfId="95"/>
     <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="535"/>
     <cellStyle name="40% - 强调文字颜色 3 5 3" xfId="287"/>
     <cellStyle name="40% - 强调文字颜色 3 5 4" xfId="193"/>
     <cellStyle name="40% - 强调文字颜色 3 5 5" xfId="800"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 6" xfId="912"/>
     <cellStyle name="40% - 强调文字颜色 3 6" xfId="109"/>
     <cellStyle name="40% - 强调文字颜色 3 6 2" xfId="207"/>
     <cellStyle name="40% - 强调文字颜色 3 6 3" xfId="814"/>
+    <cellStyle name="40% - 强调文字颜色 3 6 4" xfId="926"/>
     <cellStyle name="40% - 强调文字颜色 3 7" xfId="123"/>
     <cellStyle name="40% - 强调文字颜色 3 7 2" xfId="221"/>
     <cellStyle name="40% - 强调文字颜色 3 7 3" xfId="828"/>
+    <cellStyle name="40% - 强调文字颜色 3 7 4" xfId="940"/>
     <cellStyle name="40% - 强调文字颜色 3 8" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 3 8 2" xfId="842"/>
+    <cellStyle name="40% - 强调文字颜色 3 8 3" xfId="954"/>
     <cellStyle name="40% - 强调文字颜色 3 9" xfId="135"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="33" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 4 10" xfId="744"/>
+    <cellStyle name="40% - 强调文字颜色 4 11" xfId="856"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="54"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="289"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="537"/>
@@ -3816,32 +4243,40 @@
     <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="288"/>
     <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="153"/>
     <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="760"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 7" xfId="872"/>
     <cellStyle name="40% - 强调文字颜色 4 3" xfId="68"/>
     <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="538"/>
     <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="290"/>
     <cellStyle name="40% - 强调文字颜色 4 3 4" xfId="167"/>
     <cellStyle name="40% - 强调文字颜色 4 3 5" xfId="774"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 6" xfId="886"/>
     <cellStyle name="40% - 强调文字颜色 4 4" xfId="83"/>
     <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="539"/>
     <cellStyle name="40% - 强调文字颜色 4 4 3" xfId="291"/>
     <cellStyle name="40% - 强调文字颜色 4 4 4" xfId="181"/>
     <cellStyle name="40% - 强调文字颜色 4 4 5" xfId="788"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 6" xfId="900"/>
     <cellStyle name="40% - 强调文字颜色 4 5" xfId="97"/>
     <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="540"/>
     <cellStyle name="40% - 强调文字颜色 4 5 3" xfId="292"/>
     <cellStyle name="40% - 强调文字颜色 4 5 4" xfId="195"/>
     <cellStyle name="40% - 强调文字颜色 4 5 5" xfId="802"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 6" xfId="914"/>
     <cellStyle name="40% - 强调文字颜色 4 6" xfId="111"/>
     <cellStyle name="40% - 强调文字颜色 4 6 2" xfId="209"/>
     <cellStyle name="40% - 强调文字颜色 4 6 3" xfId="816"/>
+    <cellStyle name="40% - 强调文字颜色 4 6 4" xfId="928"/>
     <cellStyle name="40% - 强调文字颜色 4 7" xfId="125"/>
     <cellStyle name="40% - 强调文字颜色 4 7 2" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 4 7 3" xfId="830"/>
+    <cellStyle name="40% - 强调文字颜色 4 7 4" xfId="942"/>
     <cellStyle name="40% - 强调文字颜色 4 8" xfId="237"/>
     <cellStyle name="40% - 强调文字颜色 4 8 2" xfId="844"/>
+    <cellStyle name="40% - 强调文字颜色 4 8 3" xfId="956"/>
     <cellStyle name="40% - 强调文字颜色 4 9" xfId="137"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="37" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 5 10" xfId="746"/>
+    <cellStyle name="40% - 强调文字颜色 5 11" xfId="858"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="56"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="294"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="542"/>
@@ -3849,32 +4284,40 @@
     <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="293"/>
     <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="155"/>
     <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="762"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 7" xfId="874"/>
     <cellStyle name="40% - 强调文字颜色 5 3" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="543"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="295"/>
     <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="169"/>
     <cellStyle name="40% - 强调文字颜色 5 3 5" xfId="776"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 6" xfId="888"/>
     <cellStyle name="40% - 强调文字颜色 5 4" xfId="85"/>
     <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="544"/>
     <cellStyle name="40% - 强调文字颜色 5 4 3" xfId="296"/>
     <cellStyle name="40% - 强调文字颜色 5 4 4" xfId="183"/>
     <cellStyle name="40% - 强调文字颜色 5 4 5" xfId="790"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 6" xfId="902"/>
     <cellStyle name="40% - 强调文字颜色 5 5" xfId="99"/>
     <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="545"/>
     <cellStyle name="40% - 强调文字颜色 5 5 3" xfId="297"/>
     <cellStyle name="40% - 强调文字颜色 5 5 4" xfId="197"/>
     <cellStyle name="40% - 强调文字颜色 5 5 5" xfId="804"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 6" xfId="916"/>
     <cellStyle name="40% - 强调文字颜色 5 6" xfId="113"/>
     <cellStyle name="40% - 强调文字颜色 5 6 2" xfId="211"/>
     <cellStyle name="40% - 强调文字颜色 5 6 3" xfId="818"/>
+    <cellStyle name="40% - 强调文字颜色 5 6 4" xfId="930"/>
     <cellStyle name="40% - 强调文字颜色 5 7" xfId="127"/>
     <cellStyle name="40% - 强调文字颜色 5 7 2" xfId="225"/>
     <cellStyle name="40% - 强调文字颜色 5 7 3" xfId="832"/>
+    <cellStyle name="40% - 强调文字颜色 5 7 4" xfId="944"/>
     <cellStyle name="40% - 强调文字颜色 5 8" xfId="239"/>
     <cellStyle name="40% - 强调文字颜色 5 8 2" xfId="846"/>
+    <cellStyle name="40% - 强调文字颜色 5 8 3" xfId="958"/>
     <cellStyle name="40% - 强调文字颜色 5 9" xfId="139"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 6 10" xfId="748"/>
+    <cellStyle name="40% - 强调文字颜色 6 11" xfId="860"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="58"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="299"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="547"/>
@@ -3882,29 +4325,36 @@
     <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="298"/>
     <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="157"/>
     <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="764"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 7" xfId="876"/>
     <cellStyle name="40% - 强调文字颜色 6 3" xfId="72"/>
     <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="548"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="300"/>
     <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="171"/>
     <cellStyle name="40% - 强调文字颜色 6 3 5" xfId="778"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 6" xfId="890"/>
     <cellStyle name="40% - 强调文字颜色 6 4" xfId="87"/>
     <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="549"/>
     <cellStyle name="40% - 强调文字颜色 6 4 3" xfId="301"/>
     <cellStyle name="40% - 强调文字颜色 6 4 4" xfId="185"/>
     <cellStyle name="40% - 强调文字颜色 6 4 5" xfId="792"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 6" xfId="904"/>
     <cellStyle name="40% - 强调文字颜色 6 5" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="550"/>
     <cellStyle name="40% - 强调文字颜色 6 5 3" xfId="302"/>
     <cellStyle name="40% - 强调文字颜色 6 5 4" xfId="199"/>
     <cellStyle name="40% - 强调文字颜色 6 5 5" xfId="806"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 6" xfId="918"/>
     <cellStyle name="40% - 强调文字颜色 6 6" xfId="115"/>
     <cellStyle name="40% - 强调文字颜色 6 6 2" xfId="213"/>
     <cellStyle name="40% - 强调文字颜色 6 6 3" xfId="820"/>
+    <cellStyle name="40% - 强调文字颜色 6 6 4" xfId="932"/>
     <cellStyle name="40% - 强调文字颜色 6 7" xfId="129"/>
     <cellStyle name="40% - 强调文字颜色 6 7 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 6 7 3" xfId="834"/>
+    <cellStyle name="40% - 强调文字颜色 6 7 4" xfId="946"/>
     <cellStyle name="40% - 强调文字颜色 6 8" xfId="241"/>
     <cellStyle name="40% - 强调文字颜色 6 8 2" xfId="848"/>
+    <cellStyle name="40% - 强调文字颜色 6 8 3" xfId="960"/>
     <cellStyle name="40% - 强调文字颜色 6 9" xfId="141"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="303"/>
@@ -4065,6 +4515,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10" xfId="228"/>
     <cellStyle name="常规 10 2" xfId="835"/>
+    <cellStyle name="常规 10 3" xfId="947"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 2 2" xfId="73"/>
@@ -4074,6 +4525,7 @@
     <cellStyle name="常规 2 4" xfId="375"/>
     <cellStyle name="常规 2 5" xfId="142"/>
     <cellStyle name="常规 2 6" xfId="749"/>
+    <cellStyle name="常规 2 7" xfId="861"/>
     <cellStyle name="常规 3" xfId="45"/>
     <cellStyle name="常规 3 2" xfId="378"/>
     <cellStyle name="常规 3 2 2" xfId="625"/>
@@ -4081,30 +4533,36 @@
     <cellStyle name="常规 3 4" xfId="377"/>
     <cellStyle name="常规 3 5" xfId="144"/>
     <cellStyle name="常规 3 6" xfId="751"/>
+    <cellStyle name="常规 3 7" xfId="863"/>
     <cellStyle name="常规 4" xfId="59"/>
     <cellStyle name="常规 4 2" xfId="626"/>
     <cellStyle name="常规 4 3" xfId="379"/>
     <cellStyle name="常规 4 4" xfId="158"/>
     <cellStyle name="常规 4 5" xfId="765"/>
+    <cellStyle name="常规 4 6" xfId="877"/>
     <cellStyle name="常规 5" xfId="74"/>
     <cellStyle name="常规 5 2" xfId="627"/>
     <cellStyle name="常规 5 3" xfId="380"/>
     <cellStyle name="常规 5 4" xfId="172"/>
     <cellStyle name="常规 5 5" xfId="779"/>
+    <cellStyle name="常规 5 6" xfId="891"/>
     <cellStyle name="常规 6" xfId="88"/>
     <cellStyle name="常规 6 2" xfId="628"/>
     <cellStyle name="常规 6 3" xfId="381"/>
     <cellStyle name="常规 6 4" xfId="186"/>
     <cellStyle name="常规 6 5" xfId="793"/>
+    <cellStyle name="常规 6 6" xfId="905"/>
     <cellStyle name="常规 7" xfId="102"/>
     <cellStyle name="常规 7 2" xfId="629"/>
     <cellStyle name="常规 7 3" xfId="382"/>
     <cellStyle name="常规 7 4" xfId="200"/>
     <cellStyle name="常规 7 5" xfId="807"/>
+    <cellStyle name="常规 7 6" xfId="919"/>
     <cellStyle name="常规 8" xfId="116"/>
     <cellStyle name="常规 8 2" xfId="242"/>
     <cellStyle name="常规 8 3" xfId="214"/>
     <cellStyle name="常规 8 4" xfId="821"/>
+    <cellStyle name="常规 8 5" xfId="933"/>
     <cellStyle name="常规 9" xfId="490"/>
     <cellStyle name="好" xfId="8" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 2" xfId="384"/>
@@ -4329,36 +4787,44 @@
     <cellStyle name="注释 2 4" xfId="484"/>
     <cellStyle name="注释 2 5" xfId="143"/>
     <cellStyle name="注释 2 6" xfId="750"/>
+    <cellStyle name="注释 2 7" xfId="862"/>
     <cellStyle name="注释 3" xfId="46"/>
     <cellStyle name="注释 3 2" xfId="733"/>
     <cellStyle name="注释 3 3" xfId="486"/>
     <cellStyle name="注释 3 4" xfId="145"/>
     <cellStyle name="注释 3 5" xfId="752"/>
+    <cellStyle name="注释 3 6" xfId="864"/>
     <cellStyle name="注释 4" xfId="60"/>
     <cellStyle name="注释 4 2" xfId="734"/>
     <cellStyle name="注释 4 3" xfId="487"/>
     <cellStyle name="注释 4 4" xfId="159"/>
     <cellStyle name="注释 4 5" xfId="766"/>
+    <cellStyle name="注释 4 6" xfId="878"/>
     <cellStyle name="注释 5" xfId="75"/>
     <cellStyle name="注释 5 2" xfId="735"/>
     <cellStyle name="注释 5 3" xfId="488"/>
     <cellStyle name="注释 5 4" xfId="173"/>
     <cellStyle name="注释 5 5" xfId="780"/>
+    <cellStyle name="注释 5 6" xfId="892"/>
     <cellStyle name="注释 6" xfId="89"/>
     <cellStyle name="注释 6 2" xfId="736"/>
     <cellStyle name="注释 6 3" xfId="489"/>
     <cellStyle name="注释 6 4" xfId="187"/>
     <cellStyle name="注释 6 5" xfId="794"/>
+    <cellStyle name="注释 6 6" xfId="906"/>
     <cellStyle name="注释 7" xfId="103"/>
     <cellStyle name="注释 7 2" xfId="483"/>
     <cellStyle name="注释 7 3" xfId="201"/>
     <cellStyle name="注释 7 4" xfId="808"/>
+    <cellStyle name="注释 7 5" xfId="920"/>
     <cellStyle name="注释 8" xfId="117"/>
     <cellStyle name="注释 8 2" xfId="730"/>
     <cellStyle name="注释 8 3" xfId="215"/>
     <cellStyle name="注释 8 4" xfId="822"/>
+    <cellStyle name="注释 8 5" xfId="934"/>
     <cellStyle name="注释 9" xfId="229"/>
     <cellStyle name="注释 9 2" xfId="836"/>
+    <cellStyle name="注释 9 3" xfId="948"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4625,7 +5091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4636,7 +5102,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4668,11 +5134,12 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43">
-        <v>15743713.310000001</v>
-      </c>
+      <c r="C3" s="43"/>
       <c r="E3" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11.21</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -4686,21 +5153,16 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
-        <v>63471370.229999997</v>
-      </c>
+      <c r="C4" s="44"/>
       <c r="E4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F4">
+        <v>11.05</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4709,44 +5171,37 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F5">
+        <v>11.15</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="J5">
-        <v>-4</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="45">
-        <v>24598703.920000002</v>
-      </c>
+      <c r="C6" s="49"/>
       <c r="E6" s="12" t="s">
         <v>13</v>
+      </c>
+      <c r="F6">
+        <v>11.45</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>32</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="46">
-        <v>21814860.350000001</v>
-      </c>
+      <c r="C7" s="46"/>
       <c r="H7" s="12">
         <v>1712</v>
-      </c>
-      <c r="I7">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -4760,43 +5215,43 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47">
-        <v>8050872</v>
-      </c>
+      <c r="C9" s="49"/>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>-1E-3</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.4750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48">
-        <v>22450395.280000001</v>
-      </c>
+      <c r="C10" s="49"/>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="49">
-        <v>36020520</v>
-      </c>
+      <c r="C11" s="49"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -4804,7 +5259,9 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -4826,36 +5283,60 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="50">
+        <v>3.1774590000000753</v>
+      </c>
+      <c r="D16" s="51">
+        <v>-10.880000000000109</v>
+      </c>
+      <c r="E16" s="52">
+        <v>-24.590000000000003</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="C17" s="50">
+        <v>16.220500000000158</v>
+      </c>
+      <c r="D17" s="51">
+        <v>-36.2800000000002</v>
+      </c>
+      <c r="E17" s="52">
+        <v>-67.390000000000185</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="50">
+        <v>-0.37319999999974662</v>
+      </c>
+      <c r="D18" s="51">
+        <v>-24.049999999999933</v>
+      </c>
+      <c r="E18" s="52">
+        <v>-132.99000000000055</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="50">
+        <v>-20.17319999999993</v>
+      </c>
+      <c r="D19" s="51">
+        <v>-48.250000000000206</v>
+      </c>
+      <c r="E19" s="52">
+        <v>-207.78999999999982</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -4938,7 +5419,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4970,14 +5451,11 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>14811361.23</v>
+      <c r="C3" s="43">
+        <v>15743713.310000001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="F3">
-        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -4991,8 +5469,8 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>51965681.979999997</v>
+      <c r="C4" s="44">
+        <v>63471370.229999997</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
@@ -5002,7 +5480,7 @@
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>-2</v>
@@ -5014,47 +5492,44 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>8.4600000000000009</v>
-      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
-        <v>24905714.850000001</v>
+      <c r="C6" s="45">
+        <v>24598703.920000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F6">
-        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>27085499.949999999</v>
+      <c r="C7" s="46">
+        <v>21814860.350000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5068,28 +5543,26 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>16023360</v>
+      <c r="C9" s="47">
+        <v>8050872</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-8.0000000000000002E-3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3980000000000001</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36">
-        <v>12655613.060000001</v>
+      <c r="C10" s="48">
+        <v>22450395.280000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
@@ -5100,15 +5573,13 @@
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>76730160</v>
+      <c r="C11" s="49">
+        <v>36020520</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>-6.4999999999999997E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -5116,9 +5587,7 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>-3.0000000000000001E-3</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -5140,60 +5609,36 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="40">
-        <v>-5.9073410000000699</v>
-      </c>
-      <c r="D16" s="41">
-        <v>-22.170000000000073</v>
-      </c>
-      <c r="E16" s="42">
-        <v>-13.340000000000003</v>
-      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="40">
-        <v>4.1357000000000141</v>
-      </c>
-      <c r="D17" s="41">
-        <v>-53.170000000000073</v>
-      </c>
-      <c r="E17" s="42">
-        <v>-53.140000000000185</v>
-      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="40">
-        <v>-12.058000000000256</v>
-      </c>
-      <c r="D18" s="41">
-        <v>-39.140000000000079</v>
-      </c>
-      <c r="E18" s="42">
-        <v>-132.73999999999964</v>
-      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="40">
-        <v>-33.658000000000165</v>
-      </c>
-      <c r="D19" s="41">
-        <v>-73.540000000000163</v>
-      </c>
-      <c r="E19" s="42">
-        <v>-213.53999999999982</v>
-      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -5276,7 +5721,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5309,13 +5754,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>10672859.619999999</v>
+        <v>14811361.23</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>6.53</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -5330,20 +5775,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="31">
-        <v>67927920.010000005</v>
+        <v>51965681.979999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>8.02</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5353,7 +5798,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -5365,20 +5810,20 @@
         <v>3</v>
       </c>
       <c r="C6" s="36">
-        <v>25153424.48</v>
+        <v>24905714.850000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.26</v>
+        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5386,13 +5831,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="33">
-        <v>16041217.449999999</v>
+        <v>27085499.949999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5407,19 +5852,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="36">
-        <v>15346032</v>
+        <v>16023360</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.403</v>
+        <v>2.3980000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5427,14 +5872,12 @@
         <v>6</v>
       </c>
       <c r="C10" s="36">
-        <v>18357632.600000001</v>
+        <v>12655613.060000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-2E-3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
@@ -5447,7 +5890,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-2E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5457,7 +5900,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5480,60 +5923,60 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="37">
-        <v>-7.1373410000000881</v>
-      </c>
-      <c r="D16" s="38">
-        <v>-22.190000000000055</v>
-      </c>
-      <c r="E16" s="39">
-        <v>-21.970000000000113</v>
+      <c r="C16" s="40">
+        <v>-5.9073410000000699</v>
+      </c>
+      <c r="D16" s="41">
+        <v>-22.170000000000073</v>
+      </c>
+      <c r="E16" s="42">
+        <v>-13.340000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="37">
-        <v>-0.29430000000027734</v>
-      </c>
-      <c r="D17" s="38">
-        <v>-57.190000000000055</v>
-      </c>
-      <c r="E17" s="39">
-        <v>-59.369999999999749</v>
+      <c r="C17" s="40">
+        <v>4.1357000000000141</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-53.170000000000073</v>
+      </c>
+      <c r="E17" s="42">
+        <v>-53.140000000000185</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="37">
-        <v>-15.288000000000274</v>
-      </c>
-      <c r="D18" s="38">
-        <v>-43.160000000000061</v>
-      </c>
-      <c r="E18" s="39">
-        <v>-144.77000000000029</v>
+      <c r="C18" s="40">
+        <v>-12.058000000000256</v>
+      </c>
+      <c r="D18" s="41">
+        <v>-39.140000000000079</v>
+      </c>
+      <c r="E18" s="42">
+        <v>-132.73999999999964</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="37">
-        <v>-36.088000000000001</v>
-      </c>
-      <c r="D19" s="38">
-        <v>-75.359999999999872</v>
-      </c>
-      <c r="E19" s="39">
-        <v>-226.77000000000029</v>
+      <c r="C19" s="40">
+        <v>-33.658000000000165</v>
+      </c>
+      <c r="D19" s="41">
+        <v>-73.540000000000163</v>
+      </c>
+      <c r="E19" s="42">
+        <v>-213.53999999999982</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -5616,7 +6059,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5649,13 +6092,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>19082415.43</v>
+        <v>10672859.619999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.12</v>
+        <v>6.53</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -5670,20 +6113,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="31">
-        <v>69332135.950000003</v>
+        <v>67927920.010000005</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.46</v>
+        <v>8.02</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5693,7 +6136,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.51</v>
+        <v>8</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -5704,21 +6147,21 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32">
-        <v>23241421.07</v>
+      <c r="C6" s="36">
+        <v>25153424.48</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.0500000000000007</v>
+        <v>8.26</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5726,7 +6169,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="33">
-        <v>8776367.3200000003</v>
+        <v>16041217.449999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -5746,8 +6189,8 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="34">
-        <v>20676648</v>
+      <c r="C9" s="36">
+        <v>15346032</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
@@ -5759,15 +6202,15 @@
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3730000000000002</v>
+        <v>2.403</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35">
-        <v>11755882.18</v>
+      <c r="C10" s="36">
+        <v>18357632.600000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
@@ -5781,7 +6224,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="36">
-        <v>103383240</v>
+        <v>76730160</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
@@ -5820,60 +6263,60 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-5.49</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-29.04</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-33.299999999999997</v>
+      <c r="C16" s="37">
+        <v>-7.1373410000000881</v>
+      </c>
+      <c r="D16" s="38">
+        <v>-22.190000000000055</v>
+      </c>
+      <c r="E16" s="39">
+        <v>-21.970000000000113</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="D17" s="21">
-        <v>-61.24</v>
-      </c>
-      <c r="E17" s="21">
-        <v>-82.9</v>
+      <c r="C17" s="37">
+        <v>-0.29430000000027734</v>
+      </c>
+      <c r="D17" s="38">
+        <v>-57.190000000000055</v>
+      </c>
+      <c r="E17" s="39">
+        <v>-59.369999999999749</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-15.44</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-50.01</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-159.9</v>
+      <c r="C18" s="37">
+        <v>-15.288000000000274</v>
+      </c>
+      <c r="D18" s="38">
+        <v>-43.160000000000061</v>
+      </c>
+      <c r="E18" s="39">
+        <v>-144.77000000000029</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-33.24</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-83.81</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-253.7</v>
+      <c r="C19" s="37">
+        <v>-36.088000000000001</v>
+      </c>
+      <c r="D19" s="38">
+        <v>-75.359999999999872</v>
+      </c>
+      <c r="E19" s="39">
+        <v>-226.77000000000029</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -5956,7 +6399,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5970,7 +6413,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42877</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5988,14 +6431,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
-        <v>27542132.420000002</v>
+      <c r="C3" s="30">
+        <v>19082415.43</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.17</v>
+        <v>7.12</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6009,21 +6452,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
-        <v>60673425.390000001</v>
+      <c r="C4" s="31">
+        <v>69332135.950000003</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.62</v>
+        <v>7.46</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6033,7 +6476,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.4</v>
+        <v>7.51</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -6044,29 +6487,29 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27">
-        <v>21207889.350000001</v>
+      <c r="C6" s="32">
+        <v>23241421.07</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.85</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
-        <v>11122238.460000001</v>
+      <c r="C7" s="33">
+        <v>8776367.3200000003</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -6082,46 +6525,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24">
-        <v>21150984</v>
+      <c r="C9" s="34">
+        <v>20676648</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.3730000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25">
-        <v>10768912.51</v>
+      <c r="C10" s="35">
+        <v>11755882.18</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="26">
-        <v>105760560</v>
+      <c r="C11" s="36">
+        <v>103383240</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6131,7 +6580,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6155,13 +6604,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="21">
-        <v>-3</v>
+        <v>-5.49</v>
       </c>
       <c r="D16" s="21">
-        <v>-10.62</v>
+        <v>-29.04</v>
       </c>
       <c r="E16" s="21">
-        <v>-23.04</v>
+        <v>-33.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
@@ -6169,13 +6618,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="21">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="D17" s="21">
-        <v>0</v>
+        <v>-61.24</v>
       </c>
       <c r="E17" s="21">
-        <v>0</v>
+        <v>-82.9</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
@@ -6183,13 +6632,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="21">
-        <v>-5.35</v>
+        <v>-15.44</v>
       </c>
       <c r="D18" s="21">
-        <v>-27.39</v>
+        <v>-50.01</v>
       </c>
       <c r="E18" s="21">
-        <v>-129.44</v>
+        <v>-159.9</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
@@ -6197,17 +6646,17 @@
         <v>1712</v>
       </c>
       <c r="C19" s="21">
-        <v>-23.95</v>
+        <v>-33.24</v>
       </c>
       <c r="D19" s="21">
-        <v>-56.19</v>
+        <v>-83.81</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.84</v>
+        <v>-253.7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -6289,8 +6738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6299,11 +6748,12 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42874</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6321,14 +6771,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>27013656.550000001</v>
+      <c r="C3" s="22">
+        <v>27542132.420000002</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.37</v>
+        <v>7.17</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6342,21 +6792,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>58135549.119999997</v>
+      <c r="C4" s="23">
+        <v>60673425.390000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.28</v>
+        <v>7.62</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <v>1705</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6366,28 +6816,25 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.31</v>
+        <v>7.4</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I5">
-        <v>116</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>20572766.84</v>
+      <c r="C6" s="27">
+        <v>21207889.350000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.71</v>
+        <v>7.85</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
@@ -6401,14 +6848,14 @@
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
-        <v>11767796.859999999</v>
+      <c r="C7" s="28">
+        <v>11122238.460000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6422,42 +6869,42 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
-        <v>21121524</v>
+      <c r="C9" s="24">
+        <v>21150984</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>13661099.779999999</v>
+      <c r="C10" s="25">
+        <v>10768912.51</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>2E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>104957160</v>
+      <c r="C11" s="26">
+        <v>105760560</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6467,7 +6914,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>2.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6480,70 +6927,70 @@
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
-        <v>1705</v>
-      </c>
-      <c r="C16" s="19">
-        <v>-1.1500000000000909</v>
-      </c>
-      <c r="D16" s="20">
-        <v>-5.7100000000000364</v>
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-10.62</v>
       </c>
       <c r="E16" s="21">
-        <v>-14.520000000000366</v>
+        <v>-23.04</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1.3126590000001825</v>
-      </c>
-      <c r="D17" s="20">
-        <v>-11.879999999999946</v>
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
       </c>
       <c r="E17" s="21">
-        <v>-17.960000000000186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="19">
-        <v>-4.43799999999991</v>
-      </c>
-      <c r="D18" s="20">
-        <v>-32.449999999999861</v>
+      <c r="C18" s="21">
+        <v>-5.35</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-27.39</v>
       </c>
       <c r="E18" s="21">
-        <v>-120.96000000000018</v>
+        <v>-129.44</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="19">
-        <v>-18.037999999999819</v>
-      </c>
-      <c r="D19" s="20">
-        <v>-59.650000000000134</v>
+      <c r="C19" s="21">
+        <v>-23.95</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-56.19</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.55999999999963</v>
+        <v>-217.84</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -6623,6 +7070,342 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>27013656.550000001</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.37</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>58135549.119999997</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.28</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1705</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.31</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>20572766.84</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.71</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11767796.859999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21121524</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13661099.779999999</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>104957160</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1705</v>
+      </c>
+      <c r="C16" s="19">
+        <v>-1.1500000000000909</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-14.520000000000366</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1.3126590000001825</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-11.879999999999946</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-17.960000000000186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="19">
+        <v>-4.43799999999991</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-32.449999999999861</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-120.96000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="19">
+        <v>-18.037999999999819</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-59.650000000000134</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.55999999999963</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6844,7 +7627,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C15:C18">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -6886,7 +7669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:G15"/>
   <sheetViews>
@@ -7019,7 +7802,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -7,132 +7,133 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
-    <sheet name="20170601" sheetId="11" r:id="rId1"/>
-    <sheet name="20170526" sheetId="10" r:id="rId2"/>
-    <sheet name="20170525" sheetId="9" r:id="rId3"/>
-    <sheet name="20170524" sheetId="8" r:id="rId4"/>
-    <sheet name="20170523" sheetId="7" r:id="rId5"/>
-    <sheet name="20170522" sheetId="6" r:id="rId6"/>
-    <sheet name="20170519" sheetId="5" r:id="rId7"/>
-    <sheet name="20170518" sheetId="4" r:id="rId8"/>
-    <sheet name="20170517" sheetId="3" r:id="rId9"/>
+    <sheet name="20170602" sheetId="12" r:id="rId1"/>
+    <sheet name="20170601" sheetId="11" r:id="rId2"/>
+    <sheet name="20170526" sheetId="10" r:id="rId3"/>
+    <sheet name="20170525" sheetId="9" r:id="rId4"/>
+    <sheet name="20170524" sheetId="8" r:id="rId5"/>
+    <sheet name="20170523" sheetId="7" r:id="rId6"/>
+    <sheet name="20170522" sheetId="6" r:id="rId7"/>
+    <sheet name="20170519" sheetId="5" r:id="rId8"/>
+    <sheet name="20170518" sheetId="4" r:id="rId9"/>
+    <sheet name="20170517" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="28">
   <si>
     <t>资金信息汇总</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ETF市值</t>
   </si>
   <si>
     <t>现货可用金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>期权保证金</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>期权可用金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>期货保证金</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>期货可用金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>期货空头</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>期货轧差市值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>昨日波动率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5月</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>6月</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>9月</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>12月</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Dividend Mark</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>基差</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>IC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>IH</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>IF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>期货持仓</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Long</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Short</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Offset</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>IF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>IC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ETF收盘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>7月</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>6月</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -144,12 +145,20 @@
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -871,61 +880,391 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="961">
+  <cellStyleXfs count="1073">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -934,69 +1273,36 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,9 +1393,6 @@
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1258,6 +1561,1533 @@
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1594,1491 +3424,6 @@
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3752,121 +4097,141 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="961">
+  <cellStyles count="1073">
     <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 10" xfId="737"/>
     <cellStyle name="20% - 强调文字颜色 1 11" xfId="849"/>
+    <cellStyle name="20% - 强调文字颜色 1 12" xfId="961"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="47"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="244"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="492"/>
@@ -3875,39 +4240,47 @@
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="146"/>
     <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="753"/>
     <cellStyle name="20% - 强调文字颜色 1 2 7" xfId="865"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 8" xfId="977"/>
     <cellStyle name="20% - 强调文字颜色 1 3" xfId="61"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="493"/>
     <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="245"/>
     <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="160"/>
     <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="767"/>
     <cellStyle name="20% - 强调文字颜色 1 3 6" xfId="879"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 7" xfId="991"/>
     <cellStyle name="20% - 强调文字颜色 1 4" xfId="76"/>
     <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="494"/>
     <cellStyle name="20% - 强调文字颜色 1 4 3" xfId="246"/>
     <cellStyle name="20% - 强调文字颜色 1 4 4" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 1 4 5" xfId="781"/>
     <cellStyle name="20% - 强调文字颜色 1 4 6" xfId="893"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 7" xfId="1005"/>
     <cellStyle name="20% - 强调文字颜色 1 5" xfId="90"/>
     <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="495"/>
     <cellStyle name="20% - 强调文字颜色 1 5 3" xfId="247"/>
     <cellStyle name="20% - 强调文字颜色 1 5 4" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 1 5 5" xfId="795"/>
     <cellStyle name="20% - 强调文字颜色 1 5 6" xfId="907"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 7" xfId="1019"/>
     <cellStyle name="20% - 强调文字颜色 1 6" xfId="104"/>
     <cellStyle name="20% - 强调文字颜色 1 6 2" xfId="202"/>
     <cellStyle name="20% - 强调文字颜色 1 6 3" xfId="809"/>
     <cellStyle name="20% - 强调文字颜色 1 6 4" xfId="921"/>
+    <cellStyle name="20% - 强调文字颜色 1 6 5" xfId="1033"/>
     <cellStyle name="20% - 强调文字颜色 1 7" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 1 7 2" xfId="216"/>
     <cellStyle name="20% - 强调文字颜色 1 7 3" xfId="823"/>
     <cellStyle name="20% - 强调文字颜色 1 7 4" xfId="935"/>
+    <cellStyle name="20% - 强调文字颜色 1 7 5" xfId="1047"/>
     <cellStyle name="20% - 强调文字颜色 1 8" xfId="230"/>
     <cellStyle name="20% - 强调文字颜色 1 8 2" xfId="837"/>
     <cellStyle name="20% - 强调文字颜色 1 8 3" xfId="949"/>
+    <cellStyle name="20% - 强调文字颜色 1 8 4" xfId="1061"/>
     <cellStyle name="20% - 强调文字颜色 1 9" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2 10" xfId="739"/>
     <cellStyle name="20% - 强调文字颜色 2 11" xfId="851"/>
+    <cellStyle name="20% - 强调文字颜色 2 12" xfId="963"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="49"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="249"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="497"/>
@@ -3916,39 +4289,47 @@
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="148"/>
     <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="755"/>
     <cellStyle name="20% - 强调文字颜色 2 2 7" xfId="867"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 8" xfId="979"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="63"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="498"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="250"/>
     <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="769"/>
     <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="881"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 7" xfId="993"/>
     <cellStyle name="20% - 强调文字颜色 2 4" xfId="78"/>
     <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="499"/>
     <cellStyle name="20% - 强调文字颜色 2 4 3" xfId="251"/>
     <cellStyle name="20% - 强调文字颜色 2 4 4" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 2 4 5" xfId="783"/>
     <cellStyle name="20% - 强调文字颜色 2 4 6" xfId="895"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 7" xfId="1007"/>
     <cellStyle name="20% - 强调文字颜色 2 5" xfId="92"/>
     <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="500"/>
     <cellStyle name="20% - 强调文字颜色 2 5 3" xfId="252"/>
     <cellStyle name="20% - 强调文字颜色 2 5 4" xfId="190"/>
     <cellStyle name="20% - 强调文字颜色 2 5 5" xfId="797"/>
     <cellStyle name="20% - 强调文字颜色 2 5 6" xfId="909"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 7" xfId="1021"/>
     <cellStyle name="20% - 强调文字颜色 2 6" xfId="106"/>
     <cellStyle name="20% - 强调文字颜色 2 6 2" xfId="204"/>
     <cellStyle name="20% - 强调文字颜色 2 6 3" xfId="811"/>
     <cellStyle name="20% - 强调文字颜色 2 6 4" xfId="923"/>
+    <cellStyle name="20% - 强调文字颜色 2 6 5" xfId="1035"/>
     <cellStyle name="20% - 强调文字颜色 2 7" xfId="120"/>
     <cellStyle name="20% - 强调文字颜色 2 7 2" xfId="218"/>
     <cellStyle name="20% - 强调文字颜色 2 7 3" xfId="825"/>
     <cellStyle name="20% - 强调文字颜色 2 7 4" xfId="937"/>
+    <cellStyle name="20% - 强调文字颜色 2 7 5" xfId="1049"/>
     <cellStyle name="20% - 强调文字颜色 2 8" xfId="232"/>
     <cellStyle name="20% - 强调文字颜色 2 8 2" xfId="839"/>
     <cellStyle name="20% - 强调文字颜色 2 8 3" xfId="951"/>
+    <cellStyle name="20% - 强调文字颜色 2 8 4" xfId="1063"/>
     <cellStyle name="20% - 强调文字颜色 2 9" xfId="132"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="28" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3 10" xfId="741"/>
     <cellStyle name="20% - 强调文字颜色 3 11" xfId="853"/>
+    <cellStyle name="20% - 强调文字颜色 3 12" xfId="965"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="51"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="254"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="502"/>
@@ -3957,39 +4338,47 @@
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="150"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="757"/>
     <cellStyle name="20% - 强调文字颜色 3 2 7" xfId="869"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 8" xfId="981"/>
     <cellStyle name="20% - 强调文字颜色 3 3" xfId="65"/>
     <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="503"/>
     <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="255"/>
     <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="164"/>
     <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="771"/>
     <cellStyle name="20% - 强调文字颜色 3 3 6" xfId="883"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 7" xfId="995"/>
     <cellStyle name="20% - 强调文字颜色 3 4" xfId="80"/>
     <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="504"/>
     <cellStyle name="20% - 强调文字颜色 3 4 3" xfId="256"/>
     <cellStyle name="20% - 强调文字颜色 3 4 4" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 3 4 5" xfId="785"/>
     <cellStyle name="20% - 强调文字颜色 3 4 6" xfId="897"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 7" xfId="1009"/>
     <cellStyle name="20% - 强调文字颜色 3 5" xfId="94"/>
     <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="505"/>
     <cellStyle name="20% - 强调文字颜色 3 5 3" xfId="257"/>
     <cellStyle name="20% - 强调文字颜色 3 5 4" xfId="192"/>
     <cellStyle name="20% - 强调文字颜色 3 5 5" xfId="799"/>
     <cellStyle name="20% - 强调文字颜色 3 5 6" xfId="911"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 7" xfId="1023"/>
     <cellStyle name="20% - 强调文字颜色 3 6" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 3 6 2" xfId="206"/>
     <cellStyle name="20% - 强调文字颜色 3 6 3" xfId="813"/>
     <cellStyle name="20% - 强调文字颜色 3 6 4" xfId="925"/>
+    <cellStyle name="20% - 强调文字颜色 3 6 5" xfId="1037"/>
     <cellStyle name="20% - 强调文字颜色 3 7" xfId="122"/>
     <cellStyle name="20% - 强调文字颜色 3 7 2" xfId="220"/>
     <cellStyle name="20% - 强调文字颜色 3 7 3" xfId="827"/>
     <cellStyle name="20% - 强调文字颜色 3 7 4" xfId="939"/>
+    <cellStyle name="20% - 强调文字颜色 3 7 5" xfId="1051"/>
     <cellStyle name="20% - 强调文字颜色 3 8" xfId="234"/>
     <cellStyle name="20% - 强调文字颜色 3 8 2" xfId="841"/>
     <cellStyle name="20% - 强调文字颜色 3 8 3" xfId="953"/>
+    <cellStyle name="20% - 强调文字颜色 3 8 4" xfId="1065"/>
     <cellStyle name="20% - 强调文字颜色 3 9" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="32" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 4 10" xfId="743"/>
     <cellStyle name="20% - 强调文字颜色 4 11" xfId="855"/>
+    <cellStyle name="20% - 强调文字颜色 4 12" xfId="967"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="53"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="259"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="507"/>
@@ -3998,39 +4387,47 @@
     <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="759"/>
     <cellStyle name="20% - 强调文字颜色 4 2 7" xfId="871"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 8" xfId="983"/>
     <cellStyle name="20% - 强调文字颜色 4 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="508"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="260"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="166"/>
     <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="773"/>
     <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="885"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 7" xfId="997"/>
     <cellStyle name="20% - 强调文字颜色 4 4" xfId="82"/>
     <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="509"/>
     <cellStyle name="20% - 强调文字颜色 4 4 3" xfId="261"/>
     <cellStyle name="20% - 强调文字颜色 4 4 4" xfId="180"/>
     <cellStyle name="20% - 强调文字颜色 4 4 5" xfId="787"/>
     <cellStyle name="20% - 强调文字颜色 4 4 6" xfId="899"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 7" xfId="1011"/>
     <cellStyle name="20% - 强调文字颜色 4 5" xfId="96"/>
     <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="510"/>
     <cellStyle name="20% - 强调文字颜色 4 5 3" xfId="262"/>
     <cellStyle name="20% - 强调文字颜色 4 5 4" xfId="194"/>
     <cellStyle name="20% - 强调文字颜色 4 5 5" xfId="801"/>
     <cellStyle name="20% - 强调文字颜色 4 5 6" xfId="913"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 7" xfId="1025"/>
     <cellStyle name="20% - 强调文字颜色 4 6" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 4 6 2" xfId="208"/>
     <cellStyle name="20% - 强调文字颜色 4 6 3" xfId="815"/>
     <cellStyle name="20% - 强调文字颜色 4 6 4" xfId="927"/>
+    <cellStyle name="20% - 强调文字颜色 4 6 5" xfId="1039"/>
     <cellStyle name="20% - 强调文字颜色 4 7" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 4 7 2" xfId="222"/>
     <cellStyle name="20% - 强调文字颜色 4 7 3" xfId="829"/>
     <cellStyle name="20% - 强调文字颜色 4 7 4" xfId="941"/>
+    <cellStyle name="20% - 强调文字颜色 4 7 5" xfId="1053"/>
     <cellStyle name="20% - 强调文字颜色 4 8" xfId="236"/>
     <cellStyle name="20% - 强调文字颜色 4 8 2" xfId="843"/>
     <cellStyle name="20% - 强调文字颜色 4 8 3" xfId="955"/>
+    <cellStyle name="20% - 强调文字颜色 4 8 4" xfId="1067"/>
     <cellStyle name="20% - 强调文字颜色 4 9" xfId="136"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 5 10" xfId="745"/>
     <cellStyle name="20% - 强调文字颜色 5 11" xfId="857"/>
+    <cellStyle name="20% - 强调文字颜色 5 12" xfId="969"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="55"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="264"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="512"/>
@@ -4039,39 +4436,47 @@
     <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="154"/>
     <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="761"/>
     <cellStyle name="20% - 强调文字颜色 5 2 7" xfId="873"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 8" xfId="985"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="69"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="513"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="265"/>
     <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 3 5" xfId="775"/>
     <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="887"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="999"/>
     <cellStyle name="20% - 强调文字颜色 5 4" xfId="84"/>
     <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="514"/>
     <cellStyle name="20% - 强调文字颜色 5 4 3" xfId="266"/>
     <cellStyle name="20% - 强调文字颜色 5 4 4" xfId="182"/>
     <cellStyle name="20% - 强调文字颜色 5 4 5" xfId="789"/>
     <cellStyle name="20% - 强调文字颜色 5 4 6" xfId="901"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 7" xfId="1013"/>
     <cellStyle name="20% - 强调文字颜色 5 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="515"/>
     <cellStyle name="20% - 强调文字颜色 5 5 3" xfId="267"/>
     <cellStyle name="20% - 强调文字颜色 5 5 4" xfId="196"/>
     <cellStyle name="20% - 强调文字颜色 5 5 5" xfId="803"/>
     <cellStyle name="20% - 强调文字颜色 5 5 6" xfId="915"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 7" xfId="1027"/>
     <cellStyle name="20% - 强调文字颜色 5 6" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 5 6 2" xfId="210"/>
     <cellStyle name="20% - 强调文字颜色 5 6 3" xfId="817"/>
     <cellStyle name="20% - 强调文字颜色 5 6 4" xfId="929"/>
+    <cellStyle name="20% - 强调文字颜色 5 6 5" xfId="1041"/>
     <cellStyle name="20% - 强调文字颜色 5 7" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 5 7 2" xfId="224"/>
     <cellStyle name="20% - 强调文字颜色 5 7 3" xfId="831"/>
     <cellStyle name="20% - 强调文字颜色 5 7 4" xfId="943"/>
+    <cellStyle name="20% - 强调文字颜色 5 7 5" xfId="1055"/>
     <cellStyle name="20% - 强调文字颜色 5 8" xfId="238"/>
     <cellStyle name="20% - 强调文字颜色 5 8 2" xfId="845"/>
     <cellStyle name="20% - 强调文字颜色 5 8 3" xfId="957"/>
+    <cellStyle name="20% - 强调文字颜色 5 8 4" xfId="1069"/>
     <cellStyle name="20% - 强调文字颜色 5 9" xfId="138"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 6 10" xfId="747"/>
     <cellStyle name="20% - 强调文字颜色 6 11" xfId="859"/>
+    <cellStyle name="20% - 强调文字颜色 6 12" xfId="971"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="57"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="269"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="517"/>
@@ -4080,39 +4485,47 @@
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="156"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="763"/>
     <cellStyle name="20% - 强调文字颜色 6 2 7" xfId="875"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 8" xfId="987"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="71"/>
     <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="518"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="270"/>
     <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="170"/>
     <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="777"/>
     <cellStyle name="20% - 强调文字颜色 6 3 6" xfId="889"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 7" xfId="1001"/>
     <cellStyle name="20% - 强调文字颜色 6 4" xfId="86"/>
     <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="519"/>
     <cellStyle name="20% - 强调文字颜色 6 4 3" xfId="271"/>
     <cellStyle name="20% - 强调文字颜色 6 4 4" xfId="184"/>
     <cellStyle name="20% - 强调文字颜色 6 4 5" xfId="791"/>
     <cellStyle name="20% - 强调文字颜色 6 4 6" xfId="903"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 7" xfId="1015"/>
     <cellStyle name="20% - 强调文字颜色 6 5" xfId="100"/>
     <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="520"/>
     <cellStyle name="20% - 强调文字颜色 6 5 3" xfId="272"/>
     <cellStyle name="20% - 强调文字颜色 6 5 4" xfId="198"/>
     <cellStyle name="20% - 强调文字颜色 6 5 5" xfId="805"/>
     <cellStyle name="20% - 强调文字颜色 6 5 6" xfId="917"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 7" xfId="1029"/>
     <cellStyle name="20% - 强调文字颜色 6 6" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 6 6 2" xfId="212"/>
     <cellStyle name="20% - 强调文字颜色 6 6 3" xfId="819"/>
     <cellStyle name="20% - 强调文字颜色 6 6 4" xfId="931"/>
+    <cellStyle name="20% - 强调文字颜色 6 6 5" xfId="1043"/>
     <cellStyle name="20% - 强调文字颜色 6 7" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 6 7 2" xfId="226"/>
     <cellStyle name="20% - 强调文字颜色 6 7 3" xfId="833"/>
     <cellStyle name="20% - 强调文字颜色 6 7 4" xfId="945"/>
+    <cellStyle name="20% - 强调文字颜色 6 7 5" xfId="1057"/>
     <cellStyle name="20% - 强调文字颜色 6 8" xfId="240"/>
     <cellStyle name="20% - 强调文字颜色 6 8 2" xfId="847"/>
     <cellStyle name="20% - 强调文字颜色 6 8 3" xfId="959"/>
+    <cellStyle name="20% - 强调文字颜色 6 8 4" xfId="1071"/>
     <cellStyle name="20% - 强调文字颜色 6 9" xfId="140"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="21" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 1 10" xfId="738"/>
     <cellStyle name="40% - 强调文字颜色 1 11" xfId="850"/>
+    <cellStyle name="40% - 强调文字颜色 1 12" xfId="962"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="48"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="274"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="522"/>
@@ -4121,39 +4534,47 @@
     <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="147"/>
     <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="754"/>
     <cellStyle name="40% - 强调文字颜色 1 2 7" xfId="866"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 8" xfId="978"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="62"/>
     <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="523"/>
     <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="275"/>
     <cellStyle name="40% - 强调文字颜色 1 3 4" xfId="161"/>
     <cellStyle name="40% - 强调文字颜色 1 3 5" xfId="768"/>
     <cellStyle name="40% - 强调文字颜色 1 3 6" xfId="880"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 7" xfId="992"/>
     <cellStyle name="40% - 强调文字颜色 1 4" xfId="77"/>
     <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="524"/>
     <cellStyle name="40% - 强调文字颜色 1 4 3" xfId="276"/>
     <cellStyle name="40% - 强调文字颜色 1 4 4" xfId="175"/>
     <cellStyle name="40% - 强调文字颜色 1 4 5" xfId="782"/>
     <cellStyle name="40% - 强调文字颜色 1 4 6" xfId="894"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 7" xfId="1006"/>
     <cellStyle name="40% - 强调文字颜色 1 5" xfId="91"/>
     <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="525"/>
     <cellStyle name="40% - 强调文字颜色 1 5 3" xfId="277"/>
     <cellStyle name="40% - 强调文字颜色 1 5 4" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 1 5 5" xfId="796"/>
     <cellStyle name="40% - 强调文字颜色 1 5 6" xfId="908"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 7" xfId="1020"/>
     <cellStyle name="40% - 强调文字颜色 1 6" xfId="105"/>
     <cellStyle name="40% - 强调文字颜色 1 6 2" xfId="203"/>
     <cellStyle name="40% - 强调文字颜色 1 6 3" xfId="810"/>
     <cellStyle name="40% - 强调文字颜色 1 6 4" xfId="922"/>
+    <cellStyle name="40% - 强调文字颜色 1 6 5" xfId="1034"/>
     <cellStyle name="40% - 强调文字颜色 1 7" xfId="119"/>
     <cellStyle name="40% - 强调文字颜色 1 7 2" xfId="217"/>
     <cellStyle name="40% - 强调文字颜色 1 7 3" xfId="824"/>
     <cellStyle name="40% - 强调文字颜色 1 7 4" xfId="936"/>
+    <cellStyle name="40% - 强调文字颜色 1 7 5" xfId="1048"/>
     <cellStyle name="40% - 强调文字颜色 1 8" xfId="231"/>
     <cellStyle name="40% - 强调文字颜色 1 8 2" xfId="838"/>
     <cellStyle name="40% - 强调文字颜色 1 8 3" xfId="950"/>
+    <cellStyle name="40% - 强调文字颜色 1 8 4" xfId="1062"/>
     <cellStyle name="40% - 强调文字颜色 1 9" xfId="131"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="25" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 2 10" xfId="740"/>
     <cellStyle name="40% - 强调文字颜色 2 11" xfId="852"/>
+    <cellStyle name="40% - 强调文字颜色 2 12" xfId="964"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="50"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="279"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="527"/>
@@ -4162,39 +4583,47 @@
     <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="149"/>
     <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="756"/>
     <cellStyle name="40% - 强调文字颜色 2 2 7" xfId="868"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 8" xfId="980"/>
     <cellStyle name="40% - 强调文字颜色 2 3" xfId="64"/>
     <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="528"/>
     <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="280"/>
     <cellStyle name="40% - 强调文字颜色 2 3 4" xfId="163"/>
     <cellStyle name="40% - 强调文字颜色 2 3 5" xfId="770"/>
     <cellStyle name="40% - 强调文字颜色 2 3 6" xfId="882"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 7" xfId="994"/>
     <cellStyle name="40% - 强调文字颜色 2 4" xfId="79"/>
     <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="529"/>
     <cellStyle name="40% - 强调文字颜色 2 4 3" xfId="281"/>
     <cellStyle name="40% - 强调文字颜色 2 4 4" xfId="177"/>
     <cellStyle name="40% - 强调文字颜色 2 4 5" xfId="784"/>
     <cellStyle name="40% - 强调文字颜色 2 4 6" xfId="896"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 7" xfId="1008"/>
     <cellStyle name="40% - 强调文字颜色 2 5" xfId="93"/>
     <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="530"/>
     <cellStyle name="40% - 强调文字颜色 2 5 3" xfId="282"/>
     <cellStyle name="40% - 强调文字颜色 2 5 4" xfId="191"/>
     <cellStyle name="40% - 强调文字颜色 2 5 5" xfId="798"/>
     <cellStyle name="40% - 强调文字颜色 2 5 6" xfId="910"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 7" xfId="1022"/>
     <cellStyle name="40% - 强调文字颜色 2 6" xfId="107"/>
     <cellStyle name="40% - 强调文字颜色 2 6 2" xfId="205"/>
     <cellStyle name="40% - 强调文字颜色 2 6 3" xfId="812"/>
     <cellStyle name="40% - 强调文字颜色 2 6 4" xfId="924"/>
+    <cellStyle name="40% - 强调文字颜色 2 6 5" xfId="1036"/>
     <cellStyle name="40% - 强调文字颜色 2 7" xfId="121"/>
     <cellStyle name="40% - 强调文字颜色 2 7 2" xfId="219"/>
     <cellStyle name="40% - 强调文字颜色 2 7 3" xfId="826"/>
     <cellStyle name="40% - 强调文字颜色 2 7 4" xfId="938"/>
+    <cellStyle name="40% - 强调文字颜色 2 7 5" xfId="1050"/>
     <cellStyle name="40% - 强调文字颜色 2 8" xfId="233"/>
     <cellStyle name="40% - 强调文字颜色 2 8 2" xfId="840"/>
     <cellStyle name="40% - 强调文字颜色 2 8 3" xfId="952"/>
+    <cellStyle name="40% - 强调文字颜色 2 8 4" xfId="1064"/>
     <cellStyle name="40% - 强调文字颜色 2 9" xfId="133"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="29" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 3 10" xfId="742"/>
     <cellStyle name="40% - 强调文字颜色 3 11" xfId="854"/>
+    <cellStyle name="40% - 强调文字颜色 3 12" xfId="966"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="52"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="284"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="532"/>
@@ -4203,39 +4632,47 @@
     <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="151"/>
     <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="758"/>
     <cellStyle name="40% - 强调文字颜色 3 2 7" xfId="870"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 8" xfId="982"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="66"/>
     <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="533"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="285"/>
     <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="165"/>
     <cellStyle name="40% - 强调文字颜色 3 3 5" xfId="772"/>
     <cellStyle name="40% - 强调文字颜色 3 3 6" xfId="884"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 7" xfId="996"/>
     <cellStyle name="40% - 强调文字颜色 3 4" xfId="81"/>
     <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="534"/>
     <cellStyle name="40% - 强调文字颜色 3 4 3" xfId="286"/>
     <cellStyle name="40% - 强调文字颜色 3 4 4" xfId="179"/>
     <cellStyle name="40% - 强调文字颜色 3 4 5" xfId="786"/>
     <cellStyle name="40% - 强调文字颜色 3 4 6" xfId="898"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 7" xfId="1010"/>
     <cellStyle name="40% - 强调文字颜色 3 5" xfId="95"/>
     <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="535"/>
     <cellStyle name="40% - 强调文字颜色 3 5 3" xfId="287"/>
     <cellStyle name="40% - 强调文字颜色 3 5 4" xfId="193"/>
     <cellStyle name="40% - 强调文字颜色 3 5 5" xfId="800"/>
     <cellStyle name="40% - 强调文字颜色 3 5 6" xfId="912"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 7" xfId="1024"/>
     <cellStyle name="40% - 强调文字颜色 3 6" xfId="109"/>
     <cellStyle name="40% - 强调文字颜色 3 6 2" xfId="207"/>
     <cellStyle name="40% - 强调文字颜色 3 6 3" xfId="814"/>
     <cellStyle name="40% - 强调文字颜色 3 6 4" xfId="926"/>
+    <cellStyle name="40% - 强调文字颜色 3 6 5" xfId="1038"/>
     <cellStyle name="40% - 强调文字颜色 3 7" xfId="123"/>
     <cellStyle name="40% - 强调文字颜色 3 7 2" xfId="221"/>
     <cellStyle name="40% - 强调文字颜色 3 7 3" xfId="828"/>
     <cellStyle name="40% - 强调文字颜色 3 7 4" xfId="940"/>
+    <cellStyle name="40% - 强调文字颜色 3 7 5" xfId="1052"/>
     <cellStyle name="40% - 强调文字颜色 3 8" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 3 8 2" xfId="842"/>
     <cellStyle name="40% - 强调文字颜色 3 8 3" xfId="954"/>
+    <cellStyle name="40% - 强调文字颜色 3 8 4" xfId="1066"/>
     <cellStyle name="40% - 强调文字颜色 3 9" xfId="135"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="33" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 4 10" xfId="744"/>
     <cellStyle name="40% - 强调文字颜色 4 11" xfId="856"/>
+    <cellStyle name="40% - 强调文字颜色 4 12" xfId="968"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="54"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="289"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="537"/>
@@ -4244,39 +4681,47 @@
     <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="153"/>
     <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="760"/>
     <cellStyle name="40% - 强调文字颜色 4 2 7" xfId="872"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 8" xfId="984"/>
     <cellStyle name="40% - 强调文字颜色 4 3" xfId="68"/>
     <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="538"/>
     <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="290"/>
     <cellStyle name="40% - 强调文字颜色 4 3 4" xfId="167"/>
     <cellStyle name="40% - 强调文字颜色 4 3 5" xfId="774"/>
     <cellStyle name="40% - 强调文字颜色 4 3 6" xfId="886"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 7" xfId="998"/>
     <cellStyle name="40% - 强调文字颜色 4 4" xfId="83"/>
     <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="539"/>
     <cellStyle name="40% - 强调文字颜色 4 4 3" xfId="291"/>
     <cellStyle name="40% - 强调文字颜色 4 4 4" xfId="181"/>
     <cellStyle name="40% - 强调文字颜色 4 4 5" xfId="788"/>
     <cellStyle name="40% - 强调文字颜色 4 4 6" xfId="900"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 7" xfId="1012"/>
     <cellStyle name="40% - 强调文字颜色 4 5" xfId="97"/>
     <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="540"/>
     <cellStyle name="40% - 强调文字颜色 4 5 3" xfId="292"/>
     <cellStyle name="40% - 强调文字颜色 4 5 4" xfId="195"/>
     <cellStyle name="40% - 强调文字颜色 4 5 5" xfId="802"/>
     <cellStyle name="40% - 强调文字颜色 4 5 6" xfId="914"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 7" xfId="1026"/>
     <cellStyle name="40% - 强调文字颜色 4 6" xfId="111"/>
     <cellStyle name="40% - 强调文字颜色 4 6 2" xfId="209"/>
     <cellStyle name="40% - 强调文字颜色 4 6 3" xfId="816"/>
     <cellStyle name="40% - 强调文字颜色 4 6 4" xfId="928"/>
+    <cellStyle name="40% - 强调文字颜色 4 6 5" xfId="1040"/>
     <cellStyle name="40% - 强调文字颜色 4 7" xfId="125"/>
     <cellStyle name="40% - 强调文字颜色 4 7 2" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 4 7 3" xfId="830"/>
     <cellStyle name="40% - 强调文字颜色 4 7 4" xfId="942"/>
+    <cellStyle name="40% - 强调文字颜色 4 7 5" xfId="1054"/>
     <cellStyle name="40% - 强调文字颜色 4 8" xfId="237"/>
     <cellStyle name="40% - 强调文字颜色 4 8 2" xfId="844"/>
     <cellStyle name="40% - 强调文字颜色 4 8 3" xfId="956"/>
+    <cellStyle name="40% - 强调文字颜色 4 8 4" xfId="1068"/>
     <cellStyle name="40% - 强调文字颜色 4 9" xfId="137"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="37" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 5 10" xfId="746"/>
     <cellStyle name="40% - 强调文字颜色 5 11" xfId="858"/>
+    <cellStyle name="40% - 强调文字颜色 5 12" xfId="970"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="56"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="294"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="542"/>
@@ -4285,39 +4730,47 @@
     <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="155"/>
     <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="762"/>
     <cellStyle name="40% - 强调文字颜色 5 2 7" xfId="874"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 8" xfId="986"/>
     <cellStyle name="40% - 强调文字颜色 5 3" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="543"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="295"/>
     <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="169"/>
     <cellStyle name="40% - 强调文字颜色 5 3 5" xfId="776"/>
     <cellStyle name="40% - 强调文字颜色 5 3 6" xfId="888"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 7" xfId="1000"/>
     <cellStyle name="40% - 强调文字颜色 5 4" xfId="85"/>
     <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="544"/>
     <cellStyle name="40% - 强调文字颜色 5 4 3" xfId="296"/>
     <cellStyle name="40% - 强调文字颜色 5 4 4" xfId="183"/>
     <cellStyle name="40% - 强调文字颜色 5 4 5" xfId="790"/>
     <cellStyle name="40% - 强调文字颜色 5 4 6" xfId="902"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 7" xfId="1014"/>
     <cellStyle name="40% - 强调文字颜色 5 5" xfId="99"/>
     <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="545"/>
     <cellStyle name="40% - 强调文字颜色 5 5 3" xfId="297"/>
     <cellStyle name="40% - 强调文字颜色 5 5 4" xfId="197"/>
     <cellStyle name="40% - 强调文字颜色 5 5 5" xfId="804"/>
     <cellStyle name="40% - 强调文字颜色 5 5 6" xfId="916"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 7" xfId="1028"/>
     <cellStyle name="40% - 强调文字颜色 5 6" xfId="113"/>
     <cellStyle name="40% - 强调文字颜色 5 6 2" xfId="211"/>
     <cellStyle name="40% - 强调文字颜色 5 6 3" xfId="818"/>
     <cellStyle name="40% - 强调文字颜色 5 6 4" xfId="930"/>
+    <cellStyle name="40% - 强调文字颜色 5 6 5" xfId="1042"/>
     <cellStyle name="40% - 强调文字颜色 5 7" xfId="127"/>
     <cellStyle name="40% - 强调文字颜色 5 7 2" xfId="225"/>
     <cellStyle name="40% - 强调文字颜色 5 7 3" xfId="832"/>
     <cellStyle name="40% - 强调文字颜色 5 7 4" xfId="944"/>
+    <cellStyle name="40% - 强调文字颜色 5 7 5" xfId="1056"/>
     <cellStyle name="40% - 强调文字颜色 5 8" xfId="239"/>
     <cellStyle name="40% - 强调文字颜色 5 8 2" xfId="846"/>
     <cellStyle name="40% - 强调文字颜色 5 8 3" xfId="958"/>
+    <cellStyle name="40% - 强调文字颜色 5 8 4" xfId="1070"/>
     <cellStyle name="40% - 强调文字颜色 5 9" xfId="139"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 6 10" xfId="748"/>
     <cellStyle name="40% - 强调文字颜色 6 11" xfId="860"/>
+    <cellStyle name="40% - 强调文字颜色 6 12" xfId="972"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="58"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="299"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="547"/>
@@ -4326,35 +4779,42 @@
     <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="157"/>
     <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="764"/>
     <cellStyle name="40% - 强调文字颜色 6 2 7" xfId="876"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 8" xfId="988"/>
     <cellStyle name="40% - 强调文字颜色 6 3" xfId="72"/>
     <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="548"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="300"/>
     <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="171"/>
     <cellStyle name="40% - 强调文字颜色 6 3 5" xfId="778"/>
     <cellStyle name="40% - 强调文字颜色 6 3 6" xfId="890"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 7" xfId="1002"/>
     <cellStyle name="40% - 强调文字颜色 6 4" xfId="87"/>
     <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="549"/>
     <cellStyle name="40% - 强调文字颜色 6 4 3" xfId="301"/>
     <cellStyle name="40% - 强调文字颜色 6 4 4" xfId="185"/>
     <cellStyle name="40% - 强调文字颜色 6 4 5" xfId="792"/>
     <cellStyle name="40% - 强调文字颜色 6 4 6" xfId="904"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 7" xfId="1016"/>
     <cellStyle name="40% - 强调文字颜色 6 5" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="550"/>
     <cellStyle name="40% - 强调文字颜色 6 5 3" xfId="302"/>
     <cellStyle name="40% - 强调文字颜色 6 5 4" xfId="199"/>
     <cellStyle name="40% - 强调文字颜色 6 5 5" xfId="806"/>
     <cellStyle name="40% - 强调文字颜色 6 5 6" xfId="918"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 7" xfId="1030"/>
     <cellStyle name="40% - 强调文字颜色 6 6" xfId="115"/>
     <cellStyle name="40% - 强调文字颜色 6 6 2" xfId="213"/>
     <cellStyle name="40% - 强调文字颜色 6 6 3" xfId="820"/>
     <cellStyle name="40% - 强调文字颜色 6 6 4" xfId="932"/>
+    <cellStyle name="40% - 强调文字颜色 6 6 5" xfId="1044"/>
     <cellStyle name="40% - 强调文字颜色 6 7" xfId="129"/>
     <cellStyle name="40% - 强调文字颜色 6 7 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 6 7 3" xfId="834"/>
     <cellStyle name="40% - 强调文字颜色 6 7 4" xfId="946"/>
+    <cellStyle name="40% - 强调文字颜色 6 7 5" xfId="1058"/>
     <cellStyle name="40% - 强调文字颜色 6 8" xfId="241"/>
     <cellStyle name="40% - 强调文字颜色 6 8 2" xfId="848"/>
     <cellStyle name="40% - 强调文字颜色 6 8 3" xfId="960"/>
+    <cellStyle name="40% - 强调文字颜色 6 8 4" xfId="1072"/>
     <cellStyle name="40% - 强调文字颜色 6 9" xfId="141"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="303"/>
@@ -4516,6 +4976,7 @@
     <cellStyle name="常规 10" xfId="228"/>
     <cellStyle name="常规 10 2" xfId="835"/>
     <cellStyle name="常规 10 3" xfId="947"/>
+    <cellStyle name="常规 10 4" xfId="1059"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 2 2" xfId="73"/>
@@ -4526,6 +4987,7 @@
     <cellStyle name="常规 2 5" xfId="142"/>
     <cellStyle name="常规 2 6" xfId="749"/>
     <cellStyle name="常规 2 7" xfId="861"/>
+    <cellStyle name="常规 2 8" xfId="973"/>
     <cellStyle name="常规 3" xfId="45"/>
     <cellStyle name="常规 3 2" xfId="378"/>
     <cellStyle name="常规 3 2 2" xfId="625"/>
@@ -4534,35 +4996,41 @@
     <cellStyle name="常规 3 5" xfId="144"/>
     <cellStyle name="常规 3 6" xfId="751"/>
     <cellStyle name="常规 3 7" xfId="863"/>
+    <cellStyle name="常规 3 8" xfId="975"/>
     <cellStyle name="常规 4" xfId="59"/>
     <cellStyle name="常规 4 2" xfId="626"/>
     <cellStyle name="常规 4 3" xfId="379"/>
     <cellStyle name="常规 4 4" xfId="158"/>
     <cellStyle name="常规 4 5" xfId="765"/>
     <cellStyle name="常规 4 6" xfId="877"/>
+    <cellStyle name="常规 4 7" xfId="989"/>
     <cellStyle name="常规 5" xfId="74"/>
     <cellStyle name="常规 5 2" xfId="627"/>
     <cellStyle name="常规 5 3" xfId="380"/>
     <cellStyle name="常规 5 4" xfId="172"/>
     <cellStyle name="常规 5 5" xfId="779"/>
     <cellStyle name="常规 5 6" xfId="891"/>
+    <cellStyle name="常规 5 7" xfId="1003"/>
     <cellStyle name="常规 6" xfId="88"/>
     <cellStyle name="常规 6 2" xfId="628"/>
     <cellStyle name="常规 6 3" xfId="381"/>
     <cellStyle name="常规 6 4" xfId="186"/>
     <cellStyle name="常规 6 5" xfId="793"/>
     <cellStyle name="常规 6 6" xfId="905"/>
+    <cellStyle name="常规 6 7" xfId="1017"/>
     <cellStyle name="常规 7" xfId="102"/>
     <cellStyle name="常规 7 2" xfId="629"/>
     <cellStyle name="常规 7 3" xfId="382"/>
     <cellStyle name="常规 7 4" xfId="200"/>
     <cellStyle name="常规 7 5" xfId="807"/>
     <cellStyle name="常规 7 6" xfId="919"/>
+    <cellStyle name="常规 7 7" xfId="1031"/>
     <cellStyle name="常规 8" xfId="116"/>
     <cellStyle name="常规 8 2" xfId="242"/>
     <cellStyle name="常规 8 3" xfId="214"/>
     <cellStyle name="常规 8 4" xfId="821"/>
     <cellStyle name="常规 8 5" xfId="933"/>
+    <cellStyle name="常规 8 6" xfId="1045"/>
     <cellStyle name="常规 9" xfId="490"/>
     <cellStyle name="好" xfId="8" builtinId="26" customBuiltin="1"/>
     <cellStyle name="好 2" xfId="384"/>
@@ -4788,43 +5256,51 @@
     <cellStyle name="注释 2 5" xfId="143"/>
     <cellStyle name="注释 2 6" xfId="750"/>
     <cellStyle name="注释 2 7" xfId="862"/>
+    <cellStyle name="注释 2 8" xfId="974"/>
     <cellStyle name="注释 3" xfId="46"/>
     <cellStyle name="注释 3 2" xfId="733"/>
     <cellStyle name="注释 3 3" xfId="486"/>
     <cellStyle name="注释 3 4" xfId="145"/>
     <cellStyle name="注释 3 5" xfId="752"/>
     <cellStyle name="注释 3 6" xfId="864"/>
+    <cellStyle name="注释 3 7" xfId="976"/>
     <cellStyle name="注释 4" xfId="60"/>
     <cellStyle name="注释 4 2" xfId="734"/>
     <cellStyle name="注释 4 3" xfId="487"/>
     <cellStyle name="注释 4 4" xfId="159"/>
     <cellStyle name="注释 4 5" xfId="766"/>
     <cellStyle name="注释 4 6" xfId="878"/>
+    <cellStyle name="注释 4 7" xfId="990"/>
     <cellStyle name="注释 5" xfId="75"/>
     <cellStyle name="注释 5 2" xfId="735"/>
     <cellStyle name="注释 5 3" xfId="488"/>
     <cellStyle name="注释 5 4" xfId="173"/>
     <cellStyle name="注释 5 5" xfId="780"/>
     <cellStyle name="注释 5 6" xfId="892"/>
+    <cellStyle name="注释 5 7" xfId="1004"/>
     <cellStyle name="注释 6" xfId="89"/>
     <cellStyle name="注释 6 2" xfId="736"/>
     <cellStyle name="注释 6 3" xfId="489"/>
     <cellStyle name="注释 6 4" xfId="187"/>
     <cellStyle name="注释 6 5" xfId="794"/>
     <cellStyle name="注释 6 6" xfId="906"/>
+    <cellStyle name="注释 6 7" xfId="1018"/>
     <cellStyle name="注释 7" xfId="103"/>
     <cellStyle name="注释 7 2" xfId="483"/>
     <cellStyle name="注释 7 3" xfId="201"/>
     <cellStyle name="注释 7 4" xfId="808"/>
     <cellStyle name="注释 7 5" xfId="920"/>
+    <cellStyle name="注释 7 6" xfId="1032"/>
     <cellStyle name="注释 8" xfId="117"/>
     <cellStyle name="注释 8 2" xfId="730"/>
     <cellStyle name="注释 8 3" xfId="215"/>
     <cellStyle name="注释 8 4" xfId="822"/>
     <cellStyle name="注释 8 5" xfId="934"/>
+    <cellStyle name="注释 8 6" xfId="1046"/>
     <cellStyle name="注释 9" xfId="229"/>
     <cellStyle name="注释 9 2" xfId="836"/>
     <cellStyle name="注释 9 3" xfId="948"/>
+    <cellStyle name="注释 9 4" xfId="1060"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5102,7 +5578,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E16" sqref="E16:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5116,7 +5592,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42888</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5134,7 +5610,7 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="53"/>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
@@ -5153,7 +5629,7 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="54"/>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
@@ -5164,6 +5640,8 @@
       <c r="H4" s="12">
         <v>1706</v>
       </c>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -5178,12 +5656,14 @@
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="59"/>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
@@ -5194,15 +5674,19 @@
       <c r="H6" s="12">
         <v>1709</v>
       </c>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="56"/>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -5215,37 +5699,37 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="59"/>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4750000000000001</v>
+        <v>2.4889999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="59"/>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>0</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="59"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
@@ -5260,7 +5744,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5283,60 +5767,60 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="50">
-        <v>3.1774590000000753</v>
-      </c>
-      <c r="D16" s="51">
-        <v>-10.880000000000109</v>
-      </c>
-      <c r="E16" s="52">
-        <v>-24.590000000000003</v>
+      <c r="C16" s="61">
+        <v>5.0074590000000025</v>
+      </c>
+      <c r="D16" s="62">
+        <v>-8.7400000000002365</v>
+      </c>
+      <c r="E16" s="63">
+        <v>-16.090000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="50">
-        <v>16.220500000000158</v>
-      </c>
-      <c r="D17" s="51">
-        <v>-36.2800000000002</v>
-      </c>
-      <c r="E17" s="52">
-        <v>-67.390000000000185</v>
+      <c r="C17" s="61">
+        <v>16.450499999999721</v>
+      </c>
+      <c r="D17" s="62">
+        <v>-34.940000000000055</v>
+      </c>
+      <c r="E17" s="63">
+        <v>-60.09</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="50">
-        <v>-0.37319999999974662</v>
-      </c>
-      <c r="D18" s="51">
-        <v>-24.049999999999933</v>
-      </c>
-      <c r="E18" s="52">
-        <v>-132.99000000000055</v>
+      <c r="C18" s="61">
+        <v>-2.3432000000000013</v>
+      </c>
+      <c r="D18" s="62">
+        <v>-19.310000000000151</v>
+      </c>
+      <c r="E18" s="63">
+        <v>-128.28999999999982</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="50">
-        <v>-20.17319999999993</v>
-      </c>
-      <c r="D19" s="51">
-        <v>-48.250000000000206</v>
-      </c>
-      <c r="E19" s="52">
-        <v>-207.78999999999982</v>
+      <c r="C19" s="61">
+        <v>-18.543200000000276</v>
+      </c>
+      <c r="D19" s="62">
+        <v>-36.310000000000151</v>
+      </c>
+      <c r="E19" s="63">
+        <v>-200.48999999999964</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -5414,12 +5898,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8639512.1699999999</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>76656292.069999993</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="13">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="13">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>20413541.710000001</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="13">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
+        <v>12012221.140000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>21880164</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>13661035.609999999</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-3</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8">
+        <v>107263860</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5433,7 +6056,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42887</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5451,11 +6074,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43">
-        <v>15743713.310000001</v>
+      <c r="C3" s="53">
+        <v>28867590.68</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11.21</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -5469,20 +6095,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
-        <v>63471370.229999997</v>
+      <c r="C4" s="54">
+        <v>66367210.890000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F4">
+        <v>11.05</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60">
         <v>-2</v>
       </c>
     </row>
@@ -5492,45 +6119,56 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F5">
+        <v>11.15</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="J5">
-        <v>-4</v>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60">
+        <v>-7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="45">
-        <v>24598703.920000002</v>
+      <c r="C6" s="55">
+        <v>21674451.940000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
+      </c>
+      <c r="F6">
+        <v>11.45</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>32</v>
+      <c r="I6" s="60">
+        <v>35</v>
+      </c>
+      <c r="J6" s="60">
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="46">
-        <v>21814860.350000001</v>
+      <c r="C7" s="56">
+        <v>17075821.039999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>21</v>
-      </c>
+      <c r="I7" s="60">
+        <v>19</v>
+      </c>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -5543,43 +6181,49 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47">
-        <v>8050872</v>
+      <c r="C9" s="57">
+        <v>7807056</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>-1E-3</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.4750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48">
-        <v>22450395.280000001</v>
+      <c r="C10" s="58">
+        <v>14932651.300000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="49">
-        <v>36020520</v>
+      <c r="C11" s="59">
+        <v>30247500</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -5587,7 +6231,9 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -5609,36 +6255,60 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="50">
+        <v>3.1774590000000753</v>
+      </c>
+      <c r="D16" s="51">
+        <v>-10.880000000000109</v>
+      </c>
+      <c r="E16" s="52">
+        <v>-24.590000000000003</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="C17" s="50">
+        <v>16.220500000000158</v>
+      </c>
+      <c r="D17" s="51">
+        <v>-36.2800000000002</v>
+      </c>
+      <c r="E17" s="52">
+        <v>-67.390000000000185</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="50">
+        <v>-0.37319999999974662</v>
+      </c>
+      <c r="D18" s="51">
+        <v>-24.049999999999933</v>
+      </c>
+      <c r="E18" s="52">
+        <v>-132.99000000000055</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="50">
+        <v>-20.17319999999993</v>
+      </c>
+      <c r="D19" s="51">
+        <v>-48.250000000000206</v>
+      </c>
+      <c r="E19" s="52">
+        <v>-207.78999999999982</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -5721,7 +6391,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5753,14 +6423,11 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>14811361.23</v>
+      <c r="C3" s="43">
+        <v>15743713.310000001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="F3">
-        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -5774,8 +6441,8 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>51965681.979999997</v>
+      <c r="C4" s="44">
+        <v>63471370.229999997</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
@@ -5785,7 +6452,7 @@
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>-2</v>
@@ -5797,47 +6464,44 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>8.4600000000000009</v>
-      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
-        <v>24905714.850000001</v>
+      <c r="C6" s="45">
+        <v>24598703.920000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F6">
-        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>27085499.949999999</v>
+      <c r="C7" s="46">
+        <v>21814860.350000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5851,28 +6515,26 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>16023360</v>
+      <c r="C9" s="47">
+        <v>8050872</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-8.0000000000000002E-3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3980000000000001</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36">
-        <v>12655613.060000001</v>
+      <c r="C10" s="48">
+        <v>22450395.280000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
@@ -5883,15 +6545,13 @@
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>76730160</v>
+      <c r="C11" s="49">
+        <v>36020520</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>-6.4999999999999997E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -5899,9 +6559,7 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>-3.0000000000000001E-3</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -5923,60 +6581,36 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="40">
-        <v>-5.9073410000000699</v>
-      </c>
-      <c r="D16" s="41">
-        <v>-22.170000000000073</v>
-      </c>
-      <c r="E16" s="42">
-        <v>-13.340000000000003</v>
-      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="40">
-        <v>4.1357000000000141</v>
-      </c>
-      <c r="D17" s="41">
-        <v>-53.170000000000073</v>
-      </c>
-      <c r="E17" s="42">
-        <v>-53.140000000000185</v>
-      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="40">
-        <v>-12.058000000000256</v>
-      </c>
-      <c r="D18" s="41">
-        <v>-39.140000000000079</v>
-      </c>
-      <c r="E18" s="42">
-        <v>-132.73999999999964</v>
-      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="40">
-        <v>-33.658000000000165</v>
-      </c>
-      <c r="D19" s="41">
-        <v>-73.540000000000163</v>
-      </c>
-      <c r="E19" s="42">
-        <v>-213.53999999999982</v>
-      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -6059,7 +6693,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6092,13 +6726,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>10672859.619999999</v>
+        <v>14811361.23</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>6.53</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6113,20 +6747,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="31">
-        <v>67927920.010000005</v>
+        <v>51965681.979999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>8.02</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6136,7 +6770,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -6148,20 +6782,20 @@
         <v>3</v>
       </c>
       <c r="C6" s="36">
-        <v>25153424.48</v>
+        <v>24905714.850000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.26</v>
+        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6169,13 +6803,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="33">
-        <v>16041217.449999999</v>
+        <v>27085499.949999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6190,19 +6824,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="36">
-        <v>15346032</v>
+        <v>16023360</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.403</v>
+        <v>2.3980000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -6210,14 +6844,12 @@
         <v>6</v>
       </c>
       <c r="C10" s="36">
-        <v>18357632.600000001</v>
+        <v>12655613.060000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-2E-3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
@@ -6230,7 +6862,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-2E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6240,7 +6872,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6263,60 +6895,60 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="37">
-        <v>-7.1373410000000881</v>
-      </c>
-      <c r="D16" s="38">
-        <v>-22.190000000000055</v>
-      </c>
-      <c r="E16" s="39">
-        <v>-21.970000000000113</v>
+      <c r="C16" s="40">
+        <v>-5.9073410000000699</v>
+      </c>
+      <c r="D16" s="41">
+        <v>-22.170000000000073</v>
+      </c>
+      <c r="E16" s="42">
+        <v>-13.340000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="37">
-        <v>-0.29430000000027734</v>
-      </c>
-      <c r="D17" s="38">
-        <v>-57.190000000000055</v>
-      </c>
-      <c r="E17" s="39">
-        <v>-59.369999999999749</v>
+      <c r="C17" s="40">
+        <v>4.1357000000000141</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-53.170000000000073</v>
+      </c>
+      <c r="E17" s="42">
+        <v>-53.140000000000185</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="37">
-        <v>-15.288000000000274</v>
-      </c>
-      <c r="D18" s="38">
-        <v>-43.160000000000061</v>
-      </c>
-      <c r="E18" s="39">
-        <v>-144.77000000000029</v>
+      <c r="C18" s="40">
+        <v>-12.058000000000256</v>
+      </c>
+      <c r="D18" s="41">
+        <v>-39.140000000000079</v>
+      </c>
+      <c r="E18" s="42">
+        <v>-132.73999999999964</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="37">
-        <v>-36.088000000000001</v>
-      </c>
-      <c r="D19" s="38">
-        <v>-75.359999999999872</v>
-      </c>
-      <c r="E19" s="39">
-        <v>-226.77000000000029</v>
+      <c r="C19" s="40">
+        <v>-33.658000000000165</v>
+      </c>
+      <c r="D19" s="41">
+        <v>-73.540000000000163</v>
+      </c>
+      <c r="E19" s="42">
+        <v>-213.53999999999982</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -6399,7 +7031,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6432,13 +7064,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>19082415.43</v>
+        <v>10672859.619999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.12</v>
+        <v>6.53</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6453,20 +7085,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="31">
-        <v>69332135.950000003</v>
+        <v>67927920.010000005</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.46</v>
+        <v>8.02</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6476,7 +7108,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.51</v>
+        <v>8</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -6487,21 +7119,21 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32">
-        <v>23241421.07</v>
+      <c r="C6" s="36">
+        <v>25153424.48</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.0500000000000007</v>
+        <v>8.26</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6509,7 +7141,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="33">
-        <v>8776367.3200000003</v>
+        <v>16041217.449999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -6529,8 +7161,8 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="34">
-        <v>20676648</v>
+      <c r="C9" s="36">
+        <v>15346032</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
@@ -6542,15 +7174,15 @@
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3730000000000002</v>
+        <v>2.403</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35">
-        <v>11755882.18</v>
+      <c r="C10" s="36">
+        <v>18357632.600000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
@@ -6564,7 +7196,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="36">
-        <v>103383240</v>
+        <v>76730160</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
@@ -6603,60 +7235,60 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-5.49</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-29.04</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-33.299999999999997</v>
+      <c r="C16" s="37">
+        <v>-7.1373410000000881</v>
+      </c>
+      <c r="D16" s="38">
+        <v>-22.190000000000055</v>
+      </c>
+      <c r="E16" s="39">
+        <v>-21.970000000000113</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="D17" s="21">
-        <v>-61.24</v>
-      </c>
-      <c r="E17" s="21">
-        <v>-82.9</v>
+      <c r="C17" s="37">
+        <v>-0.29430000000027734</v>
+      </c>
+      <c r="D17" s="38">
+        <v>-57.190000000000055</v>
+      </c>
+      <c r="E17" s="39">
+        <v>-59.369999999999749</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-15.44</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-50.01</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-159.9</v>
+      <c r="C18" s="37">
+        <v>-15.288000000000274</v>
+      </c>
+      <c r="D18" s="38">
+        <v>-43.160000000000061</v>
+      </c>
+      <c r="E18" s="39">
+        <v>-144.77000000000029</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-33.24</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-83.81</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-253.7</v>
+      <c r="C19" s="37">
+        <v>-36.088000000000001</v>
+      </c>
+      <c r="D19" s="38">
+        <v>-75.359999999999872</v>
+      </c>
+      <c r="E19" s="39">
+        <v>-226.77000000000029</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -6739,7 +7371,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6753,7 +7385,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42877</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6771,14 +7403,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
-        <v>27542132.420000002</v>
+      <c r="C3" s="30">
+        <v>19082415.43</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.17</v>
+        <v>7.12</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6792,21 +7424,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
-        <v>60673425.390000001</v>
+      <c r="C4" s="31">
+        <v>69332135.950000003</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.62</v>
+        <v>7.46</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6816,7 +7448,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.4</v>
+        <v>7.51</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -6827,29 +7459,29 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27">
-        <v>21207889.350000001</v>
+      <c r="C6" s="32">
+        <v>23241421.07</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.85</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
-        <v>11122238.460000001</v>
+      <c r="C7" s="33">
+        <v>8776367.3200000003</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -6865,46 +7497,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24">
-        <v>21150984</v>
+      <c r="C9" s="34">
+        <v>20676648</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.3730000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25">
-        <v>10768912.51</v>
+      <c r="C10" s="35">
+        <v>11755882.18</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="26">
-        <v>105760560</v>
+      <c r="C11" s="36">
+        <v>103383240</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6914,7 +7552,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6938,13 +7576,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="21">
-        <v>-3</v>
+        <v>-5.49</v>
       </c>
       <c r="D16" s="21">
-        <v>-10.62</v>
+        <v>-29.04</v>
       </c>
       <c r="E16" s="21">
-        <v>-23.04</v>
+        <v>-33.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
@@ -6952,13 +7590,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="21">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="D17" s="21">
-        <v>0</v>
+        <v>-61.24</v>
       </c>
       <c r="E17" s="21">
-        <v>0</v>
+        <v>-82.9</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
@@ -6966,13 +7604,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="21">
-        <v>-5.35</v>
+        <v>-15.44</v>
       </c>
       <c r="D18" s="21">
-        <v>-27.39</v>
+        <v>-50.01</v>
       </c>
       <c r="E18" s="21">
-        <v>-129.44</v>
+        <v>-159.9</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
@@ -6980,17 +7618,17 @@
         <v>1712</v>
       </c>
       <c r="C19" s="21">
-        <v>-23.95</v>
+        <v>-33.24</v>
       </c>
       <c r="D19" s="21">
-        <v>-56.19</v>
+        <v>-83.81</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.84</v>
+        <v>-253.7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -7072,8 +7710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7082,11 +7720,12 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42874</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7104,14 +7743,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>27013656.550000001</v>
+      <c r="C3" s="22">
+        <v>27542132.420000002</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.37</v>
+        <v>7.17</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7125,21 +7764,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>58135549.119999997</v>
+      <c r="C4" s="23">
+        <v>60673425.390000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.28</v>
+        <v>7.62</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <v>1705</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7149,28 +7788,25 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.31</v>
+        <v>7.4</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I5">
-        <v>116</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>20572766.84</v>
+      <c r="C6" s="27">
+        <v>21207889.350000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.71</v>
+        <v>7.85</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
@@ -7184,14 +7820,14 @@
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
-        <v>11767796.859999999</v>
+      <c r="C7" s="28">
+        <v>11122238.460000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7205,42 +7841,42 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
-        <v>21121524</v>
+      <c r="C9" s="24">
+        <v>21150984</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>13661099.779999999</v>
+      <c r="C10" s="25">
+        <v>10768912.51</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>2E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>104957160</v>
+      <c r="C11" s="26">
+        <v>105760560</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7250,7 +7886,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>2.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7263,70 +7899,70 @@
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
-        <v>1705</v>
-      </c>
-      <c r="C16" s="19">
-        <v>-1.1500000000000909</v>
-      </c>
-      <c r="D16" s="20">
-        <v>-5.7100000000000364</v>
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-10.62</v>
       </c>
       <c r="E16" s="21">
-        <v>-14.520000000000366</v>
+        <v>-23.04</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1.3126590000001825</v>
-      </c>
-      <c r="D17" s="20">
-        <v>-11.879999999999946</v>
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
       </c>
       <c r="E17" s="21">
-        <v>-17.960000000000186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="19">
-        <v>-4.43799999999991</v>
-      </c>
-      <c r="D18" s="20">
-        <v>-32.449999999999861</v>
+      <c r="C18" s="21">
+        <v>-5.35</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-27.39</v>
       </c>
       <c r="E18" s="21">
-        <v>-120.96000000000018</v>
+        <v>-129.44</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="19">
-        <v>-18.037999999999819</v>
-      </c>
-      <c r="D19" s="20">
-        <v>-59.650000000000134</v>
+      <c r="C19" s="21">
+        <v>-23.95</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-56.19</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.55999999999963</v>
+        <v>-217.84</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -7406,6 +8042,342 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>27013656.550000001</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.37</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>58135549.119999997</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.28</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1705</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.31</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>20572766.84</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.71</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11767796.859999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21121524</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13661099.779999999</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>104957160</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1705</v>
+      </c>
+      <c r="C16" s="19">
+        <v>-1.1500000000000909</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-14.520000000000366</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1.3126590000001825</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-11.879999999999946</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-17.960000000000186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="19">
+        <v>-4.43799999999991</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-32.449999999999861</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-120.96000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="19">
+        <v>-18.037999999999819</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-59.650000000000134</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.55999999999963</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7627,7 +8599,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C15:C18">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -7667,143 +8639,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>8639512.1699999999</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="13">
-        <v>7.66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>76656292.069999993</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13">
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
-      <c r="E8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="13">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8">
-        <v>20413541.710000001</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="13">
-        <v>8.1300000000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10">
-        <v>12012221.140000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8">
-        <v>21880164</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5">
-        <v>13661035.609999999</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11">
-        <v>-3</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8">
-        <v>107263860</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -7,23 +7,24 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
-    <sheet name="20170602" sheetId="12" r:id="rId1"/>
-    <sheet name="20170601" sheetId="11" r:id="rId2"/>
-    <sheet name="20170526" sheetId="10" r:id="rId3"/>
-    <sheet name="20170525" sheetId="9" r:id="rId4"/>
-    <sheet name="20170524" sheetId="8" r:id="rId5"/>
-    <sheet name="20170523" sheetId="7" r:id="rId6"/>
-    <sheet name="20170522" sheetId="6" r:id="rId7"/>
-    <sheet name="20170519" sheetId="5" r:id="rId8"/>
-    <sheet name="20170518" sheetId="4" r:id="rId9"/>
-    <sheet name="20170517" sheetId="3" r:id="rId10"/>
+    <sheet name="20170605" sheetId="13" r:id="rId1"/>
+    <sheet name="20170602" sheetId="12" r:id="rId2"/>
+    <sheet name="20170601" sheetId="11" r:id="rId3"/>
+    <sheet name="20170526" sheetId="10" r:id="rId4"/>
+    <sheet name="20170525" sheetId="9" r:id="rId5"/>
+    <sheet name="20170524" sheetId="8" r:id="rId6"/>
+    <sheet name="20170523" sheetId="7" r:id="rId7"/>
+    <sheet name="20170522" sheetId="6" r:id="rId8"/>
+    <sheet name="20170519" sheetId="5" r:id="rId9"/>
+    <sheet name="20170518" sheetId="4" r:id="rId10"/>
+    <sheet name="20170517" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="28">
   <si>
     <t>资金信息汇总</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -5577,8 +5578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5592,7 +5593,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42888</v>
+        <v>42891</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5614,8 +5615,8 @@
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>11.21</v>
+      <c r="F3" s="13">
+        <v>11.6</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -5633,8 +5634,8 @@
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4">
-        <v>11.05</v>
+      <c r="F4" s="13">
+        <v>12.01</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
@@ -5649,8 +5650,8 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>11.15</v>
+      <c r="F5" s="13">
+        <v>12.15</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -5667,8 +5668,8 @@
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>11.45</v>
+      <c r="F6" s="13">
+        <v>12.3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
@@ -5704,13 +5705,13 @@
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4889999999999999</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5722,7 +5723,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>-2.5000000000000001E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5734,7 +5735,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5744,7 +5745,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>3.0000000000000001E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5763,65 +5764,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="61">
-        <v>5.0074590000000025</v>
-      </c>
-      <c r="D16" s="62">
-        <v>-8.7400000000002365</v>
-      </c>
-      <c r="E16" s="63">
-        <v>-16.090000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="13">
+        <v>3.3974589999998752</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="13">
+        <v>7.5899999999993781</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="61">
-        <v>16.450499999999721</v>
-      </c>
-      <c r="D17" s="62">
-        <v>-34.940000000000055</v>
-      </c>
-      <c r="E17" s="63">
-        <v>-60.09</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="13">
+        <v>16.440499999999957</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-32.710000000000036</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-33.61000000000044</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="61">
-        <v>-2.3432000000000013</v>
-      </c>
-      <c r="D18" s="62">
-        <v>-19.310000000000151</v>
-      </c>
-      <c r="E18" s="63">
-        <v>-128.28999999999982</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="13">
+        <v>5.0467999999998714</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-9.4800000000002242</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-104.61000000000044</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="61">
-        <v>-18.543200000000276</v>
-      </c>
-      <c r="D19" s="62">
-        <v>-36.310000000000151</v>
-      </c>
-      <c r="E19" s="63">
-        <v>-200.48999999999964</v>
+      <c r="C19" s="13">
+        <v>-6.5532000000000377</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-26.480000000000224</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-195.81000000000026</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C19">
+  <conditionalFormatting sqref="F3:F6 F9:F12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5833,7 +5834,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D19">
+  <conditionalFormatting sqref="F3:F6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5845,7 +5846,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E19">
+  <conditionalFormatting sqref="F9:F12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5857,7 +5858,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
+  <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5869,7 +5870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="D16:D19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5881,7 +5882,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
+  <conditionalFormatting sqref="E16:E19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5900,6 +5901,271 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>18059150.93</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>7.31</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>67143665.489999995</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>7.48</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>7.41</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>20086561.609999999</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>7.93</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>12253680.199999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>21233148</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>13914482.83</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15">
+        <v>-5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>102617640</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>1705</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1.44</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1.03</v>
+      </c>
+      <c r="E15" s="13">
+        <v>-6.07</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="13">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-7.54</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-7.71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C17" s="13">
+        <v>-6.25</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-29.51</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-118.31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C18" s="13">
+        <v>-21.45</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-59.71</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-211.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C15:C18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6042,7 +6308,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6056,7 +6322,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42887</v>
+        <v>42888</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6075,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="53">
-        <v>28867590.68</v>
+        <v>29029597.77</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
@@ -6096,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="54">
-        <v>66367210.890000001</v>
+        <v>74422527.400000006</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
@@ -6110,7 +6376,7 @@
       </c>
       <c r="I4" s="60"/>
       <c r="J4" s="60">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6128,15 +6394,15 @@
       </c>
       <c r="I5" s="60"/>
       <c r="J5" s="60">
-        <v>-7</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="55">
-        <v>21674451.940000001</v>
+      <c r="C6" s="59">
+        <v>19554286.609999999</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
@@ -6149,10 +6415,10 @@
         <v>1709</v>
       </c>
       <c r="I6" s="60">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J6" s="60">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6160,13 +6426,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="56">
-        <v>17075821.039999999</v>
+        <v>14955296.359999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="60">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J7" s="60"/>
     </row>
@@ -6181,43 +6447,41 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="57">
-        <v>7807056</v>
+      <c r="C9" s="59">
+        <v>6268212</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4750000000000001</v>
+        <v>2.4889999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="58">
-        <v>14932651.300000001</v>
+      <c r="C10" s="59">
+        <v>12722925.49</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>0</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="59">
-        <v>30247500</v>
-      </c>
+      <c r="C11" s="59"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
@@ -6232,7 +6496,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6255,56 +6519,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="50">
-        <v>3.1774590000000753</v>
-      </c>
-      <c r="D16" s="51">
-        <v>-10.880000000000109</v>
-      </c>
-      <c r="E16" s="52">
-        <v>-24.590000000000003</v>
+      <c r="C16" s="61">
+        <v>5.0074590000000025</v>
+      </c>
+      <c r="D16" s="62">
+        <v>-8.7400000000002365</v>
+      </c>
+      <c r="E16" s="63">
+        <v>-16.090000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="50">
-        <v>16.220500000000158</v>
-      </c>
-      <c r="D17" s="51">
-        <v>-36.2800000000002</v>
-      </c>
-      <c r="E17" s="52">
-        <v>-67.390000000000185</v>
+      <c r="C17" s="61">
+        <v>16.450499999999721</v>
+      </c>
+      <c r="D17" s="62">
+        <v>-34.940000000000055</v>
+      </c>
+      <c r="E17" s="63">
+        <v>-60.09</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="50">
-        <v>-0.37319999999974662</v>
-      </c>
-      <c r="D18" s="51">
-        <v>-24.049999999999933</v>
-      </c>
-      <c r="E18" s="52">
-        <v>-132.99000000000055</v>
+      <c r="C18" s="61">
+        <v>-2.3432000000000013</v>
+      </c>
+      <c r="D18" s="62">
+        <v>-19.310000000000151</v>
+      </c>
+      <c r="E18" s="63">
+        <v>-128.28999999999982</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="50">
-        <v>-20.17319999999993</v>
-      </c>
-      <c r="D19" s="51">
-        <v>-48.250000000000206</v>
-      </c>
-      <c r="E19" s="52">
-        <v>-207.78999999999982</v>
+      <c r="C19" s="61">
+        <v>-18.543200000000276</v>
+      </c>
+      <c r="D19" s="62">
+        <v>-36.310000000000151</v>
+      </c>
+      <c r="E19" s="63">
+        <v>-200.48999999999964</v>
       </c>
     </row>
   </sheetData>
@@ -6391,7 +6655,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6405,7 +6669,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42887</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6423,11 +6687,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43">
-        <v>15743713.310000001</v>
+      <c r="C3" s="53">
+        <v>28867590.68</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11.21</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6441,20 +6708,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
-        <v>63471370.229999997</v>
+      <c r="C4" s="54">
+        <v>66367210.890000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F4">
+        <v>11.05</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60">
         <v>-2</v>
       </c>
     </row>
@@ -6464,45 +6732,56 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F5">
+        <v>11.15</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="J5">
-        <v>-4</v>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60">
+        <v>-7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="45">
-        <v>24598703.920000002</v>
+      <c r="C6" s="55">
+        <v>21674451.940000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
+      </c>
+      <c r="F6">
+        <v>11.45</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>32</v>
+      <c r="I6" s="60">
+        <v>35</v>
+      </c>
+      <c r="J6" s="60">
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="46">
-        <v>21814860.350000001</v>
+      <c r="C7" s="56">
+        <v>17075821.039999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>21</v>
-      </c>
+      <c r="I7" s="60">
+        <v>19</v>
+      </c>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -6515,43 +6794,49 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47">
-        <v>8050872</v>
+      <c r="C9" s="57">
+        <v>7807056</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>-1E-3</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.4750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48">
-        <v>22450395.280000001</v>
+      <c r="C10" s="58">
+        <v>14932651.300000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="49">
-        <v>36020520</v>
+      <c r="C11" s="59">
+        <v>30247500</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -6559,7 +6844,9 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -6581,33 +6868,57 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="50">
+        <v>3.1774590000000753</v>
+      </c>
+      <c r="D16" s="51">
+        <v>-10.880000000000109</v>
+      </c>
+      <c r="E16" s="52">
+        <v>-24.590000000000003</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="C17" s="50">
+        <v>16.220500000000158</v>
+      </c>
+      <c r="D17" s="51">
+        <v>-36.2800000000002</v>
+      </c>
+      <c r="E17" s="52">
+        <v>-67.390000000000185</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="50">
+        <v>-0.37319999999974662</v>
+      </c>
+      <c r="D18" s="51">
+        <v>-24.049999999999933</v>
+      </c>
+      <c r="E18" s="52">
+        <v>-132.99000000000055</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="50">
+        <v>-20.17319999999993</v>
+      </c>
+      <c r="D19" s="51">
+        <v>-48.250000000000206</v>
+      </c>
+      <c r="E19" s="52">
+        <v>-207.78999999999982</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -6693,7 +7004,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6725,14 +7036,11 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>14811361.23</v>
+      <c r="C3" s="43">
+        <v>15743713.310000001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="F3">
-        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6746,8 +7054,8 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>51965681.979999997</v>
+      <c r="C4" s="44">
+        <v>63471370.229999997</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
@@ -6757,7 +7065,7 @@
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>-2</v>
@@ -6769,47 +7077,44 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>8.4600000000000009</v>
-      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
-        <v>24905714.850000001</v>
+      <c r="C6" s="45">
+        <v>24598703.920000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F6">
-        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>27085499.949999999</v>
+      <c r="C7" s="46">
+        <v>21814860.350000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6823,28 +7128,26 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>16023360</v>
+      <c r="C9" s="47">
+        <v>8050872</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-8.0000000000000002E-3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3980000000000001</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36">
-        <v>12655613.060000001</v>
+      <c r="C10" s="48">
+        <v>22450395.280000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
@@ -6855,15 +7158,13 @@
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>76730160</v>
+      <c r="C11" s="49">
+        <v>36020520</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>-6.4999999999999997E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -6871,9 +7172,7 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>-3.0000000000000001E-3</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -6895,57 +7194,33 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="40">
-        <v>-5.9073410000000699</v>
-      </c>
-      <c r="D16" s="41">
-        <v>-22.170000000000073</v>
-      </c>
-      <c r="E16" s="42">
-        <v>-13.340000000000003</v>
-      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="40">
-        <v>4.1357000000000141</v>
-      </c>
-      <c r="D17" s="41">
-        <v>-53.170000000000073</v>
-      </c>
-      <c r="E17" s="42">
-        <v>-53.140000000000185</v>
-      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="40">
-        <v>-12.058000000000256</v>
-      </c>
-      <c r="D18" s="41">
-        <v>-39.140000000000079</v>
-      </c>
-      <c r="E18" s="42">
-        <v>-132.73999999999964</v>
-      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="40">
-        <v>-33.658000000000165</v>
-      </c>
-      <c r="D19" s="41">
-        <v>-73.540000000000163</v>
-      </c>
-      <c r="E19" s="42">
-        <v>-213.53999999999982</v>
-      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7031,7 +7306,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7064,13 +7339,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>10672859.619999999</v>
+        <v>14811361.23</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>6.53</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7085,20 +7360,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="31">
-        <v>67927920.010000005</v>
+        <v>51965681.979999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>8.02</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7108,7 +7383,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -7120,20 +7395,20 @@
         <v>3</v>
       </c>
       <c r="C6" s="36">
-        <v>25153424.48</v>
+        <v>24905714.850000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.26</v>
+        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7141,13 +7416,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="33">
-        <v>16041217.449999999</v>
+        <v>27085499.949999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7162,19 +7437,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="36">
-        <v>15346032</v>
+        <v>16023360</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.403</v>
+        <v>2.3980000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -7182,14 +7457,12 @@
         <v>6</v>
       </c>
       <c r="C10" s="36">
-        <v>18357632.600000001</v>
+        <v>12655613.060000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-2E-3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
@@ -7202,7 +7475,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-2E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7212,7 +7485,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7235,56 +7508,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="37">
-        <v>-7.1373410000000881</v>
-      </c>
-      <c r="D16" s="38">
-        <v>-22.190000000000055</v>
-      </c>
-      <c r="E16" s="39">
-        <v>-21.970000000000113</v>
+      <c r="C16" s="40">
+        <v>-5.9073410000000699</v>
+      </c>
+      <c r="D16" s="41">
+        <v>-22.170000000000073</v>
+      </c>
+      <c r="E16" s="42">
+        <v>-13.340000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="37">
-        <v>-0.29430000000027734</v>
-      </c>
-      <c r="D17" s="38">
-        <v>-57.190000000000055</v>
-      </c>
-      <c r="E17" s="39">
-        <v>-59.369999999999749</v>
+      <c r="C17" s="40">
+        <v>4.1357000000000141</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-53.170000000000073</v>
+      </c>
+      <c r="E17" s="42">
+        <v>-53.140000000000185</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="37">
-        <v>-15.288000000000274</v>
-      </c>
-      <c r="D18" s="38">
-        <v>-43.160000000000061</v>
-      </c>
-      <c r="E18" s="39">
-        <v>-144.77000000000029</v>
+      <c r="C18" s="40">
+        <v>-12.058000000000256</v>
+      </c>
+      <c r="D18" s="41">
+        <v>-39.140000000000079</v>
+      </c>
+      <c r="E18" s="42">
+        <v>-132.73999999999964</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="37">
-        <v>-36.088000000000001</v>
-      </c>
-      <c r="D19" s="38">
-        <v>-75.359999999999872</v>
-      </c>
-      <c r="E19" s="39">
-        <v>-226.77000000000029</v>
+      <c r="C19" s="40">
+        <v>-33.658000000000165</v>
+      </c>
+      <c r="D19" s="41">
+        <v>-73.540000000000163</v>
+      </c>
+      <c r="E19" s="42">
+        <v>-213.53999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -7371,7 +7644,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7404,13 +7677,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>19082415.43</v>
+        <v>10672859.619999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.12</v>
+        <v>6.53</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7425,20 +7698,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="31">
-        <v>69332135.950000003</v>
+        <v>67927920.010000005</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.46</v>
+        <v>8.02</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7448,7 +7721,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.51</v>
+        <v>8</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -7459,21 +7732,21 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32">
-        <v>23241421.07</v>
+      <c r="C6" s="36">
+        <v>25153424.48</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.0500000000000007</v>
+        <v>8.26</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7481,7 +7754,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="33">
-        <v>8776367.3200000003</v>
+        <v>16041217.449999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -7501,8 +7774,8 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="34">
-        <v>20676648</v>
+      <c r="C9" s="36">
+        <v>15346032</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
@@ -7514,15 +7787,15 @@
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3730000000000002</v>
+        <v>2.403</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35">
-        <v>11755882.18</v>
+      <c r="C10" s="36">
+        <v>18357632.600000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
@@ -7536,7 +7809,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="36">
-        <v>103383240</v>
+        <v>76730160</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
@@ -7575,56 +7848,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-5.49</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-29.04</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-33.299999999999997</v>
+      <c r="C16" s="37">
+        <v>-7.1373410000000881</v>
+      </c>
+      <c r="D16" s="38">
+        <v>-22.190000000000055</v>
+      </c>
+      <c r="E16" s="39">
+        <v>-21.970000000000113</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="D17" s="21">
-        <v>-61.24</v>
-      </c>
-      <c r="E17" s="21">
-        <v>-82.9</v>
+      <c r="C17" s="37">
+        <v>-0.29430000000027734</v>
+      </c>
+      <c r="D17" s="38">
+        <v>-57.190000000000055</v>
+      </c>
+      <c r="E17" s="39">
+        <v>-59.369999999999749</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-15.44</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-50.01</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-159.9</v>
+      <c r="C18" s="37">
+        <v>-15.288000000000274</v>
+      </c>
+      <c r="D18" s="38">
+        <v>-43.160000000000061</v>
+      </c>
+      <c r="E18" s="39">
+        <v>-144.77000000000029</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-33.24</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-83.81</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-253.7</v>
+      <c r="C19" s="37">
+        <v>-36.088000000000001</v>
+      </c>
+      <c r="D19" s="38">
+        <v>-75.359999999999872</v>
+      </c>
+      <c r="E19" s="39">
+        <v>-226.77000000000029</v>
       </c>
     </row>
   </sheetData>
@@ -7711,7 +7984,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7725,7 +7998,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42877</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7743,14 +8016,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
-        <v>27542132.420000002</v>
+      <c r="C3" s="30">
+        <v>19082415.43</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.17</v>
+        <v>7.12</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7764,21 +8037,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
-        <v>60673425.390000001</v>
+      <c r="C4" s="31">
+        <v>69332135.950000003</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.62</v>
+        <v>7.46</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7788,7 +8061,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.4</v>
+        <v>7.51</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -7799,29 +8072,29 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27">
-        <v>21207889.350000001</v>
+      <c r="C6" s="32">
+        <v>23241421.07</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.85</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
-        <v>11122238.460000001</v>
+      <c r="C7" s="33">
+        <v>8776367.3200000003</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -7837,46 +8110,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24">
-        <v>21150984</v>
+      <c r="C9" s="34">
+        <v>20676648</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.3730000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25">
-        <v>10768912.51</v>
+      <c r="C10" s="35">
+        <v>11755882.18</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="26">
-        <v>105760560</v>
+      <c r="C11" s="36">
+        <v>103383240</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7886,7 +8165,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7910,13 +8189,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="21">
-        <v>-3</v>
+        <v>-5.49</v>
       </c>
       <c r="D16" s="21">
-        <v>-10.62</v>
+        <v>-29.04</v>
       </c>
       <c r="E16" s="21">
-        <v>-23.04</v>
+        <v>-33.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
@@ -7924,13 +8203,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="21">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="D17" s="21">
-        <v>0</v>
+        <v>-61.24</v>
       </c>
       <c r="E17" s="21">
-        <v>0</v>
+        <v>-82.9</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
@@ -7938,13 +8217,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="21">
-        <v>-5.35</v>
+        <v>-15.44</v>
       </c>
       <c r="D18" s="21">
-        <v>-27.39</v>
+        <v>-50.01</v>
       </c>
       <c r="E18" s="21">
-        <v>-129.44</v>
+        <v>-159.9</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
@@ -7952,13 +8231,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="21">
-        <v>-23.95</v>
+        <v>-33.24</v>
       </c>
       <c r="D19" s="21">
-        <v>-56.19</v>
+        <v>-83.81</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.84</v>
+        <v>-253.7</v>
       </c>
     </row>
   </sheetData>
@@ -8044,8 +8323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8054,11 +8333,12 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42874</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8076,14 +8356,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>27013656.550000001</v>
+      <c r="C3" s="22">
+        <v>27542132.420000002</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.37</v>
+        <v>7.17</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8097,21 +8377,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>58135549.119999997</v>
+      <c r="C4" s="23">
+        <v>60673425.390000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.28</v>
+        <v>7.62</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <v>1705</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8121,28 +8401,25 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.31</v>
+        <v>7.4</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I5">
-        <v>116</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>20572766.84</v>
+      <c r="C6" s="27">
+        <v>21207889.350000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.71</v>
+        <v>7.85</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
@@ -8156,14 +8433,14 @@
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
-        <v>11767796.859999999</v>
+      <c r="C7" s="28">
+        <v>11122238.460000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8177,42 +8454,42 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
-        <v>21121524</v>
+      <c r="C9" s="24">
+        <v>21150984</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>13661099.779999999</v>
+      <c r="C10" s="25">
+        <v>10768912.51</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>2E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>104957160</v>
+      <c r="C11" s="26">
+        <v>105760560</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8222,7 +8499,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>2.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8235,66 +8512,66 @@
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
-        <v>1705</v>
-      </c>
-      <c r="C16" s="19">
-        <v>-1.1500000000000909</v>
-      </c>
-      <c r="D16" s="20">
-        <v>-5.7100000000000364</v>
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-10.62</v>
       </c>
       <c r="E16" s="21">
-        <v>-14.520000000000366</v>
+        <v>-23.04</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1.3126590000001825</v>
-      </c>
-      <c r="D17" s="20">
-        <v>-11.879999999999946</v>
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
       </c>
       <c r="E17" s="21">
-        <v>-17.960000000000186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="19">
-        <v>-4.43799999999991</v>
-      </c>
-      <c r="D18" s="20">
-        <v>-32.449999999999861</v>
+      <c r="C18" s="21">
+        <v>-5.35</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-27.39</v>
       </c>
       <c r="E18" s="21">
-        <v>-120.96000000000018</v>
+        <v>-129.44</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="19">
-        <v>-18.037999999999819</v>
-      </c>
-      <c r="D19" s="20">
-        <v>-59.650000000000134</v>
+      <c r="C19" s="21">
+        <v>-23.95</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-56.19</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.55999999999963</v>
+        <v>-217.84</v>
       </c>
     </row>
   </sheetData>
@@ -8378,229 +8655,300 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
-        <v>18059150.93</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="C3" s="6">
+        <v>27013656.550000001</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F3">
+        <v>7.37</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>58135549.119999997</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.28</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1705</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
         <v>7.31</v>
       </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>67143665.489999995</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>20572766.84</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.71</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11767796.859999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21121524</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13661099.779999999</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>7.48</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="9"/>
-      <c r="E4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>7.41</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>20086561.609999999</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>7.93</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10">
-        <v>12253680.199999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="9"/>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8">
-        <v>21233148</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>13914482.83</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="15">
-        <v>-5</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="8">
-        <v>102617640</v>
+        <v>104957160</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="F12" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
         <v>1705</v>
       </c>
-      <c r="C15" s="13">
-        <v>1.44</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1.03</v>
-      </c>
-      <c r="E15" s="13">
-        <v>-6.07</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="C16" s="19">
+        <v>-1.1500000000000909</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-14.520000000000366</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="13">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="D16" s="13">
-        <v>-7.54</v>
-      </c>
-      <c r="E16" s="13">
-        <v>-7.71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="C17" s="19">
+        <v>1.3126590000001825</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-11.879999999999946</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-17.960000000000186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C17" s="13">
-        <v>-6.25</v>
-      </c>
-      <c r="D17" s="13">
-        <v>-29.51</v>
-      </c>
-      <c r="E17" s="13">
-        <v>-118.31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="C18" s="19">
+        <v>-4.43799999999991</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-32.449999999999861</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-120.96000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C18" s="13">
-        <v>-21.45</v>
-      </c>
-      <c r="D18" s="13">
-        <v>-59.71</v>
-      </c>
-      <c r="E18" s="13">
-        <v>-211.31</v>
+      <c r="C19" s="19">
+        <v>-18.037999999999819</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-59.650000000000134</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.55999999999963</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C15:C18">
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8612,7 +8960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D18">
+  <conditionalFormatting sqref="F3:F6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8624,7 +8972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E18">
+  <conditionalFormatting sqref="F9:F12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -4098,7 +4098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4225,6 +4225,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="31" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5568,7 +5584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5578,8 +5594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5611,7 +5627,9 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="64">
+        <v>46400118.310000002</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
@@ -5630,7 +5648,9 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="65">
+        <v>56758537.549999997</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
@@ -5641,8 +5661,12 @@
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
+      <c r="I4" s="71">
+        <v>2</v>
+      </c>
+      <c r="J4" s="71">
+        <v>-4</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -5657,14 +5681,16 @@
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="66">
+        <v>21083961.420000002</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
@@ -5675,19 +5701,29 @@
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-6</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="67">
+        <v>13947536.58</v>
+      </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="I7" s="71">
+        <v>13</v>
+      </c>
+      <c r="J7" s="71">
+        <v>-2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -5700,7 +5736,9 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="68">
+        <v>5668260</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
@@ -5718,7 +5756,9 @@
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="69">
+        <v>13263163.310000001</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
@@ -5730,7 +5770,9 @@
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="70">
+        <v>19565280</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>

--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -7,24 +7,26 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
-    <sheet name="20170605" sheetId="13" r:id="rId1"/>
-    <sheet name="20170602" sheetId="12" r:id="rId2"/>
-    <sheet name="20170601" sheetId="11" r:id="rId3"/>
-    <sheet name="20170526" sheetId="10" r:id="rId4"/>
-    <sheet name="20170525" sheetId="9" r:id="rId5"/>
-    <sheet name="20170524" sheetId="8" r:id="rId6"/>
-    <sheet name="20170523" sheetId="7" r:id="rId7"/>
-    <sheet name="20170522" sheetId="6" r:id="rId8"/>
-    <sheet name="20170519" sheetId="5" r:id="rId9"/>
-    <sheet name="20170518" sheetId="4" r:id="rId10"/>
-    <sheet name="20170517" sheetId="3" r:id="rId11"/>
+    <sheet name="20170607" sheetId="15" r:id="rId1"/>
+    <sheet name="20170606" sheetId="14" r:id="rId2"/>
+    <sheet name="20170605" sheetId="13" r:id="rId3"/>
+    <sheet name="20170602" sheetId="12" r:id="rId4"/>
+    <sheet name="20170601" sheetId="11" r:id="rId5"/>
+    <sheet name="20170526" sheetId="10" r:id="rId6"/>
+    <sheet name="20170525" sheetId="9" r:id="rId7"/>
+    <sheet name="20170524" sheetId="8" r:id="rId8"/>
+    <sheet name="20170523" sheetId="7" r:id="rId9"/>
+    <sheet name="20170522" sheetId="6" r:id="rId10"/>
+    <sheet name="20170519" sheetId="5" r:id="rId11"/>
+    <sheet name="20170518" sheetId="4" r:id="rId12"/>
+    <sheet name="20170517" sheetId="3" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="28">
   <si>
     <t>资金信息汇总</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -4098,7 +4100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4241,6 +4243,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5584,7 +5602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5595,7 +5613,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J7"/>
+      <selection activeCell="A27" sqref="A27:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5609,7 +5627,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42891</v>
+        <v>42892</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5627,14 +5645,12 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="64">
-        <v>46400118.310000002</v>
-      </c>
+      <c r="C3" s="73"/>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="13">
-        <v>11.6</v>
+        <v>11.02</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -5648,25 +5664,19 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65">
-        <v>56758537.549999997</v>
-      </c>
+      <c r="C4" s="74"/>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="13">
-        <v>12.01</v>
+        <v>11.18</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71">
-        <v>2</v>
-      </c>
-      <c r="J4" s="71">
-        <v>-4</v>
-      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -5675,7 +5685,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>12.15</v>
+        <v>11.87</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -5688,42 +5698,30 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66">
-        <v>21083961.420000002</v>
-      </c>
+      <c r="C6" s="75"/>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="13">
-        <v>12.3</v>
+        <v>12.39</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="71">
-        <v>24</v>
-      </c>
-      <c r="J6" s="71">
-        <v>-6</v>
-      </c>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67">
-        <v>13947536.58</v>
-      </c>
+      <c r="C7" s="76"/>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="71">
-        <v>13</v>
-      </c>
-      <c r="J7" s="71">
-        <v>-2</v>
-      </c>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -5736,9 +5734,7 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="68">
-        <v>5668260</v>
-      </c>
+      <c r="C9" s="79"/>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
@@ -5749,45 +5745,41 @@
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.4580000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="69">
-        <v>13263163.310000001</v>
-      </c>
+      <c r="C10" s="79"/>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="70">
-        <v>19565280</v>
-      </c>
+      <c r="C11" s="79"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="79"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>8.5000000000000006E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5810,56 +5802,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="13">
-        <v>3.3974589999998752</v>
+      <c r="C16" s="72">
+        <v>4.6026800000000003</v>
       </c>
       <c r="D16" s="13">
-        <v>-5.7100000000000364</v>
+        <v>-8.2799999999999994</v>
       </c>
       <c r="E16" s="13">
-        <v>7.5899999999993781</v>
+        <v>-7.41</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="13">
-        <v>16.440499999999957</v>
+      <c r="C17" s="72">
+        <v>10.18</v>
       </c>
       <c r="D17" s="13">
-        <v>-32.710000000000036</v>
+        <v>-36.68</v>
       </c>
       <c r="E17" s="13">
-        <v>-33.61000000000044</v>
+        <v>-47.21</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="13">
-        <v>5.0467999999998714</v>
+      <c r="C18" s="72">
+        <v>-0.81</v>
       </c>
       <c r="D18" s="13">
-        <v>-9.4800000000002242</v>
+        <v>-19.05</v>
       </c>
       <c r="E18" s="13">
-        <v>-104.61000000000044</v>
+        <v>-127.81</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="13">
-        <v>-6.5532000000000377</v>
+      <c r="C19" s="72">
+        <v>-17.010000000000002</v>
       </c>
       <c r="D19" s="13">
-        <v>-26.480000000000224</v>
+        <v>-39.85</v>
       </c>
       <c r="E19" s="13">
-        <v>-195.81000000000026</v>
+        <v>-218.81</v>
       </c>
     </row>
   </sheetData>
@@ -5943,414 +5935,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>18059150.93</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>7.31</v>
-      </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>67143665.489999995</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>7.48</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="9"/>
-      <c r="E4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>7.41</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>20086561.609999999</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>7.93</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10">
-        <v>12253680.199999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="9"/>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8">
-        <v>21233148</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>13914482.83</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="15">
-        <v>-5</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8">
-        <v>102617640</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
-        <v>1705</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1.44</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1.03</v>
-      </c>
-      <c r="E15" s="13">
-        <v>-6.07</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C16" s="13">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="D16" s="13">
-        <v>-7.54</v>
-      </c>
-      <c r="E16" s="13">
-        <v>-7.71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
-        <v>1709</v>
-      </c>
-      <c r="C17" s="13">
-        <v>-6.25</v>
-      </c>
-      <c r="D17" s="13">
-        <v>-29.51</v>
-      </c>
-      <c r="E17" s="13">
-        <v>-118.31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
-        <v>1712</v>
-      </c>
-      <c r="C18" s="13">
-        <v>-21.45</v>
-      </c>
-      <c r="D18" s="13">
-        <v>-59.71</v>
-      </c>
-      <c r="E18" s="13">
-        <v>-211.31</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C15:C18">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D18">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E18">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>8639512.1699999999</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="13">
-        <v>7.66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>76656292.069999993</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13">
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
-      <c r="E8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="13">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8">
-        <v>20413541.710000001</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="13">
-        <v>8.1300000000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10">
-        <v>12012221.140000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8">
-        <v>21880164</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5">
-        <v>13661035.609999999</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11">
-        <v>-3</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8">
-        <v>107263860</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6364,7 +5952,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42888</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6382,14 +5970,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53">
-        <v>29029597.77</v>
+      <c r="C3" s="22">
+        <v>27542132.420000002</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>11.21</v>
+        <v>7.17</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6403,22 +5991,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54">
-        <v>74422527.400000006</v>
+      <c r="C4" s="23">
+        <v>60673425.390000001</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>11.05</v>
+        <v>7.62</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60">
-        <v>-3</v>
+      <c r="I4">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6428,55 +6015,47 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>11.15</v>
+        <v>7.4</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60">
-        <v>-4</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59">
-        <v>19554286.609999999</v>
+      <c r="C6" s="27">
+        <v>21207889.350000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>11.45</v>
+        <v>7.85</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="60">
-        <v>28</v>
-      </c>
-      <c r="J6" s="60">
-        <v>-1</v>
+      <c r="I6">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56">
-        <v>14955296.359999999</v>
+      <c r="C7" s="28">
+        <v>11122238.460000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="60">
-        <v>15</v>
-      </c>
-      <c r="J7" s="60"/>
+      <c r="I7">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -6485,50 +6064,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="59">
-        <v>6268212</v>
+      <c r="C9" s="24">
+        <v>21150984</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="29">
-        <v>2.4889999999999999</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="59">
-        <v>12722925.49</v>
+      <c r="C10" s="25">
+        <v>10768912.51</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>-2.5000000000000001E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="26">
+        <v>105760560</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6538,7 +6113,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6561,56 +6136,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="61">
-        <v>5.0074590000000025</v>
-      </c>
-      <c r="D16" s="62">
-        <v>-8.7400000000002365</v>
-      </c>
-      <c r="E16" s="63">
-        <v>-16.090000000000003</v>
+      <c r="C16" s="21">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-10.62</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-23.04</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="61">
-        <v>16.450499999999721</v>
-      </c>
-      <c r="D17" s="62">
-        <v>-34.940000000000055</v>
-      </c>
-      <c r="E17" s="63">
-        <v>-60.09</v>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="61">
-        <v>-2.3432000000000013</v>
-      </c>
-      <c r="D18" s="62">
-        <v>-19.310000000000151</v>
-      </c>
-      <c r="E18" s="63">
-        <v>-128.28999999999982</v>
+      <c r="C18" s="21">
+        <v>-5.35</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-27.39</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-129.44</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="61">
-        <v>-18.543200000000276</v>
-      </c>
-      <c r="D19" s="62">
-        <v>-36.310000000000151</v>
-      </c>
-      <c r="E19" s="63">
-        <v>-200.48999999999964</v>
+      <c r="C19" s="21">
+        <v>-23.95</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-56.19</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.84</v>
       </c>
     </row>
   </sheetData>
@@ -6692,12 +6267,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6706,12 +6281,11 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42887</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6729,14 +6303,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53">
-        <v>28867590.68</v>
+      <c r="C3" s="6">
+        <v>27013656.550000001</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>11.21</v>
+        <v>7.37</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6750,22 +6324,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54">
-        <v>66367210.890000001</v>
+      <c r="C4" s="5">
+        <v>58135549.119999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>11.05</v>
+        <v>7.28</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60">
-        <v>-2</v>
+        <v>1705</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6775,55 +6348,50 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>11.15</v>
+        <v>7.31</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <v>1707</v>
-      </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60">
-        <v>-7</v>
+        <v>1706</v>
+      </c>
+      <c r="I5">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="55">
-        <v>21674451.940000001</v>
+      <c r="C6" s="8">
+        <v>20572766.84</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>11.45</v>
+        <v>7.71</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="60">
-        <v>35</v>
-      </c>
-      <c r="J6" s="60">
-        <v>-3</v>
+      <c r="I6">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56">
-        <v>17075821.039999999</v>
+      <c r="C7" s="10">
+        <v>11767796.859999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="60">
-        <v>19</v>
-      </c>
-      <c r="J7" s="60"/>
+      <c r="I7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -6832,52 +6400,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="57">
-        <v>7807056</v>
+      <c r="C9" s="8">
+        <v>21121524</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="29">
-        <v>2.4750000000000001</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="58">
-        <v>14932651.300000001</v>
+      <c r="C10" s="5">
+        <v>13661099.779999999</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="59">
-        <v>30247500</v>
+      <c r="C11" s="8">
+        <v>104957160</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6887,7 +6449,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>4.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6900,66 +6462,66 @@
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C16" s="50">
-        <v>3.1774590000000753</v>
-      </c>
-      <c r="D16" s="51">
-        <v>-10.880000000000109</v>
-      </c>
-      <c r="E16" s="52">
-        <v>-24.590000000000003</v>
+        <v>1705</v>
+      </c>
+      <c r="C16" s="19">
+        <v>-1.1500000000000909</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-14.520000000000366</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
-        <v>1707</v>
-      </c>
-      <c r="C17" s="50">
-        <v>16.220500000000158</v>
-      </c>
-      <c r="D17" s="51">
-        <v>-36.2800000000002</v>
-      </c>
-      <c r="E17" s="52">
-        <v>-67.390000000000185</v>
+        <v>1706</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1.3126590000001825</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-11.879999999999946</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-17.960000000000186</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="50">
-        <v>-0.37319999999974662</v>
-      </c>
-      <c r="D18" s="51">
-        <v>-24.049999999999933</v>
-      </c>
-      <c r="E18" s="52">
-        <v>-132.99000000000055</v>
+      <c r="C18" s="19">
+        <v>-4.43799999999991</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-32.449999999999861</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-120.96000000000018</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="50">
-        <v>-20.17319999999993</v>
-      </c>
-      <c r="D19" s="51">
-        <v>-48.250000000000206</v>
-      </c>
-      <c r="E19" s="52">
-        <v>-207.78999999999982</v>
+      <c r="C19" s="19">
+        <v>-18.037999999999819</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-59.650000000000134</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.55999999999963</v>
       </c>
     </row>
   </sheetData>
@@ -7041,7 +6603,411 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>18059150.93</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>7.31</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>67143665.489999995</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>7.48</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>7.41</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>20086561.609999999</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>7.93</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>12253680.199999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>21233148</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>13914482.83</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15">
+        <v>-5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>102617640</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>1705</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1.44</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1.03</v>
+      </c>
+      <c r="E15" s="13">
+        <v>-6.07</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="13">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-7.54</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-7.71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C17" s="13">
+        <v>-6.25</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-29.51</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-118.31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C18" s="13">
+        <v>-21.45</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-59.71</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-211.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C15:C18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8639512.1699999999</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>76656292.069999993</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="13">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="13">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>20413541.710000001</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="13">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
+        <v>12012221.140000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>21880164</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>13661035.609999999</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-3</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8">
+        <v>107263860</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -7060,7 +7026,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42892</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7078,11 +7044,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43">
-        <v>15743713.310000001</v>
+      <c r="C3" s="73">
+        <v>63179358.07</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="F3" s="13">
+        <v>10.75</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7096,21 +7065,24 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
-        <v>63471370.229999997</v>
+      <c r="C4" s="74">
+        <v>39428592.960000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F4" s="13">
+        <v>11.09</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>-2</v>
+      <c r="I4" s="71">
+        <v>2</v>
+      </c>
+      <c r="J4" s="71">
+        <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7119,44 +7091,55 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="13">
+        <v>11.54</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="J5">
-        <v>-4</v>
-      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="45">
-        <v>24598703.920000002</v>
+      <c r="C6" s="75">
+        <v>19665017.670000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
+      </c>
+      <c r="F6" s="13">
+        <v>12.21</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>32</v>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="46">
-        <v>21814860.350000001</v>
+      <c r="C7" s="76">
+        <v>15712421.77</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>21</v>
+      <c r="I7" s="71">
+        <v>13</v>
+      </c>
+      <c r="J7" s="71">
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7170,13 +7153,15 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47">
-        <v>8050872</v>
+      <c r="C9" s="77">
+        <v>5464032</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
@@ -7188,25 +7173,380 @@
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48">
-        <v>22450395.280000001</v>
+      <c r="C10" s="78">
+        <v>13251570.66</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="49">
-        <v>36020520</v>
+      <c r="C11" s="79">
+        <v>22274580</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="70"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="72">
+        <v>-0.89254099999963366</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-12.150000000000091</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-13.890000000000185</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="72">
+        <v>15.350500000000268</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-36.75</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-54.48999999999964</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="72">
+        <v>1.5568000000000897</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-11.519999999999733</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-123.09</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="72">
+        <v>-9.6431999999997284</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-30.720000000000006</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-213.48999999999964</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="64">
+        <v>46400118.310000002</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="65">
+        <v>56758537.549999997</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="13">
+        <v>12.01</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4" s="71">
+        <v>2</v>
+      </c>
+      <c r="J4" s="71">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13">
+        <v>12.15</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="66">
+        <v>21083961.420000002</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="67">
+        <v>13947536.58</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7" s="71">
+        <v>13</v>
+      </c>
+      <c r="J7" s="71">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="68">
+        <v>5668260</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="69">
+        <v>13263163.310000001</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="70">
+        <v>19565280</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -7214,7 +7554,9 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>8.5000000000000006E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -7232,37 +7574,408 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="13">
+        <v>3.3974589999998752</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="13">
+        <v>7.5899999999993781</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="13">
+        <v>16.440499999999957</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-32.710000000000036</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-33.61000000000044</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="13">
+        <v>5.0467999999998714</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-9.4800000000002242</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-104.61000000000044</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="13">
+        <v>-6.5532000000000377</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-26.480000000000224</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-195.81000000000026</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42888</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="53">
+        <v>29029597.77</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11.21</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="54">
+        <v>74422527.400000006</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>11.05</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>11.15</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="59">
+        <v>19554286.609999999</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>11.45</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6" s="60">
+        <v>28</v>
+      </c>
+      <c r="J6" s="60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="56">
+        <v>14955296.359999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7" s="60">
+        <v>15</v>
+      </c>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="59">
+        <v>6268212</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.4889999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="59">
+        <v>12722925.49</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="61">
+        <v>5.0074590000000025</v>
+      </c>
+      <c r="D16" s="62">
+        <v>-8.7400000000002365</v>
+      </c>
+      <c r="E16" s="63">
+        <v>-16.090000000000003</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="C17" s="61">
+        <v>16.450499999999721</v>
+      </c>
+      <c r="D17" s="62">
+        <v>-34.940000000000055</v>
+      </c>
+      <c r="E17" s="63">
+        <v>-60.09</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="61">
+        <v>-2.3432000000000013</v>
+      </c>
+      <c r="D18" s="62">
+        <v>-19.310000000000151</v>
+      </c>
+      <c r="E18" s="63">
+        <v>-128.28999999999982</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="61">
+        <v>-18.543200000000276</v>
+      </c>
+      <c r="D19" s="62">
+        <v>-36.310000000000151</v>
+      </c>
+      <c r="E19" s="63">
+        <v>-200.48999999999964</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7348,7 +8061,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7362,7 +8075,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42887</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7380,14 +8093,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>14811361.23</v>
+      <c r="C3" s="53">
+        <v>28867590.68</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3">
-        <v>8.5299999999999994</v>
+        <v>11.21</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7401,20 +8114,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>51965681.979999997</v>
+      <c r="C4" s="54">
+        <v>66367210.890000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F4">
+        <v>11.05</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>65</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60">
         <v>-2</v>
       </c>
     </row>
@@ -7425,47 +8139,55 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>8.4600000000000009</v>
+        <v>11.15</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60">
+        <v>-7</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
-        <v>24905714.850000001</v>
+      <c r="C6" s="55">
+        <v>21674451.940000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.64</v>
+        <v>11.45</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>30</v>
+      <c r="I6" s="60">
+        <v>35</v>
+      </c>
+      <c r="J6" s="60">
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>27085499.949999999</v>
+      <c r="C7" s="56">
+        <v>17075821.039999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>18</v>
-      </c>
+      <c r="I7" s="60">
+        <v>19</v>
+      </c>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -7478,46 +8200,48 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>16023360</v>
+      <c r="C9" s="57">
+        <v>7807056</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-8.0000000000000002E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3980000000000001</v>
+        <v>2.4750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36">
-        <v>12655613.060000001</v>
+      <c r="C10" s="58">
+        <v>14932651.300000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>76730160</v>
+      <c r="C11" s="59">
+        <v>30247500</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-6.4999999999999997E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7527,7 +8251,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7550,56 +8274,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="40">
-        <v>-5.9073410000000699</v>
-      </c>
-      <c r="D16" s="41">
-        <v>-22.170000000000073</v>
-      </c>
-      <c r="E16" s="42">
-        <v>-13.340000000000003</v>
+      <c r="C16" s="50">
+        <v>3.1774590000000753</v>
+      </c>
+      <c r="D16" s="51">
+        <v>-10.880000000000109</v>
+      </c>
+      <c r="E16" s="52">
+        <v>-24.590000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="40">
-        <v>4.1357000000000141</v>
-      </c>
-      <c r="D17" s="41">
-        <v>-53.170000000000073</v>
-      </c>
-      <c r="E17" s="42">
-        <v>-53.140000000000185</v>
+      <c r="C17" s="50">
+        <v>16.220500000000158</v>
+      </c>
+      <c r="D17" s="51">
+        <v>-36.2800000000002</v>
+      </c>
+      <c r="E17" s="52">
+        <v>-67.390000000000185</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="40">
-        <v>-12.058000000000256</v>
-      </c>
-      <c r="D18" s="41">
-        <v>-39.140000000000079</v>
-      </c>
-      <c r="E18" s="42">
-        <v>-132.73999999999964</v>
+      <c r="C18" s="50">
+        <v>-0.37319999999974662</v>
+      </c>
+      <c r="D18" s="51">
+        <v>-24.049999999999933</v>
+      </c>
+      <c r="E18" s="52">
+        <v>-132.99000000000055</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="40">
-        <v>-33.658000000000165</v>
-      </c>
-      <c r="D19" s="41">
-        <v>-73.540000000000163</v>
-      </c>
-      <c r="E19" s="42">
-        <v>-213.53999999999982</v>
+      <c r="C19" s="50">
+        <v>-20.17319999999993</v>
+      </c>
+      <c r="D19" s="51">
+        <v>-48.250000000000206</v>
+      </c>
+      <c r="E19" s="52">
+        <v>-207.78999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -7686,7 +8410,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7718,14 +8442,11 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>10672859.619999999</v>
+      <c r="C3" s="43">
+        <v>15743713.310000001</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>6.53</v>
+        <v>11</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7739,21 +8460,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>67927920.010000005</v>
+      <c r="C4" s="44">
+        <v>63471370.229999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>8.02</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>67</v>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7762,47 +8483,44 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
-        <v>25153424.48</v>
+      <c r="C6" s="45">
+        <v>24598703.920000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F6">
-        <v>8.26</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>16041217.449999999</v>
+      <c r="C7" s="46">
+        <v>21814860.350000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7816,49 +8534,43 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>15346032</v>
+      <c r="C9" s="47">
+        <v>8050872</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.403</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36">
-        <v>18357632.600000001</v>
+      <c r="C10" s="48">
+        <v>22450395.280000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-2E-3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>76730160</v>
+      <c r="C11" s="49">
+        <v>36020520</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>-2E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -7866,9 +8578,7 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -7890,57 +8600,33 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="37">
-        <v>-7.1373410000000881</v>
-      </c>
-      <c r="D16" s="38">
-        <v>-22.190000000000055</v>
-      </c>
-      <c r="E16" s="39">
-        <v>-21.970000000000113</v>
-      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="37">
-        <v>-0.29430000000027734</v>
-      </c>
-      <c r="D17" s="38">
-        <v>-57.190000000000055</v>
-      </c>
-      <c r="E17" s="39">
-        <v>-59.369999999999749</v>
-      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="37">
-        <v>-15.288000000000274</v>
-      </c>
-      <c r="D18" s="38">
-        <v>-43.160000000000061</v>
-      </c>
-      <c r="E18" s="39">
-        <v>-144.77000000000029</v>
-      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="37">
-        <v>-36.088000000000001</v>
-      </c>
-      <c r="D19" s="38">
-        <v>-75.359999999999872</v>
-      </c>
-      <c r="E19" s="39">
-        <v>-226.77000000000029</v>
-      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8026,7 +8712,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8059,13 +8745,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>19082415.43</v>
+        <v>14811361.23</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>7.12</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8080,20 +8766,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="31">
-        <v>69332135.950000003</v>
+        <v>51965681.979999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>7.46</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>107</v>
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8103,7 +8789,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.51</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -8114,21 +8800,21 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32">
-        <v>23241421.07</v>
+      <c r="C6" s="36">
+        <v>24905714.850000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.0500000000000007</v>
+        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -8136,13 +8822,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="33">
-        <v>8776367.3200000003</v>
+        <v>27085499.949999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8156,48 +8842,46 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="34">
-        <v>20676648</v>
+      <c r="C9" s="36">
+        <v>16023360</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3730000000000002</v>
+        <v>2.3980000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35">
-        <v>11755882.18</v>
+      <c r="C10" s="36">
+        <v>12655613.060000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-2E-3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="36">
-        <v>103383240</v>
+        <v>76730160</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-2E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8207,7 +8891,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8230,56 +8914,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-5.49</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-29.04</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-33.299999999999997</v>
+      <c r="C16" s="40">
+        <v>-5.9073410000000699</v>
+      </c>
+      <c r="D16" s="41">
+        <v>-22.170000000000073</v>
+      </c>
+      <c r="E16" s="42">
+        <v>-13.340000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="D17" s="21">
-        <v>-61.24</v>
-      </c>
-      <c r="E17" s="21">
-        <v>-82.9</v>
+      <c r="C17" s="40">
+        <v>4.1357000000000141</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-53.170000000000073</v>
+      </c>
+      <c r="E17" s="42">
+        <v>-53.140000000000185</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-15.44</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-50.01</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-159.9</v>
+      <c r="C18" s="40">
+        <v>-12.058000000000256</v>
+      </c>
+      <c r="D18" s="41">
+        <v>-39.140000000000079</v>
+      </c>
+      <c r="E18" s="42">
+        <v>-132.73999999999964</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-33.24</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-83.81</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-253.7</v>
+      <c r="C19" s="40">
+        <v>-33.658000000000165</v>
+      </c>
+      <c r="D19" s="41">
+        <v>-73.540000000000163</v>
+      </c>
+      <c r="E19" s="42">
+        <v>-213.53999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -8366,7 +9050,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8380,7 +9064,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42877</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8398,14 +9082,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
-        <v>27542132.420000002</v>
+      <c r="C3" s="30">
+        <v>10672859.619999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.17</v>
+        <v>6.53</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8419,21 +9103,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
-        <v>60673425.390000001</v>
+      <c r="C4" s="31">
+        <v>67927920.010000005</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.62</v>
+        <v>8.02</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8443,7 +9127,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -8454,29 +9138,29 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27">
-        <v>21207889.350000001</v>
+      <c r="C6" s="36">
+        <v>25153424.48</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.85</v>
+        <v>8.26</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
-        <v>11122238.460000001</v>
+      <c r="C7" s="33">
+        <v>16041217.449999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -8492,46 +9176,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24">
-        <v>21150984</v>
+      <c r="C9" s="36">
+        <v>15346032</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.403</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25">
-        <v>10768912.51</v>
+      <c r="C10" s="36">
+        <v>18357632.600000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="26">
-        <v>105760560</v>
+      <c r="C11" s="36">
+        <v>76730160</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8541,7 +9231,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8564,56 +9254,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-3</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-10.62</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-23.04</v>
+      <c r="C16" s="37">
+        <v>-7.1373410000000881</v>
+      </c>
+      <c r="D16" s="38">
+        <v>-22.190000000000055</v>
+      </c>
+      <c r="E16" s="39">
+        <v>-21.970000000000113</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0</v>
+      <c r="C17" s="37">
+        <v>-0.29430000000027734</v>
+      </c>
+      <c r="D17" s="38">
+        <v>-57.190000000000055</v>
+      </c>
+      <c r="E17" s="39">
+        <v>-59.369999999999749</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-5.35</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-27.39</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-129.44</v>
+      <c r="C18" s="37">
+        <v>-15.288000000000274</v>
+      </c>
+      <c r="D18" s="38">
+        <v>-43.160000000000061</v>
+      </c>
+      <c r="E18" s="39">
+        <v>-144.77000000000029</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-23.95</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-56.19</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-217.84</v>
+      <c r="C19" s="37">
+        <v>-36.088000000000001</v>
+      </c>
+      <c r="D19" s="38">
+        <v>-75.359999999999872</v>
+      </c>
+      <c r="E19" s="39">
+        <v>-226.77000000000029</v>
       </c>
     </row>
   </sheetData>
@@ -8699,8 +9389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8709,11 +9399,12 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42874</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8731,14 +9422,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>27013656.550000001</v>
+      <c r="C3" s="30">
+        <v>19082415.43</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.37</v>
+        <v>7.12</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8752,21 +9443,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>58135549.119999997</v>
+      <c r="C4" s="31">
+        <v>69332135.950000003</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.28</v>
+        <v>7.46</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <v>1705</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8776,49 +9467,46 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.31</v>
+        <v>7.51</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I5">
-        <v>116</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>20572766.84</v>
+      <c r="C6" s="32">
+        <v>23241421.07</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.71</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
-        <v>11767796.859999999</v>
+      <c r="C7" s="33">
+        <v>8776367.3200000003</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8828,46 +9516,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
-        <v>21121524</v>
+      <c r="C9" s="34">
+        <v>20676648</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.3730000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>13661099.779999999</v>
+      <c r="C10" s="35">
+        <v>11755882.18</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>2E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>104957160</v>
+      <c r="C11" s="36">
+        <v>103383240</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>2E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8877,7 +9571,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8890,66 +9584,66 @@
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
-        <v>1705</v>
-      </c>
-      <c r="C16" s="19">
-        <v>-1.1500000000000909</v>
-      </c>
-      <c r="D16" s="20">
-        <v>-5.7100000000000364</v>
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-5.49</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-29.04</v>
       </c>
       <c r="E16" s="21">
-        <v>-14.520000000000366</v>
+        <v>-33.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1.3126590000001825</v>
-      </c>
-      <c r="D17" s="20">
-        <v>-11.879999999999946</v>
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="D17" s="21">
+        <v>-61.24</v>
       </c>
       <c r="E17" s="21">
-        <v>-17.960000000000186</v>
+        <v>-82.9</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="19">
-        <v>-4.43799999999991</v>
-      </c>
-      <c r="D18" s="20">
-        <v>-32.449999999999861</v>
+      <c r="C18" s="21">
+        <v>-15.44</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-50.01</v>
       </c>
       <c r="E18" s="21">
-        <v>-120.96000000000018</v>
+        <v>-159.9</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="19">
-        <v>-18.037999999999819</v>
-      </c>
-      <c r="D19" s="20">
-        <v>-59.650000000000134</v>
+      <c r="C19" s="21">
+        <v>-33.24</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-83.81</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.55999999999963</v>
+        <v>-253.7</v>
       </c>
     </row>
   </sheetData>

--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -7,26 +7,27 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
-    <sheet name="20170607" sheetId="15" r:id="rId1"/>
-    <sheet name="20170606" sheetId="14" r:id="rId2"/>
-    <sheet name="20170605" sheetId="13" r:id="rId3"/>
-    <sheet name="20170602" sheetId="12" r:id="rId4"/>
-    <sheet name="20170601" sheetId="11" r:id="rId5"/>
-    <sheet name="20170526" sheetId="10" r:id="rId6"/>
-    <sheet name="20170525" sheetId="9" r:id="rId7"/>
-    <sheet name="20170524" sheetId="8" r:id="rId8"/>
-    <sheet name="20170523" sheetId="7" r:id="rId9"/>
-    <sheet name="20170522" sheetId="6" r:id="rId10"/>
-    <sheet name="20170519" sheetId="5" r:id="rId11"/>
-    <sheet name="20170518" sheetId="4" r:id="rId12"/>
-    <sheet name="20170517" sheetId="3" r:id="rId13"/>
+    <sheet name="20170608" sheetId="16" r:id="rId1"/>
+    <sheet name="20170607" sheetId="15" r:id="rId2"/>
+    <sheet name="20170606" sheetId="14" r:id="rId3"/>
+    <sheet name="20170605" sheetId="13" r:id="rId4"/>
+    <sheet name="20170602" sheetId="12" r:id="rId5"/>
+    <sheet name="20170601" sheetId="11" r:id="rId6"/>
+    <sheet name="20170526" sheetId="10" r:id="rId7"/>
+    <sheet name="20170525" sheetId="9" r:id="rId8"/>
+    <sheet name="20170524" sheetId="8" r:id="rId9"/>
+    <sheet name="20170523" sheetId="7" r:id="rId10"/>
+    <sheet name="20170522" sheetId="6" r:id="rId11"/>
+    <sheet name="20170519" sheetId="5" r:id="rId12"/>
+    <sheet name="20170518" sheetId="4" r:id="rId13"/>
+    <sheet name="20170517" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="28">
   <si>
     <t>资金信息汇总</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -4100,7 +4101,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4247,6 +4248,19 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -5602,7 +5616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5613,7 +5627,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B46"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5627,7 +5641,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42892</v>
+        <v>42894</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5645,13 +5659,13 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="80">
+        <v>56506237.039999999</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13">
-        <v>11.02</v>
-      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -5664,19 +5678,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="81">
+        <v>47118580.43</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13">
-        <v>11.18</v>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="J4" s="71">
+        <v>-2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -5684,9 +5700,7 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13">
-        <v>11.87</v>
-      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
@@ -5698,29 +5712,37 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="82">
+        <v>19306935.5</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13">
-        <v>12.39</v>
-      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-3</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="83">
+        <v>15930345.300000001</v>
+      </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="71"/>
+      <c r="I7" s="71">
+        <v>19</v>
+      </c>
       <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5734,43 +5756,43 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="84">
+        <v>6246408</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4580000000000002</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="85">
+        <v>12756343.289999999</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17">
-        <v>1E-3</v>
-      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="86">
+        <v>27561420</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>6.0000000000000001E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -5778,9 +5800,7 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>0.01</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -5803,13 +5823,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>4.6026800000000003</v>
+        <v>6.98</v>
       </c>
       <c r="D16" s="13">
-        <v>-8.2799999999999994</v>
+        <v>-0.87</v>
       </c>
       <c r="E16" s="13">
-        <v>-7.41</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -5817,13 +5837,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>10.18</v>
+        <v>12.96</v>
       </c>
       <c r="D17" s="13">
-        <v>-36.68</v>
+        <v>-27.27</v>
       </c>
       <c r="E17" s="13">
-        <v>-47.21</v>
+        <v>-14.31</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -5831,13 +5851,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>-0.81</v>
+        <v>3.57</v>
       </c>
       <c r="D18" s="13">
-        <v>-19.05</v>
+        <v>-5.84</v>
       </c>
       <c r="E18" s="13">
-        <v>-127.81</v>
+        <v>-95.91</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -5845,13 +5865,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-17.010000000000002</v>
+        <v>-12.03</v>
       </c>
       <c r="D19" s="13">
-        <v>-39.85</v>
+        <v>-29.84</v>
       </c>
       <c r="E19" s="13">
-        <v>-218.81</v>
+        <v>-190.11</v>
       </c>
     </row>
   </sheetData>
@@ -5938,7 +5958,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5952,7 +5972,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42877</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5970,14 +5990,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
-        <v>27542132.420000002</v>
+      <c r="C3" s="30">
+        <v>19082415.43</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.17</v>
+        <v>7.12</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -5991,21 +6011,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
-        <v>60673425.390000001</v>
+      <c r="C4" s="31">
+        <v>69332135.950000003</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.62</v>
+        <v>7.46</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6015,7 +6035,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.4</v>
+        <v>7.51</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -6026,29 +6046,29 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27">
-        <v>21207889.350000001</v>
+      <c r="C6" s="32">
+        <v>23241421.07</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.85</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
-        <v>11122238.460000001</v>
+      <c r="C7" s="33">
+        <v>8776367.3200000003</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -6064,46 +6084,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24">
-        <v>21150984</v>
+      <c r="C9" s="34">
+        <v>20676648</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.3730000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25">
-        <v>10768912.51</v>
+      <c r="C10" s="35">
+        <v>11755882.18</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="26">
-        <v>105760560</v>
+      <c r="C11" s="36">
+        <v>103383240</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6113,7 +6139,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6137,13 +6163,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="21">
-        <v>-3</v>
+        <v>-5.49</v>
       </c>
       <c r="D16" s="21">
-        <v>-10.62</v>
+        <v>-29.04</v>
       </c>
       <c r="E16" s="21">
-        <v>-23.04</v>
+        <v>-33.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
@@ -6151,13 +6177,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="21">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="D17" s="21">
-        <v>0</v>
+        <v>-61.24</v>
       </c>
       <c r="E17" s="21">
-        <v>0</v>
+        <v>-82.9</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
@@ -6165,13 +6191,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="21">
-        <v>-5.35</v>
+        <v>-15.44</v>
       </c>
       <c r="D18" s="21">
-        <v>-27.39</v>
+        <v>-50.01</v>
       </c>
       <c r="E18" s="21">
-        <v>-129.44</v>
+        <v>-159.9</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
@@ -6179,13 +6205,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="21">
-        <v>-23.95</v>
+        <v>-33.24</v>
       </c>
       <c r="D19" s="21">
-        <v>-56.19</v>
+        <v>-83.81</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.84</v>
+        <v>-253.7</v>
       </c>
     </row>
   </sheetData>
@@ -6271,8 +6297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6281,11 +6307,12 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42874</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6303,14 +6330,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>27013656.550000001</v>
+      <c r="C3" s="22">
+        <v>27542132.420000002</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.37</v>
+        <v>7.17</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6324,21 +6351,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>58135549.119999997</v>
+      <c r="C4" s="23">
+        <v>60673425.390000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.28</v>
+        <v>7.62</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <v>1705</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6348,28 +6375,25 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.31</v>
+        <v>7.4</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I5">
-        <v>116</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>20572766.84</v>
+      <c r="C6" s="27">
+        <v>21207889.350000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.71</v>
+        <v>7.85</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
@@ -6383,14 +6407,14 @@
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
-        <v>11767796.859999999</v>
+      <c r="C7" s="28">
+        <v>11122238.460000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6404,42 +6428,42 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
-        <v>21121524</v>
+      <c r="C9" s="24">
+        <v>21150984</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>13661099.779999999</v>
+      <c r="C10" s="25">
+        <v>10768912.51</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>2E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>104957160</v>
+      <c r="C11" s="26">
+        <v>105760560</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6449,7 +6473,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>2.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6462,66 +6486,66 @@
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
-        <v>1705</v>
-      </c>
-      <c r="C16" s="19">
-        <v>-1.1500000000000909</v>
-      </c>
-      <c r="D16" s="20">
-        <v>-5.7100000000000364</v>
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-10.62</v>
       </c>
       <c r="E16" s="21">
-        <v>-14.520000000000366</v>
+        <v>-23.04</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1.3126590000001825</v>
-      </c>
-      <c r="D17" s="20">
-        <v>-11.879999999999946</v>
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
       </c>
       <c r="E17" s="21">
-        <v>-17.960000000000186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="19">
-        <v>-4.43799999999991</v>
-      </c>
-      <c r="D18" s="20">
-        <v>-32.449999999999861</v>
+      <c r="C18" s="21">
+        <v>-5.35</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-27.39</v>
       </c>
       <c r="E18" s="21">
-        <v>-120.96000000000018</v>
+        <v>-129.44</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="19">
-        <v>-18.037999999999819</v>
-      </c>
-      <c r="D19" s="20">
-        <v>-59.650000000000134</v>
+      <c r="C19" s="21">
+        <v>-23.95</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-56.19</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.55999999999963</v>
+        <v>-217.84</v>
       </c>
     </row>
   </sheetData>
@@ -6605,6 +6629,342 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>27013656.550000001</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.37</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>58135549.119999997</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.28</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1705</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.31</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>20572766.84</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.71</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11767796.859999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21121524</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13661099.779999999</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>104957160</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1705</v>
+      </c>
+      <c r="C16" s="19">
+        <v>-1.1500000000000909</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-14.520000000000366</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1.3126590000001825</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-11.879999999999946</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-17.960000000000186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="19">
+        <v>-4.43799999999991</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-32.449999999999861</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-120.96000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="19">
+        <v>-18.037999999999819</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-59.650000000000134</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.55999999999963</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6868,7 +7228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:G15"/>
   <sheetViews>
@@ -7008,6 +7368,337 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42893</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13">
+        <v>11.02</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="13">
+        <v>11.18</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13">
+        <v>11.87</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13">
+        <v>12.39</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7" s="71">
+        <v>16</v>
+      </c>
+      <c r="J7" s="71"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.4580000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="79"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="72">
+        <v>6.98</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-0.87</v>
+      </c>
+      <c r="E16" s="13">
+        <v>23.89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="72">
+        <v>12.96</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-27.27</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-14.31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="72">
+        <v>3.57</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-5.84</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-95.91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="72">
+        <v>-12.03</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-29.84</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-190.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -7358,7 +8049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -7709,7 +8400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -7975,355 +8666,6 @@
       </c>
       <c r="E19" s="63">
         <v>-200.48999999999964</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C19">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D19">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18">
-        <v>42887</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="53">
-        <v>28867590.68</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>11.21</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="54">
-        <v>66367210.890000001</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>11.05</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="9"/>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>11.15</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12">
-        <v>1707</v>
-      </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="55">
-        <v>21674451.940000001</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>11.45</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12">
-        <v>1709</v>
-      </c>
-      <c r="I6" s="60">
-        <v>35</v>
-      </c>
-      <c r="J6" s="60">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="56">
-        <v>17075821.039999999</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1712</v>
-      </c>
-      <c r="I7" s="60">
-        <v>19</v>
-      </c>
-      <c r="J7" s="60"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="9"/>
-      <c r="E8" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="57">
-        <v>7807056</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-1E-3</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="29">
-        <v>2.4750000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="58">
-        <v>14932651.300000001</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="59">
-        <v>30247500</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="17">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C16" s="50">
-        <v>3.1774590000000753</v>
-      </c>
-      <c r="D16" s="51">
-        <v>-10.880000000000109</v>
-      </c>
-      <c r="E16" s="52">
-        <v>-24.590000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="12">
-        <v>1707</v>
-      </c>
-      <c r="C17" s="50">
-        <v>16.220500000000158</v>
-      </c>
-      <c r="D17" s="51">
-        <v>-36.2800000000002</v>
-      </c>
-      <c r="E17" s="52">
-        <v>-67.390000000000185</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="12">
-        <v>1709</v>
-      </c>
-      <c r="C18" s="50">
-        <v>-0.37319999999974662</v>
-      </c>
-      <c r="D18" s="51">
-        <v>-24.049999999999933</v>
-      </c>
-      <c r="E18" s="52">
-        <v>-132.99000000000055</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="12">
-        <v>1712</v>
-      </c>
-      <c r="C19" s="50">
-        <v>-20.17319999999993</v>
-      </c>
-      <c r="D19" s="51">
-        <v>-48.250000000000206</v>
-      </c>
-      <c r="E19" s="52">
-        <v>-207.78999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -8410,7 +8752,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8424,7 +8766,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42887</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8442,11 +8784,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43">
-        <v>15743713.310000001</v>
+      <c r="C3" s="53">
+        <v>28867590.68</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11.21</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8460,20 +8805,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
-        <v>63471370.229999997</v>
+      <c r="C4" s="54">
+        <v>66367210.890000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F4">
+        <v>11.05</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60">
         <v>-2</v>
       </c>
     </row>
@@ -8483,45 +8829,56 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F5">
+        <v>11.15</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="J5">
-        <v>-4</v>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60">
+        <v>-7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="45">
-        <v>24598703.920000002</v>
+      <c r="C6" s="55">
+        <v>21674451.940000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
+      </c>
+      <c r="F6">
+        <v>11.45</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>32</v>
+      <c r="I6" s="60">
+        <v>35</v>
+      </c>
+      <c r="J6" s="60">
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="46">
-        <v>21814860.350000001</v>
+      <c r="C7" s="56">
+        <v>17075821.039999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>21</v>
-      </c>
+      <c r="I7" s="60">
+        <v>19</v>
+      </c>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -8534,43 +8891,49 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47">
-        <v>8050872</v>
+      <c r="C9" s="57">
+        <v>7807056</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>-1E-3</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.4750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48">
-        <v>22450395.280000001</v>
+      <c r="C10" s="58">
+        <v>14932651.300000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="49">
-        <v>36020520</v>
+      <c r="C11" s="59">
+        <v>30247500</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -8578,7 +8941,9 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -8600,33 +8965,57 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="50">
+        <v>3.1774590000000753</v>
+      </c>
+      <c r="D16" s="51">
+        <v>-10.880000000000109</v>
+      </c>
+      <c r="E16" s="52">
+        <v>-24.590000000000003</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="C17" s="50">
+        <v>16.220500000000158</v>
+      </c>
+      <c r="D17" s="51">
+        <v>-36.2800000000002</v>
+      </c>
+      <c r="E17" s="52">
+        <v>-67.390000000000185</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="50">
+        <v>-0.37319999999974662</v>
+      </c>
+      <c r="D18" s="51">
+        <v>-24.049999999999933</v>
+      </c>
+      <c r="E18" s="52">
+        <v>-132.99000000000055</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="50">
+        <v>-20.17319999999993</v>
+      </c>
+      <c r="D19" s="51">
+        <v>-48.250000000000206</v>
+      </c>
+      <c r="E19" s="52">
+        <v>-207.78999999999982</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8712,7 +9101,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8744,14 +9133,11 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>14811361.23</v>
+      <c r="C3" s="43">
+        <v>15743713.310000001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="F3">
-        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8765,8 +9151,8 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>51965681.979999997</v>
+      <c r="C4" s="44">
+        <v>63471370.229999997</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
@@ -8776,7 +9162,7 @@
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>-2</v>
@@ -8788,47 +9174,44 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>8.4600000000000009</v>
-      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
-        <v>24905714.850000001</v>
+      <c r="C6" s="45">
+        <v>24598703.920000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F6">
-        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>27085499.949999999</v>
+      <c r="C7" s="46">
+        <v>21814860.350000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8842,28 +9225,26 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>16023360</v>
+      <c r="C9" s="47">
+        <v>8050872</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-8.0000000000000002E-3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3980000000000001</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36">
-        <v>12655613.060000001</v>
+      <c r="C10" s="48">
+        <v>22450395.280000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
@@ -8874,15 +9255,13 @@
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>76730160</v>
+      <c r="C11" s="49">
+        <v>36020520</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>-6.4999999999999997E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -8890,9 +9269,7 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>-3.0000000000000001E-3</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -8914,57 +9291,33 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="40">
-        <v>-5.9073410000000699</v>
-      </c>
-      <c r="D16" s="41">
-        <v>-22.170000000000073</v>
-      </c>
-      <c r="E16" s="42">
-        <v>-13.340000000000003</v>
-      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="40">
-        <v>4.1357000000000141</v>
-      </c>
-      <c r="D17" s="41">
-        <v>-53.170000000000073</v>
-      </c>
-      <c r="E17" s="42">
-        <v>-53.140000000000185</v>
-      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="40">
-        <v>-12.058000000000256</v>
-      </c>
-      <c r="D18" s="41">
-        <v>-39.140000000000079</v>
-      </c>
-      <c r="E18" s="42">
-        <v>-132.73999999999964</v>
-      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="40">
-        <v>-33.658000000000165</v>
-      </c>
-      <c r="D19" s="41">
-        <v>-73.540000000000163</v>
-      </c>
-      <c r="E19" s="42">
-        <v>-213.53999999999982</v>
-      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -9050,7 +9403,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9083,13 +9436,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>10672859.619999999</v>
+        <v>14811361.23</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>6.53</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -9104,20 +9457,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="31">
-        <v>67927920.010000005</v>
+        <v>51965681.979999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>8.02</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9127,7 +9480,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -9139,20 +9492,20 @@
         <v>3</v>
       </c>
       <c r="C6" s="36">
-        <v>25153424.48</v>
+        <v>24905714.850000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.26</v>
+        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9160,13 +9513,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="33">
-        <v>16041217.449999999</v>
+        <v>27085499.949999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -9181,19 +9534,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="36">
-        <v>15346032</v>
+        <v>16023360</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.403</v>
+        <v>2.3980000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -9201,14 +9554,12 @@
         <v>6</v>
       </c>
       <c r="C10" s="36">
-        <v>18357632.600000001</v>
+        <v>12655613.060000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-2E-3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
@@ -9221,7 +9572,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-2E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -9231,7 +9582,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -9254,56 +9605,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="37">
-        <v>-7.1373410000000881</v>
-      </c>
-      <c r="D16" s="38">
-        <v>-22.190000000000055</v>
-      </c>
-      <c r="E16" s="39">
-        <v>-21.970000000000113</v>
+      <c r="C16" s="40">
+        <v>-5.9073410000000699</v>
+      </c>
+      <c r="D16" s="41">
+        <v>-22.170000000000073</v>
+      </c>
+      <c r="E16" s="42">
+        <v>-13.340000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="37">
-        <v>-0.29430000000027734</v>
-      </c>
-      <c r="D17" s="38">
-        <v>-57.190000000000055</v>
-      </c>
-      <c r="E17" s="39">
-        <v>-59.369999999999749</v>
+      <c r="C17" s="40">
+        <v>4.1357000000000141</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-53.170000000000073</v>
+      </c>
+      <c r="E17" s="42">
+        <v>-53.140000000000185</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="37">
-        <v>-15.288000000000274</v>
-      </c>
-      <c r="D18" s="38">
-        <v>-43.160000000000061</v>
-      </c>
-      <c r="E18" s="39">
-        <v>-144.77000000000029</v>
+      <c r="C18" s="40">
+        <v>-12.058000000000256</v>
+      </c>
+      <c r="D18" s="41">
+        <v>-39.140000000000079</v>
+      </c>
+      <c r="E18" s="42">
+        <v>-132.73999999999964</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="37">
-        <v>-36.088000000000001</v>
-      </c>
-      <c r="D19" s="38">
-        <v>-75.359999999999872</v>
-      </c>
-      <c r="E19" s="39">
-        <v>-226.77000000000029</v>
+      <c r="C19" s="40">
+        <v>-33.658000000000165</v>
+      </c>
+      <c r="D19" s="41">
+        <v>-73.540000000000163</v>
+      </c>
+      <c r="E19" s="42">
+        <v>-213.53999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -9390,7 +9741,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9423,13 +9774,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>19082415.43</v>
+        <v>10672859.619999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.12</v>
+        <v>6.53</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -9444,20 +9795,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="31">
-        <v>69332135.950000003</v>
+        <v>67927920.010000005</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.46</v>
+        <v>8.02</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9467,7 +9818,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.51</v>
+        <v>8</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -9478,21 +9829,21 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32">
-        <v>23241421.07</v>
+      <c r="C6" s="36">
+        <v>25153424.48</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.0500000000000007</v>
+        <v>8.26</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9500,7 +9851,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="33">
-        <v>8776367.3200000003</v>
+        <v>16041217.449999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -9520,8 +9871,8 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="34">
-        <v>20676648</v>
+      <c r="C9" s="36">
+        <v>15346032</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
@@ -9533,15 +9884,15 @@
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3730000000000002</v>
+        <v>2.403</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35">
-        <v>11755882.18</v>
+      <c r="C10" s="36">
+        <v>18357632.600000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
@@ -9555,7 +9906,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="36">
-        <v>103383240</v>
+        <v>76730160</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
@@ -9594,56 +9945,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-5.49</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-29.04</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-33.299999999999997</v>
+      <c r="C16" s="37">
+        <v>-7.1373410000000881</v>
+      </c>
+      <c r="D16" s="38">
+        <v>-22.190000000000055</v>
+      </c>
+      <c r="E16" s="39">
+        <v>-21.970000000000113</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="D17" s="21">
-        <v>-61.24</v>
-      </c>
-      <c r="E17" s="21">
-        <v>-82.9</v>
+      <c r="C17" s="37">
+        <v>-0.29430000000027734</v>
+      </c>
+      <c r="D17" s="38">
+        <v>-57.190000000000055</v>
+      </c>
+      <c r="E17" s="39">
+        <v>-59.369999999999749</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-15.44</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-50.01</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-159.9</v>
+      <c r="C18" s="37">
+        <v>-15.288000000000274</v>
+      </c>
+      <c r="D18" s="38">
+        <v>-43.160000000000061</v>
+      </c>
+      <c r="E18" s="39">
+        <v>-144.77000000000029</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-33.24</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-83.81</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-253.7</v>
+      <c r="C19" s="37">
+        <v>-36.088000000000001</v>
+      </c>
+      <c r="D19" s="38">
+        <v>-75.359999999999872</v>
+      </c>
+      <c r="E19" s="39">
+        <v>-226.77000000000029</v>
       </c>
     </row>
   </sheetData>

--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -7,27 +7,29 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
-    <sheet name="20170608" sheetId="16" r:id="rId1"/>
-    <sheet name="20170607" sheetId="15" r:id="rId2"/>
-    <sheet name="20170606" sheetId="14" r:id="rId3"/>
-    <sheet name="20170605" sheetId="13" r:id="rId4"/>
-    <sheet name="20170602" sheetId="12" r:id="rId5"/>
-    <sheet name="20170601" sheetId="11" r:id="rId6"/>
-    <sheet name="20170526" sheetId="10" r:id="rId7"/>
-    <sheet name="20170525" sheetId="9" r:id="rId8"/>
-    <sheet name="20170524" sheetId="8" r:id="rId9"/>
-    <sheet name="20170523" sheetId="7" r:id="rId10"/>
-    <sheet name="20170522" sheetId="6" r:id="rId11"/>
-    <sheet name="20170519" sheetId="5" r:id="rId12"/>
-    <sheet name="20170518" sheetId="4" r:id="rId13"/>
-    <sheet name="20170517" sheetId="3" r:id="rId14"/>
+    <sheet name="20170612" sheetId="18" r:id="rId1"/>
+    <sheet name="20170609" sheetId="17" r:id="rId2"/>
+    <sheet name="20170608" sheetId="16" r:id="rId3"/>
+    <sheet name="20170607" sheetId="15" r:id="rId4"/>
+    <sheet name="20170606" sheetId="14" r:id="rId5"/>
+    <sheet name="20170605" sheetId="13" r:id="rId6"/>
+    <sheet name="20170602" sheetId="12" r:id="rId7"/>
+    <sheet name="20170601" sheetId="11" r:id="rId8"/>
+    <sheet name="20170526" sheetId="10" r:id="rId9"/>
+    <sheet name="20170525" sheetId="9" r:id="rId10"/>
+    <sheet name="20170524" sheetId="8" r:id="rId11"/>
+    <sheet name="20170523" sheetId="7" r:id="rId12"/>
+    <sheet name="20170522" sheetId="6" r:id="rId13"/>
+    <sheet name="20170519" sheetId="5" r:id="rId14"/>
+    <sheet name="20170518" sheetId="4" r:id="rId15"/>
+    <sheet name="20170517" sheetId="3" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="28">
   <si>
     <t>资金信息汇总</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -4101,7 +4103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4248,6 +4250,19 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -5627,7 +5642,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5659,13 +5674,13 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="80">
-        <v>56506237.039999999</v>
-      </c>
+      <c r="C3" s="87"/>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13">
+        <v>14.9</v>
+      </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -5678,21 +5693,19 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="81">
-        <v>47118580.43</v>
-      </c>
+      <c r="C4" s="88"/>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13">
+        <v>15.25</v>
+      </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4" s="71"/>
-      <c r="J4" s="71">
-        <v>-2</v>
-      </c>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -5700,7 +5713,9 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13">
+        <v>15.28</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
@@ -5712,37 +5727,29 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="82">
-        <v>19306935.5</v>
-      </c>
+      <c r="C6" s="89"/>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13">
+        <v>15.39</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="71">
-        <v>24</v>
-      </c>
-      <c r="J6" s="71">
-        <v>-3</v>
-      </c>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="83">
-        <v>15930345.300000001</v>
-      </c>
+      <c r="C7" s="90"/>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="71">
-        <v>19</v>
-      </c>
+      <c r="I7" s="71"/>
       <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5756,51 +5763,53 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="84">
-        <v>6246408</v>
-      </c>
+      <c r="C9" s="93"/>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>-5.0000000000000001E-4</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.48</v>
+        <v>2.5169999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="85">
-        <v>12756343.289999999</v>
-      </c>
+      <c r="C10" s="93"/>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="86">
-        <v>27561420</v>
-      </c>
+      <c r="C11" s="93"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>3.5000000000000001E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="79"/>
+      <c r="C12" s="93"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -5823,13 +5832,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>6.98</v>
+        <v>7.07</v>
       </c>
       <c r="D16" s="13">
-        <v>-0.87</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="E16" s="13">
-        <v>23.89</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -5837,13 +5846,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>12.96</v>
+        <v>15.86</v>
       </c>
       <c r="D17" s="13">
-        <v>-27.27</v>
+        <v>-21.17</v>
       </c>
       <c r="E17" s="13">
-        <v>-14.31</v>
+        <v>-22.36</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -5851,13 +5860,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>3.57</v>
+        <v>8.26</v>
       </c>
       <c r="D18" s="13">
-        <v>-5.84</v>
+        <v>0.86</v>
       </c>
       <c r="E18" s="13">
-        <v>-95.91</v>
+        <v>-92.36</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -5865,13 +5874,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-12.03</v>
+        <v>-6.14</v>
       </c>
       <c r="D19" s="13">
-        <v>-29.84</v>
+        <v>-23.14</v>
       </c>
       <c r="E19" s="13">
-        <v>-190.11</v>
+        <v>-194.16</v>
       </c>
     </row>
   </sheetData>
@@ -5958,7 +5967,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5991,13 +6000,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>19082415.43</v>
+        <v>14811361.23</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>7.12</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6012,20 +6021,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="31">
-        <v>69332135.950000003</v>
+        <v>51965681.979999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>7.46</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>107</v>
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6035,7 +6044,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.51</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -6046,21 +6055,21 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32">
-        <v>23241421.07</v>
+      <c r="C6" s="36">
+        <v>24905714.850000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.0500000000000007</v>
+        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6068,13 +6077,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="33">
-        <v>8776367.3200000003</v>
+        <v>27085499.949999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6088,48 +6097,46 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="34">
-        <v>20676648</v>
+      <c r="C9" s="36">
+        <v>16023360</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3730000000000002</v>
+        <v>2.3980000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35">
-        <v>11755882.18</v>
+      <c r="C10" s="36">
+        <v>12655613.060000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-2E-3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="36">
-        <v>103383240</v>
+        <v>76730160</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-2E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6139,7 +6146,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6162,56 +6169,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-5.49</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-29.04</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-33.299999999999997</v>
+      <c r="C16" s="40">
+        <v>-5.9073410000000699</v>
+      </c>
+      <c r="D16" s="41">
+        <v>-22.170000000000073</v>
+      </c>
+      <c r="E16" s="42">
+        <v>-13.340000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="D17" s="21">
-        <v>-61.24</v>
-      </c>
-      <c r="E17" s="21">
-        <v>-82.9</v>
+      <c r="C17" s="40">
+        <v>4.1357000000000141</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-53.170000000000073</v>
+      </c>
+      <c r="E17" s="42">
+        <v>-53.140000000000185</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-15.44</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-50.01</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-159.9</v>
+      <c r="C18" s="40">
+        <v>-12.058000000000256</v>
+      </c>
+      <c r="D18" s="41">
+        <v>-39.140000000000079</v>
+      </c>
+      <c r="E18" s="42">
+        <v>-132.73999999999964</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-33.24</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-83.81</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-253.7</v>
+      <c r="C19" s="40">
+        <v>-33.658000000000165</v>
+      </c>
+      <c r="D19" s="41">
+        <v>-73.540000000000163</v>
+      </c>
+      <c r="E19" s="42">
+        <v>-213.53999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -6298,7 +6305,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6312,7 +6319,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42877</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6330,14 +6337,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
-        <v>27542132.420000002</v>
+      <c r="C3" s="30">
+        <v>10672859.619999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.17</v>
+        <v>6.53</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6351,21 +6358,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
-        <v>60673425.390000001</v>
+      <c r="C4" s="31">
+        <v>67927920.010000005</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.62</v>
+        <v>8.02</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6375,7 +6382,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -6386,29 +6393,29 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27">
-        <v>21207889.350000001</v>
+      <c r="C6" s="36">
+        <v>25153424.48</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.85</v>
+        <v>8.26</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
-        <v>11122238.460000001</v>
+      <c r="C7" s="33">
+        <v>16041217.449999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -6424,46 +6431,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24">
-        <v>21150984</v>
+      <c r="C9" s="36">
+        <v>15346032</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.403</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25">
-        <v>10768912.51</v>
+      <c r="C10" s="36">
+        <v>18357632.600000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="26">
-        <v>105760560</v>
+      <c r="C11" s="36">
+        <v>76730160</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6473,7 +6486,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6496,56 +6509,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-3</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-10.62</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-23.04</v>
+      <c r="C16" s="37">
+        <v>-7.1373410000000881</v>
+      </c>
+      <c r="D16" s="38">
+        <v>-22.190000000000055</v>
+      </c>
+      <c r="E16" s="39">
+        <v>-21.970000000000113</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0</v>
+      <c r="C17" s="37">
+        <v>-0.29430000000027734</v>
+      </c>
+      <c r="D17" s="38">
+        <v>-57.190000000000055</v>
+      </c>
+      <c r="E17" s="39">
+        <v>-59.369999999999749</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-5.35</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-27.39</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-129.44</v>
+      <c r="C18" s="37">
+        <v>-15.288000000000274</v>
+      </c>
+      <c r="D18" s="38">
+        <v>-43.160000000000061</v>
+      </c>
+      <c r="E18" s="39">
+        <v>-144.77000000000029</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-23.95</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-56.19</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-217.84</v>
+      <c r="C19" s="37">
+        <v>-36.088000000000001</v>
+      </c>
+      <c r="D19" s="38">
+        <v>-75.359999999999872</v>
+      </c>
+      <c r="E19" s="39">
+        <v>-226.77000000000029</v>
       </c>
     </row>
   </sheetData>
@@ -6631,8 +6644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6641,11 +6654,12 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42874</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6663,14 +6677,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>27013656.550000001</v>
+      <c r="C3" s="30">
+        <v>19082415.43</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.37</v>
+        <v>7.12</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6684,21 +6698,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>58135549.119999997</v>
+      <c r="C4" s="31">
+        <v>69332135.950000003</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.28</v>
+        <v>7.46</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <v>1705</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6708,49 +6722,46 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.31</v>
+        <v>7.51</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I5">
-        <v>116</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>20572766.84</v>
+      <c r="C6" s="32">
+        <v>23241421.07</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.71</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
-        <v>11767796.859999999</v>
+      <c r="C7" s="33">
+        <v>8776367.3200000003</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6760,46 +6771,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
-        <v>21121524</v>
+      <c r="C9" s="34">
+        <v>20676648</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.3730000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>13661099.779999999</v>
+      <c r="C10" s="35">
+        <v>11755882.18</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>2E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>104957160</v>
+      <c r="C11" s="36">
+        <v>103383240</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>2E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6809,7 +6826,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6822,66 +6839,66 @@
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
-        <v>1705</v>
-      </c>
-      <c r="C16" s="19">
-        <v>-1.1500000000000909</v>
-      </c>
-      <c r="D16" s="20">
-        <v>-5.7100000000000364</v>
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-5.49</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-29.04</v>
       </c>
       <c r="E16" s="21">
-        <v>-14.520000000000366</v>
+        <v>-33.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1.3126590000001825</v>
-      </c>
-      <c r="D17" s="20">
-        <v>-11.879999999999946</v>
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="D17" s="21">
+        <v>-61.24</v>
       </c>
       <c r="E17" s="21">
-        <v>-17.960000000000186</v>
+        <v>-82.9</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="19">
-        <v>-4.43799999999991</v>
-      </c>
-      <c r="D18" s="20">
-        <v>-32.449999999999861</v>
+      <c r="C18" s="21">
+        <v>-15.44</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-50.01</v>
       </c>
       <c r="E18" s="21">
-        <v>-120.96000000000018</v>
+        <v>-159.9</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="19">
-        <v>-18.037999999999819</v>
-      </c>
-      <c r="D19" s="20">
-        <v>-59.650000000000134</v>
+      <c r="C19" s="21">
+        <v>-33.24</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-83.81</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.55999999999963</v>
+        <v>-253.7</v>
       </c>
     </row>
   </sheetData>
@@ -6965,6 +6982,676 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42877</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22">
+        <v>27542132.420000002</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.17</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>60673425.390000001</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.62</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.4</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="27">
+        <v>21207889.350000001</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.85</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="28">
+        <v>11122238.460000001</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="24">
+        <v>21150984</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25">
+        <v>10768912.51</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26">
+        <v>105760560</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-10.62</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-23.04</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="21">
+        <v>-5.35</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-27.39</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-129.44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="21">
+        <v>-23.95</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-56.19</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>27013656.550000001</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.37</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>58135549.119999997</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.28</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1705</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.31</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>20572766.84</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.71</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11767796.859999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21121524</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13661099.779999999</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>104957160</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1705</v>
+      </c>
+      <c r="C16" s="19">
+        <v>-1.1500000000000909</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-14.520000000000366</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1.3126590000001825</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-11.879999999999946</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-17.960000000000186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="19">
+        <v>-4.43799999999991</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-32.449999999999861</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-120.96000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="19">
+        <v>-18.037999999999819</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-59.650000000000134</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.55999999999963</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7228,7 +7915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:G15"/>
   <sheetViews>
@@ -7371,7 +8058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7384,7 +8073,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42893</v>
+        <v>42894</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7402,13 +8091,13 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="87">
+        <v>72128772.469999999</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13">
-        <v>11.02</v>
-      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -7421,21 +8110,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="88">
+        <v>41018910.439999998</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13">
-        <v>11.18</v>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71">
-        <v>-2</v>
-      </c>
+      <c r="I4" s="71">
+        <v>12</v>
+      </c>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -7443,9 +8132,7 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13">
-        <v>11.87</v>
-      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
@@ -7457,34 +8144,36 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="89">
+        <v>20720454.050000001</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13">
-        <v>12.39</v>
-      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6" s="71">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J6" s="71">
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="90">
+        <v>8790439.4199999999</v>
+      </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="71">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J7" s="71"/>
     </row>
@@ -7499,53 +8188,51 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="91">
+        <v>6446448</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4580000000000002</v>
+        <v>2.5009999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="92">
+        <v>9821013.0199999996</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17">
-        <v>2E-3</v>
-      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="93">
+        <v>21038940</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>4.0000000000000001E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="79"/>
+      <c r="C12" s="86"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>7.4999999999999997E-3</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -7568,13 +8255,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>6.98</v>
+        <v>7.11</v>
       </c>
       <c r="D16" s="13">
-        <v>-0.87</v>
+        <v>-1.18</v>
       </c>
       <c r="E16" s="13">
-        <v>23.89</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -7582,13 +8269,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>12.96</v>
+        <v>13.1</v>
       </c>
       <c r="D17" s="13">
-        <v>-27.27</v>
+        <v>-29.38</v>
       </c>
       <c r="E17" s="13">
-        <v>-14.31</v>
+        <v>-38.67</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -7596,13 +8283,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>3.57</v>
+        <v>7.5</v>
       </c>
       <c r="D18" s="13">
-        <v>-5.84</v>
+        <v>-7.95</v>
       </c>
       <c r="E18" s="13">
-        <v>-95.91</v>
+        <v>-111.27</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -7610,13 +8297,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-12.03</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D19" s="13">
-        <v>-29.84</v>
+        <v>-28.15</v>
       </c>
       <c r="E19" s="13">
-        <v>-190.11</v>
+        <v>-202.07</v>
       </c>
     </row>
   </sheetData>
@@ -7703,7 +8390,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7717,7 +8404,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42892</v>
+        <v>42894</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7735,15 +8422,13 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73">
-        <v>63179358.07</v>
+      <c r="C3" s="80">
+        <v>56506237.039999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13">
-        <v>10.75</v>
-      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -7756,24 +8441,20 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="74">
-        <v>39428592.960000001</v>
+      <c r="C4" s="81">
+        <v>47118580.43</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13">
-        <v>11.09</v>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71">
-        <v>2</v>
-      </c>
+      <c r="I4" s="71"/>
       <c r="J4" s="71">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7782,9 +8463,7 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13">
-        <v>11.54</v>
-      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
@@ -7796,15 +8475,13 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="75">
-        <v>19665017.670000002</v>
+      <c r="C6" s="82">
+        <v>19306935.5</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13">
-        <v>12.21</v>
-      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
@@ -7813,25 +8490,23 @@
         <v>24</v>
       </c>
       <c r="J6" s="71">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="76">
-        <v>15712421.77</v>
+      <c r="C7" s="83">
+        <v>15930345.300000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="71">
-        <v>13</v>
-      </c>
-      <c r="J7" s="71">
-        <v>-2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -7844,59 +8519,51 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="77">
-        <v>5464032</v>
+      <c r="C9" s="84">
+        <v>6246408</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="78">
-        <v>13251570.66</v>
+      <c r="C10" s="85">
+        <v>12756343.289999999</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17">
-        <v>1E-3</v>
-      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="79">
-        <v>22274580</v>
+      <c r="C11" s="86">
+        <v>27561420</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>7.4999999999999997E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="70"/>
+      <c r="C12" s="79"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>1.2E-2</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -7919,13 +8586,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>-0.89254099999963366</v>
+        <v>6.98</v>
       </c>
       <c r="D16" s="13">
-        <v>-12.150000000000091</v>
+        <v>-0.87</v>
       </c>
       <c r="E16" s="13">
-        <v>-13.890000000000185</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -7933,13 +8600,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>15.350500000000268</v>
+        <v>12.96</v>
       </c>
       <c r="D17" s="13">
-        <v>-36.75</v>
+        <v>-27.27</v>
       </c>
       <c r="E17" s="13">
-        <v>-54.48999999999964</v>
+        <v>-14.31</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -7947,13 +8614,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>1.5568000000000897</v>
+        <v>3.57</v>
       </c>
       <c r="D18" s="13">
-        <v>-11.519999999999733</v>
+        <v>-5.84</v>
       </c>
       <c r="E18" s="13">
-        <v>-123.09</v>
+        <v>-95.91</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -7961,19 +8628,19 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-9.6431999999997284</v>
+        <v>-12.03</v>
       </c>
       <c r="D19" s="13">
-        <v>-30.720000000000006</v>
+        <v>-29.84</v>
       </c>
       <c r="E19" s="13">
-        <v>-213.48999999999964</v>
+        <v>-190.11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7985,7 +8652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7997,7 +8664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F12">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8053,9 +8720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8068,7 +8733,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42891</v>
+        <v>42893</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8086,14 +8751,12 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="64">
-        <v>46400118.310000002</v>
-      </c>
+      <c r="C3" s="73"/>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="13">
-        <v>11.6</v>
+        <v>11.02</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8107,24 +8770,20 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65">
-        <v>56758537.549999997</v>
-      </c>
+      <c r="C4" s="74"/>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="13">
-        <v>12.01</v>
+        <v>11.18</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71">
-        <v>2</v>
-      </c>
+      <c r="I4" s="71"/>
       <c r="J4" s="71">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8134,7 +8793,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>12.15</v>
+        <v>11.87</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -8147,14 +8806,12 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66">
-        <v>21083961.420000002</v>
-      </c>
+      <c r="C6" s="75"/>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="13">
-        <v>12.3</v>
+        <v>12.39</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
@@ -8164,25 +8821,21 @@
         <v>24</v>
       </c>
       <c r="J6" s="71">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67">
-        <v>13947536.58</v>
-      </c>
+      <c r="C7" s="76"/>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="71">
-        <v>13</v>
-      </c>
-      <c r="J7" s="71">
-        <v>-2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -8195,58 +8848,52 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="68">
-        <v>5668260</v>
-      </c>
+      <c r="C9" s="79"/>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.4580000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="69">
-        <v>13263163.310000001</v>
-      </c>
+      <c r="C10" s="79"/>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="70">
-        <v>19565280</v>
-      </c>
+      <c r="C11" s="79"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="79"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>8.5000000000000006E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8269,56 +8916,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="13">
-        <v>3.3974589999998752</v>
+      <c r="C16" s="72">
+        <v>6.98</v>
       </c>
       <c r="D16" s="13">
-        <v>-5.7100000000000364</v>
+        <v>-0.87</v>
       </c>
       <c r="E16" s="13">
-        <v>7.5899999999993781</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="13">
-        <v>16.440499999999957</v>
+      <c r="C17" s="72">
+        <v>12.96</v>
       </c>
       <c r="D17" s="13">
-        <v>-32.710000000000036</v>
+        <v>-27.27</v>
       </c>
       <c r="E17" s="13">
-        <v>-33.61000000000044</v>
+        <v>-14.31</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="13">
-        <v>5.0467999999998714</v>
+      <c r="C18" s="72">
+        <v>3.57</v>
       </c>
       <c r="D18" s="13">
-        <v>-9.4800000000002242</v>
+        <v>-5.84</v>
       </c>
       <c r="E18" s="13">
-        <v>-104.61000000000044</v>
+        <v>-95.91</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="13">
-        <v>-6.5532000000000377</v>
+      <c r="C19" s="72">
+        <v>-12.03</v>
       </c>
       <c r="D19" s="13">
-        <v>-26.480000000000224</v>
+        <v>-29.84</v>
       </c>
       <c r="E19" s="13">
-        <v>-195.81000000000026</v>
+        <v>-190.11</v>
       </c>
     </row>
   </sheetData>
@@ -8405,7 +9052,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8419,7 +9066,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42888</v>
+        <v>42892</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8437,14 +9084,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53">
-        <v>29029597.77</v>
+      <c r="C3" s="73">
+        <v>63179358.07</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>11.21</v>
+      <c r="F3" s="13">
+        <v>10.75</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8458,22 +9105,24 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54">
-        <v>74422527.400000006</v>
+      <c r="C4" s="74">
+        <v>39428592.960000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4">
-        <v>11.05</v>
+      <c r="F4" s="13">
+        <v>11.09</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60">
-        <v>-3</v>
+      <c r="I4" s="71">
+        <v>2</v>
+      </c>
+      <c r="J4" s="71">
+        <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8482,56 +9131,56 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>11.15</v>
+      <c r="F5" s="13">
+        <v>11.54</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60">
-        <v>-4</v>
-      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59">
-        <v>19554286.609999999</v>
+      <c r="C6" s="75">
+        <v>19665017.670000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>11.45</v>
+      <c r="F6" s="13">
+        <v>12.21</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="60">
-        <v>28</v>
-      </c>
-      <c r="J6" s="60">
-        <v>-1</v>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56">
-        <v>14955296.359999999</v>
+      <c r="C7" s="76">
+        <v>15712421.77</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="60">
-        <v>15</v>
-      </c>
-      <c r="J7" s="60"/>
+      <c r="I7" s="71">
+        <v>13</v>
+      </c>
+      <c r="J7" s="71">
+        <v>-2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -8544,56 +9193,58 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="59">
-        <v>6268212</v>
+      <c r="C9" s="77">
+        <v>5464032</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4889999999999999</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="59">
-        <v>12722925.49</v>
+      <c r="C10" s="78">
+        <v>13251570.66</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>-2.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="79">
+        <v>22274580</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="70"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>3.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8612,66 +9263,102 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="61">
-        <v>5.0074590000000025</v>
-      </c>
-      <c r="D16" s="62">
-        <v>-8.7400000000002365</v>
-      </c>
-      <c r="E16" s="63">
-        <v>-16.090000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="72">
+        <v>-0.89254099999963366</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-12.150000000000091</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-13.890000000000185</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="61">
-        <v>16.450499999999721</v>
-      </c>
-      <c r="D17" s="62">
-        <v>-34.940000000000055</v>
-      </c>
-      <c r="E17" s="63">
-        <v>-60.09</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="72">
+        <v>15.350500000000268</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-36.75</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-54.48999999999964</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="61">
-        <v>-2.3432000000000013</v>
-      </c>
-      <c r="D18" s="62">
-        <v>-19.310000000000151</v>
-      </c>
-      <c r="E18" s="63">
-        <v>-128.28999999999982</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="72">
+        <v>1.5568000000000897</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-11.519999999999733</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-123.09</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="61">
-        <v>-18.543200000000276</v>
-      </c>
-      <c r="D19" s="62">
-        <v>-36.310000000000151</v>
-      </c>
-      <c r="E19" s="63">
-        <v>-200.48999999999964</v>
+      <c r="C19" s="72">
+        <v>-9.6431999999997284</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-30.720000000000006</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-213.48999999999964</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C16:C19">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8683,7 +9370,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D19">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8695,42 +9382,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8752,7 +9403,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I4" sqref="I4:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8766,7 +9417,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42887</v>
+        <v>42891</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8784,14 +9435,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53">
-        <v>28867590.68</v>
+      <c r="C3" s="64">
+        <v>46400118.310000002</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>11.21</v>
+      <c r="F3" s="13">
+        <v>11.6</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8805,22 +9456,24 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54">
-        <v>66367210.890000001</v>
+      <c r="C4" s="65">
+        <v>56758537.549999997</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4">
-        <v>11.05</v>
+      <c r="F4" s="13">
+        <v>12.01</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60">
-        <v>-2</v>
+      <c r="I4" s="71">
+        <v>2</v>
+      </c>
+      <c r="J4" s="71">
+        <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8829,56 +9482,56 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>11.15</v>
+      <c r="F5" s="13">
+        <v>12.15</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60">
-        <v>-7</v>
-      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="55">
-        <v>21674451.940000001</v>
+      <c r="C6" s="66">
+        <v>21083961.420000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>11.45</v>
+      <c r="F6" s="13">
+        <v>12.3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="60">
-        <v>35</v>
-      </c>
-      <c r="J6" s="60">
-        <v>-3</v>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56">
-        <v>17075821.039999999</v>
+      <c r="C7" s="67">
+        <v>13947536.58</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="60">
-        <v>19</v>
-      </c>
-      <c r="J7" s="60"/>
+      <c r="I7" s="71">
+        <v>13</v>
+      </c>
+      <c r="J7" s="71">
+        <v>-2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -8891,48 +9544,48 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="57">
-        <v>7807056</v>
+      <c r="C9" s="68">
+        <v>5668260</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4750000000000001</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="58">
-        <v>14932651.300000001</v>
+      <c r="C10" s="69">
+        <v>13263163.310000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>0</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="59">
-        <v>30247500</v>
+      <c r="C11" s="70">
+        <v>19565280</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8942,7 +9595,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>4.0000000000000001E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8961,65 +9614,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="50">
-        <v>3.1774590000000753</v>
-      </c>
-      <c r="D16" s="51">
-        <v>-10.880000000000109</v>
-      </c>
-      <c r="E16" s="52">
-        <v>-24.590000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="13">
+        <v>3.3974589999998752</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="13">
+        <v>7.5899999999993781</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="50">
-        <v>16.220500000000158</v>
-      </c>
-      <c r="D17" s="51">
-        <v>-36.2800000000002</v>
-      </c>
-      <c r="E17" s="52">
-        <v>-67.390000000000185</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="13">
+        <v>16.440499999999957</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-32.710000000000036</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-33.61000000000044</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="50">
-        <v>-0.37319999999974662</v>
-      </c>
-      <c r="D18" s="51">
-        <v>-24.049999999999933</v>
-      </c>
-      <c r="E18" s="52">
-        <v>-132.99000000000055</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="13">
+        <v>5.0467999999998714</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-9.4800000000002242</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-104.61000000000044</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="50">
-        <v>-20.17319999999993</v>
-      </c>
-      <c r="D19" s="51">
-        <v>-48.250000000000206</v>
-      </c>
-      <c r="E19" s="52">
-        <v>-207.78999999999982</v>
+      <c r="C19" s="13">
+        <v>-6.5532000000000377</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-26.480000000000224</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-195.81000000000026</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C19">
+  <conditionalFormatting sqref="F3:F6 F9:F12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9031,7 +9684,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D19">
+  <conditionalFormatting sqref="F3:F6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9043,7 +9696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E19">
+  <conditionalFormatting sqref="F9:F12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9055,7 +9708,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
+  <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9067,7 +9720,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="D16:D19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9079,7 +9732,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
+  <conditionalFormatting sqref="E16:E19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9101,7 +9754,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9115,7 +9768,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42888</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -9133,11 +9786,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43">
-        <v>15743713.310000001</v>
+      <c r="C3" s="53">
+        <v>29029597.77</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11.21</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -9151,21 +9807,22 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
-        <v>63471370.229999997</v>
+      <c r="C4" s="54">
+        <v>74422527.400000006</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F4">
+        <v>11.05</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>-2</v>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60">
+        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9174,11 +9831,15 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F5">
+        <v>11.15</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="J5">
+      <c r="I5" s="60"/>
+      <c r="J5" s="60">
         <v>-4</v>
       </c>
     </row>
@@ -9186,33 +9847,40 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="45">
-        <v>24598703.920000002</v>
+      <c r="C6" s="59">
+        <v>19554286.609999999</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
+      </c>
+      <c r="F6">
+        <v>11.45</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>32</v>
+      <c r="I6" s="60">
+        <v>28</v>
+      </c>
+      <c r="J6" s="60">
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="46">
-        <v>21814860.350000001</v>
+      <c r="C7" s="56">
+        <v>14955296.359999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>21</v>
-      </c>
+      <c r="I7" s="60">
+        <v>15</v>
+      </c>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -9225,43 +9893,47 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47">
-        <v>8050872</v>
+      <c r="C9" s="59">
+        <v>6268212</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>-3.0000000000000001E-3</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.4889999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48">
-        <v>22450395.280000001</v>
+      <c r="C10" s="59">
+        <v>12722925.49</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>-2.5000000000000001E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="49">
-        <v>36020520</v>
-      </c>
+      <c r="C11" s="59"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -9269,7 +9941,9 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -9291,33 +9965,57 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="61">
+        <v>5.0074590000000025</v>
+      </c>
+      <c r="D16" s="62">
+        <v>-8.7400000000002365</v>
+      </c>
+      <c r="E16" s="63">
+        <v>-16.090000000000003</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="C17" s="61">
+        <v>16.450499999999721</v>
+      </c>
+      <c r="D17" s="62">
+        <v>-34.940000000000055</v>
+      </c>
+      <c r="E17" s="63">
+        <v>-60.09</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="61">
+        <v>-2.3432000000000013</v>
+      </c>
+      <c r="D18" s="62">
+        <v>-19.310000000000151</v>
+      </c>
+      <c r="E18" s="63">
+        <v>-128.28999999999982</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="61">
+        <v>-18.543200000000276</v>
+      </c>
+      <c r="D19" s="62">
+        <v>-36.310000000000151</v>
+      </c>
+      <c r="E19" s="63">
+        <v>-200.48999999999964</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -9403,7 +10101,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9417,7 +10115,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42887</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -9435,14 +10133,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>14811361.23</v>
+      <c r="C3" s="53">
+        <v>28867590.68</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3">
-        <v>8.5299999999999994</v>
+        <v>11.21</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -9456,20 +10154,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>51965681.979999997</v>
+      <c r="C4" s="54">
+        <v>66367210.890000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F4">
+        <v>11.05</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>65</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60">
         <v>-2</v>
       </c>
     </row>
@@ -9480,47 +10179,55 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>8.4600000000000009</v>
+        <v>11.15</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60">
+        <v>-7</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
-        <v>24905714.850000001</v>
+      <c r="C6" s="55">
+        <v>21674451.940000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.64</v>
+        <v>11.45</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>30</v>
+      <c r="I6" s="60">
+        <v>35</v>
+      </c>
+      <c r="J6" s="60">
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>27085499.949999999</v>
+      <c r="C7" s="56">
+        <v>17075821.039999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>18</v>
-      </c>
+      <c r="I7" s="60">
+        <v>19</v>
+      </c>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -9533,46 +10240,48 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>16023360</v>
+      <c r="C9" s="57">
+        <v>7807056</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-8.0000000000000002E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3980000000000001</v>
+        <v>2.4750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36">
-        <v>12655613.060000001</v>
+      <c r="C10" s="58">
+        <v>14932651.300000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>76730160</v>
+      <c r="C11" s="59">
+        <v>30247500</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-6.4999999999999997E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -9582,7 +10291,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -9605,56 +10314,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="40">
-        <v>-5.9073410000000699</v>
-      </c>
-      <c r="D16" s="41">
-        <v>-22.170000000000073</v>
-      </c>
-      <c r="E16" s="42">
-        <v>-13.340000000000003</v>
+      <c r="C16" s="50">
+        <v>3.1774590000000753</v>
+      </c>
+      <c r="D16" s="51">
+        <v>-10.880000000000109</v>
+      </c>
+      <c r="E16" s="52">
+        <v>-24.590000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="40">
-        <v>4.1357000000000141</v>
-      </c>
-      <c r="D17" s="41">
-        <v>-53.170000000000073</v>
-      </c>
-      <c r="E17" s="42">
-        <v>-53.140000000000185</v>
+      <c r="C17" s="50">
+        <v>16.220500000000158</v>
+      </c>
+      <c r="D17" s="51">
+        <v>-36.2800000000002</v>
+      </c>
+      <c r="E17" s="52">
+        <v>-67.390000000000185</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="40">
-        <v>-12.058000000000256</v>
-      </c>
-      <c r="D18" s="41">
-        <v>-39.140000000000079</v>
-      </c>
-      <c r="E18" s="42">
-        <v>-132.73999999999964</v>
+      <c r="C18" s="50">
+        <v>-0.37319999999974662</v>
+      </c>
+      <c r="D18" s="51">
+        <v>-24.049999999999933</v>
+      </c>
+      <c r="E18" s="52">
+        <v>-132.99000000000055</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="40">
-        <v>-33.658000000000165</v>
-      </c>
-      <c r="D19" s="41">
-        <v>-73.540000000000163</v>
-      </c>
-      <c r="E19" s="42">
-        <v>-213.53999999999982</v>
+      <c r="C19" s="50">
+        <v>-20.17319999999993</v>
+      </c>
+      <c r="D19" s="51">
+        <v>-48.250000000000206</v>
+      </c>
+      <c r="E19" s="52">
+        <v>-207.78999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -9741,7 +10450,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9773,14 +10482,11 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>10672859.619999999</v>
+      <c r="C3" s="43">
+        <v>15743713.310000001</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>6.53</v>
+        <v>11</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -9794,21 +10500,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>67927920.010000005</v>
+      <c r="C4" s="44">
+        <v>63471370.229999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>8.02</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>67</v>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9817,47 +10523,44 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
-        <v>25153424.48</v>
+      <c r="C6" s="45">
+        <v>24598703.920000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F6">
-        <v>8.26</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>16041217.449999999</v>
+      <c r="C7" s="46">
+        <v>21814860.350000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -9871,49 +10574,43 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>15346032</v>
+      <c r="C9" s="47">
+        <v>8050872</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.403</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36">
-        <v>18357632.600000001</v>
+      <c r="C10" s="48">
+        <v>22450395.280000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-2E-3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>76730160</v>
+      <c r="C11" s="49">
+        <v>36020520</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>-2E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -9921,9 +10618,7 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -9945,57 +10640,33 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="37">
-        <v>-7.1373410000000881</v>
-      </c>
-      <c r="D16" s="38">
-        <v>-22.190000000000055</v>
-      </c>
-      <c r="E16" s="39">
-        <v>-21.970000000000113</v>
-      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="37">
-        <v>-0.29430000000027734</v>
-      </c>
-      <c r="D17" s="38">
-        <v>-57.190000000000055</v>
-      </c>
-      <c r="E17" s="39">
-        <v>-59.369999999999749</v>
-      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="37">
-        <v>-15.288000000000274</v>
-      </c>
-      <c r="D18" s="38">
-        <v>-43.160000000000061</v>
-      </c>
-      <c r="E18" s="39">
-        <v>-144.77000000000029</v>
-      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="37">
-        <v>-36.088000000000001</v>
-      </c>
-      <c r="D19" s="38">
-        <v>-75.359999999999872</v>
-      </c>
-      <c r="E19" s="39">
-        <v>-226.77000000000029</v>
-      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -7,29 +7,33 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
-    <sheet name="20170612" sheetId="18" r:id="rId1"/>
-    <sheet name="20170609" sheetId="17" r:id="rId2"/>
-    <sheet name="20170608" sheetId="16" r:id="rId3"/>
-    <sheet name="20170607" sheetId="15" r:id="rId4"/>
-    <sheet name="20170606" sheetId="14" r:id="rId5"/>
-    <sheet name="20170605" sheetId="13" r:id="rId6"/>
-    <sheet name="20170602" sheetId="12" r:id="rId7"/>
-    <sheet name="20170601" sheetId="11" r:id="rId8"/>
-    <sheet name="20170526" sheetId="10" r:id="rId9"/>
-    <sheet name="20170525" sheetId="9" r:id="rId10"/>
-    <sheet name="20170524" sheetId="8" r:id="rId11"/>
-    <sheet name="20170523" sheetId="7" r:id="rId12"/>
-    <sheet name="20170522" sheetId="6" r:id="rId13"/>
-    <sheet name="20170519" sheetId="5" r:id="rId14"/>
-    <sheet name="20170518" sheetId="4" r:id="rId15"/>
-    <sheet name="20170517" sheetId="3" r:id="rId16"/>
+    <sheet name="20170616" sheetId="22" r:id="rId1"/>
+    <sheet name="20170615" sheetId="21" r:id="rId2"/>
+    <sheet name="20170614" sheetId="20" r:id="rId3"/>
+    <sheet name="20170613" sheetId="19" r:id="rId4"/>
+    <sheet name="20170612" sheetId="18" r:id="rId5"/>
+    <sheet name="20170609" sheetId="17" r:id="rId6"/>
+    <sheet name="20170608" sheetId="16" r:id="rId7"/>
+    <sheet name="20170607" sheetId="15" r:id="rId8"/>
+    <sheet name="20170606" sheetId="14" r:id="rId9"/>
+    <sheet name="20170605" sheetId="13" r:id="rId10"/>
+    <sheet name="20170602" sheetId="12" r:id="rId11"/>
+    <sheet name="20170601" sheetId="11" r:id="rId12"/>
+    <sheet name="20170526" sheetId="10" r:id="rId13"/>
+    <sheet name="20170525" sheetId="9" r:id="rId14"/>
+    <sheet name="20170524" sheetId="8" r:id="rId15"/>
+    <sheet name="20170523" sheetId="7" r:id="rId16"/>
+    <sheet name="20170522" sheetId="6" r:id="rId17"/>
+    <sheet name="20170519" sheetId="5" r:id="rId18"/>
+    <sheet name="20170518" sheetId="4" r:id="rId19"/>
+    <sheet name="20170517" sheetId="3" r:id="rId20"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="28">
   <si>
     <t>资金信息汇总</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -4103,7 +4107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4288,6 +4292,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5642,7 +5675,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5656,7 +5689,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42894</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5674,12 +5707,12 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="87"/>
+      <c r="C3" s="101"/>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="13">
-        <v>14.9</v>
+        <v>13.08</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -5693,19 +5726,19 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="102"/>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="13">
-        <v>15.25</v>
+        <v>13.02</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -5714,43 +5747,43 @@
         <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>15.28</v>
+        <v>13.48</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="103"/>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="13">
-        <v>15.39</v>
+        <v>13.82</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="90"/>
+      <c r="C7" s="104"/>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -5763,52 +5796,52 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="107"/>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-5.0000000000000001E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.5169999999999999</v>
+        <v>2.4820000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="107"/>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="93"/>
+      <c r="C11" s="107"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>3.5000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="93"/>
+      <c r="C12" s="107"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5832,13 +5865,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>7.07</v>
+        <v>1.97</v>
       </c>
       <c r="D16" s="13">
-        <v>2.4300000000000002</v>
+        <v>-4.79</v>
       </c>
       <c r="E16" s="13">
-        <v>22.04</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -5846,13 +5879,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>15.86</v>
+        <v>14.93</v>
       </c>
       <c r="D17" s="13">
-        <v>-21.17</v>
+        <v>-23.99</v>
       </c>
       <c r="E17" s="13">
-        <v>-22.36</v>
+        <v>-30.06</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -5860,13 +5893,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>8.26</v>
+        <v>7.14</v>
       </c>
       <c r="D18" s="13">
-        <v>0.86</v>
+        <v>5.44</v>
       </c>
       <c r="E18" s="13">
-        <v>-92.36</v>
+        <v>-102.26</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -5874,13 +5907,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-6.14</v>
+        <v>-6.86</v>
       </c>
       <c r="D19" s="13">
-        <v>-23.14</v>
+        <v>-17.36</v>
       </c>
       <c r="E19" s="13">
-        <v>-194.16</v>
+        <v>-204.26</v>
       </c>
     </row>
   </sheetData>
@@ -5967,7 +6000,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I4" sqref="I4:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5981,7 +6014,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42891</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5999,14 +6032,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>14811361.23</v>
+      <c r="C3" s="64">
+        <v>46400118.310000002</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>8.5299999999999994</v>
+      <c r="F3" s="13">
+        <v>11.6</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6020,21 +6053,24 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>51965681.979999997</v>
+      <c r="C4" s="65">
+        <v>56758537.549999997</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F4" s="13">
+        <v>12.01</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>65</v>
-      </c>
-      <c r="J4">
-        <v>-2</v>
+      <c r="I4" s="71">
+        <v>2</v>
+      </c>
+      <c r="J4" s="71">
+        <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6043,47 +6079,55 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>8.4600000000000009</v>
+      <c r="F5" s="13">
+        <v>12.15</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
-        <v>24905714.850000001</v>
+      <c r="C6" s="66">
+        <v>21083961.420000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>8.64</v>
+      <c r="F6" s="13">
+        <v>12.3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>30</v>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>27085499.949999999</v>
+      <c r="C7" s="67">
+        <v>13947536.58</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>18</v>
+      <c r="I7" s="71">
+        <v>13</v>
+      </c>
+      <c r="J7" s="71">
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6097,46 +6141,48 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>16023360</v>
+      <c r="C9" s="68">
+        <v>5668260</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3980000000000001</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36">
-        <v>12655613.060000001</v>
+      <c r="C10" s="69">
+        <v>13263163.310000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>-5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>76730160</v>
+      <c r="C11" s="70">
+        <v>19565280</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-6.4999999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6146,7 +6192,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6165,65 +6211,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="40">
-        <v>-5.9073410000000699</v>
-      </c>
-      <c r="D16" s="41">
-        <v>-22.170000000000073</v>
-      </c>
-      <c r="E16" s="42">
-        <v>-13.340000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="13">
+        <v>3.3974589999998752</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="13">
+        <v>7.5899999999993781</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="40">
-        <v>4.1357000000000141</v>
-      </c>
-      <c r="D17" s="41">
-        <v>-53.170000000000073</v>
-      </c>
-      <c r="E17" s="42">
-        <v>-53.140000000000185</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="13">
+        <v>16.440499999999957</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-32.710000000000036</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-33.61000000000044</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="40">
-        <v>-12.058000000000256</v>
-      </c>
-      <c r="D18" s="41">
-        <v>-39.140000000000079</v>
-      </c>
-      <c r="E18" s="42">
-        <v>-132.73999999999964</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="13">
+        <v>5.0467999999998714</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-9.4800000000002242</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-104.61000000000044</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="40">
-        <v>-33.658000000000165</v>
-      </c>
-      <c r="D19" s="41">
-        <v>-73.540000000000163</v>
-      </c>
-      <c r="E19" s="42">
-        <v>-213.53999999999982</v>
+      <c r="C19" s="13">
+        <v>-6.5532000000000377</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-26.480000000000224</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-195.81000000000026</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C19">
+  <conditionalFormatting sqref="F3:F6 F9:F12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6235,7 +6281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D19">
+  <conditionalFormatting sqref="F3:F6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6247,7 +6293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E19">
+  <conditionalFormatting sqref="F9:F12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6259,7 +6305,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
+  <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6271,7 +6317,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="D16:D19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6283,7 +6329,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
+  <conditionalFormatting sqref="E16:E19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6319,7 +6365,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42888</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6337,14 +6383,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>10672859.619999999</v>
+      <c r="C3" s="53">
+        <v>29029597.77</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>6.53</v>
+        <v>11.21</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6358,21 +6404,22 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>67927920.010000005</v>
+      <c r="C4" s="54">
+        <v>74422527.400000006</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>8.02</v>
+        <v>11.05</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>67</v>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60">
+        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6382,47 +6429,55 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>11.15</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60">
+        <v>-4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
-        <v>25153424.48</v>
+      <c r="C6" s="59">
+        <v>19554286.609999999</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.26</v>
+        <v>11.45</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>29</v>
+      <c r="I6" s="60">
+        <v>28</v>
+      </c>
+      <c r="J6" s="60">
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>16041217.449999999</v>
+      <c r="C7" s="56">
+        <v>14955296.359999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
+      <c r="I7" s="60">
+        <v>15</v>
+      </c>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -6435,11 +6490,11 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>15346032</v>
+      <c r="C9" s="59">
+        <v>6268212</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="17">
         <v>-3.0000000000000001E-3</v>
@@ -6448,35 +6503,33 @@
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.403</v>
+        <v>2.4889999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36">
-        <v>18357632.600000001</v>
+      <c r="C10" s="59">
+        <v>12722925.49</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>-2E-3</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>76730160</v>
-      </c>
+      <c r="C11" s="59"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-2E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6486,7 +6539,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6509,56 +6562,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="37">
-        <v>-7.1373410000000881</v>
-      </c>
-      <c r="D16" s="38">
-        <v>-22.190000000000055</v>
-      </c>
-      <c r="E16" s="39">
-        <v>-21.970000000000113</v>
+      <c r="C16" s="61">
+        <v>5.0074590000000025</v>
+      </c>
+      <c r="D16" s="62">
+        <v>-8.7400000000002365</v>
+      </c>
+      <c r="E16" s="63">
+        <v>-16.090000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="37">
-        <v>-0.29430000000027734</v>
-      </c>
-      <c r="D17" s="38">
-        <v>-57.190000000000055</v>
-      </c>
-      <c r="E17" s="39">
-        <v>-59.369999999999749</v>
+      <c r="C17" s="61">
+        <v>16.450499999999721</v>
+      </c>
+      <c r="D17" s="62">
+        <v>-34.940000000000055</v>
+      </c>
+      <c r="E17" s="63">
+        <v>-60.09</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="37">
-        <v>-15.288000000000274</v>
-      </c>
-      <c r="D18" s="38">
-        <v>-43.160000000000061</v>
-      </c>
-      <c r="E18" s="39">
-        <v>-144.77000000000029</v>
+      <c r="C18" s="61">
+        <v>-2.3432000000000013</v>
+      </c>
+      <c r="D18" s="62">
+        <v>-19.310000000000151</v>
+      </c>
+      <c r="E18" s="63">
+        <v>-128.28999999999982</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="37">
-        <v>-36.088000000000001</v>
-      </c>
-      <c r="D19" s="38">
-        <v>-75.359999999999872</v>
-      </c>
-      <c r="E19" s="39">
-        <v>-226.77000000000029</v>
+      <c r="C19" s="61">
+        <v>-18.543200000000276</v>
+      </c>
+      <c r="D19" s="62">
+        <v>-36.310000000000151</v>
+      </c>
+      <c r="E19" s="63">
+        <v>-200.48999999999964</v>
       </c>
     </row>
   </sheetData>
@@ -6645,7 +6698,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6659,7 +6712,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42887</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6677,14 +6730,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>19082415.43</v>
+      <c r="C3" s="53">
+        <v>28867590.68</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>7.12</v>
+        <v>11.21</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6698,21 +6751,22 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>69332135.950000003</v>
+      <c r="C4" s="54">
+        <v>66367210.890000001</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>7.46</v>
+        <v>11.05</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>107</v>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6722,47 +6776,55 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.51</v>
+        <v>11.15</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60">
+        <v>-7</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32">
-        <v>23241421.07</v>
+      <c r="C6" s="55">
+        <v>21674451.940000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.0500000000000007</v>
+        <v>11.45</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>28</v>
+      <c r="I6" s="60">
+        <v>35</v>
+      </c>
+      <c r="J6" s="60">
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>8776367.3200000003</v>
+      <c r="C7" s="56">
+        <v>17075821.039999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
+      <c r="I7" s="60">
+        <v>19</v>
+      </c>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -6775,48 +6837,48 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="34">
-        <v>20676648</v>
+      <c r="C9" s="57">
+        <v>7807056</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3730000000000002</v>
+        <v>2.4750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35">
-        <v>11755882.18</v>
+      <c r="C10" s="58">
+        <v>14932651.300000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>-2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>103383240</v>
+      <c r="C11" s="59">
+        <v>30247500</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-2E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6826,7 +6888,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6849,56 +6911,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-5.49</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-29.04</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-33.299999999999997</v>
+      <c r="C16" s="50">
+        <v>3.1774590000000753</v>
+      </c>
+      <c r="D16" s="51">
+        <v>-10.880000000000109</v>
+      </c>
+      <c r="E16" s="52">
+        <v>-24.590000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="D17" s="21">
-        <v>-61.24</v>
-      </c>
-      <c r="E17" s="21">
-        <v>-82.9</v>
+      <c r="C17" s="50">
+        <v>16.220500000000158</v>
+      </c>
+      <c r="D17" s="51">
+        <v>-36.2800000000002</v>
+      </c>
+      <c r="E17" s="52">
+        <v>-67.390000000000185</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-15.44</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-50.01</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-159.9</v>
+      <c r="C18" s="50">
+        <v>-0.37319999999974662</v>
+      </c>
+      <c r="D18" s="51">
+        <v>-24.049999999999933</v>
+      </c>
+      <c r="E18" s="52">
+        <v>-132.99000000000055</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-33.24</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-83.81</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-253.7</v>
+      <c r="C19" s="50">
+        <v>-20.17319999999993</v>
+      </c>
+      <c r="D19" s="51">
+        <v>-48.250000000000206</v>
+      </c>
+      <c r="E19" s="52">
+        <v>-207.78999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -6985,7 +7047,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6999,7 +7061,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42877</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7017,14 +7079,11 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
-        <v>27542132.420000002</v>
+      <c r="C3" s="43">
+        <v>15743713.310000001</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>7.17</v>
+        <v>11</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7038,21 +7097,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
-        <v>60673425.390000001</v>
+      <c r="C4" s="44">
+        <v>63471370.229999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>7.62</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>114</v>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7061,47 +7120,44 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>7.4</v>
-      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27">
-        <v>21207889.350000001</v>
+      <c r="C6" s="45">
+        <v>24598703.920000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F6">
-        <v>7.85</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
-        <v>11122238.460000001</v>
+      <c r="C7" s="46">
+        <v>21814860.350000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7111,47 +7167,47 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24">
-        <v>21150984</v>
+      <c r="C9" s="47">
+        <v>8050872</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>11</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25">
-        <v>10768912.51</v>
+      <c r="C10" s="48">
+        <v>22450395.280000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="26">
-        <v>105760560</v>
+      <c r="C11" s="49">
+        <v>36020520</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -7159,9 +7215,7 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>1E-3</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -7183,57 +7237,33 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-3</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-10.62</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-23.04</v>
-      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0</v>
-      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-5.35</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-27.39</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-129.44</v>
-      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-23.95</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-56.19</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-217.84</v>
-      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7318,8 +7348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7328,11 +7358,12 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42874</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7350,14 +7381,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>27013656.550000001</v>
+      <c r="C3" s="30">
+        <v>14811361.23</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>7.37</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7371,21 +7402,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>58135549.119999997</v>
+      <c r="C4" s="31">
+        <v>51965681.979999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>7.28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <v>1705</v>
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>65</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7395,49 +7426,46 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.31</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I5">
-        <v>116</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>20572766.84</v>
+      <c r="C6" s="36">
+        <v>24905714.850000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.71</v>
+        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
-        <v>11767796.859999999</v>
+      <c r="C7" s="33">
+        <v>27085499.949999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7447,46 +7475,50 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
-        <v>21121524</v>
+      <c r="C9" s="36">
+        <v>16023360</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.3980000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>13661099.779999999</v>
+      <c r="C10" s="36">
+        <v>12655613.060000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>2E-3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>104957160</v>
+      <c r="C11" s="36">
+        <v>76730160</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>2E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7496,7 +7528,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>2.5000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7509,66 +7541,66 @@
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
-        <v>1705</v>
-      </c>
-      <c r="C16" s="19">
-        <v>-1.1500000000000909</v>
-      </c>
-      <c r="D16" s="20">
-        <v>-5.7100000000000364</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-14.520000000000366</v>
+        <v>1706</v>
+      </c>
+      <c r="C16" s="40">
+        <v>-5.9073410000000699</v>
+      </c>
+      <c r="D16" s="41">
+        <v>-22.170000000000073</v>
+      </c>
+      <c r="E16" s="42">
+        <v>-13.340000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1.3126590000001825</v>
-      </c>
-      <c r="D17" s="20">
-        <v>-11.879999999999946</v>
-      </c>
-      <c r="E17" s="21">
-        <v>-17.960000000000186</v>
+        <v>1707</v>
+      </c>
+      <c r="C17" s="40">
+        <v>4.1357000000000141</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-53.170000000000073</v>
+      </c>
+      <c r="E17" s="42">
+        <v>-53.140000000000185</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="19">
-        <v>-4.43799999999991</v>
-      </c>
-      <c r="D18" s="20">
-        <v>-32.449999999999861</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-120.96000000000018</v>
+      <c r="C18" s="40">
+        <v>-12.058000000000256</v>
+      </c>
+      <c r="D18" s="41">
+        <v>-39.140000000000079</v>
+      </c>
+      <c r="E18" s="42">
+        <v>-132.73999999999964</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="19">
-        <v>-18.037999999999819</v>
-      </c>
-      <c r="D19" s="20">
-        <v>-59.650000000000134</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-217.55999999999963</v>
+      <c r="C19" s="40">
+        <v>-33.658000000000165</v>
+      </c>
+      <c r="D19" s="41">
+        <v>-73.540000000000163</v>
+      </c>
+      <c r="E19" s="42">
+        <v>-213.53999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -7652,6 +7684,1356 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42878</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30">
+        <v>10672859.619999999</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>6.53</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
+        <v>67927920.010000005</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>8.02</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="36">
+        <v>25153424.48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>8.26</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="33">
+        <v>16041217.449999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="36">
+        <v>15346032</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="36">
+        <v>18357632.600000001</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="36">
+        <v>76730160</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="37">
+        <v>-7.1373410000000881</v>
+      </c>
+      <c r="D16" s="38">
+        <v>-22.190000000000055</v>
+      </c>
+      <c r="E16" s="39">
+        <v>-21.970000000000113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="37">
+        <v>-0.29430000000027734</v>
+      </c>
+      <c r="D17" s="38">
+        <v>-57.190000000000055</v>
+      </c>
+      <c r="E17" s="39">
+        <v>-59.369999999999749</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="37">
+        <v>-15.288000000000274</v>
+      </c>
+      <c r="D18" s="38">
+        <v>-43.160000000000061</v>
+      </c>
+      <c r="E18" s="39">
+        <v>-144.77000000000029</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="37">
+        <v>-36.088000000000001</v>
+      </c>
+      <c r="D19" s="38">
+        <v>-75.359999999999872</v>
+      </c>
+      <c r="E19" s="39">
+        <v>-226.77000000000029</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42878</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30">
+        <v>19082415.43</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.12</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
+        <v>69332135.950000003</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.46</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.51</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32">
+        <v>23241421.07</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="33">
+        <v>8776367.3200000003</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="34">
+        <v>20676648</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.3730000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="35">
+        <v>11755882.18</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="36">
+        <v>103383240</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-5.49</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-29.04</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-33.299999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="D17" s="21">
+        <v>-61.24</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-82.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="21">
+        <v>-15.44</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-50.01</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-159.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="21">
+        <v>-33.24</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-83.81</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-253.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42877</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22">
+        <v>27542132.420000002</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.17</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>60673425.390000001</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.62</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.4</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="27">
+        <v>21207889.350000001</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.85</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="28">
+        <v>11122238.460000001</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="24">
+        <v>21150984</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25">
+        <v>10768912.51</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26">
+        <v>105760560</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-10.62</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-23.04</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="21">
+        <v>-5.35</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-27.39</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-129.44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="21">
+        <v>-23.95</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-56.19</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>27013656.550000001</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.37</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>58135549.119999997</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.28</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1705</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.31</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>20572766.84</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.71</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11767796.859999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21121524</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13661099.779999999</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>104957160</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1705</v>
+      </c>
+      <c r="C16" s="19">
+        <v>-1.1500000000000909</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-14.520000000000366</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1.3126590000001825</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-11.879999999999946</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-17.960000000000186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="19">
+        <v>-4.43799999999991</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-32.449999999999861</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-120.96000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="19">
+        <v>-18.037999999999819</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-59.650000000000134</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.55999999999963</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7915,151 +9297,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>8639512.1699999999</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="13">
-        <v>7.66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>76656292.069999993</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13">
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
-      <c r="E8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="13">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8">
-        <v>20413541.710000001</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="13">
-        <v>8.1300000000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10">
-        <v>12012221.140000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8">
-        <v>21880164</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5">
-        <v>13661035.609999999</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11">
-        <v>-3</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8">
-        <v>107263860</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C16" sqref="C16:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8073,7 +9316,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42894</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8091,13 +9334,15 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="87">
-        <v>72128772.469999999</v>
+      <c r="C3" s="101">
+        <v>63051171.789999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13">
+        <v>13.78</v>
+      </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -8110,21 +9355,23 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="88">
-        <v>41018910.439999998</v>
+      <c r="C4" s="102">
+        <v>49987639.859999999</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13">
+        <v>13.89</v>
+      </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71">
-        <v>12</v>
-      </c>
-      <c r="J4" s="71"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108">
+        <v>-6</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -8132,50 +9379,54 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13">
+        <v>14.18</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="89">
-        <v>20720454.050000001</v>
+      <c r="C6" s="103">
+        <v>18168120.949999999</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13">
+        <v>14.54</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="71">
-        <v>20</v>
-      </c>
-      <c r="J6" s="71">
-        <v>-3</v>
+      <c r="I6" s="108">
+        <v>17</v>
+      </c>
+      <c r="J6" s="108">
+        <v>-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="90">
-        <v>8790439.4199999999</v>
+      <c r="C7" s="104">
+        <v>12943284.130000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="71">
-        <v>24</v>
-      </c>
-      <c r="J7" s="71"/>
+      <c r="I7" s="108">
+        <v>31</v>
+      </c>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -8188,51 +9439,57 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="91">
-        <v>6446448</v>
+      <c r="C9" s="107">
+        <v>6996012</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.5009999999999999</v>
+        <v>2.4820000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="92">
-        <v>9821013.0199999996</v>
+      <c r="C10" s="107">
+        <v>7116431.5700000003</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="93">
-        <v>21038940</v>
-      </c>
+      <c r="C11" s="107"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>8.9999999999999993E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="86"/>
+      <c r="C12" s="107"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>1.2500000000000001E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -8255,13 +9512,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>7.11</v>
+        <v>3.42</v>
       </c>
       <c r="D16" s="13">
-        <v>-1.18</v>
+        <v>-3.3</v>
       </c>
       <c r="E16" s="13">
-        <v>7.93</v>
+        <v>17.079999999999998</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -8269,13 +9526,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>13.1</v>
+        <v>11.78</v>
       </c>
       <c r="D17" s="13">
-        <v>-29.38</v>
+        <v>-31.3</v>
       </c>
       <c r="E17" s="13">
-        <v>-38.67</v>
+        <v>-20.72</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -8283,13 +9540,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>7.5</v>
+        <v>6.99</v>
       </c>
       <c r="D18" s="13">
-        <v>-7.95</v>
+        <v>-5.27</v>
       </c>
       <c r="E18" s="13">
-        <v>-111.27</v>
+        <v>-107.52</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -8297,13 +9554,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-1.1000000000000001</v>
+        <v>-5.81</v>
       </c>
       <c r="D19" s="13">
-        <v>-28.15</v>
+        <v>-27.27</v>
       </c>
       <c r="E19" s="13">
-        <v>-202.07</v>
+        <v>-198.92</v>
       </c>
     </row>
   </sheetData>
@@ -8385,12 +9642,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8639512.1699999999</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>76656292.069999993</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="13">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="13">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>20413541.710000001</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="13">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
+        <v>12012221.140000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>21880164</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>13661035.609999999</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-3</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8">
+        <v>107263860</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8404,7 +9800,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42894</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8422,13 +9818,15 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="80">
-        <v>56506237.039999999</v>
+      <c r="C3" s="101">
+        <v>47675682.579999998</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13">
+        <v>14.78</v>
+      </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -8441,20 +9839,22 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="81">
-        <v>47118580.43</v>
+      <c r="C4" s="102">
+        <v>65959142.700000003</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13">
+        <v>14.98</v>
+      </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71">
-        <v>-2</v>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108">
+        <v>-5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8463,33 +9863,35 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13">
+        <v>15.08</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="82">
-        <v>19306935.5</v>
+      <c r="C6" s="103">
+        <v>18460282.620000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13">
+        <v>15.28</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="71">
-        <v>24</v>
-      </c>
-      <c r="J6" s="71">
+      <c r="I6" s="108"/>
+      <c r="J6" s="108">
         <v>-3</v>
       </c>
     </row>
@@ -8497,16 +9899,18 @@
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="83">
-        <v>15930345.300000001</v>
+      <c r="C7" s="104">
+        <v>12697173.960000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="71">
-        <v>19</v>
-      </c>
-      <c r="J7" s="71"/>
+      <c r="I7" s="108">
+        <v>29</v>
+      </c>
+      <c r="J7" s="108">
+        <v>-2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -8519,51 +9923,57 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="84">
-        <v>6246408</v>
+      <c r="C9" s="107">
+        <v>7073712</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>-1E-3</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.48</v>
+        <v>2.512</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="85">
-        <v>12756343.289999999</v>
+      <c r="C10" s="107">
+        <v>7333595.54</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="86">
-        <v>27561420</v>
-      </c>
+      <c r="C11" s="107"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>4.4999999999999997E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="79"/>
+      <c r="C12" s="107"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>8.5000000000000006E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -8586,13 +9996,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>6.98</v>
+        <v>6.82</v>
       </c>
       <c r="D16" s="13">
-        <v>-0.87</v>
+        <v>-6.07</v>
       </c>
       <c r="E16" s="13">
-        <v>23.89</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -8600,13 +10010,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>12.96</v>
+        <v>13.59</v>
       </c>
       <c r="D17" s="13">
-        <v>-27.27</v>
+        <v>-34.07</v>
       </c>
       <c r="E17" s="13">
-        <v>-14.31</v>
+        <v>-39.950000000000003</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -8614,13 +10024,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>3.57</v>
+        <v>2.99</v>
       </c>
       <c r="D18" s="13">
-        <v>-5.84</v>
+        <v>-10.44</v>
       </c>
       <c r="E18" s="13">
-        <v>-95.91</v>
+        <v>-114.55</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -8628,13 +10038,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-12.03</v>
+        <v>-7.21</v>
       </c>
       <c r="D19" s="13">
-        <v>-29.84</v>
+        <v>-34.24</v>
       </c>
       <c r="E19" s="13">
-        <v>-190.11</v>
+        <v>-210.15</v>
       </c>
     </row>
   </sheetData>
@@ -8720,7 +10130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8733,7 +10145,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42893</v>
+        <v>42898</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8751,12 +10163,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="101">
+        <v>45692887.719999999</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="13">
-        <v>11.02</v>
+        <v>14.87</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8770,20 +10184,24 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="102">
+        <v>67953170.390000001</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="13">
-        <v>11.18</v>
+        <v>14.97</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71">
-        <v>-2</v>
+      <c r="I4" s="108">
+        <v>1</v>
+      </c>
+      <c r="J4" s="108">
+        <v>-8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8793,49 +10211,53 @@
         <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>11.87</v>
+        <v>15.23</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="103">
+        <v>17187615.489999998</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="13">
-        <v>12.39</v>
+        <v>15.69</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="71">
-        <v>24</v>
-      </c>
-      <c r="J6" s="71">
-        <v>-5</v>
+      <c r="I6" s="108">
+        <v>21</v>
+      </c>
+      <c r="J6" s="108">
+        <v>-4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="104">
+        <v>13643886.58</v>
+      </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="71">
-        <v>16</v>
-      </c>
-      <c r="J7" s="71"/>
+      <c r="I7" s="108">
+        <v>28</v>
+      </c>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -8848,52 +10270,58 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="105">
+        <v>7363836</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4580000000000002</v>
+        <v>2.5139999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="106">
+        <v>6984988.4500000002</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>2E-3</v>
+        <v>-3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="107">
+        <v>27845340</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="79"/>
+      <c r="C12" s="100"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>7.4999999999999997E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8917,13 +10345,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>6.98</v>
+        <v>2.5906799999999999</v>
       </c>
       <c r="D16" s="13">
-        <v>-0.87</v>
+        <v>-6.39</v>
       </c>
       <c r="E16" s="13">
-        <v>23.89</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -8931,13 +10359,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>12.96</v>
+        <v>4.9551999999999996</v>
       </c>
       <c r="D17" s="13">
-        <v>-27.27</v>
+        <v>-34.99</v>
       </c>
       <c r="E17" s="13">
-        <v>-14.31</v>
+        <v>-35.75</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -8945,13 +10373,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>3.57</v>
+        <v>-2.4388000000000001</v>
       </c>
       <c r="D18" s="13">
-        <v>-5.84</v>
+        <v>-12.56</v>
       </c>
       <c r="E18" s="13">
-        <v>-95.91</v>
+        <v>-113.95</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -8959,13 +10387,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-12.03</v>
+        <v>-17.6388</v>
       </c>
       <c r="D19" s="13">
-        <v>-29.84</v>
+        <v>-32.36</v>
       </c>
       <c r="E19" s="13">
-        <v>-190.11</v>
+        <v>-209.15</v>
       </c>
     </row>
   </sheetData>
@@ -9066,7 +10494,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42892</v>
+        <v>42898</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -9084,14 +10512,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73">
-        <v>63179358.07</v>
+      <c r="C3" s="94">
+        <v>60898495.340000004</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="13">
-        <v>10.75</v>
+        <v>14.9</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -9105,24 +10533,22 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="74">
-        <v>39428592.960000001</v>
+      <c r="C4" s="95">
+        <v>52753853.090000004</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="13">
-        <v>11.09</v>
+        <v>15.25</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71">
-        <v>2</v>
-      </c>
+      <c r="I4" s="71"/>
       <c r="J4" s="71">
-        <v>-4</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9132,7 +10558,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>11.54</v>
+        <v>15.28</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -9145,42 +10571,38 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="75">
-        <v>19665017.670000002</v>
+      <c r="C6" s="96">
+        <v>18658506.170000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="13">
-        <v>12.21</v>
+        <v>15.39</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6" s="71">
-        <v>24</v>
-      </c>
-      <c r="J6" s="71">
-        <v>-6</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="76">
-        <v>15712421.77</v>
+      <c r="C7" s="97">
+        <v>12750700.720000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="71">
-        <v>13</v>
-      </c>
-      <c r="J7" s="71">
-        <v>-2</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -9193,28 +10615,28 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="77">
-        <v>5464032</v>
+      <c r="C9" s="98">
+        <v>6051684</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>0</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.5169999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="78">
-        <v>13251570.66</v>
+      <c r="C10" s="99">
+        <v>8390440.3900000006</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
@@ -9227,24 +10649,24 @@
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="79">
-        <v>22274580</v>
+      <c r="C11" s="100">
+        <v>23475480</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>7.4999999999999997E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="70"/>
+      <c r="C12" s="93"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -9268,13 +10690,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>-0.89254099999963366</v>
+        <v>7.07</v>
       </c>
       <c r="D16" s="13">
-        <v>-12.150000000000091</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="E16" s="13">
-        <v>-13.890000000000185</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -9282,13 +10704,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>15.350500000000268</v>
+        <v>15.86</v>
       </c>
       <c r="D17" s="13">
-        <v>-36.75</v>
+        <v>-21.17</v>
       </c>
       <c r="E17" s="13">
-        <v>-54.48999999999964</v>
+        <v>-22.36</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -9296,13 +10718,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>1.5568000000000897</v>
+        <v>8.26</v>
       </c>
       <c r="D18" s="13">
-        <v>-11.519999999999733</v>
+        <v>0.86</v>
       </c>
       <c r="E18" s="13">
-        <v>-123.09</v>
+        <v>-92.36</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -9310,19 +10732,19 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-9.6431999999997284</v>
+        <v>-6.14</v>
       </c>
       <c r="D19" s="13">
-        <v>-30.720000000000006</v>
+        <v>-23.14</v>
       </c>
       <c r="E19" s="13">
-        <v>-213.48999999999964</v>
+        <v>-194.16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9334,7 +10756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9346,7 +10768,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F12">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9403,7 +10825,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9417,7 +10839,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42891</v>
+        <v>42894</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -9435,15 +10857,13 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="64">
-        <v>46400118.310000002</v>
+      <c r="C3" s="87">
+        <v>72128772.469999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13">
-        <v>11.6</v>
-      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -9456,25 +10876,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65">
-        <v>56758537.549999997</v>
+      <c r="C4" s="88">
+        <v>41018910.439999998</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13">
-        <v>12.01</v>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4" s="71">
-        <v>2</v>
-      </c>
-      <c r="J4" s="71">
-        <v>-4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -9482,9 +10898,7 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13">
-        <v>12.15</v>
-      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
@@ -9496,42 +10910,38 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66">
-        <v>21083961.420000002</v>
+      <c r="C6" s="89">
+        <v>20720454.050000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13">
-        <v>12.3</v>
-      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6" s="71">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J6" s="71">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67">
-        <v>13947536.58</v>
+      <c r="C7" s="90">
+        <v>8790439.4199999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="71">
-        <v>13</v>
-      </c>
-      <c r="J7" s="71">
-        <v>-2</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -9544,59 +10954,51 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="68">
-        <v>5668260</v>
+      <c r="C9" s="91">
+        <v>6446448</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.5009999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="69">
-        <v>13263163.310000001</v>
+      <c r="C10" s="92">
+        <v>9821013.0199999996</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
-      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="70">
-        <v>19565280</v>
+      <c r="C11" s="93">
+        <v>21038940</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="86"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>8.5000000000000006E-3</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -9618,56 +11020,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="13">
-        <v>3.3974589999998752</v>
+      <c r="C16" s="72">
+        <v>7.11</v>
       </c>
       <c r="D16" s="13">
-        <v>-5.7100000000000364</v>
+        <v>-1.18</v>
       </c>
       <c r="E16" s="13">
-        <v>7.5899999999993781</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="13">
-        <v>16.440499999999957</v>
+      <c r="C17" s="72">
+        <v>13.1</v>
       </c>
       <c r="D17" s="13">
-        <v>-32.710000000000036</v>
+        <v>-29.38</v>
       </c>
       <c r="E17" s="13">
-        <v>-33.61000000000044</v>
+        <v>-38.67</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="13">
-        <v>5.0467999999998714</v>
+      <c r="C18" s="72">
+        <v>7.5</v>
       </c>
       <c r="D18" s="13">
-        <v>-9.4800000000002242</v>
+        <v>-7.95</v>
       </c>
       <c r="E18" s="13">
-        <v>-104.61000000000044</v>
+        <v>-111.27</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="13">
-        <v>-6.5532000000000377</v>
+      <c r="C19" s="72">
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D19" s="13">
-        <v>-26.480000000000224</v>
+        <v>-28.15</v>
       </c>
       <c r="E19" s="13">
-        <v>-195.81000000000026</v>
+        <v>-202.07</v>
       </c>
     </row>
   </sheetData>
@@ -9754,7 +11156,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9768,7 +11170,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42888</v>
+        <v>42894</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -9786,15 +11188,13 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53">
-        <v>29029597.77</v>
+      <c r="C3" s="80">
+        <v>56506237.039999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>11.21</v>
-      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -9807,22 +11207,20 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54">
-        <v>74422527.400000006</v>
+      <c r="C4" s="81">
+        <v>47118580.43</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4">
-        <v>11.05</v>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60">
-        <v>-3</v>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9831,56 +11229,50 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>11.15</v>
-      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60">
-        <v>-4</v>
-      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59">
-        <v>19554286.609999999</v>
+      <c r="C6" s="82">
+        <v>19306935.5</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>11.45</v>
-      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="60">
-        <v>28</v>
-      </c>
-      <c r="J6" s="60">
-        <v>-1</v>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56">
-        <v>14955296.359999999</v>
+      <c r="C7" s="83">
+        <v>15930345.300000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="60">
-        <v>15</v>
-      </c>
-      <c r="J7" s="60"/>
+      <c r="I7" s="71">
+        <v>19</v>
+      </c>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -9893,57 +11285,51 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="59">
-        <v>6268212</v>
+      <c r="C9" s="84">
+        <v>6246408</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4889999999999999</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="59">
-        <v>12722925.49</v>
+      <c r="C10" s="85">
+        <v>12756343.289999999</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17">
-        <v>-2.5000000000000001E-3</v>
-      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="86">
+        <v>27561420</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="79"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>3.0000000000000001E-3</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -9961,65 +11347,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="61">
-        <v>5.0074590000000025</v>
-      </c>
-      <c r="D16" s="62">
-        <v>-8.7400000000002365</v>
-      </c>
-      <c r="E16" s="63">
-        <v>-16.090000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="72">
+        <v>6.98</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-0.87</v>
+      </c>
+      <c r="E16" s="13">
+        <v>23.89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="61">
-        <v>16.450499999999721</v>
-      </c>
-      <c r="D17" s="62">
-        <v>-34.940000000000055</v>
-      </c>
-      <c r="E17" s="63">
-        <v>-60.09</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="72">
+        <v>12.96</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-27.27</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-14.31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="61">
-        <v>-2.3432000000000013</v>
-      </c>
-      <c r="D18" s="62">
-        <v>-19.310000000000151</v>
-      </c>
-      <c r="E18" s="63">
-        <v>-128.28999999999982</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="72">
+        <v>3.57</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-5.84</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-95.91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="61">
-        <v>-18.543200000000276</v>
-      </c>
-      <c r="D19" s="62">
-        <v>-36.310000000000151</v>
-      </c>
-      <c r="E19" s="63">
-        <v>-200.48999999999964</v>
+      <c r="C19" s="72">
+        <v>-12.03</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-29.84</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-190.11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C19">
+  <conditionalFormatting sqref="F3:F6 F9:F12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10031,7 +11417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D19">
+  <conditionalFormatting sqref="F3:F6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10043,7 +11429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E19">
+  <conditionalFormatting sqref="F9:F12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10055,7 +11441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
+  <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10067,7 +11453,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="D16:D19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10079,7 +11465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
+  <conditionalFormatting sqref="E16:E19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -10100,9 +11486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10115,7 +11499,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42887</v>
+        <v>42893</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -10133,14 +11517,12 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53">
-        <v>28867590.68</v>
-      </c>
+      <c r="C3" s="73"/>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>11.21</v>
+      <c r="F3" s="13">
+        <v>11.02</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -10154,21 +11536,19 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54">
-        <v>66367210.890000001</v>
-      </c>
+      <c r="C4" s="74"/>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4">
-        <v>11.05</v>
+      <c r="F4" s="13">
+        <v>11.18</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60">
+      <c r="I4" s="71"/>
+      <c r="J4" s="71">
         <v>-2</v>
       </c>
     </row>
@@ -10178,56 +11558,50 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>11.15</v>
+      <c r="F5" s="13">
+        <v>11.87</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60">
-        <v>-7</v>
-      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="55">
-        <v>21674451.940000001</v>
-      </c>
+      <c r="C6" s="75"/>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>11.45</v>
+      <c r="F6" s="13">
+        <v>12.39</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="60">
-        <v>35</v>
-      </c>
-      <c r="J6" s="60">
-        <v>-3</v>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56">
-        <v>17075821.039999999</v>
-      </c>
+      <c r="C7" s="76"/>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="60">
-        <v>19</v>
-      </c>
-      <c r="J7" s="60"/>
+      <c r="I7" s="71">
+        <v>16</v>
+      </c>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -10240,58 +11614,52 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="57">
-        <v>7807056</v>
-      </c>
+      <c r="C9" s="79"/>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4750000000000001</v>
+        <v>2.4580000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="58">
-        <v>14932651.300000001</v>
-      </c>
+      <c r="C10" s="79"/>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="59">
-        <v>30247500</v>
-      </c>
+      <c r="C11" s="79"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="79"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>4.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -10310,65 +11678,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="50">
-        <v>3.1774590000000753</v>
-      </c>
-      <c r="D16" s="51">
-        <v>-10.880000000000109</v>
-      </c>
-      <c r="E16" s="52">
-        <v>-24.590000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="72">
+        <v>6.98</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-0.87</v>
+      </c>
+      <c r="E16" s="13">
+        <v>23.89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="50">
-        <v>16.220500000000158</v>
-      </c>
-      <c r="D17" s="51">
-        <v>-36.2800000000002</v>
-      </c>
-      <c r="E17" s="52">
-        <v>-67.390000000000185</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="72">
+        <v>12.96</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-27.27</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-14.31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="50">
-        <v>-0.37319999999974662</v>
-      </c>
-      <c r="D18" s="51">
-        <v>-24.049999999999933</v>
-      </c>
-      <c r="E18" s="52">
-        <v>-132.99000000000055</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="72">
+        <v>3.57</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-5.84</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-95.91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="50">
-        <v>-20.17319999999993</v>
-      </c>
-      <c r="D19" s="51">
-        <v>-48.250000000000206</v>
-      </c>
-      <c r="E19" s="52">
-        <v>-207.78999999999982</v>
+      <c r="C19" s="72">
+        <v>-12.03</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-29.84</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-190.11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C19">
+  <conditionalFormatting sqref="F3:F6 F9:F12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10380,7 +11748,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D19">
+  <conditionalFormatting sqref="F3:F6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10392,7 +11760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E19">
+  <conditionalFormatting sqref="F9:F12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10404,7 +11772,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
+  <conditionalFormatting sqref="C16:C19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10416,7 +11784,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
+  <conditionalFormatting sqref="D16:D19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10428,7 +11796,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
+  <conditionalFormatting sqref="E16:E19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -10464,7 +11832,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42892</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -10482,11 +11850,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43">
-        <v>15743713.310000001</v>
+      <c r="C3" s="73">
+        <v>63179358.07</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="F3" s="13">
+        <v>10.75</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -10500,21 +11871,24 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
-        <v>63471370.229999997</v>
+      <c r="C4" s="74">
+        <v>39428592.960000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F4" s="13">
+        <v>11.09</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>-2</v>
+      <c r="I4" s="71">
+        <v>2</v>
+      </c>
+      <c r="J4" s="71">
+        <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -10523,44 +11897,55 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="13">
+        <v>11.54</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="J5">
-        <v>-4</v>
-      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="45">
-        <v>24598703.920000002</v>
+      <c r="C6" s="75">
+        <v>19665017.670000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
+      </c>
+      <c r="F6" s="13">
+        <v>12.21</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>32</v>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="46">
-        <v>21814860.350000001</v>
+      <c r="C7" s="76">
+        <v>15712421.77</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>21</v>
+      <c r="I7" s="71">
+        <v>13</v>
+      </c>
+      <c r="J7" s="71">
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -10574,13 +11959,15 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47">
-        <v>8050872</v>
+      <c r="C9" s="77">
+        <v>5464032</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
@@ -10592,33 +11979,39 @@
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48">
-        <v>22450395.280000001</v>
+      <c r="C10" s="78">
+        <v>13251570.66</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="49">
-        <v>36020520</v>
+      <c r="C11" s="79">
+        <v>22274580</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>7.4999999999999997E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="70"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -10636,42 +12029,102 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="72">
+        <v>-0.89254099999963366</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-12.150000000000091</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-13.890000000000185</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="72">
+        <v>15.350500000000268</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-36.75</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-54.48999999999964</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="72">
+        <v>1.5568000000000897</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-11.519999999999733</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-123.09</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="72">
+        <v>-9.6431999999997284</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-30.720000000000006</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-213.48999999999964</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C16:C19">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10683,7 +12136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D19">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10695,42 +12148,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -5664,7 +5664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5674,8 +5674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5707,7 +5707,9 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="101"/>
+      <c r="C3" s="101">
+        <v>67481033.950000003</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
@@ -5726,7 +5728,9 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="102">
+        <v>45141831.590000004</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
@@ -5738,7 +5742,9 @@
         <v>1706</v>
       </c>
       <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
+      <c r="J4" s="108">
+        <v>-1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -5760,7 +5766,9 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="103"/>
+      <c r="C6" s="103">
+        <v>18385106.75</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
@@ -5771,18 +5779,26 @@
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
+      <c r="I6" s="108">
+        <v>15</v>
+      </c>
+      <c r="J6" s="108">
+        <v>-2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="104"/>
+      <c r="C7" s="104">
+        <v>12757209.02</v>
+      </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="108"/>
+      <c r="I7" s="108">
+        <v>35</v>
+      </c>
       <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5796,7 +5812,9 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="107"/>
+      <c r="C9" s="107">
+        <v>7244940</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
@@ -5814,7 +5832,9 @@
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="107"/>
+      <c r="C10" s="107">
+        <v>6704611.9900000002</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>

--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -7,33 +7,34 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
-    <sheet name="20170616" sheetId="22" r:id="rId1"/>
-    <sheet name="20170615" sheetId="21" r:id="rId2"/>
-    <sheet name="20170614" sheetId="20" r:id="rId3"/>
-    <sheet name="20170613" sheetId="19" r:id="rId4"/>
-    <sheet name="20170612" sheetId="18" r:id="rId5"/>
-    <sheet name="20170609" sheetId="17" r:id="rId6"/>
-    <sheet name="20170608" sheetId="16" r:id="rId7"/>
-    <sheet name="20170607" sheetId="15" r:id="rId8"/>
-    <sheet name="20170606" sheetId="14" r:id="rId9"/>
-    <sheet name="20170605" sheetId="13" r:id="rId10"/>
-    <sheet name="20170602" sheetId="12" r:id="rId11"/>
-    <sheet name="20170601" sheetId="11" r:id="rId12"/>
-    <sheet name="20170526" sheetId="10" r:id="rId13"/>
-    <sheet name="20170525" sheetId="9" r:id="rId14"/>
-    <sheet name="20170524" sheetId="8" r:id="rId15"/>
-    <sheet name="20170523" sheetId="7" r:id="rId16"/>
-    <sheet name="20170522" sheetId="6" r:id="rId17"/>
-    <sheet name="20170519" sheetId="5" r:id="rId18"/>
-    <sheet name="20170518" sheetId="4" r:id="rId19"/>
-    <sheet name="20170517" sheetId="3" r:id="rId20"/>
+    <sheet name="20170619" sheetId="23" r:id="rId1"/>
+    <sheet name="20170616" sheetId="22" r:id="rId2"/>
+    <sheet name="20170615" sheetId="21" r:id="rId3"/>
+    <sheet name="20170614" sheetId="20" r:id="rId4"/>
+    <sheet name="20170613" sheetId="19" r:id="rId5"/>
+    <sheet name="20170612" sheetId="18" r:id="rId6"/>
+    <sheet name="20170609" sheetId="17" r:id="rId7"/>
+    <sheet name="20170608" sheetId="16" r:id="rId8"/>
+    <sheet name="20170607" sheetId="15" r:id="rId9"/>
+    <sheet name="20170606" sheetId="14" r:id="rId10"/>
+    <sheet name="20170605" sheetId="13" r:id="rId11"/>
+    <sheet name="20170602" sheetId="12" r:id="rId12"/>
+    <sheet name="20170601" sheetId="11" r:id="rId13"/>
+    <sheet name="20170526" sheetId="10" r:id="rId14"/>
+    <sheet name="20170525" sheetId="9" r:id="rId15"/>
+    <sheet name="20170524" sheetId="8" r:id="rId16"/>
+    <sheet name="20170523" sheetId="7" r:id="rId17"/>
+    <sheet name="20170522" sheetId="6" r:id="rId18"/>
+    <sheet name="20170519" sheetId="5" r:id="rId19"/>
+    <sheet name="20170518" sheetId="4" r:id="rId20"/>
+    <sheet name="20170517" sheetId="3" r:id="rId21"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="28">
   <si>
     <t>资金信息汇总</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -4107,7 +4108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4321,6 +4322,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5674,7 +5688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -5689,7 +5703,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42900</v>
+        <v>42905</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5707,14 +5721,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="101">
-        <v>67481033.950000003</v>
+      <c r="C3" s="109">
+        <v>73282103.579999998</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="13">
-        <v>13.08</v>
+        <v>12.46</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -5728,18 +5742,18 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="102">
-        <v>45141831.590000004</v>
+      <c r="C4" s="110">
+        <v>39187714.049999997</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="13">
-        <v>13.02</v>
+        <v>12.5</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="I4" s="108"/>
       <c r="J4" s="108">
@@ -5753,11 +5767,11 @@
         <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>13.48</v>
+        <v>12.66</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="I5" s="108"/>
       <c r="J5" s="108"/>
@@ -5766,38 +5780,36 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="103">
-        <v>18385106.75</v>
+      <c r="C6" s="111">
+        <v>18167820.010000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="13">
-        <v>13.82</v>
+        <v>12.93</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6" s="108">
-        <v>15</v>
-      </c>
-      <c r="J6" s="108">
-        <v>-2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J6" s="108"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="104">
-        <v>12757209.02</v>
+      <c r="C7" s="112">
+        <v>13047171.4</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="108">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" s="108"/>
     </row>
@@ -5812,46 +5824,48 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="107">
-        <v>7244940</v>
+      <c r="C9" s="113">
+        <v>7076232</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>1.5E-3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4820000000000002</v>
+        <v>2.4590000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="107">
-        <v>6704611.9900000002</v>
+      <c r="C10" s="114">
+        <v>6772050.9100000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="107"/>
+      <c r="C11" s="115">
+        <v>34650960</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>1.0999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5861,7 +5875,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5882,16 +5896,360 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C16" s="72">
+        <v>6.83</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-30.76</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-28.49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>1708</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="72">
+        <v>-3.77</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-3.13</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-107.49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="72">
+        <v>-13.97</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-24.13</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-211.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D19 D16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42892</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73">
+        <v>63179358.07</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13">
+        <v>10.75</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="74">
+        <v>39428592.960000001</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="13">
+        <v>11.09</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
         <v>1706</v>
       </c>
+      <c r="I4" s="71">
+        <v>2</v>
+      </c>
+      <c r="J4" s="71">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13">
+        <v>11.54</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="75">
+        <v>19665017.670000002</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13">
+        <v>12.21</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="76">
+        <v>15712421.77</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7" s="71">
+        <v>13</v>
+      </c>
+      <c r="J7" s="71">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="77">
+        <v>5464032</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="78">
+        <v>13251570.66</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="79">
+        <v>22274580</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="70"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
       <c r="C16" s="72">
-        <v>1.97</v>
+        <v>-0.89254099999963366</v>
       </c>
       <c r="D16" s="13">
-        <v>-4.79</v>
+        <v>-12.150000000000091</v>
       </c>
       <c r="E16" s="13">
-        <v>14.14</v>
+        <v>-13.890000000000185</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -5899,13 +6257,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>14.93</v>
+        <v>15.350500000000268</v>
       </c>
       <c r="D17" s="13">
-        <v>-23.99</v>
+        <v>-36.75</v>
       </c>
       <c r="E17" s="13">
-        <v>-30.06</v>
+        <v>-54.48999999999964</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -5913,13 +6271,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>7.14</v>
+        <v>1.5568000000000897</v>
       </c>
       <c r="D18" s="13">
-        <v>5.44</v>
+        <v>-11.519999999999733</v>
       </c>
       <c r="E18" s="13">
-        <v>-102.26</v>
+        <v>-123.09</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -5927,13 +6285,364 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-6.86</v>
+        <v>-9.6431999999997284</v>
       </c>
       <c r="D19" s="13">
-        <v>-17.36</v>
+        <v>-30.720000000000006</v>
       </c>
       <c r="E19" s="13">
-        <v>-204.26</v>
+        <v>-213.48999999999964</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="64">
+        <v>46400118.310000002</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="65">
+        <v>56758537.549999997</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="13">
+        <v>12.01</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4" s="71">
+        <v>2</v>
+      </c>
+      <c r="J4" s="71">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13">
+        <v>12.15</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="66">
+        <v>21083961.420000002</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="67">
+        <v>13947536.58</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7" s="71">
+        <v>13</v>
+      </c>
+      <c r="J7" s="71">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="68">
+        <v>5668260</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="69">
+        <v>13263163.310000001</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="70">
+        <v>19565280</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="13">
+        <v>3.3974589999998752</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="13">
+        <v>7.5899999999993781</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="13">
+        <v>16.440499999999957</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-32.710000000000036</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-33.61000000000044</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="13">
+        <v>5.0467999999998714</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-9.4800000000002242</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-104.61000000000044</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="13">
+        <v>-6.5532000000000377</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-26.480000000000224</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-195.81000000000026</v>
       </c>
     </row>
   </sheetData>
@@ -6015,358 +6724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18">
-        <v>42891</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="64">
-        <v>46400118.310000002</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="13">
-        <v>11.6</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="65">
-        <v>56758537.549999997</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="13">
-        <v>12.01</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I4" s="71">
-        <v>2</v>
-      </c>
-      <c r="J4" s="71">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="9"/>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="13">
-        <v>12.15</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12">
-        <v>1707</v>
-      </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="66">
-        <v>21083961.420000002</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="13">
-        <v>12.3</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12">
-        <v>1709</v>
-      </c>
-      <c r="I6" s="71">
-        <v>24</v>
-      </c>
-      <c r="J6" s="71">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="67">
-        <v>13947536.58</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1712</v>
-      </c>
-      <c r="I7" s="71">
-        <v>13</v>
-      </c>
-      <c r="J7" s="71">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="9"/>
-      <c r="E8" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="68">
-        <v>5668260</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="29">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="69">
-        <v>13263163.310000001</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="70">
-        <v>19565280</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="17">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="17">
-        <v>8.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C16" s="13">
-        <v>3.3974589999998752</v>
-      </c>
-      <c r="D16" s="13">
-        <v>-5.7100000000000364</v>
-      </c>
-      <c r="E16" s="13">
-        <v>7.5899999999993781</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
-        <v>1707</v>
-      </c>
-      <c r="C17" s="13">
-        <v>16.440499999999957</v>
-      </c>
-      <c r="D17" s="13">
-        <v>-32.710000000000036</v>
-      </c>
-      <c r="E17" s="13">
-        <v>-33.61000000000044</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
-        <v>1709</v>
-      </c>
-      <c r="C18" s="13">
-        <v>5.0467999999998714</v>
-      </c>
-      <c r="D18" s="13">
-        <v>-9.4800000000002242</v>
-      </c>
-      <c r="E18" s="13">
-        <v>-104.61000000000044</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
-        <v>1712</v>
-      </c>
-      <c r="C19" s="13">
-        <v>-6.5532000000000377</v>
-      </c>
-      <c r="D19" s="13">
-        <v>-26.480000000000224</v>
-      </c>
-      <c r="E19" s="13">
-        <v>-195.81000000000026</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C19">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D19">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E19">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -6632,355 +6990,6 @@
       </c>
       <c r="E19" s="63">
         <v>-200.48999999999964</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C19">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D19">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18">
-        <v>42887</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="53">
-        <v>28867590.68</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>11.21</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="54">
-        <v>66367210.890000001</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>11.05</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="9"/>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>11.15</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12">
-        <v>1707</v>
-      </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="55">
-        <v>21674451.940000001</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>11.45</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12">
-        <v>1709</v>
-      </c>
-      <c r="I6" s="60">
-        <v>35</v>
-      </c>
-      <c r="J6" s="60">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="56">
-        <v>17075821.039999999</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1712</v>
-      </c>
-      <c r="I7" s="60">
-        <v>19</v>
-      </c>
-      <c r="J7" s="60"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="9"/>
-      <c r="E8" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="57">
-        <v>7807056</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-1E-3</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="29">
-        <v>2.4750000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="58">
-        <v>14932651.300000001</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="59">
-        <v>30247500</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="17">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C16" s="50">
-        <v>3.1774590000000753</v>
-      </c>
-      <c r="D16" s="51">
-        <v>-10.880000000000109</v>
-      </c>
-      <c r="E16" s="52">
-        <v>-24.590000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="12">
-        <v>1707</v>
-      </c>
-      <c r="C17" s="50">
-        <v>16.220500000000158</v>
-      </c>
-      <c r="D17" s="51">
-        <v>-36.2800000000002</v>
-      </c>
-      <c r="E17" s="52">
-        <v>-67.390000000000185</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="12">
-        <v>1709</v>
-      </c>
-      <c r="C18" s="50">
-        <v>-0.37319999999974662</v>
-      </c>
-      <c r="D18" s="51">
-        <v>-24.049999999999933</v>
-      </c>
-      <c r="E18" s="52">
-        <v>-132.99000000000055</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="12">
-        <v>1712</v>
-      </c>
-      <c r="C19" s="50">
-        <v>-20.17319999999993</v>
-      </c>
-      <c r="D19" s="51">
-        <v>-48.250000000000206</v>
-      </c>
-      <c r="E19" s="52">
-        <v>-207.78999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -7067,7 +7076,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7081,7 +7090,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42887</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7099,11 +7108,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43">
-        <v>15743713.310000001</v>
+      <c r="C3" s="53">
+        <v>28867590.68</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11.21</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7117,20 +7129,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
-        <v>63471370.229999997</v>
+      <c r="C4" s="54">
+        <v>66367210.890000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F4">
+        <v>11.05</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60">
         <v>-2</v>
       </c>
     </row>
@@ -7140,45 +7153,56 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F5">
+        <v>11.15</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="J5">
-        <v>-4</v>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60">
+        <v>-7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="45">
-        <v>24598703.920000002</v>
+      <c r="C6" s="55">
+        <v>21674451.940000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
+      </c>
+      <c r="F6">
+        <v>11.45</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>32</v>
+      <c r="I6" s="60">
+        <v>35</v>
+      </c>
+      <c r="J6" s="60">
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="46">
-        <v>21814860.350000001</v>
+      <c r="C7" s="56">
+        <v>17075821.039999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>21</v>
-      </c>
+      <c r="I7" s="60">
+        <v>19</v>
+      </c>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -7191,43 +7215,49 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47">
-        <v>8050872</v>
+      <c r="C9" s="57">
+        <v>7807056</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>-1E-3</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.4750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48">
-        <v>22450395.280000001</v>
+      <c r="C10" s="58">
+        <v>14932651.300000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="49">
-        <v>36020520</v>
+      <c r="C11" s="59">
+        <v>30247500</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -7235,7 +7265,9 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -7257,33 +7289,57 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="50">
+        <v>3.1774590000000753</v>
+      </c>
+      <c r="D16" s="51">
+        <v>-10.880000000000109</v>
+      </c>
+      <c r="E16" s="52">
+        <v>-24.590000000000003</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="C17" s="50">
+        <v>16.220500000000158</v>
+      </c>
+      <c r="D17" s="51">
+        <v>-36.2800000000002</v>
+      </c>
+      <c r="E17" s="52">
+        <v>-67.390000000000185</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="50">
+        <v>-0.37319999999974662</v>
+      </c>
+      <c r="D18" s="51">
+        <v>-24.049999999999933</v>
+      </c>
+      <c r="E18" s="52">
+        <v>-132.99000000000055</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="50">
+        <v>-20.17319999999993</v>
+      </c>
+      <c r="D19" s="51">
+        <v>-48.250000000000206</v>
+      </c>
+      <c r="E19" s="52">
+        <v>-207.78999999999982</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7369,7 +7425,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7401,14 +7457,11 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>14811361.23</v>
+      <c r="C3" s="43">
+        <v>15743713.310000001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="F3">
-        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7422,8 +7475,8 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>51965681.979999997</v>
+      <c r="C4" s="44">
+        <v>63471370.229999997</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
@@ -7433,7 +7486,7 @@
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>-2</v>
@@ -7445,47 +7498,44 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>8.4600000000000009</v>
-      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
-        <v>24905714.850000001</v>
+      <c r="C6" s="45">
+        <v>24598703.920000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F6">
-        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>27085499.949999999</v>
+      <c r="C7" s="46">
+        <v>21814860.350000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7499,28 +7549,26 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>16023360</v>
+      <c r="C9" s="47">
+        <v>8050872</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-8.0000000000000002E-3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3980000000000001</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36">
-        <v>12655613.060000001</v>
+      <c r="C10" s="48">
+        <v>22450395.280000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
@@ -7531,15 +7579,13 @@
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>76730160</v>
+      <c r="C11" s="49">
+        <v>36020520</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>-6.4999999999999997E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -7547,9 +7593,7 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>-3.0000000000000001E-3</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -7571,57 +7615,33 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="40">
-        <v>-5.9073410000000699</v>
-      </c>
-      <c r="D16" s="41">
-        <v>-22.170000000000073</v>
-      </c>
-      <c r="E16" s="42">
-        <v>-13.340000000000003</v>
-      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="40">
-        <v>4.1357000000000141</v>
-      </c>
-      <c r="D17" s="41">
-        <v>-53.170000000000073</v>
-      </c>
-      <c r="E17" s="42">
-        <v>-53.140000000000185</v>
-      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="40">
-        <v>-12.058000000000256</v>
-      </c>
-      <c r="D18" s="41">
-        <v>-39.140000000000079</v>
-      </c>
-      <c r="E18" s="42">
-        <v>-132.73999999999964</v>
-      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="40">
-        <v>-33.658000000000165</v>
-      </c>
-      <c r="D19" s="41">
-        <v>-73.540000000000163</v>
-      </c>
-      <c r="E19" s="42">
-        <v>-213.53999999999982</v>
-      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7707,7 +7727,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7740,13 +7760,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>10672859.619999999</v>
+        <v>14811361.23</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>6.53</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7761,20 +7781,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="31">
-        <v>67927920.010000005</v>
+        <v>51965681.979999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>8.02</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7784,7 +7804,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -7796,20 +7816,20 @@
         <v>3</v>
       </c>
       <c r="C6" s="36">
-        <v>25153424.48</v>
+        <v>24905714.850000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.26</v>
+        <v>8.64</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7817,13 +7837,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="33">
-        <v>16041217.449999999</v>
+        <v>27085499.949999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7838,19 +7858,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="36">
-        <v>15346032</v>
+        <v>16023360</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.403</v>
+        <v>2.3980000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -7858,14 +7878,12 @@
         <v>6</v>
       </c>
       <c r="C10" s="36">
-        <v>18357632.600000001</v>
+        <v>12655613.060000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-2E-3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
@@ -7878,7 +7896,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-2E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7888,7 +7906,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7911,56 +7929,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="37">
-        <v>-7.1373410000000881</v>
-      </c>
-      <c r="D16" s="38">
-        <v>-22.190000000000055</v>
-      </c>
-      <c r="E16" s="39">
-        <v>-21.970000000000113</v>
+      <c r="C16" s="40">
+        <v>-5.9073410000000699</v>
+      </c>
+      <c r="D16" s="41">
+        <v>-22.170000000000073</v>
+      </c>
+      <c r="E16" s="42">
+        <v>-13.340000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="37">
-        <v>-0.29430000000027734</v>
-      </c>
-      <c r="D17" s="38">
-        <v>-57.190000000000055</v>
-      </c>
-      <c r="E17" s="39">
-        <v>-59.369999999999749</v>
+      <c r="C17" s="40">
+        <v>4.1357000000000141</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-53.170000000000073</v>
+      </c>
+      <c r="E17" s="42">
+        <v>-53.140000000000185</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="37">
-        <v>-15.288000000000274</v>
-      </c>
-      <c r="D18" s="38">
-        <v>-43.160000000000061</v>
-      </c>
-      <c r="E18" s="39">
-        <v>-144.77000000000029</v>
+      <c r="C18" s="40">
+        <v>-12.058000000000256</v>
+      </c>
+      <c r="D18" s="41">
+        <v>-39.140000000000079</v>
+      </c>
+      <c r="E18" s="42">
+        <v>-132.73999999999964</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="37">
-        <v>-36.088000000000001</v>
-      </c>
-      <c r="D19" s="38">
-        <v>-75.359999999999872</v>
-      </c>
-      <c r="E19" s="39">
-        <v>-226.77000000000029</v>
+      <c r="C19" s="40">
+        <v>-33.658000000000165</v>
+      </c>
+      <c r="D19" s="41">
+        <v>-73.540000000000163</v>
+      </c>
+      <c r="E19" s="42">
+        <v>-213.53999999999982</v>
       </c>
     </row>
   </sheetData>
@@ -8047,7 +8065,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8080,13 +8098,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30">
-        <v>19082415.43</v>
+        <v>10672859.619999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.12</v>
+        <v>6.53</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8101,20 +8119,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="31">
-        <v>69332135.950000003</v>
+        <v>67927920.010000005</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.46</v>
+        <v>8.02</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8124,7 +8142,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.51</v>
+        <v>8</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -8135,21 +8153,21 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32">
-        <v>23241421.07</v>
+      <c r="C6" s="36">
+        <v>25153424.48</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.0500000000000007</v>
+        <v>8.26</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -8157,7 +8175,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="33">
-        <v>8776367.3200000003</v>
+        <v>16041217.449999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -8177,8 +8195,8 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="34">
-        <v>20676648</v>
+      <c r="C9" s="36">
+        <v>15346032</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
@@ -8190,15 +8208,15 @@
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3730000000000002</v>
+        <v>2.403</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35">
-        <v>11755882.18</v>
+      <c r="C10" s="36">
+        <v>18357632.600000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
@@ -8212,7 +8230,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="36">
-        <v>103383240</v>
+        <v>76730160</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
@@ -8251,56 +8269,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-5.49</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-29.04</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-33.299999999999997</v>
+      <c r="C16" s="37">
+        <v>-7.1373410000000881</v>
+      </c>
+      <c r="D16" s="38">
+        <v>-22.190000000000055</v>
+      </c>
+      <c r="E16" s="39">
+        <v>-21.970000000000113</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="D17" s="21">
-        <v>-61.24</v>
-      </c>
-      <c r="E17" s="21">
-        <v>-82.9</v>
+      <c r="C17" s="37">
+        <v>-0.29430000000027734</v>
+      </c>
+      <c r="D17" s="38">
+        <v>-57.190000000000055</v>
+      </c>
+      <c r="E17" s="39">
+        <v>-59.369999999999749</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-15.44</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-50.01</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-159.9</v>
+      <c r="C18" s="37">
+        <v>-15.288000000000274</v>
+      </c>
+      <c r="D18" s="38">
+        <v>-43.160000000000061</v>
+      </c>
+      <c r="E18" s="39">
+        <v>-144.77000000000029</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-33.24</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-83.81</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-253.7</v>
+      <c r="C19" s="37">
+        <v>-36.088000000000001</v>
+      </c>
+      <c r="D19" s="38">
+        <v>-75.359999999999872</v>
+      </c>
+      <c r="E19" s="39">
+        <v>-226.77000000000029</v>
       </c>
     </row>
   </sheetData>
@@ -8387,7 +8405,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8401,7 +8419,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42877</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8419,14 +8437,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
-        <v>27542132.420000002</v>
+      <c r="C3" s="30">
+        <v>19082415.43</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.17</v>
+        <v>7.12</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8440,21 +8458,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
-        <v>60673425.390000001</v>
+      <c r="C4" s="31">
+        <v>69332135.950000003</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.62</v>
+        <v>7.46</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8464,7 +8482,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.4</v>
+        <v>7.51</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -8475,29 +8493,29 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27">
-        <v>21207889.350000001</v>
+      <c r="C6" s="32">
+        <v>23241421.07</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.85</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
-        <v>11122238.460000001</v>
+      <c r="C7" s="33">
+        <v>8776367.3200000003</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -8513,46 +8531,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24">
-        <v>21150984</v>
+      <c r="C9" s="34">
+        <v>20676648</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.3730000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25">
-        <v>10768912.51</v>
+      <c r="C10" s="35">
+        <v>11755882.18</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="26">
-        <v>105760560</v>
+      <c r="C11" s="36">
+        <v>103383240</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8562,7 +8586,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8586,13 +8610,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="21">
-        <v>-3</v>
+        <v>-5.49</v>
       </c>
       <c r="D16" s="21">
-        <v>-10.62</v>
+        <v>-29.04</v>
       </c>
       <c r="E16" s="21">
-        <v>-23.04</v>
+        <v>-33.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
@@ -8600,13 +8624,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="21">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="D17" s="21">
-        <v>0</v>
+        <v>-61.24</v>
       </c>
       <c r="E17" s="21">
-        <v>0</v>
+        <v>-82.9</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
@@ -8614,13 +8638,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="21">
-        <v>-5.35</v>
+        <v>-15.44</v>
       </c>
       <c r="D18" s="21">
-        <v>-27.39</v>
+        <v>-50.01</v>
       </c>
       <c r="E18" s="21">
-        <v>-129.44</v>
+        <v>-159.9</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
@@ -8628,13 +8652,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="21">
-        <v>-23.95</v>
+        <v>-33.24</v>
       </c>
       <c r="D19" s="21">
-        <v>-56.19</v>
+        <v>-83.81</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.84</v>
+        <v>-253.7</v>
       </c>
     </row>
   </sheetData>
@@ -8720,8 +8744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8730,11 +8754,12 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42874</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8752,14 +8777,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>27013656.550000001</v>
+      <c r="C3" s="22">
+        <v>27542132.420000002</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>7.37</v>
+        <v>7.17</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8773,21 +8798,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>58135549.119999997</v>
+      <c r="C4" s="23">
+        <v>60673425.390000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>7.28</v>
+        <v>7.62</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
-        <v>1705</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8797,28 +8822,25 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7.31</v>
+        <v>7.4</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I5">
-        <v>116</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
-        <v>20572766.84</v>
+      <c r="C6" s="27">
+        <v>21207889.350000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7.71</v>
+        <v>7.85</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
@@ -8832,14 +8854,14 @@
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
-        <v>11767796.859999999</v>
+      <c r="C7" s="28">
+        <v>11122238.460000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8853,42 +8875,42 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
-        <v>21121524</v>
+      <c r="C9" s="24">
+        <v>21150984</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>13661099.779999999</v>
+      <c r="C10" s="25">
+        <v>10768912.51</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>2E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>104957160</v>
+      <c r="C11" s="26">
+        <v>105760560</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8898,7 +8920,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>2.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8911,66 +8933,66 @@
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
-        <v>1705</v>
-      </c>
-      <c r="C16" s="19">
-        <v>-1.1500000000000909</v>
-      </c>
-      <c r="D16" s="20">
-        <v>-5.7100000000000364</v>
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-10.62</v>
       </c>
       <c r="E16" s="21">
-        <v>-14.520000000000366</v>
+        <v>-23.04</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1.3126590000001825</v>
-      </c>
-      <c r="D17" s="20">
-        <v>-11.879999999999946</v>
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
       </c>
       <c r="E17" s="21">
-        <v>-17.960000000000186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="19">
-        <v>-4.43799999999991</v>
-      </c>
-      <c r="D18" s="20">
-        <v>-32.449999999999861</v>
+      <c r="C18" s="21">
+        <v>-5.35</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-27.39</v>
       </c>
       <c r="E18" s="21">
-        <v>-120.96000000000018</v>
+        <v>-129.44</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="19">
-        <v>-18.037999999999819</v>
-      </c>
-      <c r="D19" s="20">
-        <v>-59.650000000000134</v>
+      <c r="C19" s="21">
+        <v>-23.95</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-56.19</v>
       </c>
       <c r="E19" s="21">
-        <v>-217.55999999999963</v>
+        <v>-217.84</v>
       </c>
     </row>
   </sheetData>
@@ -9054,229 +9076,300 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
-        <v>18059150.93</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="C3" s="6">
+        <v>27013656.550000001</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F3">
+        <v>7.37</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>58135549.119999997</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.28</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1705</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
         <v>7.31</v>
       </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>67143665.489999995</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>20572766.84</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>7.71</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11767796.859999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21121524</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13661099.779999999</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>7.48</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="9"/>
-      <c r="E4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>7.41</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>20086561.609999999</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>7.93</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10">
-        <v>12253680.199999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="9"/>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8">
-        <v>21233148</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>13914482.83</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="15">
-        <v>-5</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="8">
-        <v>102617640</v>
+        <v>104957160</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="F12" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
         <v>1705</v>
       </c>
-      <c r="C15" s="13">
-        <v>1.44</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1.03</v>
-      </c>
-      <c r="E15" s="13">
-        <v>-6.07</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="C16" s="19">
+        <v>-1.1500000000000909</v>
+      </c>
+      <c r="D16" s="20">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-14.520000000000366</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="13">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="D16" s="13">
-        <v>-7.54</v>
-      </c>
-      <c r="E16" s="13">
-        <v>-7.71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="C17" s="19">
+        <v>1.3126590000001825</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-11.879999999999946</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-17.960000000000186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C17" s="13">
-        <v>-6.25</v>
-      </c>
-      <c r="D17" s="13">
-        <v>-29.51</v>
-      </c>
-      <c r="E17" s="13">
-        <v>-118.31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="C18" s="19">
+        <v>-4.43799999999991</v>
+      </c>
+      <c r="D18" s="20">
+        <v>-32.449999999999861</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-120.96000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C18" s="13">
-        <v>-21.45</v>
-      </c>
-      <c r="D18" s="13">
-        <v>-59.71</v>
-      </c>
-      <c r="E18" s="13">
-        <v>-211.31</v>
+      <c r="C19" s="19">
+        <v>-18.037999999999819</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-59.650000000000134</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-217.55999999999963</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C15:C18">
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9288,7 +9381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D18">
+  <conditionalFormatting sqref="F3:F6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9300,7 +9393,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E18">
+  <conditionalFormatting sqref="F9:F12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9321,8 +9414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:E21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9355,13 +9448,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="101">
-        <v>63051171.789999999</v>
+        <v>67481033.950000003</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="13">
-        <v>13.78</v>
+        <v>13.08</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -9376,13 +9469,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="102">
-        <v>49987639.859999999</v>
+        <v>45141831.590000004</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="13">
-        <v>13.89</v>
+        <v>13.02</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
@@ -9390,7 +9483,7 @@
       </c>
       <c r="I4" s="108"/>
       <c r="J4" s="108">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9400,7 +9493,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>14.18</v>
+        <v>13.48</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -9414,20 +9507,20 @@
         <v>3</v>
       </c>
       <c r="C6" s="103">
-        <v>18168120.949999999</v>
+        <v>18385106.75</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="13">
-        <v>14.54</v>
+        <v>13.82</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6" s="108">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" s="108">
         <v>-2</v>
@@ -9438,13 +9531,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="104">
-        <v>12943284.130000001</v>
+        <v>12757209.02</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="108">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J7" s="108"/>
     </row>
@@ -9460,13 +9553,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="107">
-        <v>6996012</v>
+        <v>7244940</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>0</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
@@ -9480,13 +9573,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="107">
-        <v>7116431.5700000003</v>
+        <v>6704611.9900000002</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>2.5000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9498,7 +9591,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>8.9999999999999993E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -9508,7 +9601,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1.2500000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -9532,13 +9625,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>3.42</v>
+        <v>1.97</v>
       </c>
       <c r="D16" s="13">
-        <v>-3.3</v>
+        <v>-4.79</v>
       </c>
       <c r="E16" s="13">
-        <v>17.079999999999998</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -9546,13 +9639,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>11.78</v>
+        <v>14.93</v>
       </c>
       <c r="D17" s="13">
-        <v>-31.3</v>
+        <v>-23.99</v>
       </c>
       <c r="E17" s="13">
-        <v>-20.72</v>
+        <v>-30.06</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -9560,13 +9653,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>6.99</v>
+        <v>7.14</v>
       </c>
       <c r="D18" s="13">
-        <v>-5.27</v>
+        <v>5.44</v>
       </c>
       <c r="E18" s="13">
-        <v>-107.52</v>
+        <v>-102.26</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -9574,13 +9667,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-5.81</v>
+        <v>-6.86</v>
       </c>
       <c r="D19" s="13">
-        <v>-27.27</v>
+        <v>-17.36</v>
       </c>
       <c r="E19" s="13">
-        <v>-198.92</v>
+        <v>-204.26</v>
       </c>
     </row>
   </sheetData>
@@ -9664,6 +9757,271 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>18059150.93</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>7.31</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>67143665.489999995</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>7.48</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>7.41</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>20086561.609999999</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>7.93</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>12253680.199999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>21233148</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>13914482.83</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15">
+        <v>-5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>102617640</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>1705</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1.44</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1.03</v>
+      </c>
+      <c r="E15" s="13">
+        <v>-6.07</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="13">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-7.54</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-7.71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C17" s="13">
+        <v>-6.25</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-29.51</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-118.31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C18" s="13">
+        <v>-21.45</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-59.71</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-211.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C15:C18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9806,7 +10164,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C16" sqref="C16:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9839,13 +10197,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="101">
-        <v>47675682.579999998</v>
+        <v>63051171.789999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="13">
-        <v>14.78</v>
+        <v>13.78</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -9860,13 +10218,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="102">
-        <v>65959142.700000003</v>
+        <v>49987639.859999999</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="13">
-        <v>14.98</v>
+        <v>13.89</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
@@ -9874,7 +10232,7 @@
       </c>
       <c r="I4" s="108"/>
       <c r="J4" s="108">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9884,7 +10242,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>15.08</v>
+        <v>14.18</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -9898,21 +10256,23 @@
         <v>3</v>
       </c>
       <c r="C6" s="103">
-        <v>18460282.620000001</v>
+        <v>18168120.949999999</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="13">
-        <v>15.28</v>
+        <v>14.54</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="108"/>
+      <c r="I6" s="108">
+        <v>17</v>
+      </c>
       <c r="J6" s="108">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9920,17 +10280,15 @@
         <v>4</v>
       </c>
       <c r="C7" s="104">
-        <v>12697173.960000001</v>
+        <v>12943284.130000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="108">
-        <v>29</v>
-      </c>
-      <c r="J7" s="108">
-        <v>-2</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -9944,19 +10302,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="107">
-        <v>7073712</v>
+        <v>6996012</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-1E-3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.512</v>
+        <v>2.4820000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -9964,13 +10322,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="107">
-        <v>7333595.54</v>
+        <v>7116431.5700000003</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9982,7 +10340,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>4.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -9992,7 +10350,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>8.5000000000000006E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -10016,13 +10374,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>6.82</v>
+        <v>3.42</v>
       </c>
       <c r="D16" s="13">
-        <v>-6.07</v>
+        <v>-3.3</v>
       </c>
       <c r="E16" s="13">
-        <v>2.25</v>
+        <v>17.079999999999998</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -10030,13 +10388,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>13.59</v>
+        <v>11.78</v>
       </c>
       <c r="D17" s="13">
-        <v>-34.07</v>
+        <v>-31.3</v>
       </c>
       <c r="E17" s="13">
-        <v>-39.950000000000003</v>
+        <v>-20.72</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -10044,13 +10402,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>2.99</v>
+        <v>6.99</v>
       </c>
       <c r="D18" s="13">
-        <v>-10.44</v>
+        <v>-5.27</v>
       </c>
       <c r="E18" s="13">
-        <v>-114.55</v>
+        <v>-107.52</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -10058,13 +10416,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-7.21</v>
+        <v>-5.81</v>
       </c>
       <c r="D19" s="13">
-        <v>-34.24</v>
+        <v>-27.27</v>
       </c>
       <c r="E19" s="13">
-        <v>-210.15</v>
+        <v>-198.92</v>
       </c>
     </row>
   </sheetData>
@@ -10151,7 +10509,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10165,7 +10523,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42898</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -10184,13 +10542,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="101">
-        <v>45692887.719999999</v>
+        <v>47675682.579999998</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="13">
-        <v>14.87</v>
+        <v>14.78</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -10205,23 +10563,21 @@
         <v>2</v>
       </c>
       <c r="C4" s="102">
-        <v>67953170.390000001</v>
+        <v>65959142.700000003</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="13">
-        <v>14.97</v>
+        <v>14.98</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="108">
-        <v>1</v>
-      </c>
+      <c r="I4" s="108"/>
       <c r="J4" s="108">
-        <v>-8</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -10231,7 +10587,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>15.23</v>
+        <v>15.08</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -10245,23 +10601,21 @@
         <v>3</v>
       </c>
       <c r="C6" s="103">
-        <v>17187615.489999998</v>
+        <v>18460282.620000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="13">
-        <v>15.69</v>
+        <v>15.28</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="108">
-        <v>21</v>
-      </c>
+      <c r="I6" s="108"/>
       <c r="J6" s="108">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -10269,15 +10623,17 @@
         <v>4</v>
       </c>
       <c r="C7" s="104">
-        <v>13643886.58</v>
+        <v>12697173.960000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="108">
-        <v>28</v>
-      </c>
-      <c r="J7" s="108"/>
+        <v>29</v>
+      </c>
+      <c r="J7" s="108">
+        <v>-2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -10290,58 +10646,56 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="105">
-        <v>7363836</v>
+      <c r="C9" s="107">
+        <v>7073712</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-4.4999999999999997E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.5139999999999998</v>
+        <v>2.512</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="106">
-        <v>6984988.4500000002</v>
+      <c r="C10" s="107">
+        <v>7333595.54</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>-3.5000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="107">
-        <v>27845340</v>
-      </c>
+      <c r="C11" s="107"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>0</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="100"/>
+      <c r="C12" s="107"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>6.4999999999999997E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -10365,13 +10719,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>2.5906799999999999</v>
+        <v>6.82</v>
       </c>
       <c r="D16" s="13">
-        <v>-6.39</v>
+        <v>-6.07</v>
       </c>
       <c r="E16" s="13">
-        <v>6.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -10379,13 +10733,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>4.9551999999999996</v>
+        <v>13.59</v>
       </c>
       <c r="D17" s="13">
-        <v>-34.99</v>
+        <v>-34.07</v>
       </c>
       <c r="E17" s="13">
-        <v>-35.75</v>
+        <v>-39.950000000000003</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -10393,13 +10747,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>-2.4388000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="D18" s="13">
-        <v>-12.56</v>
+        <v>-10.44</v>
       </c>
       <c r="E18" s="13">
-        <v>-113.95</v>
+        <v>-114.55</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -10407,13 +10761,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-17.6388</v>
+        <v>-7.21</v>
       </c>
       <c r="D19" s="13">
-        <v>-32.36</v>
+        <v>-34.24</v>
       </c>
       <c r="E19" s="13">
-        <v>-209.15</v>
+        <v>-210.15</v>
       </c>
     </row>
   </sheetData>
@@ -10500,7 +10854,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I4" sqref="I4:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10532,14 +10886,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="94">
-        <v>60898495.340000004</v>
+      <c r="C3" s="101">
+        <v>45692887.719999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="13">
-        <v>14.9</v>
+        <v>14.87</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -10553,22 +10907,24 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="95">
-        <v>52753853.090000004</v>
+      <c r="C4" s="102">
+        <v>67953170.390000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="13">
-        <v>15.25</v>
+        <v>14.97</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71">
-        <v>-9</v>
+      <c r="I4" s="108">
+        <v>1</v>
+      </c>
+      <c r="J4" s="108">
+        <v>-8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -10578,51 +10934,53 @@
         <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>15.28</v>
+        <v>15.23</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="96">
-        <v>18658506.170000002</v>
+      <c r="C6" s="103">
+        <v>17187615.489999998</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="13">
-        <v>15.39</v>
+        <v>15.69</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="71">
-        <v>17</v>
-      </c>
-      <c r="J6" s="71"/>
+      <c r="I6" s="108">
+        <v>21</v>
+      </c>
+      <c r="J6" s="108">
+        <v>-4</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="97">
-        <v>12750700.720000001</v>
+      <c r="C7" s="104">
+        <v>13643886.58</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="71">
-        <v>24</v>
-      </c>
-      <c r="J7" s="71"/>
+      <c r="I7" s="108">
+        <v>28</v>
+      </c>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -10635,58 +10993,58 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="98">
-        <v>6051684</v>
+      <c r="C9" s="105">
+        <v>7363836</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-5.0000000000000001E-4</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.5169999999999999</v>
+        <v>2.5139999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="99">
-        <v>8390440.3900000006</v>
+      <c r="C10" s="106">
+        <v>6984988.4500000002</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>1E-3</v>
+        <v>-3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="100">
-        <v>23475480</v>
+      <c r="C11" s="107">
+        <v>27845340</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>3.5000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="93"/>
+      <c r="C12" s="100"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>0.01</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -10710,13 +11068,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>7.07</v>
+        <v>2.5906799999999999</v>
       </c>
       <c r="D16" s="13">
-        <v>2.4300000000000002</v>
+        <v>-6.39</v>
       </c>
       <c r="E16" s="13">
-        <v>22.04</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -10724,13 +11082,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>15.86</v>
+        <v>4.9551999999999996</v>
       </c>
       <c r="D17" s="13">
-        <v>-21.17</v>
+        <v>-34.99</v>
       </c>
       <c r="E17" s="13">
-        <v>-22.36</v>
+        <v>-35.75</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -10738,13 +11096,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>8.26</v>
+        <v>-2.4388000000000001</v>
       </c>
       <c r="D18" s="13">
-        <v>0.86</v>
+        <v>-12.56</v>
       </c>
       <c r="E18" s="13">
-        <v>-92.36</v>
+        <v>-113.95</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -10752,13 +11110,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-6.14</v>
+        <v>-17.6388</v>
       </c>
       <c r="D19" s="13">
-        <v>-23.14</v>
+        <v>-32.36</v>
       </c>
       <c r="E19" s="13">
-        <v>-194.16</v>
+        <v>-209.15</v>
       </c>
     </row>
   </sheetData>
@@ -10845,7 +11203,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10859,7 +11217,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42894</v>
+        <v>42898</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -10877,13 +11235,15 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="87">
-        <v>72128772.469999999</v>
+      <c r="C3" s="94">
+        <v>60898495.340000004</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13">
+        <v>14.9</v>
+      </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -10896,21 +11256,23 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="88">
-        <v>41018910.439999998</v>
+      <c r="C4" s="95">
+        <v>52753853.090000004</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13">
+        <v>15.25</v>
+      </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71">
-        <v>12</v>
-      </c>
-      <c r="J4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71">
+        <v>-9</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -10918,7 +11280,9 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13">
+        <v>15.28</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
@@ -10930,30 +11294,30 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="89">
-        <v>20720454.050000001</v>
+      <c r="C6" s="96">
+        <v>18658506.170000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13">
+        <v>15.39</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6" s="71">
-        <v>20</v>
-      </c>
-      <c r="J6" s="71">
-        <v>-3</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="90">
-        <v>8790439.4199999999</v>
+      <c r="C7" s="97">
+        <v>12750700.720000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
@@ -10974,51 +11338,59 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="91">
-        <v>6446448</v>
+      <c r="C9" s="98">
+        <v>6051684</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>-5.0000000000000001E-4</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.5009999999999999</v>
+        <v>2.5169999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="92">
-        <v>9821013.0199999996</v>
+      <c r="C10" s="99">
+        <v>8390440.3900000006</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="93">
-        <v>21038940</v>
+      <c r="C11" s="100">
+        <v>23475480</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>3.5000000000000001E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="86"/>
+      <c r="C12" s="93"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -11041,13 +11413,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>7.11</v>
+        <v>7.07</v>
       </c>
       <c r="D16" s="13">
-        <v>-1.18</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="E16" s="13">
-        <v>7.93</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -11055,13 +11427,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>13.1</v>
+        <v>15.86</v>
       </c>
       <c r="D17" s="13">
-        <v>-29.38</v>
+        <v>-21.17</v>
       </c>
       <c r="E17" s="13">
-        <v>-38.67</v>
+        <v>-22.36</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -11069,13 +11441,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>7.5</v>
+        <v>8.26</v>
       </c>
       <c r="D18" s="13">
-        <v>-7.95</v>
+        <v>0.86</v>
       </c>
       <c r="E18" s="13">
-        <v>-111.27</v>
+        <v>-92.36</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -11083,13 +11455,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-1.1000000000000001</v>
+        <v>-6.14</v>
       </c>
       <c r="D19" s="13">
-        <v>-28.15</v>
+        <v>-23.14</v>
       </c>
       <c r="E19" s="13">
-        <v>-202.07</v>
+        <v>-194.16</v>
       </c>
     </row>
   </sheetData>
@@ -11176,7 +11548,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11208,8 +11580,8 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="80">
-        <v>56506237.039999999</v>
+      <c r="C3" s="87">
+        <v>72128772.469999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
@@ -11227,8 +11599,8 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="81">
-        <v>47118580.43</v>
+      <c r="C4" s="88">
+        <v>41018910.439999998</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
@@ -11238,10 +11610,10 @@
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71">
-        <v>-2</v>
-      </c>
+      <c r="I4" s="71">
+        <v>12</v>
+      </c>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -11261,8 +11633,8 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="82">
-        <v>19306935.5</v>
+      <c r="C6" s="89">
+        <v>20720454.050000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
@@ -11273,7 +11645,7 @@
         <v>1709</v>
       </c>
       <c r="I6" s="71">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J6" s="71">
         <v>-3</v>
@@ -11283,14 +11655,14 @@
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="83">
-        <v>15930345.300000001</v>
+      <c r="C7" s="90">
+        <v>8790439.4199999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="71">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J7" s="71"/>
     </row>
@@ -11305,8 +11677,8 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="84">
-        <v>6246408</v>
+      <c r="C9" s="91">
+        <v>6446448</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
@@ -11316,15 +11688,15 @@
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.48</v>
+        <v>2.5009999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="85">
-        <v>12756343.289999999</v>
+      <c r="C10" s="92">
+        <v>9821013.0199999996</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
@@ -11335,8 +11707,8 @@
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="86">
-        <v>27561420</v>
+      <c r="C11" s="93">
+        <v>21038940</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
@@ -11345,7 +11717,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="79"/>
+      <c r="C12" s="86"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
@@ -11372,13 +11744,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>6.98</v>
+        <v>7.11</v>
       </c>
       <c r="D16" s="13">
-        <v>-0.87</v>
+        <v>-1.18</v>
       </c>
       <c r="E16" s="13">
-        <v>23.89</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -11386,13 +11758,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>12.96</v>
+        <v>13.1</v>
       </c>
       <c r="D17" s="13">
-        <v>-27.27</v>
+        <v>-29.38</v>
       </c>
       <c r="E17" s="13">
-        <v>-14.31</v>
+        <v>-38.67</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -11400,13 +11772,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>3.57</v>
+        <v>7.5</v>
       </c>
       <c r="D18" s="13">
-        <v>-5.84</v>
+        <v>-7.95</v>
       </c>
       <c r="E18" s="13">
-        <v>-95.91</v>
+        <v>-111.27</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -11414,13 +11786,13 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-12.03</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D19" s="13">
-        <v>-29.84</v>
+        <v>-28.15</v>
       </c>
       <c r="E19" s="13">
-        <v>-190.11</v>
+        <v>-202.07</v>
       </c>
     </row>
   </sheetData>
@@ -11506,7 +11878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11519,7 +11893,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42893</v>
+        <v>42894</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -11537,13 +11911,13 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="80">
+        <v>56506237.039999999</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13">
-        <v>11.02</v>
-      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -11556,13 +11930,13 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="81">
+        <v>47118580.43</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13">
-        <v>11.18</v>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
@@ -11578,9 +11952,7 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13">
-        <v>11.87</v>
-      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
@@ -11592,13 +11964,13 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="82">
+        <v>19306935.5</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13">
-        <v>12.39</v>
-      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
@@ -11607,19 +11979,21 @@
         <v>24</v>
       </c>
       <c r="J6" s="71">
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="83">
+        <v>15930345.300000001</v>
+      </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="71">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J7" s="71"/>
     </row>
@@ -11634,43 +12008,43 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="84">
+        <v>6246408</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4580000000000002</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="85">
+        <v>12756343.289999999</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17">
-        <v>2E-3</v>
-      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="86">
+        <v>27561420</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>4.0000000000000001E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -11678,9 +12052,7 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>7.4999999999999997E-3</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -11837,9 +12209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11852,7 +12222,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42892</v>
+        <v>42893</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -11870,14 +12240,12 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73">
-        <v>63179358.07</v>
-      </c>
+      <c r="C3" s="73"/>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="13">
-        <v>10.75</v>
+        <v>11.02</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -11891,24 +12259,20 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="74">
-        <v>39428592.960000001</v>
-      </c>
+      <c r="C4" s="74"/>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="13">
-        <v>11.09</v>
+        <v>11.18</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71">
-        <v>2</v>
-      </c>
+      <c r="I4" s="71"/>
       <c r="J4" s="71">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11918,7 +12282,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>11.54</v>
+        <v>11.87</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -11931,14 +12295,12 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="75">
-        <v>19665017.670000002</v>
-      </c>
+      <c r="C6" s="75"/>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="13">
-        <v>12.21</v>
+        <v>12.39</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
@@ -11948,25 +12310,21 @@
         <v>24</v>
       </c>
       <c r="J6" s="71">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="76">
-        <v>15712421.77</v>
-      </c>
+      <c r="C7" s="76"/>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="71">
-        <v>13</v>
-      </c>
-      <c r="J7" s="71">
-        <v>-2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -11979,58 +12337,52 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="77">
-        <v>5464032</v>
-      </c>
+      <c r="C9" s="79"/>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.4580000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="78">
-        <v>13251570.66</v>
-      </c>
+      <c r="C10" s="79"/>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="79">
-        <v>22274580</v>
-      </c>
+      <c r="C11" s="79"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>7.4999999999999997E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="70"/>
+      <c r="C12" s="79"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1.2E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -12054,13 +12406,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>-0.89254099999963366</v>
+        <v>6.98</v>
       </c>
       <c r="D16" s="13">
-        <v>-12.150000000000091</v>
+        <v>-0.87</v>
       </c>
       <c r="E16" s="13">
-        <v>-13.890000000000185</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -12068,13 +12420,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>15.350500000000268</v>
+        <v>12.96</v>
       </c>
       <c r="D17" s="13">
-        <v>-36.75</v>
+        <v>-27.27</v>
       </c>
       <c r="E17" s="13">
-        <v>-54.48999999999964</v>
+        <v>-14.31</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -12082,13 +12434,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>1.5568000000000897</v>
+        <v>3.57</v>
       </c>
       <c r="D18" s="13">
-        <v>-11.519999999999733</v>
+        <v>-5.84</v>
       </c>
       <c r="E18" s="13">
-        <v>-123.09</v>
+        <v>-95.91</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -12096,19 +12448,19 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-9.6431999999997284</v>
+        <v>-12.03</v>
       </c>
       <c r="D19" s="13">
-        <v>-30.720000000000006</v>
+        <v>-29.84</v>
       </c>
       <c r="E19" s="13">
-        <v>-213.48999999999964</v>
+        <v>-190.11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12120,7 +12472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12132,7 +12484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F12">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/每日交易数据.xlsx
+++ b/每日交易数据.xlsx
@@ -7,34 +7,38 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
-    <sheet name="20170619" sheetId="23" r:id="rId1"/>
-    <sheet name="20170616" sheetId="22" r:id="rId2"/>
-    <sheet name="20170615" sheetId="21" r:id="rId3"/>
-    <sheet name="20170614" sheetId="20" r:id="rId4"/>
-    <sheet name="20170613" sheetId="19" r:id="rId5"/>
-    <sheet name="20170612" sheetId="18" r:id="rId6"/>
-    <sheet name="20170609" sheetId="17" r:id="rId7"/>
-    <sheet name="20170608" sheetId="16" r:id="rId8"/>
-    <sheet name="20170607" sheetId="15" r:id="rId9"/>
-    <sheet name="20170606" sheetId="14" r:id="rId10"/>
-    <sheet name="20170605" sheetId="13" r:id="rId11"/>
-    <sheet name="20170602" sheetId="12" r:id="rId12"/>
-    <sheet name="20170601" sheetId="11" r:id="rId13"/>
-    <sheet name="20170526" sheetId="10" r:id="rId14"/>
-    <sheet name="20170525" sheetId="9" r:id="rId15"/>
-    <sheet name="20170524" sheetId="8" r:id="rId16"/>
-    <sheet name="20170523" sheetId="7" r:id="rId17"/>
-    <sheet name="20170522" sheetId="6" r:id="rId18"/>
-    <sheet name="20170519" sheetId="5" r:id="rId19"/>
-    <sheet name="20170518" sheetId="4" r:id="rId20"/>
-    <sheet name="20170517" sheetId="3" r:id="rId21"/>
+    <sheet name="20170623" sheetId="27" r:id="rId1"/>
+    <sheet name="20170622" sheetId="26" r:id="rId2"/>
+    <sheet name="20170621" sheetId="25" r:id="rId3"/>
+    <sheet name="20170620" sheetId="24" r:id="rId4"/>
+    <sheet name="20170619" sheetId="23" r:id="rId5"/>
+    <sheet name="20170616" sheetId="22" r:id="rId6"/>
+    <sheet name="20170615" sheetId="21" r:id="rId7"/>
+    <sheet name="20170614" sheetId="20" r:id="rId8"/>
+    <sheet name="20170613" sheetId="19" r:id="rId9"/>
+    <sheet name="20170612" sheetId="18" r:id="rId10"/>
+    <sheet name="20170609" sheetId="17" r:id="rId11"/>
+    <sheet name="20170608" sheetId="16" r:id="rId12"/>
+    <sheet name="20170607" sheetId="15" r:id="rId13"/>
+    <sheet name="20170606" sheetId="14" r:id="rId14"/>
+    <sheet name="20170605" sheetId="13" r:id="rId15"/>
+    <sheet name="20170602" sheetId="12" r:id="rId16"/>
+    <sheet name="20170601" sheetId="11" r:id="rId17"/>
+    <sheet name="20170526" sheetId="10" r:id="rId18"/>
+    <sheet name="20170525" sheetId="9" r:id="rId19"/>
+    <sheet name="20170524" sheetId="8" r:id="rId20"/>
+    <sheet name="20170523" sheetId="7" r:id="rId21"/>
+    <sheet name="20170522" sheetId="6" r:id="rId22"/>
+    <sheet name="20170519" sheetId="5" r:id="rId23"/>
+    <sheet name="20170518" sheetId="4" r:id="rId24"/>
+    <sheet name="20170517" sheetId="3" r:id="rId25"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="28">
   <si>
     <t>资金信息汇总</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -4108,7 +4112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4331,6 +4335,20 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5688,7 +5706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -5703,7 +5721,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42905</v>
+        <v>42909</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5721,14 +5739,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="109">
-        <v>73282103.579999998</v>
+      <c r="C3" s="120">
+        <v>45795387.850000001</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13">
-        <v>12.46</v>
+      <c r="F3" s="72">
+        <v>12.77</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -5742,23 +5760,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="110">
-        <v>39187714.049999997</v>
+      <c r="C4" s="121">
+        <v>68702705.109999999</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13">
-        <v>12.5</v>
+      <c r="F4" s="72">
+        <v>13.16</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1707</v>
       </c>
       <c r="I4" s="108"/>
-      <c r="J4" s="108">
-        <v>-1</v>
-      </c>
+      <c r="J4" s="108"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -5766,8 +5782,8 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13">
-        <v>12.66</v>
+      <c r="F5" s="72">
+        <v>13.54</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -5780,21 +5796,21 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="111">
-        <v>18167820.010000002</v>
+      <c r="C6" s="122">
+        <v>23475405.399999999</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13">
-        <v>12.93</v>
+      <c r="F6" s="72">
+        <v>14.44</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6" s="108">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J6" s="108"/>
     </row>
@@ -5802,14 +5818,14 @@
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="112">
-        <v>13047171.4</v>
+      <c r="C7" s="123">
+        <v>8199513.7300000004</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="108">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J7" s="108"/>
     </row>
@@ -5824,58 +5840,56 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="113">
-        <v>7076232</v>
+      <c r="C9" s="125">
+        <v>8021832</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>0</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4590000000000001</v>
+        <v>2.524</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="114">
-        <v>6772050.9100000001</v>
+      <c r="C10" s="124">
+        <v>6867945.8700000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>1E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="115">
-        <v>34650960</v>
-      </c>
+      <c r="C11" s="115"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>8.0000000000000002E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="107"/>
+      <c r="C12" s="115"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1.2500000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -5899,34 +5913,41 @@
         <v>1707</v>
       </c>
       <c r="C16" s="72">
-        <v>6.83</v>
+        <v>5.75</v>
       </c>
       <c r="D16" s="13">
-        <v>-30.76</v>
+        <v>-29.54</v>
       </c>
       <c r="E16" s="13">
-        <v>-28.49</v>
+        <v>-47.54</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1708</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="E17" s="13"/>
+      <c r="C17" s="72">
+        <v>0.15</v>
+      </c>
+      <c r="D17">
+        <v>-42.54</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-83.94</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>-3.77</v>
+        <v>1.36</v>
       </c>
       <c r="D18" s="13">
-        <v>-3.13</v>
+        <v>-50.34</v>
       </c>
       <c r="E18" s="13">
-        <v>-107.49</v>
+        <v>-123.94</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -5934,19 +5955,19 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-13.97</v>
+        <v>-13.24</v>
       </c>
       <c r="D19" s="13">
-        <v>-24.13</v>
+        <v>-82.74</v>
       </c>
       <c r="E19" s="13">
-        <v>-211.49</v>
+        <v>-221.14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5958,7 +5979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5970,7 +5991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F12">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5982,7 +6003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C19">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5994,7 +6015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E19">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6006,7 +6027,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19 D16">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6041,7 +6074,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42892</v>
+        <v>42898</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6059,14 +6092,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73">
-        <v>63179358.07</v>
+      <c r="C3" s="94">
+        <v>60898495.340000004</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="13">
-        <v>10.75</v>
+        <v>14.9</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -6080,24 +6113,22 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="74">
-        <v>39428592.960000001</v>
+      <c r="C4" s="95">
+        <v>52753853.090000004</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="13">
-        <v>11.09</v>
+        <v>15.25</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="71">
-        <v>2</v>
-      </c>
+      <c r="I4" s="71"/>
       <c r="J4" s="71">
-        <v>-4</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6107,7 +6138,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>11.54</v>
+        <v>15.28</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
@@ -6120,42 +6151,38 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="75">
-        <v>19665017.670000002</v>
+      <c r="C6" s="96">
+        <v>18658506.170000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="13">
-        <v>12.21</v>
+        <v>15.39</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6" s="71">
-        <v>24</v>
-      </c>
-      <c r="J6" s="71">
-        <v>-6</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="76">
-        <v>15712421.77</v>
+      <c r="C7" s="97">
+        <v>12750700.720000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="71">
-        <v>13</v>
-      </c>
-      <c r="J7" s="71">
-        <v>-2</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -6168,28 +6195,28 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="77">
-        <v>5464032</v>
+      <c r="C9" s="98">
+        <v>6051684</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>0</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.5169999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="78">
-        <v>13251570.66</v>
+      <c r="C10" s="99">
+        <v>8390440.3900000006</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
@@ -6202,24 +6229,24 @@
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="79">
-        <v>22274580</v>
+      <c r="C11" s="100">
+        <v>23475480</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>7.4999999999999997E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="70"/>
+      <c r="C12" s="93"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6243,13 +6270,13 @@
         <v>1706</v>
       </c>
       <c r="C16" s="72">
-        <v>-0.89254099999963366</v>
+        <v>7.07</v>
       </c>
       <c r="D16" s="13">
-        <v>-12.150000000000091</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="E16" s="13">
-        <v>-13.890000000000185</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -6257,13 +6284,13 @@
         <v>1707</v>
       </c>
       <c r="C17" s="72">
-        <v>15.350500000000268</v>
+        <v>15.86</v>
       </c>
       <c r="D17" s="13">
-        <v>-36.75</v>
+        <v>-21.17</v>
       </c>
       <c r="E17" s="13">
-        <v>-54.48999999999964</v>
+        <v>-22.36</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -6271,13 +6298,13 @@
         <v>1709</v>
       </c>
       <c r="C18" s="72">
-        <v>1.5568000000000897</v>
+        <v>8.26</v>
       </c>
       <c r="D18" s="13">
-        <v>-11.519999999999733</v>
+        <v>0.86</v>
       </c>
       <c r="E18" s="13">
-        <v>-123.09</v>
+        <v>-92.36</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -6285,19 +6312,19 @@
         <v>1712</v>
       </c>
       <c r="C19" s="72">
-        <v>-9.6431999999997284</v>
+        <v>-6.14</v>
       </c>
       <c r="D19" s="13">
-        <v>-30.720000000000006</v>
+        <v>-23.14</v>
       </c>
       <c r="E19" s="13">
-        <v>-213.48999999999964</v>
+        <v>-194.16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6309,7 +6336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6321,7 +6348,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F12">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6378,7 +6405,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6392,7 +6419,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42891</v>
+        <v>42894</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -6410,15 +6437,13 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="64">
-        <v>46400118.310000002</v>
+      <c r="C3" s="87">
+        <v>72128772.469999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13">
-        <v>11.6</v>
-      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -6431,25 +6456,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65">
-        <v>56758537.549999997</v>
+      <c r="C4" s="88">
+        <v>41018910.439999998</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13">
-        <v>12.01</v>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4" s="71">
-        <v>2</v>
-      </c>
-      <c r="J4" s="71">
-        <v>-4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -6457,9 +6478,7 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13">
-        <v>12.15</v>
-      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
@@ -6471,42 +6490,38 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66">
-        <v>21083961.420000002</v>
+      <c r="C6" s="89">
+        <v>20720454.050000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13">
-        <v>12.3</v>
-      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6" s="71">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J6" s="71">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67">
-        <v>13947536.58</v>
+      <c r="C7" s="90">
+        <v>8790439.4199999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7" s="71">
-        <v>13</v>
-      </c>
-      <c r="J7" s="71">
-        <v>-2</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -6519,59 +6534,51 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="68">
-        <v>5668260</v>
+      <c r="C9" s="91">
+        <v>6446448</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4700000000000002</v>
+        <v>2.5009999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="69">
-        <v>13263163.310000001</v>
+      <c r="C10" s="92">
+        <v>9821013.0199999996</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17">
-        <v>-5.0000000000000001E-4</v>
-      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="70">
-        <v>19565280</v>
+      <c r="C11" s="93">
+        <v>21038940</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="86"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>8.5000000000000006E-3</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -6593,56 +6600,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="13">
-        <v>3.3974589999998752</v>
+      <c r="C16" s="72">
+        <v>7.11</v>
       </c>
       <c r="D16" s="13">
-        <v>-5.7100000000000364</v>
+        <v>-1.18</v>
       </c>
       <c r="E16" s="13">
-        <v>7.5899999999993781</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="13">
-        <v>16.440499999999957</v>
+      <c r="C17" s="72">
+        <v>13.1</v>
       </c>
       <c r="D17" s="13">
-        <v>-32.710000000000036</v>
+        <v>-29.38</v>
       </c>
       <c r="E17" s="13">
-        <v>-33.61000000000044</v>
+        <v>-38.67</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="13">
-        <v>5.0467999999998714</v>
+      <c r="C18" s="72">
+        <v>7.5</v>
       </c>
       <c r="D18" s="13">
-        <v>-9.4800000000002242</v>
+        <v>-7.95</v>
       </c>
       <c r="E18" s="13">
-        <v>-104.61000000000044</v>
+        <v>-111.27</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="13">
-        <v>-6.5532000000000377</v>
+      <c r="C19" s="72">
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D19" s="13">
-        <v>-26.480000000000224</v>
+        <v>-28.15</v>
       </c>
       <c r="E19" s="13">
-        <v>-195.81000000000026</v>
+        <v>-202.07</v>
       </c>
     </row>
   </sheetData>
@@ -6725,353 +6732,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18">
-        <v>42888</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="53">
-        <v>29029597.77</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>11.21</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="54">
-        <v>74422527.400000006</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>11.05</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12">
-        <v>1706</v>
-      </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="9"/>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>11.15</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12">
-        <v>1707</v>
-      </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="59">
-        <v>19554286.609999999</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>11.45</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12">
-        <v>1709</v>
-      </c>
-      <c r="I6" s="60">
-        <v>28</v>
-      </c>
-      <c r="J6" s="60">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="56">
-        <v>14955296.359999999</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1712</v>
-      </c>
-      <c r="I7" s="60">
-        <v>15</v>
-      </c>
-      <c r="J7" s="60"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="9"/>
-      <c r="E8" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="59">
-        <v>6268212</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="29">
-        <v>2.4889999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="59">
-        <v>12722925.49</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="E11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="17">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="12">
-        <v>1706</v>
-      </c>
-      <c r="C16" s="61">
-        <v>5.0074590000000025</v>
-      </c>
-      <c r="D16" s="62">
-        <v>-8.7400000000002365</v>
-      </c>
-      <c r="E16" s="63">
-        <v>-16.090000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="12">
-        <v>1707</v>
-      </c>
-      <c r="C17" s="61">
-        <v>16.450499999999721</v>
-      </c>
-      <c r="D17" s="62">
-        <v>-34.940000000000055</v>
-      </c>
-      <c r="E17" s="63">
-        <v>-60.09</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="12">
-        <v>1709</v>
-      </c>
-      <c r="C18" s="61">
-        <v>-2.3432000000000013</v>
-      </c>
-      <c r="D18" s="62">
-        <v>-19.310000000000151</v>
-      </c>
-      <c r="E18" s="63">
-        <v>-128.28999999999982</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="12">
-        <v>1712</v>
-      </c>
-      <c r="C19" s="61">
-        <v>-18.543200000000276</v>
-      </c>
-      <c r="D19" s="62">
-        <v>-36.310000000000151</v>
-      </c>
-      <c r="E19" s="63">
-        <v>-200.48999999999964</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C19">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D19">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -7090,7 +6750,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42887</v>
+        <v>42894</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7108,15 +6768,13 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53">
-        <v>28867590.68</v>
+      <c r="C3" s="80">
+        <v>56506237.039999999</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>11.21</v>
-      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -7129,21 +6787,19 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54">
-        <v>66367210.890000001</v>
+      <c r="C4" s="81">
+        <v>47118580.43</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4">
-        <v>11.05</v>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60">
+      <c r="I4" s="71"/>
+      <c r="J4" s="71">
         <v>-2</v>
       </c>
     </row>
@@ -7153,39 +6809,33 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>11.15</v>
-      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60">
-        <v>-7</v>
-      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="55">
-        <v>21674451.940000001</v>
+      <c r="C6" s="82">
+        <v>19306935.5</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>11.45</v>
-      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6" s="60">
-        <v>35</v>
-      </c>
-      <c r="J6" s="60">
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
         <v>-3</v>
       </c>
     </row>
@@ -7193,16 +6843,16 @@
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56">
-        <v>17075821.039999999</v>
+      <c r="C7" s="83">
+        <v>15930345.300000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="71">
         <v>19</v>
       </c>
-      <c r="J7" s="60"/>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -7215,59 +6865,51 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="57">
-        <v>7807056</v>
+      <c r="C9" s="84">
+        <v>6246408</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17">
-        <v>-1E-3</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.4750000000000001</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="58">
-        <v>14932651.300000001</v>
+      <c r="C10" s="85">
+        <v>12756343.289999999</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="59">
-        <v>30247500</v>
+      <c r="C11" s="86">
+        <v>27561420</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="79"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>4.0000000000000001E-3</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -7285,65 +6927,396 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="50">
-        <v>3.1774590000000753</v>
-      </c>
-      <c r="D16" s="51">
-        <v>-10.880000000000109</v>
-      </c>
-      <c r="E16" s="52">
-        <v>-24.590000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="72">
+        <v>6.98</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-0.87</v>
+      </c>
+      <c r="E16" s="13">
+        <v>23.89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="50">
-        <v>16.220500000000158</v>
-      </c>
-      <c r="D17" s="51">
-        <v>-36.2800000000002</v>
-      </c>
-      <c r="E17" s="52">
-        <v>-67.390000000000185</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="72">
+        <v>12.96</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-27.27</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-14.31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="50">
-        <v>-0.37319999999974662</v>
-      </c>
-      <c r="D18" s="51">
-        <v>-24.049999999999933</v>
-      </c>
-      <c r="E18" s="52">
-        <v>-132.99000000000055</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="72">
+        <v>3.57</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-5.84</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-95.91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="50">
-        <v>-20.17319999999993</v>
-      </c>
-      <c r="D19" s="51">
-        <v>-48.250000000000206</v>
-      </c>
-      <c r="E19" s="52">
-        <v>-207.78999999999982</v>
+      <c r="C19" s="72">
+        <v>-12.03</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-29.84</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-190.11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42893</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13">
+        <v>11.02</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="13">
+        <v>11.18</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13">
+        <v>11.87</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13">
+        <v>12.39</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7" s="71">
+        <v>16</v>
+      </c>
+      <c r="J7" s="71"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.4580000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="79"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="72">
+        <v>6.98</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-0.87</v>
+      </c>
+      <c r="E16" s="13">
+        <v>23.89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="72">
+        <v>12.96</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-27.27</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-14.31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="72">
+        <v>3.57</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-5.84</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-95.91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="72">
+        <v>-12.03</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-29.84</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-190.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -7355,8 +7328,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D16:D19">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7368,42 +7377,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7439,7 +7412,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42892</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7457,11 +7430,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43">
-        <v>15743713.310000001</v>
+      <c r="C3" s="73">
+        <v>63179358.07</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
+      </c>
+      <c r="F3" s="13">
+        <v>10.75</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7475,21 +7451,24 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
-        <v>63471370.229999997</v>
+      <c r="C4" s="74">
+        <v>39428592.960000001</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F4" s="13">
+        <v>11.09</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>-2</v>
+      <c r="I4" s="71">
+        <v>2</v>
+      </c>
+      <c r="J4" s="71">
+        <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7498,44 +7477,55 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="13">
+        <v>11.54</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
-      <c r="J5">
-        <v>-4</v>
-      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="45">
-        <v>24598703.920000002</v>
+      <c r="C6" s="75">
+        <v>19665017.670000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
+      </c>
+      <c r="F6" s="13">
+        <v>12.21</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>32</v>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="46">
-        <v>21814860.350000001</v>
+      <c r="C7" s="76">
+        <v>15712421.77</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>21</v>
+      <c r="I7" s="71">
+        <v>13</v>
+      </c>
+      <c r="J7" s="71">
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7549,13 +7539,15 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47">
-        <v>8050872</v>
+      <c r="C9" s="77">
+        <v>5464032</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
@@ -7567,33 +7559,39 @@
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48">
-        <v>22450395.280000001</v>
+      <c r="C10" s="78">
+        <v>13251570.66</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="49">
-        <v>36020520</v>
+      <c r="C11" s="79">
+        <v>22274580</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>7.4999999999999997E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="70"/>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -7611,42 +7609,102 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="72">
+        <v>-0.89254099999963366</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-12.150000000000091</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-13.890000000000185</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="72">
+        <v>15.350500000000268</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-36.75</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-54.48999999999964</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="72">
+        <v>1.5568000000000897</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-11.519999999999733</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-123.09</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="C19" s="72">
+        <v>-9.6431999999997284</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-30.720000000000006</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-213.48999999999964</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C16:C19">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7658,7 +7716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D19">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7670,42 +7728,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7727,7 +7749,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I4" sqref="I4:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7741,7 +7763,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42891</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7759,14 +7781,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>14811361.23</v>
+      <c r="C3" s="64">
+        <v>46400118.310000002</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>8.5299999999999994</v>
+      <c r="F3" s="13">
+        <v>11.6</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -7780,21 +7802,24 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>51965681.979999997</v>
+      <c r="C4" s="65">
+        <v>56758537.549999997</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F4" s="13">
+        <v>12.01</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>65</v>
-      </c>
-      <c r="J4">
-        <v>-2</v>
+      <c r="I4" s="71">
+        <v>2</v>
+      </c>
+      <c r="J4" s="71">
+        <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7803,47 +7828,55 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>8.4600000000000009</v>
+      <c r="F5" s="13">
+        <v>12.15</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
-        <v>24905714.850000001</v>
+      <c r="C6" s="66">
+        <v>21083961.420000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>8.64</v>
+      <c r="F6" s="13">
+        <v>12.3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>30</v>
+      <c r="I6" s="71">
+        <v>24</v>
+      </c>
+      <c r="J6" s="71">
+        <v>-6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>27085499.949999999</v>
+      <c r="C7" s="67">
+        <v>13947536.58</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>18</v>
+      <c r="I7" s="71">
+        <v>13</v>
+      </c>
+      <c r="J7" s="71">
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7857,46 +7890,48 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>16023360</v>
+      <c r="C9" s="68">
+        <v>5668260</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>-8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3980000000000001</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36">
-        <v>12655613.060000001</v>
+      <c r="C10" s="69">
+        <v>13263163.310000001</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>-5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>76730160</v>
+      <c r="C11" s="70">
+        <v>19565280</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-6.4999999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7906,7 +7941,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>-3.0000000000000001E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -7925,66 +7960,102 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="40">
-        <v>-5.9073410000000699</v>
-      </c>
-      <c r="D16" s="41">
-        <v>-22.170000000000073</v>
-      </c>
-      <c r="E16" s="42">
-        <v>-13.340000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="13">
+        <v>3.3974589999998752</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-5.7100000000000364</v>
+      </c>
+      <c r="E16" s="13">
+        <v>7.5899999999993781</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="40">
-        <v>4.1357000000000141</v>
-      </c>
-      <c r="D17" s="41">
-        <v>-53.170000000000073</v>
-      </c>
-      <c r="E17" s="42">
-        <v>-53.140000000000185</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="13">
+        <v>16.440499999999957</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-32.710000000000036</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-33.61000000000044</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="40">
-        <v>-12.058000000000256</v>
-      </c>
-      <c r="D18" s="41">
-        <v>-39.140000000000079</v>
-      </c>
-      <c r="E18" s="42">
-        <v>-132.73999999999964</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="13">
+        <v>5.0467999999998714</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-9.4800000000002242</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-104.61000000000044</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="40">
-        <v>-33.658000000000165</v>
-      </c>
-      <c r="D19" s="41">
-        <v>-73.540000000000163</v>
-      </c>
-      <c r="E19" s="42">
-        <v>-213.53999999999982</v>
+      <c r="C19" s="13">
+        <v>-6.5532000000000377</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-26.480000000000224</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-195.81000000000026</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C16:C19">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7996,7 +8067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D19">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8008,42 +8079,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6 F9:F12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8079,7 +8114,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>42878</v>
+        <v>42888</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8097,14 +8132,14 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>10672859.619999999</v>
+      <c r="C3" s="53">
+        <v>29029597.77</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>6.53</v>
+        <v>11.21</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8118,21 +8153,22 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>67927920.010000005</v>
+      <c r="C4" s="54">
+        <v>74422527.400000006</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>8.02</v>
+        <v>11.05</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
-      <c r="I4">
-        <v>67</v>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60">
+        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8142,47 +8178,55 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>11.15</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60">
+        <v>-4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36">
-        <v>25153424.48</v>
+      <c r="C6" s="59">
+        <v>19554286.609999999</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>8.26</v>
+        <v>11.45</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
-      <c r="I6">
-        <v>29</v>
+      <c r="I6" s="60">
+        <v>28</v>
+      </c>
+      <c r="J6" s="60">
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>16041217.449999999</v>
+      <c r="C7" s="56">
+        <v>14955296.359999999</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
+      <c r="I7" s="60">
+        <v>15</v>
+      </c>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
@@ -8195,11 +8239,11 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>15346032</v>
+      <c r="C9" s="59">
+        <v>6268212</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="17">
         <v>-3.0000000000000001E-3</v>
@@ -8208,35 +8252,33 @@
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.403</v>
+        <v>2.4889999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="36">
-        <v>18357632.600000001</v>
+      <c r="C10" s="59">
+        <v>12722925.49</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F10" s="17">
-        <v>-2E-3</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>76730160</v>
-      </c>
+      <c r="C11" s="59"/>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="17">
-        <v>-2E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8246,7 +8288,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8269,56 +8311,56 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="37">
-        <v>-7.1373410000000881</v>
-      </c>
-      <c r="D16" s="38">
-        <v>-22.190000000000055</v>
-      </c>
-      <c r="E16" s="39">
-        <v>-21.970000000000113</v>
+      <c r="C16" s="61">
+        <v>5.0074590000000025</v>
+      </c>
+      <c r="D16" s="62">
+        <v>-8.7400000000002365</v>
+      </c>
+      <c r="E16" s="63">
+        <v>-16.090000000000003</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="37">
-        <v>-0.29430000000027734</v>
-      </c>
-      <c r="D17" s="38">
-        <v>-57.190000000000055</v>
-      </c>
-      <c r="E17" s="39">
-        <v>-59.369999999999749</v>
+      <c r="C17" s="61">
+        <v>16.450499999999721</v>
+      </c>
+      <c r="D17" s="62">
+        <v>-34.940000000000055</v>
+      </c>
+      <c r="E17" s="63">
+        <v>-60.09</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="37">
-        <v>-15.288000000000274</v>
-      </c>
-      <c r="D18" s="38">
-        <v>-43.160000000000061</v>
-      </c>
-      <c r="E18" s="39">
-        <v>-144.77000000000029</v>
+      <c r="C18" s="61">
+        <v>-2.3432000000000013</v>
+      </c>
+      <c r="D18" s="62">
+        <v>-19.310000000000151</v>
+      </c>
+      <c r="E18" s="63">
+        <v>-128.28999999999982</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="37">
-        <v>-36.088000000000001</v>
-      </c>
-      <c r="D19" s="38">
-        <v>-75.359999999999872</v>
-      </c>
-      <c r="E19" s="39">
-        <v>-226.77000000000029</v>
+      <c r="C19" s="61">
+        <v>-18.543200000000276</v>
+      </c>
+      <c r="D19" s="62">
+        <v>-36.310000000000151</v>
+      </c>
+      <c r="E19" s="63">
+        <v>-200.48999999999964</v>
       </c>
     </row>
   </sheetData>
@@ -8401,6 +8443,355 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="53">
+        <v>28867590.68</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11.21</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="54">
+        <v>66367210.890000001</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>11.05</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>11.15</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="55">
+        <v>21674451.940000001</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>11.45</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6" s="60">
+        <v>35</v>
+      </c>
+      <c r="J6" s="60">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="56">
+        <v>17075821.039999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7" s="60">
+        <v>19</v>
+      </c>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="57">
+        <v>7807056</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-1E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.4750000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="58">
+        <v>14932651.300000001</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="59">
+        <v>30247500</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="50">
+        <v>3.1774590000000753</v>
+      </c>
+      <c r="D16" s="51">
+        <v>-10.880000000000109</v>
+      </c>
+      <c r="E16" s="52">
+        <v>-24.590000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="50">
+        <v>16.220500000000158</v>
+      </c>
+      <c r="D17" s="51">
+        <v>-36.2800000000002</v>
+      </c>
+      <c r="E17" s="52">
+        <v>-67.390000000000185</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="50">
+        <v>-0.37319999999974662</v>
+      </c>
+      <c r="D18" s="51">
+        <v>-24.049999999999933</v>
+      </c>
+      <c r="E18" s="52">
+        <v>-132.99000000000055</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="50">
+        <v>-20.17319999999993</v>
+      </c>
+      <c r="D19" s="51">
+        <v>-48.250000000000206</v>
+      </c>
+      <c r="E19" s="52">
+        <v>-207.78999999999982</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -8437,14 +8828,11 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30">
-        <v>19082415.43</v>
+      <c r="C3" s="43">
+        <v>15743713.310000001</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>7.12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="13"/>
       <c r="I3" s="1" t="s">
@@ -8458,21 +8846,21 @@
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>69332135.950000003</v>
+      <c r="C4" s="44">
+        <v>63471370.229999997</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>7.46</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12">
         <v>1706</v>
       </c>
       <c r="I4">
-        <v>107</v>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8481,47 +8869,44 @@
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>7.51</v>
-      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12">
         <v>1707</v>
       </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32">
-        <v>23241421.07</v>
+      <c r="C6" s="45">
+        <v>24598703.920000002</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F6">
-        <v>8.0500000000000007</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12">
         <v>1709</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33">
-        <v>8776367.3200000003</v>
+      <c r="C7" s="46">
+        <v>21814860.350000001</v>
       </c>
       <c r="H7" s="12">
         <v>1712</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
@@ -8535,49 +8920,43 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="34">
-        <v>20676648</v>
+      <c r="C9" s="47">
+        <v>8050872</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-3.0000000000000001E-3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F9" s="17"/>
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="29">
-        <v>2.3730000000000002</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35">
-        <v>11755882.18</v>
+      <c r="C10" s="48">
+        <v>22450395.280000001</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-2E-3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36">
-        <v>103383240</v>
+      <c r="C11" s="49">
+        <v>36020520</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17">
-        <v>-2E-3</v>
-      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -8585,9 +8964,7 @@
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="17">
-        <v>5.0000000000000001E-4</v>
-      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -8609,57 +8986,33 @@
       <c r="B16" s="12">
         <v>1706</v>
       </c>
-      <c r="C16" s="21">
-        <v>-5.49</v>
-      </c>
-      <c r="D16" s="21">
-        <v>-29.04</v>
-      </c>
-      <c r="E16" s="21">
-        <v>-33.299999999999997</v>
-      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>1707</v>
       </c>
-      <c r="C17" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="D17" s="21">
-        <v>-61.24</v>
-      </c>
-      <c r="E17" s="21">
-        <v>-82.9</v>
-      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>1709</v>
       </c>
-      <c r="C18" s="21">
-        <v>-15.44</v>
-      </c>
-      <c r="D18" s="21">
-        <v>-50.01</v>
-      </c>
-      <c r="E18" s="21">
-        <v>-159.9</v>
-      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="12">
         <v>1712</v>
       </c>
-      <c r="C19" s="21">
-        <v>-33.24</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-83.81</v>
-      </c>
-      <c r="E19" s="21">
-        <v>-253.7</v>
-      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8740,7 +9093,1378 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42878</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30">
+        <v>14811361.23</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
+        <v>51965681.979999997</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="36">
+        <v>24905714.850000001</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>8.64</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="33">
+        <v>27085499.949999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="36">
+        <v>16023360</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.3980000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="36">
+        <v>12655613.060000001</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="36">
+        <v>76730160</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="40">
+        <v>-5.9073410000000699</v>
+      </c>
+      <c r="D16" s="41">
+        <v>-22.170000000000073</v>
+      </c>
+      <c r="E16" s="42">
+        <v>-13.340000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="40">
+        <v>4.1357000000000141</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-53.170000000000073</v>
+      </c>
+      <c r="E17" s="42">
+        <v>-53.140000000000185</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="40">
+        <v>-12.058000000000256</v>
+      </c>
+      <c r="D18" s="41">
+        <v>-39.140000000000079</v>
+      </c>
+      <c r="E18" s="42">
+        <v>-132.73999999999964</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="40">
+        <v>-33.658000000000165</v>
+      </c>
+      <c r="D19" s="41">
+        <v>-73.540000000000163</v>
+      </c>
+      <c r="E19" s="42">
+        <v>-213.53999999999982</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42908</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="116">
+        <v>75130933.659999996</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="72">
+        <v>12.65</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="117">
+        <v>38859710.200000003</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="72">
+        <v>12.91</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1707</v>
+      </c>
+      <c r="I4" s="108">
+        <v>4</v>
+      </c>
+      <c r="J4" s="108"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="72">
+        <v>12.96</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1708</v>
+      </c>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="118">
+        <v>20644746.539999999</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="72">
+        <v>13.44</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="119">
+        <v>10927806.529999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7" s="108">
+        <v>43</v>
+      </c>
+      <c r="J7" s="108"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="115">
+        <v>6895248</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-2E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.5089999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="115">
+        <v>7521574.5199999996</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="115"/>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="115"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C16" s="72">
+        <v>15.967000000000001</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-29.56</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-44.19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>1708</v>
+      </c>
+      <c r="C17" s="72">
+        <v>8.9670000000000005</v>
+      </c>
+      <c r="D17">
+        <v>-41.96</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-89.19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="72">
+        <v>9.9730000000000008</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-54.16</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-127.39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="72">
+        <v>-3.427</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-82.96</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-227.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D19 D16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42878</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30">
+        <v>10672859.619999999</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>6.53</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
+        <v>67927920.010000005</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>8.02</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="36">
+        <v>25153424.48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>8.26</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="33">
+        <v>16041217.449999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="36">
+        <v>15346032</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="36">
+        <v>18357632.600000001</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="36">
+        <v>76730160</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="37">
+        <v>-7.1373410000000881</v>
+      </c>
+      <c r="D16" s="38">
+        <v>-22.190000000000055</v>
+      </c>
+      <c r="E16" s="39">
+        <v>-21.970000000000113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="37">
+        <v>-0.29430000000027734</v>
+      </c>
+      <c r="D17" s="38">
+        <v>-57.190000000000055</v>
+      </c>
+      <c r="E17" s="39">
+        <v>-59.369999999999749</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="37">
+        <v>-15.288000000000274</v>
+      </c>
+      <c r="D18" s="38">
+        <v>-43.160000000000061</v>
+      </c>
+      <c r="E18" s="39">
+        <v>-144.77000000000029</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="37">
+        <v>-36.088000000000001</v>
+      </c>
+      <c r="D19" s="38">
+        <v>-75.359999999999872</v>
+      </c>
+      <c r="E19" s="39">
+        <v>-226.77000000000029</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>42878</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30">
+        <v>19082415.43</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7.12</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
+        <v>69332135.950000003</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7.46</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12">
+        <v>1706</v>
+      </c>
+      <c r="I4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7.51</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32">
+        <v>23241421.07</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12">
+        <v>1709</v>
+      </c>
+      <c r="I6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="33">
+        <v>8776367.3200000003</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1712</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="34">
+        <v>20676648</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.3730000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="35">
+        <v>11755882.18</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="36">
+        <v>103383240</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-5.49</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-29.04</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-33.299999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <v>1707</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="D17" s="21">
+        <v>-61.24</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-82.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="21">
+        <v>-15.44</v>
+      </c>
+      <c r="D18" s="21">
+        <v>-50.01</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-159.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C19" s="21">
+        <v>-33.24</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-83.81</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-253.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9:F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -9074,7 +10798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -9410,7 +11134,1457 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>18059150.93</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>7.31</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>67143665.489999995</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>7.48</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>7.41</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>20086561.609999999</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>7.93</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>12253680.199999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>21233148</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>13914482.83</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15">
+        <v>-5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>102617640</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>1705</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1.44</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1.03</v>
+      </c>
+      <c r="E15" s="13">
+        <v>-6.07</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="13">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-7.54</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-7.71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>1709</v>
+      </c>
+      <c r="C17" s="13">
+        <v>-6.25</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-29.51</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-118.31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>1712</v>
+      </c>
+      <c r="C18" s="13">
+        <v>-21.45</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-59.71</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-211.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C15:C18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8639512.1699999999</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>76656292.069999993</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="13">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="13">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>20413541.710000001</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="13">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
+        <v>120